--- a/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
+++ b/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
@@ -6,9 +6,11 @@
   </bookViews>
   <sheets>
     <sheet name="20231203113249 - Dec 03 2023" sheetId="1" r:id="rId1"/>
+    <sheet name="20231204041812 - Dec 04 2023" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20231203113249 - Dec 03 2023'!$A$1:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'20231204041812 - Dec 04 2023'!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -273,8 +275,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -900,6 +903,651 @@
         <v>559</v>
       </c>
       <c r="K19" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId18"/>
+    <hyperlink ref="K3" r:id="rId19"/>
+    <hyperlink ref="K4" r:id="rId20"/>
+    <hyperlink ref="K5" r:id="rId21"/>
+    <hyperlink ref="K6" r:id="rId22"/>
+    <hyperlink ref="K7" r:id="rId23"/>
+    <hyperlink ref="K8" r:id="rId24"/>
+    <hyperlink ref="K9" r:id="rId25"/>
+    <hyperlink ref="K10" r:id="rId26"/>
+    <hyperlink ref="K11" r:id="rId27"/>
+    <hyperlink ref="K12" r:id="rId28"/>
+    <hyperlink ref="K13" r:id="rId29"/>
+    <hyperlink ref="K14" r:id="rId30"/>
+    <hyperlink ref="K15" r:id="rId31"/>
+    <hyperlink ref="K16" r:id="rId32"/>
+    <hyperlink ref="K17" r:id="rId33"/>
+    <hyperlink ref="K18" r:id="rId34"/>
+    <hyperlink ref="K19" r:id="rId35"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70949</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>126968</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4283</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2831</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45069</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1551</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35742</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1172</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32222</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1378</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48208</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1245</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33614</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1195</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>641</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19788</v>
+      </c>
+      <c r="G9" s="0">
+        <v>406</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>747</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28513</v>
+      </c>
+      <c r="G10" s="0">
+        <v>701</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29879</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17777</v>
+      </c>
+      <c r="G12" s="0">
+        <v>470</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>520</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22333</v>
+      </c>
+      <c r="G13" s="0">
+        <v>498</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>581</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>16952</v>
+      </c>
+      <c r="G14" s="0">
+        <v>239</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31478</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1004</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>497</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25061</v>
+      </c>
+      <c r="G16" s="0">
+        <v>778</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>653</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>14695</v>
+      </c>
+      <c r="G17" s="0">
+        <v>366</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>419</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>13918</v>
+      </c>
+      <c r="G18" s="0">
+        <v>383</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>223</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>14673</v>
+      </c>
+      <c r="G19" s="0">
+        <v>310</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>559</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>72</v>
       </c>
     </row>

--- a/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
+++ b/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
@@ -7,10 +7,12 @@
   <sheets>
     <sheet name="20231203113249 - Dec 03 2023" sheetId="1" r:id="rId1"/>
     <sheet name="20231204041812 - Dec 04 2023" sheetId="2" r:id="rId3"/>
+    <sheet name="20231205041806 - Dec 05 2023" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20231203113249 - Dec 03 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'20231204041812 - Dec 04 2023'!$A$1:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20231205041806 - Dec 05 2023'!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -275,8 +277,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
   </cellXfs>
@@ -903,6 +906,651 @@
         <v>559</v>
       </c>
       <c r="K19" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId35"/>
+    <hyperlink ref="K3" r:id="rId36"/>
+    <hyperlink ref="K4" r:id="rId37"/>
+    <hyperlink ref="K5" r:id="rId38"/>
+    <hyperlink ref="K6" r:id="rId39"/>
+    <hyperlink ref="K7" r:id="rId40"/>
+    <hyperlink ref="K8" r:id="rId41"/>
+    <hyperlink ref="K9" r:id="rId42"/>
+    <hyperlink ref="K10" r:id="rId43"/>
+    <hyperlink ref="K11" r:id="rId44"/>
+    <hyperlink ref="K12" r:id="rId45"/>
+    <hyperlink ref="K13" r:id="rId46"/>
+    <hyperlink ref="K14" r:id="rId47"/>
+    <hyperlink ref="K15" r:id="rId48"/>
+    <hyperlink ref="K16" r:id="rId49"/>
+    <hyperlink ref="K17" r:id="rId50"/>
+    <hyperlink ref="K18" r:id="rId51"/>
+    <hyperlink ref="K19" r:id="rId52"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70949</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>126968</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4283</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2831</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45069</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1551</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35742</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1172</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32222</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1378</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48208</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1245</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33614</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1195</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>641</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19788</v>
+      </c>
+      <c r="G9" s="0">
+        <v>406</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>747</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28513</v>
+      </c>
+      <c r="G10" s="0">
+        <v>701</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29879</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17777</v>
+      </c>
+      <c r="G12" s="0">
+        <v>470</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>520</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22333</v>
+      </c>
+      <c r="G13" s="0">
+        <v>498</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>581</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>16952</v>
+      </c>
+      <c r="G14" s="0">
+        <v>239</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31478</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1004</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>497</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25061</v>
+      </c>
+      <c r="G16" s="0">
+        <v>778</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>653</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>14695</v>
+      </c>
+      <c r="G17" s="0">
+        <v>366</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>419</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>13918</v>
+      </c>
+      <c r="G18" s="0">
+        <v>383</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>223</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>14673</v>
+      </c>
+      <c r="G19" s="0">
+        <v>310</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>559</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -932,7 +1580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -992,7 +1640,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70949</v>
+        <v>70952</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -1003,7 +1651,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1024,7 +1672,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126968</v>
+        <v>126982</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -1033,9 +1681,9 @@
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2831</v>
-      </c>
-      <c r="K3" s="2" t="s">
+        <v>2833</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1056,10 +1704,10 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="G4" s="0">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I4" s="0">
         <v>0</v>
@@ -1067,7 +1715,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1088,7 +1736,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35742</v>
+        <v>35743</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -1099,7 +1747,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1120,10 +1768,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32222</v>
+        <v>32220</v>
       </c>
       <c r="G6" s="0">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1131,7 +1779,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1152,10 +1800,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48208</v>
+        <v>48227</v>
       </c>
       <c r="G7" s="0">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1163,7 +1811,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1184,10 +1832,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33614</v>
+        <v>33618</v>
       </c>
       <c r="G8" s="0">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -1195,7 +1843,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1216,7 +1864,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19788</v>
+        <v>19792</v>
       </c>
       <c r="G9" s="0">
         <v>406</v>
@@ -1227,7 +1875,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1248,7 +1896,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28513</v>
+        <v>28515</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -1259,7 +1907,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1280,7 +1928,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29879</v>
+        <v>29882</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -1291,7 +1939,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1312,7 +1960,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17777</v>
+        <v>17783</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -1323,7 +1971,7 @@
       <c r="J12" s="0">
         <v>520</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1344,7 +1992,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22333</v>
+        <v>22364</v>
       </c>
       <c r="G13" s="0">
         <v>498</v>
@@ -1355,7 +2003,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1376,10 +2024,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16952</v>
+        <v>16966</v>
       </c>
       <c r="G14" s="0">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -1387,7 +2035,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1408,7 +2056,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31478</v>
+        <v>31502</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -1419,7 +2067,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1440,10 +2088,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25061</v>
+        <v>25121</v>
       </c>
       <c r="G16" s="0">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -1451,7 +2099,7 @@
       <c r="J16" s="0">
         <v>653</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1472,18 +2120,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14695</v>
+        <v>14744</v>
       </c>
       <c r="G17" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>419</v>
-      </c>
-      <c r="K17" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1504,10 +2152,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13918</v>
+        <v>13943</v>
       </c>
       <c r="G18" s="0">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -1515,7 +2163,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1536,18 +2184,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14673</v>
+        <v>14727</v>
       </c>
       <c r="G19" s="0">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>559</v>
-      </c>
-      <c r="K19" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
+++ b/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
@@ -8,11 +8,13 @@
     <sheet name="20231203113249 - Dec 03 2023" sheetId="1" r:id="rId1"/>
     <sheet name="20231204041812 - Dec 04 2023" sheetId="2" r:id="rId3"/>
     <sheet name="20231205041806 - Dec 05 2023" sheetId="3" r:id="rId4"/>
+    <sheet name="20231206041846 - Dec 06 2023" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20231203113249 - Dec 03 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'20231204041812 - Dec 04 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20231205041806 - Dec 05 2023'!$A$1:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'20231206041846 - Dec 06 2023'!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -277,8 +279,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -906,6 +909,651 @@
         <v>559</v>
       </c>
       <c r="K19" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId52"/>
+    <hyperlink ref="K3" r:id="rId53"/>
+    <hyperlink ref="K4" r:id="rId54"/>
+    <hyperlink ref="K5" r:id="rId55"/>
+    <hyperlink ref="K6" r:id="rId56"/>
+    <hyperlink ref="K7" r:id="rId57"/>
+    <hyperlink ref="K8" r:id="rId58"/>
+    <hyperlink ref="K9" r:id="rId59"/>
+    <hyperlink ref="K10" r:id="rId60"/>
+    <hyperlink ref="K11" r:id="rId61"/>
+    <hyperlink ref="K12" r:id="rId62"/>
+    <hyperlink ref="K13" r:id="rId63"/>
+    <hyperlink ref="K14" r:id="rId64"/>
+    <hyperlink ref="K15" r:id="rId65"/>
+    <hyperlink ref="K16" r:id="rId66"/>
+    <hyperlink ref="K17" r:id="rId67"/>
+    <hyperlink ref="K18" r:id="rId68"/>
+    <hyperlink ref="K19" r:id="rId69"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70949</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>126968</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4283</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2831</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45069</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1551</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35742</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1172</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32222</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1378</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48208</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1245</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33614</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1195</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>641</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19788</v>
+      </c>
+      <c r="G9" s="0">
+        <v>406</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>747</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28513</v>
+      </c>
+      <c r="G10" s="0">
+        <v>701</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29879</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17777</v>
+      </c>
+      <c r="G12" s="0">
+        <v>470</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>520</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22333</v>
+      </c>
+      <c r="G13" s="0">
+        <v>498</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>581</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>16952</v>
+      </c>
+      <c r="G14" s="0">
+        <v>239</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31478</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1004</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>497</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25061</v>
+      </c>
+      <c r="G16" s="0">
+        <v>778</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>653</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>14695</v>
+      </c>
+      <c r="G17" s="0">
+        <v>366</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>419</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>13918</v>
+      </c>
+      <c r="G18" s="0">
+        <v>383</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>223</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>14673</v>
+      </c>
+      <c r="G19" s="0">
+        <v>310</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>559</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -935,7 +1583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -995,7 +1643,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70949</v>
+        <v>70952</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -1006,7 +1654,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1027,7 +1675,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126968</v>
+        <v>126982</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -1036,9 +1684,9 @@
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2831</v>
-      </c>
-      <c r="K3" s="2" t="s">
+        <v>2833</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1059,10 +1707,10 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="G4" s="0">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I4" s="0">
         <v>0</v>
@@ -1070,7 +1718,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1091,7 +1739,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35742</v>
+        <v>35743</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -1102,7 +1750,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1123,10 +1771,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32222</v>
+        <v>32220</v>
       </c>
       <c r="G6" s="0">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1134,7 +1782,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1155,10 +1803,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48208</v>
+        <v>48227</v>
       </c>
       <c r="G7" s="0">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1166,7 +1814,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1187,10 +1835,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33614</v>
+        <v>33618</v>
       </c>
       <c r="G8" s="0">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -1198,7 +1846,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1219,7 +1867,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19788</v>
+        <v>19792</v>
       </c>
       <c r="G9" s="0">
         <v>406</v>
@@ -1230,7 +1878,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1251,7 +1899,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28513</v>
+        <v>28515</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -1262,7 +1910,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1283,7 +1931,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29879</v>
+        <v>29882</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -1294,7 +1942,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1315,7 +1963,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17777</v>
+        <v>17783</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -1326,7 +1974,7 @@
       <c r="J12" s="0">
         <v>520</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1347,7 +1995,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22333</v>
+        <v>22364</v>
       </c>
       <c r="G13" s="0">
         <v>498</v>
@@ -1358,7 +2006,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1379,10 +2027,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16952</v>
+        <v>16966</v>
       </c>
       <c r="G14" s="0">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -1390,7 +2038,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1411,7 +2059,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31478</v>
+        <v>31502</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -1422,7 +2070,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1443,10 +2091,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25061</v>
+        <v>25121</v>
       </c>
       <c r="G16" s="0">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -1454,7 +2102,7 @@
       <c r="J16" s="0">
         <v>653</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1475,18 +2123,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14695</v>
+        <v>14744</v>
       </c>
       <c r="G17" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>419</v>
-      </c>
-      <c r="K17" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1507,10 +2155,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13918</v>
+        <v>13943</v>
       </c>
       <c r="G18" s="0">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -1518,7 +2166,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1539,18 +2187,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14673</v>
+        <v>14727</v>
       </c>
       <c r="G19" s="0">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>559</v>
-      </c>
-      <c r="K19" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1580,7 +2228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -1640,7 +2288,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70952</v>
+        <v>70961</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -1651,7 +2299,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1672,7 +2320,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126982</v>
+        <v>126997</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -1683,7 +2331,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1704,7 +2352,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45070</v>
+        <v>45075</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -1715,7 +2363,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1736,7 +2384,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35743</v>
+        <v>35746</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -1747,7 +2395,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1768,7 +2416,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32220</v>
+        <v>32222</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -1779,7 +2427,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1800,7 +2448,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48227</v>
+        <v>48233</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -1811,7 +2459,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1832,7 +2480,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33618</v>
+        <v>33626</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -1843,7 +2491,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1864,7 +2512,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19792</v>
+        <v>19797</v>
       </c>
       <c r="G9" s="0">
         <v>406</v>
@@ -1875,7 +2523,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1896,7 +2544,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28515</v>
+        <v>28517</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -1907,7 +2555,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1928,7 +2576,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29882</v>
+        <v>29888</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -1939,7 +2587,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1960,7 +2608,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17783</v>
+        <v>17786</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -1969,9 +2617,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>520</v>
-      </c>
-      <c r="K12" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1992,10 +2640,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22364</v>
+        <v>22381</v>
       </c>
       <c r="G13" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -2003,7 +2651,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2024,7 +2672,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16966</v>
+        <v>16976</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -2035,7 +2683,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2056,7 +2704,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31502</v>
+        <v>31517</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -2067,7 +2715,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2088,10 +2736,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25121</v>
+        <v>25168</v>
       </c>
       <c r="G16" s="0">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -2099,7 +2747,7 @@
       <c r="J16" s="0">
         <v>653</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2120,10 +2768,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14744</v>
+        <v>14774</v>
       </c>
       <c r="G17" s="0">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -2131,7 +2779,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2152,7 +2800,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13943</v>
+        <v>13959</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -2163,7 +2811,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2184,18 +2832,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14727</v>
+        <v>14768</v>
       </c>
       <c r="G19" s="0">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>72</v>
       </c>
     </row>

--- a/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
+++ b/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
@@ -9,12 +9,14 @@
     <sheet name="20231204041812 - Dec 04 2023" sheetId="2" r:id="rId3"/>
     <sheet name="20231205041806 - Dec 05 2023" sheetId="3" r:id="rId4"/>
     <sheet name="20231206041846 - Dec 06 2023" sheetId="4" r:id="rId5"/>
+    <sheet name="20231207041837 - Dec 07 2023" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20231203113249 - Dec 03 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'20231204041812 - Dec 04 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20231205041806 - Dec 05 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'20231206041846 - Dec 06 2023'!$A$1:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20231207041837 - Dec 07 2023'!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -279,8 +281,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -909,6 +912,651 @@
         <v>559</v>
       </c>
       <c r="K19" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId69"/>
+    <hyperlink ref="K3" r:id="rId70"/>
+    <hyperlink ref="K4" r:id="rId71"/>
+    <hyperlink ref="K5" r:id="rId72"/>
+    <hyperlink ref="K6" r:id="rId73"/>
+    <hyperlink ref="K7" r:id="rId74"/>
+    <hyperlink ref="K8" r:id="rId75"/>
+    <hyperlink ref="K9" r:id="rId76"/>
+    <hyperlink ref="K10" r:id="rId77"/>
+    <hyperlink ref="K11" r:id="rId78"/>
+    <hyperlink ref="K12" r:id="rId79"/>
+    <hyperlink ref="K13" r:id="rId80"/>
+    <hyperlink ref="K14" r:id="rId81"/>
+    <hyperlink ref="K15" r:id="rId82"/>
+    <hyperlink ref="K16" r:id="rId83"/>
+    <hyperlink ref="K17" r:id="rId84"/>
+    <hyperlink ref="K18" r:id="rId85"/>
+    <hyperlink ref="K19" r:id="rId86"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70949</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>126968</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4283</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2831</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45069</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1551</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35742</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1172</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32222</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1378</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48208</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1245</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33614</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1195</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>641</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19788</v>
+      </c>
+      <c r="G9" s="0">
+        <v>406</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>747</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28513</v>
+      </c>
+      <c r="G10" s="0">
+        <v>701</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29879</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17777</v>
+      </c>
+      <c r="G12" s="0">
+        <v>470</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>520</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22333</v>
+      </c>
+      <c r="G13" s="0">
+        <v>498</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>581</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>16952</v>
+      </c>
+      <c r="G14" s="0">
+        <v>239</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31478</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1004</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>497</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25061</v>
+      </c>
+      <c r="G16" s="0">
+        <v>778</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>653</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>14695</v>
+      </c>
+      <c r="G17" s="0">
+        <v>366</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>419</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>13918</v>
+      </c>
+      <c r="G18" s="0">
+        <v>383</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>223</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>14673</v>
+      </c>
+      <c r="G19" s="0">
+        <v>310</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>559</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -938,7 +1586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -998,7 +1646,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70949</v>
+        <v>70952</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -1009,7 +1657,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1030,7 +1678,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126968</v>
+        <v>126982</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -1039,9 +1687,9 @@
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2831</v>
-      </c>
-      <c r="K3" s="2" t="s">
+        <v>2833</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1062,10 +1710,10 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="G4" s="0">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I4" s="0">
         <v>0</v>
@@ -1073,7 +1721,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1094,7 +1742,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35742</v>
+        <v>35743</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -1105,7 +1753,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1126,10 +1774,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32222</v>
+        <v>32220</v>
       </c>
       <c r="G6" s="0">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1137,7 +1785,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1158,10 +1806,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48208</v>
+        <v>48227</v>
       </c>
       <c r="G7" s="0">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1169,7 +1817,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1190,10 +1838,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33614</v>
+        <v>33618</v>
       </c>
       <c r="G8" s="0">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -1201,7 +1849,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1222,7 +1870,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19788</v>
+        <v>19792</v>
       </c>
       <c r="G9" s="0">
         <v>406</v>
@@ -1233,7 +1881,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1254,7 +1902,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28513</v>
+        <v>28515</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -1265,7 +1913,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1286,7 +1934,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29879</v>
+        <v>29882</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -1297,7 +1945,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1318,7 +1966,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17777</v>
+        <v>17783</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -1329,7 +1977,7 @@
       <c r="J12" s="0">
         <v>520</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1350,7 +1998,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22333</v>
+        <v>22364</v>
       </c>
       <c r="G13" s="0">
         <v>498</v>
@@ -1361,7 +2009,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1382,10 +2030,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16952</v>
+        <v>16966</v>
       </c>
       <c r="G14" s="0">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -1393,7 +2041,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1414,7 +2062,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31478</v>
+        <v>31502</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -1425,7 +2073,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1446,10 +2094,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25061</v>
+        <v>25121</v>
       </c>
       <c r="G16" s="0">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -1457,7 +2105,7 @@
       <c r="J16" s="0">
         <v>653</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1478,18 +2126,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14695</v>
+        <v>14744</v>
       </c>
       <c r="G17" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>419</v>
-      </c>
-      <c r="K17" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1510,10 +2158,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13918</v>
+        <v>13943</v>
       </c>
       <c r="G18" s="0">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -1521,7 +2169,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1542,18 +2190,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14673</v>
+        <v>14727</v>
       </c>
       <c r="G19" s="0">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>559</v>
-      </c>
-      <c r="K19" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1583,7 +2231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -1643,7 +2291,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70952</v>
+        <v>70961</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -1654,7 +2302,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1675,7 +2323,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126982</v>
+        <v>126997</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -1686,7 +2334,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1707,7 +2355,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45070</v>
+        <v>45075</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -1718,7 +2366,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1739,7 +2387,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35743</v>
+        <v>35746</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -1750,7 +2398,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1771,7 +2419,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32220</v>
+        <v>32222</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -1782,7 +2430,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1803,7 +2451,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48227</v>
+        <v>48233</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -1814,7 +2462,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1835,7 +2483,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33618</v>
+        <v>33626</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -1846,7 +2494,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1867,7 +2515,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19792</v>
+        <v>19797</v>
       </c>
       <c r="G9" s="0">
         <v>406</v>
@@ -1878,7 +2526,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1899,7 +2547,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28515</v>
+        <v>28517</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -1910,7 +2558,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1931,7 +2579,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29882</v>
+        <v>29888</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -1942,7 +2590,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1963,7 +2611,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17783</v>
+        <v>17786</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -1972,9 +2620,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>520</v>
-      </c>
-      <c r="K12" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1995,10 +2643,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22364</v>
+        <v>22381</v>
       </c>
       <c r="G13" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -2006,7 +2654,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2027,7 +2675,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16966</v>
+        <v>16976</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -2038,7 +2686,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2059,7 +2707,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31502</v>
+        <v>31517</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -2070,7 +2718,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2091,10 +2739,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25121</v>
+        <v>25168</v>
       </c>
       <c r="G16" s="0">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -2102,7 +2750,7 @@
       <c r="J16" s="0">
         <v>653</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2123,10 +2771,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14744</v>
+        <v>14774</v>
       </c>
       <c r="G17" s="0">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -2134,7 +2782,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2155,7 +2803,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13943</v>
+        <v>13959</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -2166,7 +2814,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2187,18 +2835,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14727</v>
+        <v>14768</v>
       </c>
       <c r="G19" s="0">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2228,7 +2876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2288,7 +2936,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70961</v>
+        <v>70965</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2299,7 +2947,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2320,7 +2968,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126997</v>
+        <v>127005</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -2331,7 +2979,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2352,7 +3000,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -2363,7 +3011,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2384,10 +3032,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35746</v>
+        <v>35751</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -2395,7 +3043,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2416,10 +3064,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32222</v>
+        <v>32227</v>
       </c>
       <c r="G6" s="0">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -2427,7 +3075,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2448,7 +3096,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48233</v>
+        <v>48240</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -2459,7 +3107,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2480,7 +3128,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33626</v>
+        <v>33629</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -2491,7 +3139,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2512,10 +3160,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19797</v>
+        <v>19798</v>
       </c>
       <c r="G9" s="0">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -2523,7 +3171,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2544,7 +3192,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28517</v>
+        <v>28521</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -2555,7 +3203,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2576,7 +3224,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29888</v>
+        <v>29895</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -2587,7 +3235,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2608,7 +3256,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17786</v>
+        <v>17794</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -2619,7 +3267,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2640,7 +3288,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22381</v>
+        <v>22397</v>
       </c>
       <c r="G13" s="0">
         <v>500</v>
@@ -2651,7 +3299,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2672,7 +3320,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16976</v>
+        <v>16984</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -2683,7 +3331,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2704,7 +3352,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31517</v>
+        <v>31533</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -2715,7 +3363,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2736,7 +3384,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25168</v>
+        <v>25214</v>
       </c>
       <c r="G16" s="0">
         <v>781</v>
@@ -2745,9 +3393,9 @@
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>653</v>
-      </c>
-      <c r="K16" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2768,10 +3416,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14774</v>
+        <v>14825</v>
       </c>
       <c r="G17" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -2779,7 +3427,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2800,7 +3448,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13959</v>
+        <v>13991</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -2811,7 +3459,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2832,10 +3480,10 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14768</v>
+        <v>14813</v>
       </c>
       <c r="G19" s="0">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -2843,7 +3491,7 @@
       <c r="J19" s="0">
         <v>559</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="5" t="s">
         <v>72</v>
       </c>
     </row>

--- a/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
+++ b/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
@@ -10,6 +10,7 @@
     <sheet name="20231205041806 - Dec 05 2023" sheetId="3" r:id="rId4"/>
     <sheet name="20231206041846 - Dec 06 2023" sheetId="4" r:id="rId5"/>
     <sheet name="20231207041837 - Dec 07 2023" sheetId="5" r:id="rId6"/>
+    <sheet name="20231208041823 - Dec 08 2023" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20231203113249 - Dec 03 2023'!$A$1:$K$19</definedName>
@@ -17,6 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20231205041806 - Dec 05 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'20231206041846 - Dec 06 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20231207041837 - Dec 07 2023'!$A$1:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'20231208041823 - Dec 08 2023'!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -281,8 +283,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -912,6 +915,651 @@
         <v>559</v>
       </c>
       <c r="K19" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId86"/>
+    <hyperlink ref="K3" r:id="rId87"/>
+    <hyperlink ref="K4" r:id="rId88"/>
+    <hyperlink ref="K5" r:id="rId89"/>
+    <hyperlink ref="K6" r:id="rId90"/>
+    <hyperlink ref="K7" r:id="rId91"/>
+    <hyperlink ref="K8" r:id="rId92"/>
+    <hyperlink ref="K9" r:id="rId93"/>
+    <hyperlink ref="K10" r:id="rId94"/>
+    <hyperlink ref="K11" r:id="rId95"/>
+    <hyperlink ref="K12" r:id="rId96"/>
+    <hyperlink ref="K13" r:id="rId97"/>
+    <hyperlink ref="K14" r:id="rId98"/>
+    <hyperlink ref="K15" r:id="rId99"/>
+    <hyperlink ref="K16" r:id="rId100"/>
+    <hyperlink ref="K17" r:id="rId101"/>
+    <hyperlink ref="K18" r:id="rId102"/>
+    <hyperlink ref="K19" r:id="rId103"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70949</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>126968</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4283</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2831</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45069</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1551</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35742</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1172</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32222</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1378</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48208</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1245</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33614</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1195</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>641</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19788</v>
+      </c>
+      <c r="G9" s="0">
+        <v>406</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>747</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28513</v>
+      </c>
+      <c r="G10" s="0">
+        <v>701</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29879</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17777</v>
+      </c>
+      <c r="G12" s="0">
+        <v>470</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>520</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22333</v>
+      </c>
+      <c r="G13" s="0">
+        <v>498</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>581</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>16952</v>
+      </c>
+      <c r="G14" s="0">
+        <v>239</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31478</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1004</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>497</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25061</v>
+      </c>
+      <c r="G16" s="0">
+        <v>778</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>653</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>14695</v>
+      </c>
+      <c r="G17" s="0">
+        <v>366</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>419</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>13918</v>
+      </c>
+      <c r="G18" s="0">
+        <v>383</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>223</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>14673</v>
+      </c>
+      <c r="G19" s="0">
+        <v>310</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>559</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -941,7 +1589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -1001,7 +1649,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70949</v>
+        <v>70952</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -1012,7 +1660,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1033,7 +1681,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126968</v>
+        <v>126982</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -1042,9 +1690,9 @@
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2831</v>
-      </c>
-      <c r="K3" s="2" t="s">
+        <v>2833</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1065,10 +1713,10 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="G4" s="0">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I4" s="0">
         <v>0</v>
@@ -1076,7 +1724,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1097,7 +1745,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35742</v>
+        <v>35743</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -1108,7 +1756,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1129,10 +1777,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32222</v>
+        <v>32220</v>
       </c>
       <c r="G6" s="0">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1140,7 +1788,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1161,10 +1809,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48208</v>
+        <v>48227</v>
       </c>
       <c r="G7" s="0">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1172,7 +1820,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1193,10 +1841,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33614</v>
+        <v>33618</v>
       </c>
       <c r="G8" s="0">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -1204,7 +1852,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1225,7 +1873,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19788</v>
+        <v>19792</v>
       </c>
       <c r="G9" s="0">
         <v>406</v>
@@ -1236,7 +1884,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1257,7 +1905,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28513</v>
+        <v>28515</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -1268,7 +1916,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1289,7 +1937,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29879</v>
+        <v>29882</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -1300,7 +1948,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1321,7 +1969,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17777</v>
+        <v>17783</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -1332,7 +1980,7 @@
       <c r="J12" s="0">
         <v>520</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1353,7 +2001,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22333</v>
+        <v>22364</v>
       </c>
       <c r="G13" s="0">
         <v>498</v>
@@ -1364,7 +2012,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1385,10 +2033,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16952</v>
+        <v>16966</v>
       </c>
       <c r="G14" s="0">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -1396,7 +2044,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1417,7 +2065,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31478</v>
+        <v>31502</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -1428,7 +2076,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1449,10 +2097,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25061</v>
+        <v>25121</v>
       </c>
       <c r="G16" s="0">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -1460,7 +2108,7 @@
       <c r="J16" s="0">
         <v>653</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1481,18 +2129,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14695</v>
+        <v>14744</v>
       </c>
       <c r="G17" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>419</v>
-      </c>
-      <c r="K17" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1513,10 +2161,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13918</v>
+        <v>13943</v>
       </c>
       <c r="G18" s="0">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -1524,7 +2172,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1545,18 +2193,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14673</v>
+        <v>14727</v>
       </c>
       <c r="G19" s="0">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>559</v>
-      </c>
-      <c r="K19" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1586,7 +2234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -1646,7 +2294,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70952</v>
+        <v>70961</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -1657,7 +2305,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1678,7 +2326,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126982</v>
+        <v>126997</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -1689,7 +2337,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1710,7 +2358,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45070</v>
+        <v>45075</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -1721,7 +2369,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1742,7 +2390,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35743</v>
+        <v>35746</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -1753,7 +2401,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1774,7 +2422,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32220</v>
+        <v>32222</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -1785,7 +2433,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1806,7 +2454,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48227</v>
+        <v>48233</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -1817,7 +2465,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1838,7 +2486,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33618</v>
+        <v>33626</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -1849,7 +2497,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1870,7 +2518,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19792</v>
+        <v>19797</v>
       </c>
       <c r="G9" s="0">
         <v>406</v>
@@ -1881,7 +2529,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1902,7 +2550,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28515</v>
+        <v>28517</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -1913,7 +2561,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1934,7 +2582,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29882</v>
+        <v>29888</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -1945,7 +2593,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1966,7 +2614,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17783</v>
+        <v>17786</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -1975,9 +2623,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>520</v>
-      </c>
-      <c r="K12" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1998,10 +2646,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22364</v>
+        <v>22381</v>
       </c>
       <c r="G13" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -2009,7 +2657,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2030,7 +2678,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16966</v>
+        <v>16976</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -2041,7 +2689,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2062,7 +2710,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31502</v>
+        <v>31517</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -2073,7 +2721,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2094,10 +2742,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25121</v>
+        <v>25168</v>
       </c>
       <c r="G16" s="0">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -2105,7 +2753,7 @@
       <c r="J16" s="0">
         <v>653</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2126,10 +2774,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14744</v>
+        <v>14774</v>
       </c>
       <c r="G17" s="0">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -2137,7 +2785,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2158,7 +2806,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13943</v>
+        <v>13959</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -2169,7 +2817,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2190,18 +2838,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14727</v>
+        <v>14768</v>
       </c>
       <c r="G19" s="0">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2231,7 +2879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2291,7 +2939,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70961</v>
+        <v>70965</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2302,7 +2950,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2323,7 +2971,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126997</v>
+        <v>127005</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -2334,7 +2982,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2355,7 +3003,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -2366,7 +3014,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2387,10 +3035,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35746</v>
+        <v>35751</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -2398,7 +3046,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2419,10 +3067,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32222</v>
+        <v>32227</v>
       </c>
       <c r="G6" s="0">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -2430,7 +3078,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2451,7 +3099,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48233</v>
+        <v>48240</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -2462,7 +3110,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2483,7 +3131,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33626</v>
+        <v>33629</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -2494,7 +3142,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2515,10 +3163,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19797</v>
+        <v>19798</v>
       </c>
       <c r="G9" s="0">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -2526,7 +3174,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2547,7 +3195,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28517</v>
+        <v>28521</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -2558,7 +3206,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2579,7 +3227,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29888</v>
+        <v>29895</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -2590,7 +3238,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2611,7 +3259,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17786</v>
+        <v>17794</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -2622,7 +3270,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2643,7 +3291,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22381</v>
+        <v>22397</v>
       </c>
       <c r="G13" s="0">
         <v>500</v>
@@ -2654,7 +3302,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2675,7 +3323,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16976</v>
+        <v>16984</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -2686,7 +3334,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2707,7 +3355,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31517</v>
+        <v>31533</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -2718,7 +3366,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2739,7 +3387,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25168</v>
+        <v>25214</v>
       </c>
       <c r="G16" s="0">
         <v>781</v>
@@ -2748,9 +3396,9 @@
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>653</v>
-      </c>
-      <c r="K16" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2771,10 +3419,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14774</v>
+        <v>14825</v>
       </c>
       <c r="G17" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -2782,7 +3430,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2803,7 +3451,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13959</v>
+        <v>13991</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -2814,7 +3462,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2835,10 +3483,10 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14768</v>
+        <v>14813</v>
       </c>
       <c r="G19" s="0">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -2846,7 +3494,7 @@
       <c r="J19" s="0">
         <v>559</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2876,7 +3524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2936,7 +3584,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70965</v>
+        <v>70964</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2947,7 +3595,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2968,18 +3616,18 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127005</v>
+        <v>127014</v>
       </c>
       <c r="G3" s="0">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2833</v>
-      </c>
-      <c r="K3" s="5" t="s">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3000,7 +3648,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45076</v>
+        <v>45079</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -3011,7 +3659,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3032,7 +3680,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35751</v>
+        <v>35753</v>
       </c>
       <c r="G5" s="0">
         <v>1173</v>
@@ -3043,7 +3691,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3064,7 +3712,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32227</v>
+        <v>32230</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -3075,7 +3723,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3096,7 +3744,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48240</v>
+        <v>48248</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -3107,7 +3755,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3128,18 +3776,18 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33629</v>
+        <v>33636</v>
       </c>
       <c r="G8" s="0">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>641</v>
-      </c>
-      <c r="K8" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3160,7 +3808,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19798</v>
+        <v>19799</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -3169,9 +3817,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>747</v>
-      </c>
-      <c r="K9" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3192,7 +3840,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28521</v>
+        <v>28526</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -3203,7 +3851,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3224,7 +3872,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29895</v>
+        <v>29899</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3235,7 +3883,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3256,7 +3904,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17794</v>
+        <v>17802</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3267,7 +3915,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3288,10 +3936,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22397</v>
+        <v>22422</v>
       </c>
       <c r="G13" s="0">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -3299,7 +3947,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3320,7 +3968,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16984</v>
+        <v>16989</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -3331,7 +3979,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3352,7 +4000,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31533</v>
+        <v>31541</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -3361,9 +4009,9 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>497</v>
-      </c>
-      <c r="K15" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3384,18 +4032,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25214</v>
+        <v>25265</v>
       </c>
       <c r="G16" s="0">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3416,10 +4064,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14825</v>
+        <v>14874</v>
       </c>
       <c r="G17" s="0">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -3427,7 +4075,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3448,10 +4096,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13991</v>
+        <v>14006</v>
       </c>
       <c r="G18" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -3459,7 +4107,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3480,7 +4128,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14813</v>
+        <v>14863</v>
       </c>
       <c r="G19" s="0">
         <v>313</v>
@@ -3489,9 +4137,9 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>559</v>
-      </c>
-      <c r="K19" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>72</v>
       </c>
     </row>

--- a/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
+++ b/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
@@ -11,6 +11,7 @@
     <sheet name="20231206041846 - Dec 06 2023" sheetId="4" r:id="rId5"/>
     <sheet name="20231207041837 - Dec 07 2023" sheetId="5" r:id="rId6"/>
     <sheet name="20231208041823 - Dec 08 2023" sheetId="6" r:id="rId7"/>
+    <sheet name="20231209041748 - Dec 09 2023" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20231203113249 - Dec 03 2023'!$A$1:$K$19</definedName>
@@ -19,6 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'20231206041846 - Dec 06 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20231207041837 - Dec 07 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'20231208041823 - Dec 08 2023'!$A$1:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'20231209041748 - Dec 09 2023'!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -283,8 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -915,6 +918,651 @@
         <v>559</v>
       </c>
       <c r="K19" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId103"/>
+    <hyperlink ref="K3" r:id="rId104"/>
+    <hyperlink ref="K4" r:id="rId105"/>
+    <hyperlink ref="K5" r:id="rId106"/>
+    <hyperlink ref="K6" r:id="rId107"/>
+    <hyperlink ref="K7" r:id="rId108"/>
+    <hyperlink ref="K8" r:id="rId109"/>
+    <hyperlink ref="K9" r:id="rId110"/>
+    <hyperlink ref="K10" r:id="rId111"/>
+    <hyperlink ref="K11" r:id="rId112"/>
+    <hyperlink ref="K12" r:id="rId113"/>
+    <hyperlink ref="K13" r:id="rId114"/>
+    <hyperlink ref="K14" r:id="rId115"/>
+    <hyperlink ref="K15" r:id="rId116"/>
+    <hyperlink ref="K16" r:id="rId117"/>
+    <hyperlink ref="K17" r:id="rId118"/>
+    <hyperlink ref="K18" r:id="rId119"/>
+    <hyperlink ref="K19" r:id="rId120"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70949</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>126968</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4283</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2831</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45069</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1551</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35742</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1172</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32222</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1378</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48208</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1245</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33614</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1195</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>641</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19788</v>
+      </c>
+      <c r="G9" s="0">
+        <v>406</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>747</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28513</v>
+      </c>
+      <c r="G10" s="0">
+        <v>701</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29879</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17777</v>
+      </c>
+      <c r="G12" s="0">
+        <v>470</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>520</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22333</v>
+      </c>
+      <c r="G13" s="0">
+        <v>498</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>581</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>16952</v>
+      </c>
+      <c r="G14" s="0">
+        <v>239</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31478</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1004</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>497</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25061</v>
+      </c>
+      <c r="G16" s="0">
+        <v>778</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>653</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>14695</v>
+      </c>
+      <c r="G17" s="0">
+        <v>366</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>419</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>13918</v>
+      </c>
+      <c r="G18" s="0">
+        <v>383</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>223</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>14673</v>
+      </c>
+      <c r="G19" s="0">
+        <v>310</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>559</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -944,7 +1592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -1004,7 +1652,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70949</v>
+        <v>70952</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -1015,7 +1663,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1036,7 +1684,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126968</v>
+        <v>126982</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -1045,9 +1693,9 @@
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2831</v>
-      </c>
-      <c r="K3" s="2" t="s">
+        <v>2833</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1068,10 +1716,10 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="G4" s="0">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I4" s="0">
         <v>0</v>
@@ -1079,7 +1727,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1100,7 +1748,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35742</v>
+        <v>35743</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -1111,7 +1759,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1132,10 +1780,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32222</v>
+        <v>32220</v>
       </c>
       <c r="G6" s="0">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1143,7 +1791,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1164,10 +1812,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48208</v>
+        <v>48227</v>
       </c>
       <c r="G7" s="0">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1175,7 +1823,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1196,10 +1844,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33614</v>
+        <v>33618</v>
       </c>
       <c r="G8" s="0">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -1207,7 +1855,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1228,7 +1876,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19788</v>
+        <v>19792</v>
       </c>
       <c r="G9" s="0">
         <v>406</v>
@@ -1239,7 +1887,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1260,7 +1908,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28513</v>
+        <v>28515</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -1271,7 +1919,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1292,7 +1940,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29879</v>
+        <v>29882</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -1303,7 +1951,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1324,7 +1972,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17777</v>
+        <v>17783</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -1335,7 +1983,7 @@
       <c r="J12" s="0">
         <v>520</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1356,7 +2004,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22333</v>
+        <v>22364</v>
       </c>
       <c r="G13" s="0">
         <v>498</v>
@@ -1367,7 +2015,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1388,10 +2036,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16952</v>
+        <v>16966</v>
       </c>
       <c r="G14" s="0">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -1399,7 +2047,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1420,7 +2068,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31478</v>
+        <v>31502</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -1431,7 +2079,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1452,10 +2100,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25061</v>
+        <v>25121</v>
       </c>
       <c r="G16" s="0">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -1463,7 +2111,7 @@
       <c r="J16" s="0">
         <v>653</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1484,18 +2132,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14695</v>
+        <v>14744</v>
       </c>
       <c r="G17" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>419</v>
-      </c>
-      <c r="K17" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1516,10 +2164,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13918</v>
+        <v>13943</v>
       </c>
       <c r="G18" s="0">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -1527,7 +2175,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1548,18 +2196,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14673</v>
+        <v>14727</v>
       </c>
       <c r="G19" s="0">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>559</v>
-      </c>
-      <c r="K19" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1589,7 +2237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -1649,7 +2297,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70952</v>
+        <v>70961</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -1660,7 +2308,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1681,7 +2329,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126982</v>
+        <v>126997</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -1692,7 +2340,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1713,7 +2361,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45070</v>
+        <v>45075</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -1724,7 +2372,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1745,7 +2393,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35743</v>
+        <v>35746</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -1756,7 +2404,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1777,7 +2425,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32220</v>
+        <v>32222</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -1788,7 +2436,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1809,7 +2457,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48227</v>
+        <v>48233</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -1820,7 +2468,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1841,7 +2489,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33618</v>
+        <v>33626</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -1852,7 +2500,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1873,7 +2521,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19792</v>
+        <v>19797</v>
       </c>
       <c r="G9" s="0">
         <v>406</v>
@@ -1884,7 +2532,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1905,7 +2553,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28515</v>
+        <v>28517</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -1916,7 +2564,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1937,7 +2585,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29882</v>
+        <v>29888</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -1948,7 +2596,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1969,7 +2617,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17783</v>
+        <v>17786</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -1978,9 +2626,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>520</v>
-      </c>
-      <c r="K12" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2001,10 +2649,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22364</v>
+        <v>22381</v>
       </c>
       <c r="G13" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -2012,7 +2660,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2033,7 +2681,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16966</v>
+        <v>16976</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -2044,7 +2692,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2065,7 +2713,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31502</v>
+        <v>31517</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -2076,7 +2724,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2097,10 +2745,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25121</v>
+        <v>25168</v>
       </c>
       <c r="G16" s="0">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -2108,7 +2756,7 @@
       <c r="J16" s="0">
         <v>653</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2129,10 +2777,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14744</v>
+        <v>14774</v>
       </c>
       <c r="G17" s="0">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -2140,7 +2788,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2161,7 +2809,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13943</v>
+        <v>13959</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -2172,7 +2820,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2193,18 +2841,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14727</v>
+        <v>14768</v>
       </c>
       <c r="G19" s="0">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2234,7 +2882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2294,7 +2942,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70961</v>
+        <v>70965</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2305,7 +2953,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2326,7 +2974,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126997</v>
+        <v>127005</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -2337,7 +2985,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2358,7 +3006,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -2369,7 +3017,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2390,10 +3038,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35746</v>
+        <v>35751</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -2401,7 +3049,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2422,10 +3070,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32222</v>
+        <v>32227</v>
       </c>
       <c r="G6" s="0">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -2433,7 +3081,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2454,7 +3102,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48233</v>
+        <v>48240</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -2465,7 +3113,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2486,7 +3134,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33626</v>
+        <v>33629</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -2497,7 +3145,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2518,10 +3166,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19797</v>
+        <v>19798</v>
       </c>
       <c r="G9" s="0">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -2529,7 +3177,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2550,7 +3198,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28517</v>
+        <v>28521</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -2561,7 +3209,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2582,7 +3230,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29888</v>
+        <v>29895</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -2593,7 +3241,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2614,7 +3262,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17786</v>
+        <v>17794</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -2625,7 +3273,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2646,7 +3294,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22381</v>
+        <v>22397</v>
       </c>
       <c r="G13" s="0">
         <v>500</v>
@@ -2657,7 +3305,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2678,7 +3326,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16976</v>
+        <v>16984</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -2689,7 +3337,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2710,7 +3358,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31517</v>
+        <v>31533</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -2721,7 +3369,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2742,7 +3390,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25168</v>
+        <v>25214</v>
       </c>
       <c r="G16" s="0">
         <v>781</v>
@@ -2751,9 +3399,9 @@
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>653</v>
-      </c>
-      <c r="K16" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2774,10 +3422,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14774</v>
+        <v>14825</v>
       </c>
       <c r="G17" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -2785,7 +3433,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2806,7 +3454,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13959</v>
+        <v>13991</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -2817,7 +3465,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2838,10 +3486,10 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14768</v>
+        <v>14813</v>
       </c>
       <c r="G19" s="0">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -2849,7 +3497,7 @@
       <c r="J19" s="0">
         <v>559</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2879,7 +3527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2939,7 +3587,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70965</v>
+        <v>70964</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2950,7 +3598,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2971,18 +3619,18 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127005</v>
+        <v>127014</v>
       </c>
       <c r="G3" s="0">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2833</v>
-      </c>
-      <c r="K3" s="5" t="s">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3003,7 +3651,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45076</v>
+        <v>45079</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -3014,7 +3662,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3035,7 +3683,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35751</v>
+        <v>35753</v>
       </c>
       <c r="G5" s="0">
         <v>1173</v>
@@ -3046,7 +3694,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3067,7 +3715,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32227</v>
+        <v>32230</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -3078,7 +3726,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3099,7 +3747,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48240</v>
+        <v>48248</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -3110,7 +3758,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3131,18 +3779,18 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33629</v>
+        <v>33636</v>
       </c>
       <c r="G8" s="0">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>641</v>
-      </c>
-      <c r="K8" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3163,7 +3811,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19798</v>
+        <v>19799</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -3172,9 +3820,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>747</v>
-      </c>
-      <c r="K9" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3195,7 +3843,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28521</v>
+        <v>28526</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -3206,7 +3854,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3227,7 +3875,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29895</v>
+        <v>29899</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3238,7 +3886,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3259,7 +3907,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17794</v>
+        <v>17802</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3270,7 +3918,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3291,10 +3939,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22397</v>
+        <v>22422</v>
       </c>
       <c r="G13" s="0">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -3302,7 +3950,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3323,7 +3971,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16984</v>
+        <v>16989</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -3334,7 +3982,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3355,7 +4003,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31533</v>
+        <v>31541</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -3364,9 +4012,9 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>497</v>
-      </c>
-      <c r="K15" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3387,18 +4035,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25214</v>
+        <v>25265</v>
       </c>
       <c r="G16" s="0">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3419,10 +4067,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14825</v>
+        <v>14874</v>
       </c>
       <c r="G17" s="0">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -3430,7 +4078,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3451,10 +4099,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13991</v>
+        <v>14006</v>
       </c>
       <c r="G18" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -3462,7 +4110,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3483,7 +4131,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14813</v>
+        <v>14863</v>
       </c>
       <c r="G19" s="0">
         <v>313</v>
@@ -3492,9 +4140,9 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>559</v>
-      </c>
-      <c r="K19" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3524,7 +4172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -3584,7 +4232,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70964</v>
+        <v>70969</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -3595,7 +4243,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3616,10 +4264,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127014</v>
+        <v>127035</v>
       </c>
       <c r="G3" s="0">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -3627,7 +4275,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3648,7 +4296,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -3659,7 +4307,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3683,7 +4331,7 @@
         <v>35753</v>
       </c>
       <c r="G5" s="0">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -3691,7 +4339,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3712,7 +4360,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32230</v>
+        <v>32243</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -3723,7 +4371,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3744,7 +4392,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48248</v>
+        <v>48258</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -3755,7 +4403,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3776,7 +4424,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33636</v>
+        <v>33642</v>
       </c>
       <c r="G8" s="0">
         <v>1195</v>
@@ -3787,7 +4435,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3808,7 +4456,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19799</v>
+        <v>19800</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -3819,7 +4467,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3840,7 +4488,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28526</v>
+        <v>28530</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -3851,7 +4499,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3872,7 +4520,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29899</v>
+        <v>29904</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3883,7 +4531,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3904,7 +4552,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17802</v>
+        <v>17808</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3915,7 +4563,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3936,7 +4584,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22422</v>
+        <v>22454</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -3945,9 +4593,9 @@
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>581</v>
-      </c>
-      <c r="K13" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3968,7 +4616,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16989</v>
+        <v>16999</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -3979,7 +4627,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4000,10 +4648,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31541</v>
+        <v>31562</v>
       </c>
       <c r="G15" s="0">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -4011,7 +4659,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4032,18 +4680,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25265</v>
+        <v>25314</v>
       </c>
       <c r="G16" s="0">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>651</v>
-      </c>
-      <c r="K16" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4064,18 +4712,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14874</v>
+        <v>14929</v>
       </c>
       <c r="G17" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>420</v>
-      </c>
-      <c r="K17" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4096,7 +4744,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14006</v>
+        <v>14025</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -4107,7 +4755,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4128,18 +4776,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14863</v>
+        <v>14915</v>
       </c>
       <c r="G19" s="0">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>72</v>
       </c>
     </row>

--- a/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
+++ b/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
@@ -12,6 +12,7 @@
     <sheet name="20231207041837 - Dec 07 2023" sheetId="5" r:id="rId6"/>
     <sheet name="20231208041823 - Dec 08 2023" sheetId="6" r:id="rId7"/>
     <sheet name="20231209041748 - Dec 09 2023" sheetId="7" r:id="rId8"/>
+    <sheet name="20231210041753 - Dec 10 2023" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20231203113249 - Dec 03 2023'!$A$1:$K$19</definedName>
@@ -21,6 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20231207041837 - Dec 07 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'20231208041823 - Dec 08 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'20231209041748 - Dec 09 2023'!$A$1:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'20231210041753 - Dec 10 2023'!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -285,8 +287,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -918,6 +921,651 @@
         <v>559</v>
       </c>
       <c r="K19" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId120"/>
+    <hyperlink ref="K3" r:id="rId121"/>
+    <hyperlink ref="K4" r:id="rId122"/>
+    <hyperlink ref="K5" r:id="rId123"/>
+    <hyperlink ref="K6" r:id="rId124"/>
+    <hyperlink ref="K7" r:id="rId125"/>
+    <hyperlink ref="K8" r:id="rId126"/>
+    <hyperlink ref="K9" r:id="rId127"/>
+    <hyperlink ref="K10" r:id="rId128"/>
+    <hyperlink ref="K11" r:id="rId129"/>
+    <hyperlink ref="K12" r:id="rId130"/>
+    <hyperlink ref="K13" r:id="rId131"/>
+    <hyperlink ref="K14" r:id="rId132"/>
+    <hyperlink ref="K15" r:id="rId133"/>
+    <hyperlink ref="K16" r:id="rId134"/>
+    <hyperlink ref="K17" r:id="rId135"/>
+    <hyperlink ref="K18" r:id="rId136"/>
+    <hyperlink ref="K19" r:id="rId137"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70949</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>126968</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4283</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2831</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45069</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1551</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35742</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1172</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32222</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1378</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48208</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1245</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33614</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1195</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>641</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19788</v>
+      </c>
+      <c r="G9" s="0">
+        <v>406</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>747</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28513</v>
+      </c>
+      <c r="G10" s="0">
+        <v>701</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29879</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17777</v>
+      </c>
+      <c r="G12" s="0">
+        <v>470</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>520</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22333</v>
+      </c>
+      <c r="G13" s="0">
+        <v>498</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>581</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>16952</v>
+      </c>
+      <c r="G14" s="0">
+        <v>239</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31478</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1004</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>497</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25061</v>
+      </c>
+      <c r="G16" s="0">
+        <v>778</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>653</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>14695</v>
+      </c>
+      <c r="G17" s="0">
+        <v>366</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>419</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>13918</v>
+      </c>
+      <c r="G18" s="0">
+        <v>383</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>223</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>14673</v>
+      </c>
+      <c r="G19" s="0">
+        <v>310</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>559</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -947,7 +1595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -1007,7 +1655,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70949</v>
+        <v>70952</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -1018,7 +1666,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1039,7 +1687,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126968</v>
+        <v>126982</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -1048,9 +1696,9 @@
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2831</v>
-      </c>
-      <c r="K3" s="2" t="s">
+        <v>2833</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1071,10 +1719,10 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="G4" s="0">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I4" s="0">
         <v>0</v>
@@ -1082,7 +1730,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1103,7 +1751,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35742</v>
+        <v>35743</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -1114,7 +1762,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1135,10 +1783,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32222</v>
+        <v>32220</v>
       </c>
       <c r="G6" s="0">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1146,7 +1794,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1167,10 +1815,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48208</v>
+        <v>48227</v>
       </c>
       <c r="G7" s="0">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1178,7 +1826,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1199,10 +1847,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33614</v>
+        <v>33618</v>
       </c>
       <c r="G8" s="0">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -1210,7 +1858,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1231,7 +1879,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19788</v>
+        <v>19792</v>
       </c>
       <c r="G9" s="0">
         <v>406</v>
@@ -1242,7 +1890,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1263,7 +1911,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28513</v>
+        <v>28515</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -1274,7 +1922,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1295,7 +1943,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29879</v>
+        <v>29882</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -1306,7 +1954,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1327,7 +1975,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17777</v>
+        <v>17783</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -1338,7 +1986,7 @@
       <c r="J12" s="0">
         <v>520</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1359,7 +2007,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22333</v>
+        <v>22364</v>
       </c>
       <c r="G13" s="0">
         <v>498</v>
@@ -1370,7 +2018,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1391,10 +2039,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16952</v>
+        <v>16966</v>
       </c>
       <c r="G14" s="0">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -1402,7 +2050,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1423,7 +2071,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31478</v>
+        <v>31502</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -1434,7 +2082,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1455,10 +2103,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25061</v>
+        <v>25121</v>
       </c>
       <c r="G16" s="0">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -1466,7 +2114,7 @@
       <c r="J16" s="0">
         <v>653</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1487,18 +2135,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14695</v>
+        <v>14744</v>
       </c>
       <c r="G17" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>419</v>
-      </c>
-      <c r="K17" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1519,10 +2167,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13918</v>
+        <v>13943</v>
       </c>
       <c r="G18" s="0">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -1530,7 +2178,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1551,18 +2199,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14673</v>
+        <v>14727</v>
       </c>
       <c r="G19" s="0">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>559</v>
-      </c>
-      <c r="K19" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1592,7 +2240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -1652,7 +2300,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70952</v>
+        <v>70961</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -1663,7 +2311,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1684,7 +2332,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126982</v>
+        <v>126997</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -1695,7 +2343,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1716,7 +2364,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45070</v>
+        <v>45075</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -1727,7 +2375,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1748,7 +2396,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35743</v>
+        <v>35746</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -1759,7 +2407,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1780,7 +2428,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32220</v>
+        <v>32222</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -1791,7 +2439,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1812,7 +2460,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48227</v>
+        <v>48233</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -1823,7 +2471,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1844,7 +2492,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33618</v>
+        <v>33626</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -1855,7 +2503,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1876,7 +2524,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19792</v>
+        <v>19797</v>
       </c>
       <c r="G9" s="0">
         <v>406</v>
@@ -1887,7 +2535,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1908,7 +2556,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28515</v>
+        <v>28517</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -1919,7 +2567,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1940,7 +2588,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29882</v>
+        <v>29888</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -1951,7 +2599,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1972,7 +2620,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17783</v>
+        <v>17786</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -1981,9 +2629,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>520</v>
-      </c>
-      <c r="K12" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2004,10 +2652,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22364</v>
+        <v>22381</v>
       </c>
       <c r="G13" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -2015,7 +2663,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2036,7 +2684,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16966</v>
+        <v>16976</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -2047,7 +2695,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2068,7 +2716,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31502</v>
+        <v>31517</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -2079,7 +2727,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2100,10 +2748,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25121</v>
+        <v>25168</v>
       </c>
       <c r="G16" s="0">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -2111,7 +2759,7 @@
       <c r="J16" s="0">
         <v>653</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2132,10 +2780,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14744</v>
+        <v>14774</v>
       </c>
       <c r="G17" s="0">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -2143,7 +2791,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2164,7 +2812,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13943</v>
+        <v>13959</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -2175,7 +2823,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2196,18 +2844,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14727</v>
+        <v>14768</v>
       </c>
       <c r="G19" s="0">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2237,7 +2885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2297,7 +2945,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70961</v>
+        <v>70965</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2308,7 +2956,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2329,7 +2977,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126997</v>
+        <v>127005</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -2340,7 +2988,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2361,7 +3009,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -2372,7 +3020,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2393,10 +3041,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35746</v>
+        <v>35751</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -2404,7 +3052,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2425,10 +3073,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32222</v>
+        <v>32227</v>
       </c>
       <c r="G6" s="0">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -2436,7 +3084,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2457,7 +3105,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48233</v>
+        <v>48240</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -2468,7 +3116,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2489,7 +3137,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33626</v>
+        <v>33629</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -2500,7 +3148,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2521,10 +3169,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19797</v>
+        <v>19798</v>
       </c>
       <c r="G9" s="0">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -2532,7 +3180,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2553,7 +3201,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28517</v>
+        <v>28521</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -2564,7 +3212,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2585,7 +3233,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29888</v>
+        <v>29895</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -2596,7 +3244,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2617,7 +3265,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17786</v>
+        <v>17794</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -2628,7 +3276,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2649,7 +3297,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22381</v>
+        <v>22397</v>
       </c>
       <c r="G13" s="0">
         <v>500</v>
@@ -2660,7 +3308,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2681,7 +3329,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16976</v>
+        <v>16984</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -2692,7 +3340,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2713,7 +3361,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31517</v>
+        <v>31533</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -2724,7 +3372,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2745,7 +3393,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25168</v>
+        <v>25214</v>
       </c>
       <c r="G16" s="0">
         <v>781</v>
@@ -2754,9 +3402,9 @@
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>653</v>
-      </c>
-      <c r="K16" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2777,10 +3425,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14774</v>
+        <v>14825</v>
       </c>
       <c r="G17" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -2788,7 +3436,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2809,7 +3457,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13959</v>
+        <v>13991</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -2820,7 +3468,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2841,10 +3489,10 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14768</v>
+        <v>14813</v>
       </c>
       <c r="G19" s="0">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -2852,7 +3500,7 @@
       <c r="J19" s="0">
         <v>559</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2882,7 +3530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2942,7 +3590,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70965</v>
+        <v>70964</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2953,7 +3601,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2974,18 +3622,18 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127005</v>
+        <v>127014</v>
       </c>
       <c r="G3" s="0">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2833</v>
-      </c>
-      <c r="K3" s="5" t="s">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3006,7 +3654,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45076</v>
+        <v>45079</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -3017,7 +3665,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3038,7 +3686,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35751</v>
+        <v>35753</v>
       </c>
       <c r="G5" s="0">
         <v>1173</v>
@@ -3049,7 +3697,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3070,7 +3718,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32227</v>
+        <v>32230</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -3081,7 +3729,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3102,7 +3750,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48240</v>
+        <v>48248</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -3113,7 +3761,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3134,18 +3782,18 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33629</v>
+        <v>33636</v>
       </c>
       <c r="G8" s="0">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>641</v>
-      </c>
-      <c r="K8" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3166,7 +3814,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19798</v>
+        <v>19799</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -3175,9 +3823,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>747</v>
-      </c>
-      <c r="K9" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3198,7 +3846,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28521</v>
+        <v>28526</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -3209,7 +3857,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3230,7 +3878,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29895</v>
+        <v>29899</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3241,7 +3889,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3262,7 +3910,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17794</v>
+        <v>17802</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3273,7 +3921,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3294,10 +3942,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22397</v>
+        <v>22422</v>
       </c>
       <c r="G13" s="0">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -3305,7 +3953,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3326,7 +3974,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16984</v>
+        <v>16989</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -3337,7 +3985,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3358,7 +4006,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31533</v>
+        <v>31541</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -3367,9 +4015,9 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>497</v>
-      </c>
-      <c r="K15" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3390,18 +4038,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25214</v>
+        <v>25265</v>
       </c>
       <c r="G16" s="0">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3422,10 +4070,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14825</v>
+        <v>14874</v>
       </c>
       <c r="G17" s="0">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -3433,7 +4081,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3454,10 +4102,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13991</v>
+        <v>14006</v>
       </c>
       <c r="G18" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -3465,7 +4113,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3486,7 +4134,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14813</v>
+        <v>14863</v>
       </c>
       <c r="G19" s="0">
         <v>313</v>
@@ -3495,9 +4143,9 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>559</v>
-      </c>
-      <c r="K19" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3527,7 +4175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -3587,7 +4235,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70964</v>
+        <v>70969</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -3598,7 +4246,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3619,10 +4267,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127014</v>
+        <v>127035</v>
       </c>
       <c r="G3" s="0">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -3630,7 +4278,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3651,7 +4299,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -3662,7 +4310,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3686,7 +4334,7 @@
         <v>35753</v>
       </c>
       <c r="G5" s="0">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -3694,7 +4342,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3715,7 +4363,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32230</v>
+        <v>32243</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -3726,7 +4374,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3747,7 +4395,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48248</v>
+        <v>48258</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -3758,7 +4406,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3779,7 +4427,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33636</v>
+        <v>33642</v>
       </c>
       <c r="G8" s="0">
         <v>1195</v>
@@ -3790,7 +4438,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3811,7 +4459,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19799</v>
+        <v>19800</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -3822,7 +4470,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3843,7 +4491,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28526</v>
+        <v>28530</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -3854,7 +4502,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3875,7 +4523,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29899</v>
+        <v>29904</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3886,7 +4534,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3907,7 +4555,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17802</v>
+        <v>17808</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3918,7 +4566,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3939,7 +4587,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22422</v>
+        <v>22454</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -3948,9 +4596,9 @@
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>581</v>
-      </c>
-      <c r="K13" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3971,7 +4619,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16989</v>
+        <v>16999</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -3982,7 +4630,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4003,10 +4651,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31541</v>
+        <v>31562</v>
       </c>
       <c r="G15" s="0">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -4014,7 +4662,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4035,18 +4683,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25265</v>
+        <v>25314</v>
       </c>
       <c r="G16" s="0">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>651</v>
-      </c>
-      <c r="K16" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4067,18 +4715,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14874</v>
+        <v>14929</v>
       </c>
       <c r="G17" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>420</v>
-      </c>
-      <c r="K17" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4099,7 +4747,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14006</v>
+        <v>14025</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -4110,7 +4758,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4131,18 +4779,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14863</v>
+        <v>14915</v>
       </c>
       <c r="G19" s="0">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4172,7 +4820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -4232,7 +4880,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70969</v>
+        <v>70975</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -4243,7 +4891,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4264,7 +4912,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127035</v>
+        <v>127049</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -4275,7 +4923,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4296,7 +4944,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45080</v>
+        <v>45084</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -4307,7 +4955,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4328,10 +4976,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35753</v>
+        <v>35754</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -4339,7 +4987,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4360,7 +5008,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32243</v>
+        <v>32247</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -4371,7 +5019,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4392,7 +5040,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48258</v>
+        <v>48264</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -4403,7 +5051,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4424,10 +5072,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33642</v>
+        <v>33649</v>
       </c>
       <c r="G8" s="0">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -4435,7 +5083,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4467,7 +5115,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4488,7 +5136,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28530</v>
+        <v>28531</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -4499,7 +5147,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4520,7 +5168,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29904</v>
+        <v>29918</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -4531,7 +5179,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4552,10 +5200,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17808</v>
+        <v>17813</v>
       </c>
       <c r="G12" s="0">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -4563,7 +5211,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4584,7 +5232,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22454</v>
+        <v>22486</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -4595,7 +5243,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4616,10 +5264,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16999</v>
+        <v>17009</v>
       </c>
       <c r="G14" s="0">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -4627,7 +5275,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4648,7 +5296,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31562</v>
+        <v>31576</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -4659,7 +5307,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4680,18 +5328,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25314</v>
+        <v>25353</v>
       </c>
       <c r="G16" s="0">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4712,18 +5360,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14929</v>
+        <v>14959</v>
       </c>
       <c r="G17" s="0">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>421</v>
-      </c>
-      <c r="K17" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4744,7 +5392,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14025</v>
+        <v>14053</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -4755,7 +5403,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4776,7 +5424,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14915</v>
+        <v>14952</v>
       </c>
       <c r="G19" s="0">
         <v>314</v>
@@ -4787,7 +5435,7 @@
       <c r="J19" s="0">
         <v>561</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="8" t="s">
         <v>72</v>
       </c>
     </row>

--- a/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
+++ b/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
@@ -13,6 +13,7 @@
     <sheet name="20231208041823 - Dec 08 2023" sheetId="6" r:id="rId7"/>
     <sheet name="20231209041748 - Dec 09 2023" sheetId="7" r:id="rId8"/>
     <sheet name="20231210041753 - Dec 10 2023" sheetId="8" r:id="rId9"/>
+    <sheet name="20231211041844 - Dec 11 2023" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20231203113249 - Dec 03 2023'!$A$1:$K$19</definedName>
@@ -23,6 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'20231208041823 - Dec 08 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'20231209041748 - Dec 09 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'20231210041753 - Dec 10 2023'!$A$1:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'20231211041844 - Dec 11 2023'!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -287,8 +289,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -927,6 +930,651 @@
   </sheetData>
   <autoFilter ref="A1:K19"/>
   <hyperlinks>
+    <hyperlink ref="K2" r:id="rId137"/>
+    <hyperlink ref="K3" r:id="rId138"/>
+    <hyperlink ref="K4" r:id="rId139"/>
+    <hyperlink ref="K5" r:id="rId140"/>
+    <hyperlink ref="K6" r:id="rId141"/>
+    <hyperlink ref="K7" r:id="rId142"/>
+    <hyperlink ref="K8" r:id="rId143"/>
+    <hyperlink ref="K9" r:id="rId144"/>
+    <hyperlink ref="K10" r:id="rId145"/>
+    <hyperlink ref="K11" r:id="rId146"/>
+    <hyperlink ref="K12" r:id="rId147"/>
+    <hyperlink ref="K13" r:id="rId148"/>
+    <hyperlink ref="K14" r:id="rId149"/>
+    <hyperlink ref="K15" r:id="rId150"/>
+    <hyperlink ref="K16" r:id="rId151"/>
+    <hyperlink ref="K17" r:id="rId152"/>
+    <hyperlink ref="K18" r:id="rId153"/>
+    <hyperlink ref="K19" r:id="rId154"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70949</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>126968</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4283</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2831</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45069</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1551</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35742</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1172</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32222</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1378</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48208</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1245</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33614</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1195</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>641</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19788</v>
+      </c>
+      <c r="G9" s="0">
+        <v>406</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>747</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28513</v>
+      </c>
+      <c r="G10" s="0">
+        <v>701</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29879</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17777</v>
+      </c>
+      <c r="G12" s="0">
+        <v>470</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>520</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22333</v>
+      </c>
+      <c r="G13" s="0">
+        <v>498</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>581</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>16952</v>
+      </c>
+      <c r="G14" s="0">
+        <v>239</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31478</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1004</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>497</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25061</v>
+      </c>
+      <c r="G16" s="0">
+        <v>778</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>653</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>14695</v>
+      </c>
+      <c r="G17" s="0">
+        <v>366</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>419</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>13918</v>
+      </c>
+      <c r="G18" s="0">
+        <v>383</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>223</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>14673</v>
+      </c>
+      <c r="G19" s="0">
+        <v>310</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>559</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
     <hyperlink ref="K2" r:id="rId120"/>
     <hyperlink ref="K3" r:id="rId121"/>
     <hyperlink ref="K4" r:id="rId122"/>
@@ -950,7 +1598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -1010,7 +1658,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70949</v>
+        <v>70952</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -1021,7 +1669,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1042,7 +1690,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126968</v>
+        <v>126982</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -1051,9 +1699,9 @@
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2831</v>
-      </c>
-      <c r="K3" s="2" t="s">
+        <v>2833</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1074,10 +1722,10 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="G4" s="0">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I4" s="0">
         <v>0</v>
@@ -1085,7 +1733,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1106,7 +1754,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35742</v>
+        <v>35743</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -1117,7 +1765,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1138,10 +1786,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32222</v>
+        <v>32220</v>
       </c>
       <c r="G6" s="0">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1149,7 +1797,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1170,10 +1818,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48208</v>
+        <v>48227</v>
       </c>
       <c r="G7" s="0">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1181,7 +1829,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1202,10 +1850,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33614</v>
+        <v>33618</v>
       </c>
       <c r="G8" s="0">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -1213,7 +1861,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1234,7 +1882,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19788</v>
+        <v>19792</v>
       </c>
       <c r="G9" s="0">
         <v>406</v>
@@ -1245,7 +1893,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1266,7 +1914,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28513</v>
+        <v>28515</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -1277,7 +1925,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1298,7 +1946,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29879</v>
+        <v>29882</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -1309,7 +1957,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1330,7 +1978,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17777</v>
+        <v>17783</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -1341,7 +1989,7 @@
       <c r="J12" s="0">
         <v>520</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1362,7 +2010,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22333</v>
+        <v>22364</v>
       </c>
       <c r="G13" s="0">
         <v>498</v>
@@ -1373,7 +2021,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1394,10 +2042,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16952</v>
+        <v>16966</v>
       </c>
       <c r="G14" s="0">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -1405,7 +2053,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1426,7 +2074,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31478</v>
+        <v>31502</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -1437,7 +2085,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1458,10 +2106,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25061</v>
+        <v>25121</v>
       </c>
       <c r="G16" s="0">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -1469,7 +2117,7 @@
       <c r="J16" s="0">
         <v>653</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1490,18 +2138,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14695</v>
+        <v>14744</v>
       </c>
       <c r="G17" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>419</v>
-      </c>
-      <c r="K17" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1522,10 +2170,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13918</v>
+        <v>13943</v>
       </c>
       <c r="G18" s="0">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -1533,7 +2181,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1554,18 +2202,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14673</v>
+        <v>14727</v>
       </c>
       <c r="G19" s="0">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>559</v>
-      </c>
-      <c r="K19" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1595,7 +2243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -1655,7 +2303,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70952</v>
+        <v>70961</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -1666,7 +2314,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1687,7 +2335,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126982</v>
+        <v>126997</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -1698,7 +2346,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1719,7 +2367,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45070</v>
+        <v>45075</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -1730,7 +2378,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1751,7 +2399,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35743</v>
+        <v>35746</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -1762,7 +2410,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1783,7 +2431,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32220</v>
+        <v>32222</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -1794,7 +2442,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1815,7 +2463,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48227</v>
+        <v>48233</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -1826,7 +2474,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1847,7 +2495,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33618</v>
+        <v>33626</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -1858,7 +2506,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1879,7 +2527,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19792</v>
+        <v>19797</v>
       </c>
       <c r="G9" s="0">
         <v>406</v>
@@ -1890,7 +2538,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1911,7 +2559,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28515</v>
+        <v>28517</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -1922,7 +2570,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1943,7 +2591,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29882</v>
+        <v>29888</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -1954,7 +2602,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1975,7 +2623,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17783</v>
+        <v>17786</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -1984,9 +2632,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>520</v>
-      </c>
-      <c r="K12" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2007,10 +2655,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22364</v>
+        <v>22381</v>
       </c>
       <c r="G13" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -2018,7 +2666,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2039,7 +2687,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16966</v>
+        <v>16976</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -2050,7 +2698,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2071,7 +2719,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31502</v>
+        <v>31517</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -2082,7 +2730,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2103,10 +2751,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25121</v>
+        <v>25168</v>
       </c>
       <c r="G16" s="0">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -2114,7 +2762,7 @@
       <c r="J16" s="0">
         <v>653</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2135,10 +2783,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14744</v>
+        <v>14774</v>
       </c>
       <c r="G17" s="0">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -2146,7 +2794,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2167,7 +2815,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13943</v>
+        <v>13959</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -2178,7 +2826,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2199,18 +2847,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14727</v>
+        <v>14768</v>
       </c>
       <c r="G19" s="0">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2240,7 +2888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2300,7 +2948,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70961</v>
+        <v>70965</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2311,7 +2959,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2332,7 +2980,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126997</v>
+        <v>127005</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -2343,7 +2991,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2364,7 +3012,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -2375,7 +3023,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2396,10 +3044,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35746</v>
+        <v>35751</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -2407,7 +3055,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2428,10 +3076,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32222</v>
+        <v>32227</v>
       </c>
       <c r="G6" s="0">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -2439,7 +3087,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2460,7 +3108,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48233</v>
+        <v>48240</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -2471,7 +3119,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2492,7 +3140,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33626</v>
+        <v>33629</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -2503,7 +3151,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2524,10 +3172,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19797</v>
+        <v>19798</v>
       </c>
       <c r="G9" s="0">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -2535,7 +3183,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2556,7 +3204,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28517</v>
+        <v>28521</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -2567,7 +3215,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2588,7 +3236,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29888</v>
+        <v>29895</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -2599,7 +3247,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2620,7 +3268,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17786</v>
+        <v>17794</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -2631,7 +3279,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2652,7 +3300,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22381</v>
+        <v>22397</v>
       </c>
       <c r="G13" s="0">
         <v>500</v>
@@ -2663,7 +3311,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2684,7 +3332,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16976</v>
+        <v>16984</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -2695,7 +3343,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2716,7 +3364,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31517</v>
+        <v>31533</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -2727,7 +3375,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2748,7 +3396,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25168</v>
+        <v>25214</v>
       </c>
       <c r="G16" s="0">
         <v>781</v>
@@ -2757,9 +3405,9 @@
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>653</v>
-      </c>
-      <c r="K16" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2780,10 +3428,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14774</v>
+        <v>14825</v>
       </c>
       <c r="G17" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -2791,7 +3439,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2812,7 +3460,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13959</v>
+        <v>13991</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -2823,7 +3471,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2844,10 +3492,10 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14768</v>
+        <v>14813</v>
       </c>
       <c r="G19" s="0">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -2855,7 +3503,7 @@
       <c r="J19" s="0">
         <v>559</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2885,7 +3533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2945,7 +3593,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70965</v>
+        <v>70964</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2956,7 +3604,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2977,18 +3625,18 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127005</v>
+        <v>127014</v>
       </c>
       <c r="G3" s="0">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2833</v>
-      </c>
-      <c r="K3" s="5" t="s">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3009,7 +3657,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45076</v>
+        <v>45079</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -3020,7 +3668,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3041,7 +3689,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35751</v>
+        <v>35753</v>
       </c>
       <c r="G5" s="0">
         <v>1173</v>
@@ -3052,7 +3700,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3073,7 +3721,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32227</v>
+        <v>32230</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -3084,7 +3732,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3105,7 +3753,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48240</v>
+        <v>48248</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -3116,7 +3764,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3137,18 +3785,18 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33629</v>
+        <v>33636</v>
       </c>
       <c r="G8" s="0">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>641</v>
-      </c>
-      <c r="K8" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3169,7 +3817,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19798</v>
+        <v>19799</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -3178,9 +3826,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>747</v>
-      </c>
-      <c r="K9" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3201,7 +3849,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28521</v>
+        <v>28526</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -3212,7 +3860,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3233,7 +3881,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29895</v>
+        <v>29899</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3244,7 +3892,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3265,7 +3913,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17794</v>
+        <v>17802</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3276,7 +3924,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3297,10 +3945,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22397</v>
+        <v>22422</v>
       </c>
       <c r="G13" s="0">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -3308,7 +3956,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3329,7 +3977,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16984</v>
+        <v>16989</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -3340,7 +3988,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3361,7 +4009,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31533</v>
+        <v>31541</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -3370,9 +4018,9 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>497</v>
-      </c>
-      <c r="K15" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3393,18 +4041,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25214</v>
+        <v>25265</v>
       </c>
       <c r="G16" s="0">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3425,10 +4073,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14825</v>
+        <v>14874</v>
       </c>
       <c r="G17" s="0">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -3436,7 +4084,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3457,10 +4105,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13991</v>
+        <v>14006</v>
       </c>
       <c r="G18" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -3468,7 +4116,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3489,7 +4137,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14813</v>
+        <v>14863</v>
       </c>
       <c r="G19" s="0">
         <v>313</v>
@@ -3498,9 +4146,9 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>559</v>
-      </c>
-      <c r="K19" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3530,7 +4178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -3590,7 +4238,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70964</v>
+        <v>70969</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -3601,7 +4249,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3622,10 +4270,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127014</v>
+        <v>127035</v>
       </c>
       <c r="G3" s="0">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -3633,7 +4281,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3654,7 +4302,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -3665,7 +4313,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3689,7 +4337,7 @@
         <v>35753</v>
       </c>
       <c r="G5" s="0">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -3697,7 +4345,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3718,7 +4366,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32230</v>
+        <v>32243</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -3729,7 +4377,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3750,7 +4398,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48248</v>
+        <v>48258</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -3761,7 +4409,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3782,7 +4430,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33636</v>
+        <v>33642</v>
       </c>
       <c r="G8" s="0">
         <v>1195</v>
@@ -3793,7 +4441,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3814,7 +4462,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19799</v>
+        <v>19800</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -3825,7 +4473,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3846,7 +4494,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28526</v>
+        <v>28530</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -3857,7 +4505,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3878,7 +4526,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29899</v>
+        <v>29904</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3889,7 +4537,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3910,7 +4558,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17802</v>
+        <v>17808</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3921,7 +4569,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3942,7 +4590,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22422</v>
+        <v>22454</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -3951,9 +4599,9 @@
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>581</v>
-      </c>
-      <c r="K13" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3974,7 +4622,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16989</v>
+        <v>16999</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -3985,7 +4633,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4006,10 +4654,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31541</v>
+        <v>31562</v>
       </c>
       <c r="G15" s="0">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -4017,7 +4665,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4038,18 +4686,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25265</v>
+        <v>25314</v>
       </c>
       <c r="G16" s="0">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>651</v>
-      </c>
-      <c r="K16" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4070,18 +4718,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14874</v>
+        <v>14929</v>
       </c>
       <c r="G17" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>420</v>
-      </c>
-      <c r="K17" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4102,7 +4750,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14006</v>
+        <v>14025</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -4113,7 +4761,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4134,18 +4782,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14863</v>
+        <v>14915</v>
       </c>
       <c r="G19" s="0">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4175,7 +4823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -4235,7 +4883,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70969</v>
+        <v>70975</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -4246,7 +4894,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4267,7 +4915,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127035</v>
+        <v>127049</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -4278,7 +4926,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4299,7 +4947,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45080</v>
+        <v>45084</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -4310,7 +4958,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4331,10 +4979,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35753</v>
+        <v>35754</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -4342,7 +4990,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4363,7 +5011,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32243</v>
+        <v>32247</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -4374,7 +5022,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4395,7 +5043,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48258</v>
+        <v>48264</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -4406,7 +5054,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4427,10 +5075,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33642</v>
+        <v>33649</v>
       </c>
       <c r="G8" s="0">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -4438,7 +5086,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4470,7 +5118,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4491,7 +5139,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28530</v>
+        <v>28531</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -4502,7 +5150,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4523,7 +5171,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29904</v>
+        <v>29918</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -4534,7 +5182,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4555,10 +5203,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17808</v>
+        <v>17813</v>
       </c>
       <c r="G12" s="0">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -4566,7 +5214,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4587,7 +5235,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22454</v>
+        <v>22486</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -4598,7 +5246,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4619,10 +5267,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16999</v>
+        <v>17009</v>
       </c>
       <c r="G14" s="0">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -4630,7 +5278,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4651,7 +5299,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31562</v>
+        <v>31576</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -4662,7 +5310,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4683,18 +5331,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25314</v>
+        <v>25353</v>
       </c>
       <c r="G16" s="0">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4715,18 +5363,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14929</v>
+        <v>14959</v>
       </c>
       <c r="G17" s="0">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>421</v>
-      </c>
-      <c r="K17" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4747,7 +5395,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14025</v>
+        <v>14053</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -4758,7 +5406,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4779,7 +5427,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14915</v>
+        <v>14952</v>
       </c>
       <c r="G19" s="0">
         <v>314</v>
@@ -4790,7 +5438,7 @@
       <c r="J19" s="0">
         <v>561</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4820,7 +5468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -4880,7 +5528,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70975</v>
+        <v>70979</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -4891,7 +5539,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4912,7 +5560,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127049</v>
+        <v>127059</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -4923,7 +5571,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4944,7 +5592,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45084</v>
+        <v>45081</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -4955,7 +5603,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4976,7 +5624,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35754</v>
+        <v>35755</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -4987,7 +5635,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5008,10 +5656,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32247</v>
+        <v>32249</v>
       </c>
       <c r="G6" s="0">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -5019,7 +5667,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5040,7 +5688,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48264</v>
+        <v>48266</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -5051,7 +5699,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5072,7 +5720,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33649</v>
+        <v>33660</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -5083,7 +5731,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5104,7 +5752,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19800</v>
+        <v>19802</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -5115,7 +5763,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5147,7 +5795,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5168,7 +5816,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29918</v>
+        <v>29925</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -5179,7 +5827,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5200,7 +5848,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17813</v>
+        <v>17820</v>
       </c>
       <c r="G12" s="0">
         <v>469</v>
@@ -5211,7 +5859,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5232,7 +5880,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22486</v>
+        <v>22522</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -5243,7 +5891,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5264,7 +5912,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17009</v>
+        <v>17025</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -5275,7 +5923,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5296,7 +5944,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31576</v>
+        <v>31592</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -5307,7 +5955,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5328,7 +5976,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25353</v>
+        <v>25405</v>
       </c>
       <c r="G16" s="0">
         <v>789</v>
@@ -5339,7 +5987,7 @@
       <c r="J16" s="0">
         <v>655</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5360,7 +6008,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14959</v>
+        <v>15013</v>
       </c>
       <c r="G17" s="0">
         <v>372</v>
@@ -5369,9 +6017,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>422</v>
-      </c>
-      <c r="K17" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5392,7 +6040,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14053</v>
+        <v>14073</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -5401,9 +6049,9 @@
         <v>0</v>
       </c>
       <c r="J18" s="0">
-        <v>223</v>
-      </c>
-      <c r="K18" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5424,18 +6072,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14952</v>
+        <v>14997</v>
       </c>
       <c r="G19" s="0">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>561</v>
-      </c>
-      <c r="K19" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>72</v>
       </c>
     </row>

--- a/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
+++ b/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
@@ -14,6 +14,7 @@
     <sheet name="20231209041748 - Dec 09 2023" sheetId="7" r:id="rId8"/>
     <sheet name="20231210041753 - Dec 10 2023" sheetId="8" r:id="rId9"/>
     <sheet name="20231211041844 - Dec 11 2023" sheetId="9" r:id="rId10"/>
+    <sheet name="20231212041822 - Dec 12 2023" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20231203113249 - Dec 03 2023'!$A$1:$K$19</definedName>
@@ -25,6 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'20231209041748 - Dec 09 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'20231210041753 - Dec 10 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'20231211041844 - Dec 11 2023'!$A$1:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'20231212041822 - Dec 12 2023'!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -289,8 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -930,6 +933,1296 @@
   </sheetData>
   <autoFilter ref="A1:K19"/>
   <hyperlinks>
+    <hyperlink ref="K2" r:id="rId154"/>
+    <hyperlink ref="K3" r:id="rId155"/>
+    <hyperlink ref="K4" r:id="rId156"/>
+    <hyperlink ref="K5" r:id="rId157"/>
+    <hyperlink ref="K6" r:id="rId158"/>
+    <hyperlink ref="K7" r:id="rId159"/>
+    <hyperlink ref="K8" r:id="rId160"/>
+    <hyperlink ref="K9" r:id="rId161"/>
+    <hyperlink ref="K10" r:id="rId162"/>
+    <hyperlink ref="K11" r:id="rId163"/>
+    <hyperlink ref="K12" r:id="rId164"/>
+    <hyperlink ref="K13" r:id="rId165"/>
+    <hyperlink ref="K14" r:id="rId166"/>
+    <hyperlink ref="K15" r:id="rId167"/>
+    <hyperlink ref="K16" r:id="rId168"/>
+    <hyperlink ref="K17" r:id="rId169"/>
+    <hyperlink ref="K18" r:id="rId170"/>
+    <hyperlink ref="K19" r:id="rId171"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70983</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>127067</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4282</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45082</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1550</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35758</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1171</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32249</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1377</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48267</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1245</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33667</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1196</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>642</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19803</v>
+      </c>
+      <c r="G9" s="0">
+        <v>405</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>746</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28533</v>
+      </c>
+      <c r="G10" s="0">
+        <v>701</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29931</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17825</v>
+      </c>
+      <c r="G12" s="0">
+        <v>469</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>509</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22553</v>
+      </c>
+      <c r="G13" s="0">
+        <v>501</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>584</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>17032</v>
+      </c>
+      <c r="G14" s="0">
+        <v>239</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31607</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1003</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>495</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25447</v>
+      </c>
+      <c r="G16" s="0">
+        <v>790</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>658</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>15058</v>
+      </c>
+      <c r="G17" s="0">
+        <v>372</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>423</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>14097</v>
+      </c>
+      <c r="G18" s="0">
+        <v>385</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>224</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>15035</v>
+      </c>
+      <c r="G19" s="0">
+        <v>315</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>560</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId2"/>
+    <hyperlink ref="K4" r:id="rId3"/>
+    <hyperlink ref="K5" r:id="rId4"/>
+    <hyperlink ref="K6" r:id="rId5"/>
+    <hyperlink ref="K7" r:id="rId6"/>
+    <hyperlink ref="K8" r:id="rId7"/>
+    <hyperlink ref="K9" r:id="rId8"/>
+    <hyperlink ref="K10" r:id="rId9"/>
+    <hyperlink ref="K11" r:id="rId10"/>
+    <hyperlink ref="K12" r:id="rId11"/>
+    <hyperlink ref="K13" r:id="rId12"/>
+    <hyperlink ref="K14" r:id="rId13"/>
+    <hyperlink ref="K15" r:id="rId14"/>
+    <hyperlink ref="K16" r:id="rId15"/>
+    <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
+    <hyperlink ref="K19" r:id="rId18"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70949</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>126968</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4283</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2831</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45069</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1551</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35742</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1172</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32222</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1378</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48208</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1245</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33614</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1195</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>641</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19788</v>
+      </c>
+      <c r="G9" s="0">
+        <v>406</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>747</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28513</v>
+      </c>
+      <c r="G10" s="0">
+        <v>701</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29879</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17777</v>
+      </c>
+      <c r="G12" s="0">
+        <v>470</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>520</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22333</v>
+      </c>
+      <c r="G13" s="0">
+        <v>498</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>581</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>16952</v>
+      </c>
+      <c r="G14" s="0">
+        <v>239</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31478</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1004</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>497</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25061</v>
+      </c>
+      <c r="G16" s="0">
+        <v>778</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>653</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>14695</v>
+      </c>
+      <c r="G17" s="0">
+        <v>366</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>419</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>13918</v>
+      </c>
+      <c r="G18" s="0">
+        <v>383</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>223</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>14673</v>
+      </c>
+      <c r="G19" s="0">
+        <v>310</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>559</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
     <hyperlink ref="K2" r:id="rId137"/>
     <hyperlink ref="K3" r:id="rId138"/>
     <hyperlink ref="K4" r:id="rId139"/>
@@ -953,7 +2246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -1013,7 +2306,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70949</v>
+        <v>70952</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -1024,7 +2317,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1045,7 +2338,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126968</v>
+        <v>126982</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -1054,9 +2347,9 @@
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2831</v>
-      </c>
-      <c r="K3" s="2" t="s">
+        <v>2833</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1077,10 +2370,10 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="G4" s="0">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I4" s="0">
         <v>0</v>
@@ -1088,7 +2381,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1109,7 +2402,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35742</v>
+        <v>35743</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -1120,7 +2413,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1141,10 +2434,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32222</v>
+        <v>32220</v>
       </c>
       <c r="G6" s="0">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1152,7 +2445,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1173,10 +2466,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48208</v>
+        <v>48227</v>
       </c>
       <c r="G7" s="0">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1184,7 +2477,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1205,10 +2498,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33614</v>
+        <v>33618</v>
       </c>
       <c r="G8" s="0">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -1216,7 +2509,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1237,7 +2530,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19788</v>
+        <v>19792</v>
       </c>
       <c r="G9" s="0">
         <v>406</v>
@@ -1248,7 +2541,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1269,7 +2562,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28513</v>
+        <v>28515</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -1280,7 +2573,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1301,7 +2594,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29879</v>
+        <v>29882</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -1312,7 +2605,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1333,7 +2626,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17777</v>
+        <v>17783</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -1344,7 +2637,7 @@
       <c r="J12" s="0">
         <v>520</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1365,7 +2658,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22333</v>
+        <v>22364</v>
       </c>
       <c r="G13" s="0">
         <v>498</v>
@@ -1376,7 +2669,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1397,10 +2690,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16952</v>
+        <v>16966</v>
       </c>
       <c r="G14" s="0">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -1408,7 +2701,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1429,7 +2722,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31478</v>
+        <v>31502</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -1440,7 +2733,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1461,10 +2754,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25061</v>
+        <v>25121</v>
       </c>
       <c r="G16" s="0">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -1472,7 +2765,7 @@
       <c r="J16" s="0">
         <v>653</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1493,18 +2786,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14695</v>
+        <v>14744</v>
       </c>
       <c r="G17" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>419</v>
-      </c>
-      <c r="K17" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1525,10 +2818,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13918</v>
+        <v>13943</v>
       </c>
       <c r="G18" s="0">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -1536,7 +2829,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1557,18 +2850,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14673</v>
+        <v>14727</v>
       </c>
       <c r="G19" s="0">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>559</v>
-      </c>
-      <c r="K19" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1598,7 +2891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -1658,7 +2951,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70952</v>
+        <v>70961</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -1669,7 +2962,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1690,7 +2983,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126982</v>
+        <v>126997</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -1701,7 +2994,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1722,7 +3015,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45070</v>
+        <v>45075</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -1733,7 +3026,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1754,7 +3047,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35743</v>
+        <v>35746</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -1765,7 +3058,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1786,7 +3079,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32220</v>
+        <v>32222</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -1797,7 +3090,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1818,7 +3111,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48227</v>
+        <v>48233</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -1829,7 +3122,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1850,7 +3143,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33618</v>
+        <v>33626</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -1861,7 +3154,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1882,7 +3175,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19792</v>
+        <v>19797</v>
       </c>
       <c r="G9" s="0">
         <v>406</v>
@@ -1893,7 +3186,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1914,7 +3207,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28515</v>
+        <v>28517</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -1925,7 +3218,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1946,7 +3239,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29882</v>
+        <v>29888</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -1957,7 +3250,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1978,7 +3271,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17783</v>
+        <v>17786</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -1987,9 +3280,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>520</v>
-      </c>
-      <c r="K12" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2010,10 +3303,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22364</v>
+        <v>22381</v>
       </c>
       <c r="G13" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -2021,7 +3314,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2042,7 +3335,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16966</v>
+        <v>16976</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -2053,7 +3346,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2074,7 +3367,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31502</v>
+        <v>31517</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -2085,7 +3378,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2106,10 +3399,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25121</v>
+        <v>25168</v>
       </c>
       <c r="G16" s="0">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -2117,7 +3410,7 @@
       <c r="J16" s="0">
         <v>653</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2138,10 +3431,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14744</v>
+        <v>14774</v>
       </c>
       <c r="G17" s="0">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -2149,7 +3442,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2170,7 +3463,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13943</v>
+        <v>13959</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -2181,7 +3474,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2202,18 +3495,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14727</v>
+        <v>14768</v>
       </c>
       <c r="G19" s="0">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2243,7 +3536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2303,7 +3596,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70961</v>
+        <v>70965</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2314,7 +3607,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2335,7 +3628,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126997</v>
+        <v>127005</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -2346,7 +3639,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2367,7 +3660,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -2378,7 +3671,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2399,10 +3692,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35746</v>
+        <v>35751</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -2410,7 +3703,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2431,10 +3724,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32222</v>
+        <v>32227</v>
       </c>
       <c r="G6" s="0">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -2442,7 +3735,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2463,7 +3756,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48233</v>
+        <v>48240</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -2474,7 +3767,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2495,7 +3788,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33626</v>
+        <v>33629</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -2506,7 +3799,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2527,10 +3820,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19797</v>
+        <v>19798</v>
       </c>
       <c r="G9" s="0">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -2538,7 +3831,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2559,7 +3852,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28517</v>
+        <v>28521</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -2570,7 +3863,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2591,7 +3884,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29888</v>
+        <v>29895</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -2602,7 +3895,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2623,7 +3916,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17786</v>
+        <v>17794</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -2634,7 +3927,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2655,7 +3948,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22381</v>
+        <v>22397</v>
       </c>
       <c r="G13" s="0">
         <v>500</v>
@@ -2666,7 +3959,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2687,7 +3980,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16976</v>
+        <v>16984</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -2698,7 +3991,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2719,7 +4012,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31517</v>
+        <v>31533</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -2730,7 +4023,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2751,7 +4044,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25168</v>
+        <v>25214</v>
       </c>
       <c r="G16" s="0">
         <v>781</v>
@@ -2760,9 +4053,9 @@
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>653</v>
-      </c>
-      <c r="K16" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2783,10 +4076,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14774</v>
+        <v>14825</v>
       </c>
       <c r="G17" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -2794,7 +4087,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2815,7 +4108,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13959</v>
+        <v>13991</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -2826,7 +4119,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2847,10 +4140,10 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14768</v>
+        <v>14813</v>
       </c>
       <c r="G19" s="0">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -2858,7 +4151,7 @@
       <c r="J19" s="0">
         <v>559</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2888,7 +4181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2948,7 +4241,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70965</v>
+        <v>70964</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2959,7 +4252,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2980,18 +4273,18 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127005</v>
+        <v>127014</v>
       </c>
       <c r="G3" s="0">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2833</v>
-      </c>
-      <c r="K3" s="5" t="s">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3012,7 +4305,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45076</v>
+        <v>45079</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -3023,7 +4316,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3044,7 +4337,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35751</v>
+        <v>35753</v>
       </c>
       <c r="G5" s="0">
         <v>1173</v>
@@ -3055,7 +4348,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3076,7 +4369,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32227</v>
+        <v>32230</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -3087,7 +4380,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3108,7 +4401,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48240</v>
+        <v>48248</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -3119,7 +4412,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3140,18 +4433,18 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33629</v>
+        <v>33636</v>
       </c>
       <c r="G8" s="0">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>641</v>
-      </c>
-      <c r="K8" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3172,7 +4465,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19798</v>
+        <v>19799</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -3181,9 +4474,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>747</v>
-      </c>
-      <c r="K9" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3204,7 +4497,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28521</v>
+        <v>28526</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -3215,7 +4508,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3236,7 +4529,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29895</v>
+        <v>29899</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3247,7 +4540,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3268,7 +4561,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17794</v>
+        <v>17802</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3279,7 +4572,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3300,10 +4593,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22397</v>
+        <v>22422</v>
       </c>
       <c r="G13" s="0">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -3311,7 +4604,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3332,7 +4625,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16984</v>
+        <v>16989</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -3343,7 +4636,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3364,7 +4657,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31533</v>
+        <v>31541</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -3373,9 +4666,9 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>497</v>
-      </c>
-      <c r="K15" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3396,18 +4689,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25214</v>
+        <v>25265</v>
       </c>
       <c r="G16" s="0">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3428,10 +4721,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14825</v>
+        <v>14874</v>
       </c>
       <c r="G17" s="0">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -3439,7 +4732,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3460,10 +4753,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13991</v>
+        <v>14006</v>
       </c>
       <c r="G18" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -3471,7 +4764,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3492,7 +4785,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14813</v>
+        <v>14863</v>
       </c>
       <c r="G19" s="0">
         <v>313</v>
@@ -3501,9 +4794,9 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>559</v>
-      </c>
-      <c r="K19" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3533,7 +4826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -3593,7 +4886,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70964</v>
+        <v>70969</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -3604,7 +4897,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3625,10 +4918,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127014</v>
+        <v>127035</v>
       </c>
       <c r="G3" s="0">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -3636,7 +4929,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3657,7 +4950,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -3668,7 +4961,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3692,7 +4985,7 @@
         <v>35753</v>
       </c>
       <c r="G5" s="0">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -3700,7 +4993,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3721,7 +5014,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32230</v>
+        <v>32243</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -3732,7 +5025,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3753,7 +5046,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48248</v>
+        <v>48258</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -3764,7 +5057,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3785,7 +5078,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33636</v>
+        <v>33642</v>
       </c>
       <c r="G8" s="0">
         <v>1195</v>
@@ -3796,7 +5089,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3817,7 +5110,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19799</v>
+        <v>19800</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -3828,7 +5121,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3849,7 +5142,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28526</v>
+        <v>28530</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -3860,7 +5153,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3881,7 +5174,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29899</v>
+        <v>29904</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3892,7 +5185,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3913,7 +5206,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17802</v>
+        <v>17808</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3924,7 +5217,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3945,7 +5238,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22422</v>
+        <v>22454</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -3954,9 +5247,9 @@
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>581</v>
-      </c>
-      <c r="K13" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3977,7 +5270,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16989</v>
+        <v>16999</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -3988,7 +5281,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4009,10 +5302,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31541</v>
+        <v>31562</v>
       </c>
       <c r="G15" s="0">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -4020,7 +5313,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4041,18 +5334,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25265</v>
+        <v>25314</v>
       </c>
       <c r="G16" s="0">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>651</v>
-      </c>
-      <c r="K16" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4073,18 +5366,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14874</v>
+        <v>14929</v>
       </c>
       <c r="G17" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>420</v>
-      </c>
-      <c r="K17" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4105,7 +5398,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14006</v>
+        <v>14025</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -4116,7 +5409,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4137,18 +5430,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14863</v>
+        <v>14915</v>
       </c>
       <c r="G19" s="0">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4178,7 +5471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -4238,7 +5531,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70969</v>
+        <v>70975</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -4249,7 +5542,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4270,7 +5563,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127035</v>
+        <v>127049</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -4281,7 +5574,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4302,7 +5595,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45080</v>
+        <v>45084</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -4313,7 +5606,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4334,10 +5627,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35753</v>
+        <v>35754</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -4345,7 +5638,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4366,7 +5659,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32243</v>
+        <v>32247</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -4377,7 +5670,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4398,7 +5691,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48258</v>
+        <v>48264</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -4409,7 +5702,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4430,10 +5723,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33642</v>
+        <v>33649</v>
       </c>
       <c r="G8" s="0">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -4441,7 +5734,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4473,7 +5766,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4494,7 +5787,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28530</v>
+        <v>28531</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -4505,7 +5798,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4526,7 +5819,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29904</v>
+        <v>29918</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -4537,7 +5830,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4558,10 +5851,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17808</v>
+        <v>17813</v>
       </c>
       <c r="G12" s="0">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -4569,7 +5862,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4590,7 +5883,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22454</v>
+        <v>22486</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -4601,7 +5894,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4622,10 +5915,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16999</v>
+        <v>17009</v>
       </c>
       <c r="G14" s="0">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -4633,7 +5926,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4654,7 +5947,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31562</v>
+        <v>31576</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -4665,7 +5958,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4686,18 +5979,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25314</v>
+        <v>25353</v>
       </c>
       <c r="G16" s="0">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4718,18 +6011,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14929</v>
+        <v>14959</v>
       </c>
       <c r="G17" s="0">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>421</v>
-      </c>
-      <c r="K17" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4750,7 +6043,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14025</v>
+        <v>14053</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -4761,7 +6054,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4782,7 +6075,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14915</v>
+        <v>14952</v>
       </c>
       <c r="G19" s="0">
         <v>314</v>
@@ -4793,7 +6086,7 @@
       <c r="J19" s="0">
         <v>561</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4823,7 +6116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -4883,7 +6176,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70975</v>
+        <v>70979</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -4894,7 +6187,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4915,7 +6208,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127049</v>
+        <v>127059</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -4926,7 +6219,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4947,7 +6240,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45084</v>
+        <v>45081</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -4958,7 +6251,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4979,7 +6272,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35754</v>
+        <v>35755</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -4990,7 +6283,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5011,10 +6304,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32247</v>
+        <v>32249</v>
       </c>
       <c r="G6" s="0">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -5022,7 +6315,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5043,7 +6336,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48264</v>
+        <v>48266</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -5054,7 +6347,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5075,7 +6368,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33649</v>
+        <v>33660</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -5086,7 +6379,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5107,7 +6400,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19800</v>
+        <v>19802</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -5118,7 +6411,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5150,7 +6443,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5171,7 +6464,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29918</v>
+        <v>29925</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -5182,7 +6475,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5203,7 +6496,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17813</v>
+        <v>17820</v>
       </c>
       <c r="G12" s="0">
         <v>469</v>
@@ -5214,7 +6507,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5235,7 +6528,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22486</v>
+        <v>22522</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -5246,7 +6539,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5267,7 +6560,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17009</v>
+        <v>17025</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -5278,7 +6571,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5299,7 +6592,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31576</v>
+        <v>31592</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -5310,7 +6603,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5331,7 +6624,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25353</v>
+        <v>25405</v>
       </c>
       <c r="G16" s="0">
         <v>789</v>
@@ -5342,7 +6635,7 @@
       <c r="J16" s="0">
         <v>655</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5363,7 +6656,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14959</v>
+        <v>15013</v>
       </c>
       <c r="G17" s="0">
         <v>372</v>
@@ -5372,9 +6665,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>422</v>
-      </c>
-      <c r="K17" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5395,7 +6688,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14053</v>
+        <v>14073</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -5404,9 +6697,9 @@
         <v>0</v>
       </c>
       <c r="J18" s="0">
-        <v>223</v>
-      </c>
-      <c r="K18" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5427,18 +6720,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14952</v>
+        <v>14997</v>
       </c>
       <c r="G19" s="0">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>561</v>
-      </c>
-      <c r="K19" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5466,649 +6759,4 @@
   </hyperlinks>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2018</v>
-      </c>
-      <c r="C2" s="0">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
-        <v>70979</v>
-      </c>
-      <c r="G2" s="0">
-        <v>1790</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>1214</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2018</v>
-      </c>
-      <c r="C3" s="0">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="0">
-        <v>127059</v>
-      </c>
-      <c r="G3" s="0">
-        <v>4283</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>2834</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="0">
-        <v>4</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="0">
-        <v>45081</v>
-      </c>
-      <c r="G4" s="0">
-        <v>1550</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
-        <v>1022</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="0">
-        <v>8</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="0">
-        <v>35755</v>
-      </c>
-      <c r="G5" s="0">
-        <v>1171</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
-        <v>834</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="0">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="0">
-        <v>32249</v>
-      </c>
-      <c r="G6" s="0">
-        <v>1377</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
-        <v>472</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="0">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="0">
-        <v>48266</v>
-      </c>
-      <c r="G7" s="0">
-        <v>1246</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>1172</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C8" s="0">
-        <v>5</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="0">
-        <v>33660</v>
-      </c>
-      <c r="G8" s="0">
-        <v>1196</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>642</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C9" s="0">
-        <v>5</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="0">
-        <v>19802</v>
-      </c>
-      <c r="G9" s="0">
-        <v>405</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>746</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C10" s="0">
-        <v>5</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="0">
-        <v>28531</v>
-      </c>
-      <c r="G10" s="0">
-        <v>701</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>562</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="0">
-        <v>10</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="0">
-        <v>29925</v>
-      </c>
-      <c r="G11" s="0">
-        <v>621</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>1955</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2022</v>
-      </c>
-      <c r="C12" s="0">
-        <v>10</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="0">
-        <v>17820</v>
-      </c>
-      <c r="G12" s="0">
-        <v>469</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>509</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2022</v>
-      </c>
-      <c r="C13" s="0">
-        <v>11</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="0">
-        <v>22522</v>
-      </c>
-      <c r="G13" s="0">
-        <v>501</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>584</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C14" s="0">
-        <v>3</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="0">
-        <v>17025</v>
-      </c>
-      <c r="G14" s="0">
-        <v>239</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>113</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C15" s="0">
-        <v>3</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="0">
-        <v>31592</v>
-      </c>
-      <c r="G15" s="0">
-        <v>1003</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>495</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C16" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="0">
-        <v>25405</v>
-      </c>
-      <c r="G16" s="0">
-        <v>789</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>655</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="0">
-        <v>15013</v>
-      </c>
-      <c r="G17" s="0">
-        <v>372</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>423</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C18" s="0">
-        <v>9</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="0">
-        <v>14073</v>
-      </c>
-      <c r="G18" s="0">
-        <v>385</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>224</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C19" s="0">
-        <v>10</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="0">
-        <v>14997</v>
-      </c>
-      <c r="G19" s="0">
-        <v>315</v>
-      </c>
-      <c r="I19" s="0">
-        <v>0</v>
-      </c>
-      <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K19"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="K6" r:id="rId5"/>
-    <hyperlink ref="K7" r:id="rId6"/>
-    <hyperlink ref="K8" r:id="rId7"/>
-    <hyperlink ref="K9" r:id="rId8"/>
-    <hyperlink ref="K10" r:id="rId9"/>
-    <hyperlink ref="K11" r:id="rId10"/>
-    <hyperlink ref="K12" r:id="rId11"/>
-    <hyperlink ref="K13" r:id="rId12"/>
-    <hyperlink ref="K14" r:id="rId13"/>
-    <hyperlink ref="K15" r:id="rId14"/>
-    <hyperlink ref="K16" r:id="rId15"/>
-    <hyperlink ref="K17" r:id="rId16"/>
-    <hyperlink ref="K18" r:id="rId17"/>
-    <hyperlink ref="K19" r:id="rId18"/>
-  </hyperlinks>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
+++ b/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
@@ -15,6 +15,7 @@
     <sheet name="20231210041753 - Dec 10 2023" sheetId="8" r:id="rId9"/>
     <sheet name="20231211041844 - Dec 11 2023" sheetId="9" r:id="rId10"/>
     <sheet name="20231212041822 - Dec 12 2023" sheetId="10" r:id="rId11"/>
+    <sheet name="20231213041820 - Dec 13 2023" sheetId="11" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20231203113249 - Dec 03 2023'!$A$1:$K$19</definedName>
@@ -27,6 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'20231210041753 - Dec 10 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'20231211041844 - Dec 11 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'20231212041822 - Dec 12 2023'!$A$1:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'20231213041820 - Dec 13 2023'!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -291,8 +293,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -933,24 +936,24 @@
   </sheetData>
   <autoFilter ref="A1:K19"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId154"/>
-    <hyperlink ref="K3" r:id="rId155"/>
-    <hyperlink ref="K4" r:id="rId156"/>
-    <hyperlink ref="K5" r:id="rId157"/>
-    <hyperlink ref="K6" r:id="rId158"/>
-    <hyperlink ref="K7" r:id="rId159"/>
-    <hyperlink ref="K8" r:id="rId160"/>
-    <hyperlink ref="K9" r:id="rId161"/>
-    <hyperlink ref="K10" r:id="rId162"/>
-    <hyperlink ref="K11" r:id="rId163"/>
-    <hyperlink ref="K12" r:id="rId164"/>
-    <hyperlink ref="K13" r:id="rId165"/>
-    <hyperlink ref="K14" r:id="rId166"/>
-    <hyperlink ref="K15" r:id="rId167"/>
-    <hyperlink ref="K16" r:id="rId168"/>
-    <hyperlink ref="K17" r:id="rId169"/>
-    <hyperlink ref="K18" r:id="rId170"/>
-    <hyperlink ref="K19" r:id="rId171"/>
+    <hyperlink ref="K2" r:id="rId171"/>
+    <hyperlink ref="K3" r:id="rId172"/>
+    <hyperlink ref="K4" r:id="rId173"/>
+    <hyperlink ref="K5" r:id="rId174"/>
+    <hyperlink ref="K6" r:id="rId175"/>
+    <hyperlink ref="K7" r:id="rId176"/>
+    <hyperlink ref="K8" r:id="rId177"/>
+    <hyperlink ref="K9" r:id="rId178"/>
+    <hyperlink ref="K10" r:id="rId179"/>
+    <hyperlink ref="K11" r:id="rId180"/>
+    <hyperlink ref="K12" r:id="rId181"/>
+    <hyperlink ref="K13" r:id="rId182"/>
+    <hyperlink ref="K14" r:id="rId183"/>
+    <hyperlink ref="K15" r:id="rId184"/>
+    <hyperlink ref="K16" r:id="rId185"/>
+    <hyperlink ref="K17" r:id="rId186"/>
+    <hyperlink ref="K18" r:id="rId187"/>
+    <hyperlink ref="K19" r:id="rId188"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -1572,6 +1575,651 @@
         <v>560</v>
       </c>
       <c r="K19" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId18"/>
+    <hyperlink ref="K3" r:id="rId19"/>
+    <hyperlink ref="K4" r:id="rId20"/>
+    <hyperlink ref="K5" r:id="rId21"/>
+    <hyperlink ref="K6" r:id="rId22"/>
+    <hyperlink ref="K7" r:id="rId23"/>
+    <hyperlink ref="K8" r:id="rId24"/>
+    <hyperlink ref="K9" r:id="rId25"/>
+    <hyperlink ref="K10" r:id="rId26"/>
+    <hyperlink ref="K11" r:id="rId27"/>
+    <hyperlink ref="K12" r:id="rId28"/>
+    <hyperlink ref="K13" r:id="rId29"/>
+    <hyperlink ref="K14" r:id="rId30"/>
+    <hyperlink ref="K15" r:id="rId31"/>
+    <hyperlink ref="K16" r:id="rId32"/>
+    <hyperlink ref="K17" r:id="rId33"/>
+    <hyperlink ref="K18" r:id="rId34"/>
+    <hyperlink ref="K19" r:id="rId35"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70985</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>127071</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4282</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45089</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1551</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35762</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1171</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32249</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1377</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48275</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1245</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33682</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1197</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>642</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19805</v>
+      </c>
+      <c r="G9" s="0">
+        <v>405</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>746</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28535</v>
+      </c>
+      <c r="G10" s="0">
+        <v>702</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29935</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17829</v>
+      </c>
+      <c r="G12" s="0">
+        <v>469</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>509</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22582</v>
+      </c>
+      <c r="G13" s="0">
+        <v>501</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>584</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>17039</v>
+      </c>
+      <c r="G14" s="0">
+        <v>239</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31625</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1003</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>495</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25488</v>
+      </c>
+      <c r="G16" s="0">
+        <v>790</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>658</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>15097</v>
+      </c>
+      <c r="G17" s="0">
+        <v>373</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>425</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>14116</v>
+      </c>
+      <c r="G18" s="0">
+        <v>385</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>224</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>15071</v>
+      </c>
+      <c r="G19" s="0">
+        <v>315</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>560</v>
+      </c>
+      <c r="K19" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2223,6 +2871,651 @@
   </sheetData>
   <autoFilter ref="A1:K19"/>
   <hyperlinks>
+    <hyperlink ref="K2" r:id="rId154"/>
+    <hyperlink ref="K3" r:id="rId155"/>
+    <hyperlink ref="K4" r:id="rId156"/>
+    <hyperlink ref="K5" r:id="rId157"/>
+    <hyperlink ref="K6" r:id="rId158"/>
+    <hyperlink ref="K7" r:id="rId159"/>
+    <hyperlink ref="K8" r:id="rId160"/>
+    <hyperlink ref="K9" r:id="rId161"/>
+    <hyperlink ref="K10" r:id="rId162"/>
+    <hyperlink ref="K11" r:id="rId163"/>
+    <hyperlink ref="K12" r:id="rId164"/>
+    <hyperlink ref="K13" r:id="rId165"/>
+    <hyperlink ref="K14" r:id="rId166"/>
+    <hyperlink ref="K15" r:id="rId167"/>
+    <hyperlink ref="K16" r:id="rId168"/>
+    <hyperlink ref="K17" r:id="rId169"/>
+    <hyperlink ref="K18" r:id="rId170"/>
+    <hyperlink ref="K19" r:id="rId171"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70952</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>126982</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4283</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2833</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45070</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1550</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35743</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1172</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32220</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1377</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48227</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1246</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33618</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1194</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>641</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19792</v>
+      </c>
+      <c r="G9" s="0">
+        <v>406</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>747</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28515</v>
+      </c>
+      <c r="G10" s="0">
+        <v>701</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29882</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17783</v>
+      </c>
+      <c r="G12" s="0">
+        <v>470</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>520</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22364</v>
+      </c>
+      <c r="G13" s="0">
+        <v>498</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>581</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>16966</v>
+      </c>
+      <c r="G14" s="0">
+        <v>240</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31502</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1004</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>497</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25121</v>
+      </c>
+      <c r="G16" s="0">
+        <v>780</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>653</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>14744</v>
+      </c>
+      <c r="G17" s="0">
+        <v>368</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>420</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>13943</v>
+      </c>
+      <c r="G18" s="0">
+        <v>384</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>223</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>14727</v>
+      </c>
+      <c r="G19" s="0">
+        <v>311</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>560</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
     <hyperlink ref="K2" r:id="rId137"/>
     <hyperlink ref="K3" r:id="rId138"/>
     <hyperlink ref="K4" r:id="rId139"/>
@@ -2246,7 +3539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2306,7 +3599,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70952</v>
+        <v>70961</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2317,7 +3610,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2338,7 +3631,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126982</v>
+        <v>126997</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -2349,7 +3642,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2370,7 +3663,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45070</v>
+        <v>45075</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -2381,7 +3674,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2402,7 +3695,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35743</v>
+        <v>35746</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -2413,7 +3706,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2434,7 +3727,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32220</v>
+        <v>32222</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -2445,7 +3738,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2466,7 +3759,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48227</v>
+        <v>48233</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -2477,7 +3770,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2498,7 +3791,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33618</v>
+        <v>33626</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -2509,7 +3802,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2530,7 +3823,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19792</v>
+        <v>19797</v>
       </c>
       <c r="G9" s="0">
         <v>406</v>
@@ -2541,7 +3834,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2562,7 +3855,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28515</v>
+        <v>28517</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -2573,7 +3866,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2594,7 +3887,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29882</v>
+        <v>29888</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -2605,7 +3898,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2626,7 +3919,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17783</v>
+        <v>17786</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -2635,9 +3928,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>520</v>
-      </c>
-      <c r="K12" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2658,10 +3951,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22364</v>
+        <v>22381</v>
       </c>
       <c r="G13" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -2669,7 +3962,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2690,7 +3983,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16966</v>
+        <v>16976</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -2701,7 +3994,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2722,7 +4015,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31502</v>
+        <v>31517</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -2733,7 +4026,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2754,10 +4047,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25121</v>
+        <v>25168</v>
       </c>
       <c r="G16" s="0">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -2765,7 +4058,7 @@
       <c r="J16" s="0">
         <v>653</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2786,10 +4079,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14744</v>
+        <v>14774</v>
       </c>
       <c r="G17" s="0">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -2797,7 +4090,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2818,7 +4111,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13943</v>
+        <v>13959</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -2829,7 +4122,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2850,18 +4143,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14727</v>
+        <v>14768</v>
       </c>
       <c r="G19" s="0">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2891,7 +4184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2951,7 +4244,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70961</v>
+        <v>70965</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2962,7 +4255,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2983,7 +4276,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126997</v>
+        <v>127005</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -2994,7 +4287,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3015,7 +4308,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -3026,7 +4319,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3047,10 +4340,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35746</v>
+        <v>35751</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -3058,7 +4351,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3079,10 +4372,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32222</v>
+        <v>32227</v>
       </c>
       <c r="G6" s="0">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -3090,7 +4383,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3111,7 +4404,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48233</v>
+        <v>48240</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -3122,7 +4415,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3143,7 +4436,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33626</v>
+        <v>33629</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -3154,7 +4447,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3175,10 +4468,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19797</v>
+        <v>19798</v>
       </c>
       <c r="G9" s="0">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -3186,7 +4479,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3207,7 +4500,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28517</v>
+        <v>28521</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -3218,7 +4511,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3239,7 +4532,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29888</v>
+        <v>29895</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3250,7 +4543,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3271,7 +4564,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17786</v>
+        <v>17794</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3282,7 +4575,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3303,7 +4596,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22381</v>
+        <v>22397</v>
       </c>
       <c r="G13" s="0">
         <v>500</v>
@@ -3314,7 +4607,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3335,7 +4628,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16976</v>
+        <v>16984</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -3346,7 +4639,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3367,7 +4660,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31517</v>
+        <v>31533</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -3378,7 +4671,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3399,7 +4692,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25168</v>
+        <v>25214</v>
       </c>
       <c r="G16" s="0">
         <v>781</v>
@@ -3408,9 +4701,9 @@
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>653</v>
-      </c>
-      <c r="K16" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3431,10 +4724,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14774</v>
+        <v>14825</v>
       </c>
       <c r="G17" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -3442,7 +4735,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3463,7 +4756,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13959</v>
+        <v>13991</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -3474,7 +4767,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3495,10 +4788,10 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14768</v>
+        <v>14813</v>
       </c>
       <c r="G19" s="0">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -3506,7 +4799,7 @@
       <c r="J19" s="0">
         <v>559</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3536,7 +4829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -3596,7 +4889,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70965</v>
+        <v>70964</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -3607,7 +4900,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3628,18 +4921,18 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127005</v>
+        <v>127014</v>
       </c>
       <c r="G3" s="0">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2833</v>
-      </c>
-      <c r="K3" s="5" t="s">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3660,7 +4953,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45076</v>
+        <v>45079</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -3671,7 +4964,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3692,7 +4985,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35751</v>
+        <v>35753</v>
       </c>
       <c r="G5" s="0">
         <v>1173</v>
@@ -3703,7 +4996,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3724,7 +5017,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32227</v>
+        <v>32230</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -3735,7 +5028,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3756,7 +5049,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48240</v>
+        <v>48248</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -3767,7 +5060,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3788,18 +5081,18 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33629</v>
+        <v>33636</v>
       </c>
       <c r="G8" s="0">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>641</v>
-      </c>
-      <c r="K8" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3820,7 +5113,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19798</v>
+        <v>19799</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -3829,9 +5122,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>747</v>
-      </c>
-      <c r="K9" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3852,7 +5145,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28521</v>
+        <v>28526</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -3863,7 +5156,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3884,7 +5177,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29895</v>
+        <v>29899</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3895,7 +5188,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3916,7 +5209,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17794</v>
+        <v>17802</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3927,7 +5220,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3948,10 +5241,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22397</v>
+        <v>22422</v>
       </c>
       <c r="G13" s="0">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -3959,7 +5252,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3980,7 +5273,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16984</v>
+        <v>16989</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -3991,7 +5284,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4012,7 +5305,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31533</v>
+        <v>31541</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -4021,9 +5314,9 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>497</v>
-      </c>
-      <c r="K15" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4044,18 +5337,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25214</v>
+        <v>25265</v>
       </c>
       <c r="G16" s="0">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4076,10 +5369,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14825</v>
+        <v>14874</v>
       </c>
       <c r="G17" s="0">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -4087,7 +5380,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4108,10 +5401,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13991</v>
+        <v>14006</v>
       </c>
       <c r="G18" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -4119,7 +5412,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4140,7 +5433,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14813</v>
+        <v>14863</v>
       </c>
       <c r="G19" s="0">
         <v>313</v>
@@ -4149,9 +5442,9 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>559</v>
-      </c>
-      <c r="K19" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4181,7 +5474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -4241,7 +5534,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70964</v>
+        <v>70969</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -4252,7 +5545,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4273,10 +5566,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127014</v>
+        <v>127035</v>
       </c>
       <c r="G3" s="0">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -4284,7 +5577,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4305,7 +5598,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -4316,7 +5609,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4340,7 +5633,7 @@
         <v>35753</v>
       </c>
       <c r="G5" s="0">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -4348,7 +5641,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4369,7 +5662,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32230</v>
+        <v>32243</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -4380,7 +5673,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4401,7 +5694,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48248</v>
+        <v>48258</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -4412,7 +5705,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4433,7 +5726,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33636</v>
+        <v>33642</v>
       </c>
       <c r="G8" s="0">
         <v>1195</v>
@@ -4444,7 +5737,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4465,7 +5758,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19799</v>
+        <v>19800</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -4476,7 +5769,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4497,7 +5790,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28526</v>
+        <v>28530</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -4508,7 +5801,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4529,7 +5822,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29899</v>
+        <v>29904</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -4540,7 +5833,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4561,7 +5854,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17802</v>
+        <v>17808</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -4572,7 +5865,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4593,7 +5886,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22422</v>
+        <v>22454</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -4602,9 +5895,9 @@
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>581</v>
-      </c>
-      <c r="K13" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4625,7 +5918,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16989</v>
+        <v>16999</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -4636,7 +5929,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4657,10 +5950,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31541</v>
+        <v>31562</v>
       </c>
       <c r="G15" s="0">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -4668,7 +5961,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4689,18 +5982,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25265</v>
+        <v>25314</v>
       </c>
       <c r="G16" s="0">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>651</v>
-      </c>
-      <c r="K16" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4721,18 +6014,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14874</v>
+        <v>14929</v>
       </c>
       <c r="G17" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>420</v>
-      </c>
-      <c r="K17" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4753,7 +6046,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14006</v>
+        <v>14025</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -4764,7 +6057,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4785,18 +6078,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14863</v>
+        <v>14915</v>
       </c>
       <c r="G19" s="0">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4826,7 +6119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -4886,7 +6179,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70969</v>
+        <v>70975</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -4897,7 +6190,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4918,7 +6211,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127035</v>
+        <v>127049</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -4929,7 +6222,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4950,7 +6243,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45080</v>
+        <v>45084</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -4961,7 +6254,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4982,10 +6275,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35753</v>
+        <v>35754</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -4993,7 +6286,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5014,7 +6307,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32243</v>
+        <v>32247</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -5025,7 +6318,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5046,7 +6339,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48258</v>
+        <v>48264</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -5057,7 +6350,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5078,10 +6371,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33642</v>
+        <v>33649</v>
       </c>
       <c r="G8" s="0">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -5089,7 +6382,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5121,7 +6414,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5142,7 +6435,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28530</v>
+        <v>28531</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -5153,7 +6446,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5174,7 +6467,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29904</v>
+        <v>29918</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -5185,7 +6478,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5206,10 +6499,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17808</v>
+        <v>17813</v>
       </c>
       <c r="G12" s="0">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -5217,7 +6510,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5238,7 +6531,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22454</v>
+        <v>22486</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -5249,7 +6542,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5270,10 +6563,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16999</v>
+        <v>17009</v>
       </c>
       <c r="G14" s="0">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -5281,7 +6574,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5302,7 +6595,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31562</v>
+        <v>31576</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -5313,7 +6606,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5334,18 +6627,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25314</v>
+        <v>25353</v>
       </c>
       <c r="G16" s="0">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5366,18 +6659,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14929</v>
+        <v>14959</v>
       </c>
       <c r="G17" s="0">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>421</v>
-      </c>
-      <c r="K17" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5398,7 +6691,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14025</v>
+        <v>14053</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -5409,7 +6702,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5430,7 +6723,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14915</v>
+        <v>14952</v>
       </c>
       <c r="G19" s="0">
         <v>314</v>
@@ -5441,7 +6734,7 @@
       <c r="J19" s="0">
         <v>561</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5471,7 +6764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -5531,7 +6824,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70975</v>
+        <v>70979</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -5542,7 +6835,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5563,7 +6856,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127049</v>
+        <v>127059</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -5574,7 +6867,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5595,7 +6888,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45084</v>
+        <v>45081</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -5606,7 +6899,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5627,7 +6920,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35754</v>
+        <v>35755</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -5638,7 +6931,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5659,10 +6952,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32247</v>
+        <v>32249</v>
       </c>
       <c r="G6" s="0">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -5670,7 +6963,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5691,7 +6984,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48264</v>
+        <v>48266</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -5702,7 +6995,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5723,7 +7016,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33649</v>
+        <v>33660</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -5734,7 +7027,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5755,7 +7048,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19800</v>
+        <v>19802</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -5766,7 +7059,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5798,7 +7091,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5819,7 +7112,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29918</v>
+        <v>29925</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -5830,7 +7123,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5851,7 +7144,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17813</v>
+        <v>17820</v>
       </c>
       <c r="G12" s="0">
         <v>469</v>
@@ -5862,7 +7155,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5883,7 +7176,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22486</v>
+        <v>22522</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -5894,7 +7187,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5915,7 +7208,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17009</v>
+        <v>17025</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -5926,7 +7219,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5947,7 +7240,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31576</v>
+        <v>31592</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -5958,7 +7251,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5979,7 +7272,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25353</v>
+        <v>25405</v>
       </c>
       <c r="G16" s="0">
         <v>789</v>
@@ -5990,7 +7283,7 @@
       <c r="J16" s="0">
         <v>655</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6011,7 +7304,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14959</v>
+        <v>15013</v>
       </c>
       <c r="G17" s="0">
         <v>372</v>
@@ -6020,9 +7313,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>422</v>
-      </c>
-      <c r="K17" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6043,7 +7336,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14053</v>
+        <v>14073</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -6052,9 +7345,9 @@
         <v>0</v>
       </c>
       <c r="J18" s="0">
-        <v>223</v>
-      </c>
-      <c r="K18" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6075,18 +7368,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14952</v>
+        <v>14997</v>
       </c>
       <c r="G19" s="0">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>561</v>
-      </c>
-      <c r="K19" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6114,649 +7407,4 @@
   </hyperlinks>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2018</v>
-      </c>
-      <c r="C2" s="0">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
-        <v>70979</v>
-      </c>
-      <c r="G2" s="0">
-        <v>1790</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>1214</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2018</v>
-      </c>
-      <c r="C3" s="0">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="0">
-        <v>127059</v>
-      </c>
-      <c r="G3" s="0">
-        <v>4283</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>2834</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="0">
-        <v>4</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="0">
-        <v>45081</v>
-      </c>
-      <c r="G4" s="0">
-        <v>1550</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
-        <v>1022</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="0">
-        <v>8</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="0">
-        <v>35755</v>
-      </c>
-      <c r="G5" s="0">
-        <v>1171</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
-        <v>834</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="0">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="0">
-        <v>32249</v>
-      </c>
-      <c r="G6" s="0">
-        <v>1377</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
-        <v>472</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="0">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="0">
-        <v>48266</v>
-      </c>
-      <c r="G7" s="0">
-        <v>1246</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>1172</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C8" s="0">
-        <v>5</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="0">
-        <v>33660</v>
-      </c>
-      <c r="G8" s="0">
-        <v>1196</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>642</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C9" s="0">
-        <v>5</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="0">
-        <v>19802</v>
-      </c>
-      <c r="G9" s="0">
-        <v>405</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>746</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C10" s="0">
-        <v>5</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="0">
-        <v>28531</v>
-      </c>
-      <c r="G10" s="0">
-        <v>701</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>562</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="0">
-        <v>10</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="0">
-        <v>29925</v>
-      </c>
-      <c r="G11" s="0">
-        <v>621</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>1955</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2022</v>
-      </c>
-      <c r="C12" s="0">
-        <v>10</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="0">
-        <v>17820</v>
-      </c>
-      <c r="G12" s="0">
-        <v>469</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>509</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2022</v>
-      </c>
-      <c r="C13" s="0">
-        <v>11</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="0">
-        <v>22522</v>
-      </c>
-      <c r="G13" s="0">
-        <v>501</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>584</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C14" s="0">
-        <v>3</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="0">
-        <v>17025</v>
-      </c>
-      <c r="G14" s="0">
-        <v>239</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>113</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C15" s="0">
-        <v>3</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="0">
-        <v>31592</v>
-      </c>
-      <c r="G15" s="0">
-        <v>1003</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>495</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C16" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="0">
-        <v>25405</v>
-      </c>
-      <c r="G16" s="0">
-        <v>789</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>655</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="0">
-        <v>15013</v>
-      </c>
-      <c r="G17" s="0">
-        <v>372</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>423</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C18" s="0">
-        <v>9</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="0">
-        <v>14073</v>
-      </c>
-      <c r="G18" s="0">
-        <v>385</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>224</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C19" s="0">
-        <v>10</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="0">
-        <v>14997</v>
-      </c>
-      <c r="G19" s="0">
-        <v>315</v>
-      </c>
-      <c r="I19" s="0">
-        <v>0</v>
-      </c>
-      <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K19"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId18"/>
-    <hyperlink ref="K3" r:id="rId19"/>
-    <hyperlink ref="K4" r:id="rId20"/>
-    <hyperlink ref="K5" r:id="rId21"/>
-    <hyperlink ref="K6" r:id="rId22"/>
-    <hyperlink ref="K7" r:id="rId23"/>
-    <hyperlink ref="K8" r:id="rId24"/>
-    <hyperlink ref="K9" r:id="rId25"/>
-    <hyperlink ref="K10" r:id="rId26"/>
-    <hyperlink ref="K11" r:id="rId27"/>
-    <hyperlink ref="K12" r:id="rId28"/>
-    <hyperlink ref="K13" r:id="rId29"/>
-    <hyperlink ref="K14" r:id="rId30"/>
-    <hyperlink ref="K15" r:id="rId31"/>
-    <hyperlink ref="K16" r:id="rId32"/>
-    <hyperlink ref="K17" r:id="rId33"/>
-    <hyperlink ref="K18" r:id="rId34"/>
-    <hyperlink ref="K19" r:id="rId35"/>
-  </hyperlinks>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
+++ b/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
@@ -16,6 +16,7 @@
     <sheet name="20231211041844 - Dec 11 2023" sheetId="9" r:id="rId10"/>
     <sheet name="20231212041822 - Dec 12 2023" sheetId="10" r:id="rId11"/>
     <sheet name="20231213041820 - Dec 13 2023" sheetId="11" r:id="rId12"/>
+    <sheet name="20231214041814 - Dec 14 2023" sheetId="12" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20231203113249 - Dec 03 2023'!$A$1:$K$19</definedName>
@@ -29,6 +30,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'20231211041844 - Dec 11 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'20231212041822 - Dec 12 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'20231213041820 - Dec 13 2023'!$A$1:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'20231214041814 - Dec 14 2023'!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -293,8 +295,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -936,24 +939,24 @@
   </sheetData>
   <autoFilter ref="A1:K19"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId171"/>
-    <hyperlink ref="K3" r:id="rId172"/>
-    <hyperlink ref="K4" r:id="rId173"/>
-    <hyperlink ref="K5" r:id="rId174"/>
-    <hyperlink ref="K6" r:id="rId175"/>
-    <hyperlink ref="K7" r:id="rId176"/>
-    <hyperlink ref="K8" r:id="rId177"/>
-    <hyperlink ref="K9" r:id="rId178"/>
-    <hyperlink ref="K10" r:id="rId179"/>
-    <hyperlink ref="K11" r:id="rId180"/>
-    <hyperlink ref="K12" r:id="rId181"/>
-    <hyperlink ref="K13" r:id="rId182"/>
-    <hyperlink ref="K14" r:id="rId183"/>
-    <hyperlink ref="K15" r:id="rId184"/>
-    <hyperlink ref="K16" r:id="rId185"/>
-    <hyperlink ref="K17" r:id="rId186"/>
-    <hyperlink ref="K18" r:id="rId187"/>
-    <hyperlink ref="K19" r:id="rId188"/>
+    <hyperlink ref="K2" r:id="rId188"/>
+    <hyperlink ref="K3" r:id="rId189"/>
+    <hyperlink ref="K4" r:id="rId190"/>
+    <hyperlink ref="K5" r:id="rId191"/>
+    <hyperlink ref="K6" r:id="rId192"/>
+    <hyperlink ref="K7" r:id="rId193"/>
+    <hyperlink ref="K8" r:id="rId194"/>
+    <hyperlink ref="K9" r:id="rId195"/>
+    <hyperlink ref="K10" r:id="rId196"/>
+    <hyperlink ref="K11" r:id="rId197"/>
+    <hyperlink ref="K12" r:id="rId198"/>
+    <hyperlink ref="K13" r:id="rId199"/>
+    <hyperlink ref="K14" r:id="rId200"/>
+    <hyperlink ref="K15" r:id="rId201"/>
+    <hyperlink ref="K16" r:id="rId202"/>
+    <hyperlink ref="K17" r:id="rId203"/>
+    <hyperlink ref="K18" r:id="rId204"/>
+    <hyperlink ref="K19" r:id="rId205"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -1575,6 +1578,651 @@
         <v>560</v>
       </c>
       <c r="K19" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId35"/>
+    <hyperlink ref="K3" r:id="rId36"/>
+    <hyperlink ref="K4" r:id="rId37"/>
+    <hyperlink ref="K5" r:id="rId38"/>
+    <hyperlink ref="K6" r:id="rId39"/>
+    <hyperlink ref="K7" r:id="rId40"/>
+    <hyperlink ref="K8" r:id="rId41"/>
+    <hyperlink ref="K9" r:id="rId42"/>
+    <hyperlink ref="K10" r:id="rId43"/>
+    <hyperlink ref="K11" r:id="rId44"/>
+    <hyperlink ref="K12" r:id="rId45"/>
+    <hyperlink ref="K13" r:id="rId46"/>
+    <hyperlink ref="K14" r:id="rId47"/>
+    <hyperlink ref="K15" r:id="rId48"/>
+    <hyperlink ref="K16" r:id="rId49"/>
+    <hyperlink ref="K17" r:id="rId50"/>
+    <hyperlink ref="K18" r:id="rId51"/>
+    <hyperlink ref="K19" r:id="rId52"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70985</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>127071</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4282</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45089</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1551</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35762</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1171</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32249</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1377</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48275</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1245</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33682</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1197</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>642</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19805</v>
+      </c>
+      <c r="G9" s="0">
+        <v>405</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>746</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28535</v>
+      </c>
+      <c r="G10" s="0">
+        <v>702</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29935</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17829</v>
+      </c>
+      <c r="G12" s="0">
+        <v>469</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>509</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22582</v>
+      </c>
+      <c r="G13" s="0">
+        <v>501</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>584</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>17039</v>
+      </c>
+      <c r="G14" s="0">
+        <v>239</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31625</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1003</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>495</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25488</v>
+      </c>
+      <c r="G16" s="0">
+        <v>790</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>658</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>15097</v>
+      </c>
+      <c r="G17" s="0">
+        <v>373</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>425</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>14116</v>
+      </c>
+      <c r="G18" s="0">
+        <v>385</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>224</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>15071</v>
+      </c>
+      <c r="G19" s="0">
+        <v>315</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>560</v>
+      </c>
+      <c r="K19" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1604,7 +2252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -1664,7 +2312,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70985</v>
+        <v>70987</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -1675,7 +2323,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1696,7 +2344,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127071</v>
+        <v>127082</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -1707,7 +2355,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1728,7 +2376,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="G4" s="0">
         <v>1551</v>
@@ -1739,7 +2387,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1760,7 +2408,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35762</v>
+        <v>35767</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -1771,7 +2419,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1792,7 +2440,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32249</v>
+        <v>32250</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -1803,7 +2451,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1824,10 +2472,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48275</v>
+        <v>48282</v>
       </c>
       <c r="G7" s="0">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1835,7 +2483,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1856,7 +2504,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33682</v>
+        <v>33691</v>
       </c>
       <c r="G8" s="0">
         <v>1197</v>
@@ -1867,7 +2515,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1888,7 +2536,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19805</v>
+        <v>19811</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -1899,7 +2547,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1931,7 +2579,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1952,7 +2600,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29935</v>
+        <v>29939</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -1963,7 +2611,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1984,7 +2632,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17829</v>
+        <v>17835</v>
       </c>
       <c r="G12" s="0">
         <v>469</v>
@@ -1993,9 +2641,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>509</v>
-      </c>
-      <c r="K12" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2016,7 +2664,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22582</v>
+        <v>22607</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -2027,7 +2675,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2048,7 +2696,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17039</v>
+        <v>17048</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -2059,7 +2707,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2080,7 +2728,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31625</v>
+        <v>31633</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -2091,7 +2739,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="12" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2112,18 +2760,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25488</v>
+        <v>25526</v>
       </c>
       <c r="G16" s="0">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>658</v>
-      </c>
-      <c r="K16" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2144,18 +2792,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15097</v>
+        <v>15147</v>
       </c>
       <c r="G17" s="0">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>425</v>
-      </c>
-      <c r="K17" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2176,10 +2824,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14116</v>
+        <v>14132</v>
       </c>
       <c r="G18" s="0">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -2187,7 +2835,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2208,18 +2856,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15071</v>
+        <v>15100</v>
       </c>
       <c r="G19" s="0">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2871,6 +3519,651 @@
   </sheetData>
   <autoFilter ref="A1:K19"/>
   <hyperlinks>
+    <hyperlink ref="K2" r:id="rId171"/>
+    <hyperlink ref="K3" r:id="rId172"/>
+    <hyperlink ref="K4" r:id="rId173"/>
+    <hyperlink ref="K5" r:id="rId174"/>
+    <hyperlink ref="K6" r:id="rId175"/>
+    <hyperlink ref="K7" r:id="rId176"/>
+    <hyperlink ref="K8" r:id="rId177"/>
+    <hyperlink ref="K9" r:id="rId178"/>
+    <hyperlink ref="K10" r:id="rId179"/>
+    <hyperlink ref="K11" r:id="rId180"/>
+    <hyperlink ref="K12" r:id="rId181"/>
+    <hyperlink ref="K13" r:id="rId182"/>
+    <hyperlink ref="K14" r:id="rId183"/>
+    <hyperlink ref="K15" r:id="rId184"/>
+    <hyperlink ref="K16" r:id="rId185"/>
+    <hyperlink ref="K17" r:id="rId186"/>
+    <hyperlink ref="K18" r:id="rId187"/>
+    <hyperlink ref="K19" r:id="rId188"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70952</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>126982</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4283</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2833</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45070</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1550</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35743</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1172</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32220</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1377</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48227</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1246</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33618</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1194</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>641</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19792</v>
+      </c>
+      <c r="G9" s="0">
+        <v>406</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>747</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28515</v>
+      </c>
+      <c r="G10" s="0">
+        <v>701</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29882</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17783</v>
+      </c>
+      <c r="G12" s="0">
+        <v>470</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>520</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22364</v>
+      </c>
+      <c r="G13" s="0">
+        <v>498</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>581</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>16966</v>
+      </c>
+      <c r="G14" s="0">
+        <v>240</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31502</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1004</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>497</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25121</v>
+      </c>
+      <c r="G16" s="0">
+        <v>780</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>653</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>14744</v>
+      </c>
+      <c r="G17" s="0">
+        <v>368</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>420</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>13943</v>
+      </c>
+      <c r="G18" s="0">
+        <v>384</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>223</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>14727</v>
+      </c>
+      <c r="G19" s="0">
+        <v>311</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>560</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
     <hyperlink ref="K2" r:id="rId154"/>
     <hyperlink ref="K3" r:id="rId155"/>
     <hyperlink ref="K4" r:id="rId156"/>
@@ -2894,7 +4187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2954,7 +4247,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70952</v>
+        <v>70961</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2965,7 +4258,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2986,7 +4279,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126982</v>
+        <v>126997</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -2997,7 +4290,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3018,7 +4311,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45070</v>
+        <v>45075</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -3029,7 +4322,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3050,7 +4343,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35743</v>
+        <v>35746</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -3061,7 +4354,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3082,7 +4375,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32220</v>
+        <v>32222</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -3093,7 +4386,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3114,7 +4407,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48227</v>
+        <v>48233</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -3125,7 +4418,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3146,7 +4439,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33618</v>
+        <v>33626</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -3157,7 +4450,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3178,7 +4471,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19792</v>
+        <v>19797</v>
       </c>
       <c r="G9" s="0">
         <v>406</v>
@@ -3189,7 +4482,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3210,7 +4503,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28515</v>
+        <v>28517</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -3221,7 +4514,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3242,7 +4535,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29882</v>
+        <v>29888</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3253,7 +4546,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3274,7 +4567,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17783</v>
+        <v>17786</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3283,9 +4576,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>520</v>
-      </c>
-      <c r="K12" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3306,10 +4599,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22364</v>
+        <v>22381</v>
       </c>
       <c r="G13" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -3317,7 +4610,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3338,7 +4631,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16966</v>
+        <v>16976</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -3349,7 +4642,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3370,7 +4663,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31502</v>
+        <v>31517</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -3381,7 +4674,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3402,10 +4695,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25121</v>
+        <v>25168</v>
       </c>
       <c r="G16" s="0">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -3413,7 +4706,7 @@
       <c r="J16" s="0">
         <v>653</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3434,10 +4727,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14744</v>
+        <v>14774</v>
       </c>
       <c r="G17" s="0">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -3445,7 +4738,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3466,7 +4759,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13943</v>
+        <v>13959</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -3477,7 +4770,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3498,18 +4791,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14727</v>
+        <v>14768</v>
       </c>
       <c r="G19" s="0">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3539,7 +4832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -3599,7 +4892,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70961</v>
+        <v>70965</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -3610,7 +4903,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3631,7 +4924,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126997</v>
+        <v>127005</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -3642,7 +4935,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3663,7 +4956,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -3674,7 +4967,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3695,10 +4988,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35746</v>
+        <v>35751</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -3706,7 +4999,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3727,10 +5020,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32222</v>
+        <v>32227</v>
       </c>
       <c r="G6" s="0">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -3738,7 +5031,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3759,7 +5052,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48233</v>
+        <v>48240</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -3770,7 +5063,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3791,7 +5084,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33626</v>
+        <v>33629</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -3802,7 +5095,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3823,10 +5116,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19797</v>
+        <v>19798</v>
       </c>
       <c r="G9" s="0">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -3834,7 +5127,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3855,7 +5148,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28517</v>
+        <v>28521</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -3866,7 +5159,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3887,7 +5180,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29888</v>
+        <v>29895</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3898,7 +5191,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3919,7 +5212,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17786</v>
+        <v>17794</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3930,7 +5223,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3951,7 +5244,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22381</v>
+        <v>22397</v>
       </c>
       <c r="G13" s="0">
         <v>500</v>
@@ -3962,7 +5255,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3983,7 +5276,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16976</v>
+        <v>16984</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -3994,7 +5287,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4015,7 +5308,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31517</v>
+        <v>31533</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -4026,7 +5319,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4047,7 +5340,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25168</v>
+        <v>25214</v>
       </c>
       <c r="G16" s="0">
         <v>781</v>
@@ -4056,9 +5349,9 @@
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>653</v>
-      </c>
-      <c r="K16" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4079,10 +5372,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14774</v>
+        <v>14825</v>
       </c>
       <c r="G17" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -4090,7 +5383,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4111,7 +5404,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13959</v>
+        <v>13991</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -4122,7 +5415,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4143,10 +5436,10 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14768</v>
+        <v>14813</v>
       </c>
       <c r="G19" s="0">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -4154,7 +5447,7 @@
       <c r="J19" s="0">
         <v>559</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4184,7 +5477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -4244,7 +5537,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70965</v>
+        <v>70964</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -4255,7 +5548,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4276,18 +5569,18 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127005</v>
+        <v>127014</v>
       </c>
       <c r="G3" s="0">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2833</v>
-      </c>
-      <c r="K3" s="5" t="s">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4308,7 +5601,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45076</v>
+        <v>45079</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -4319,7 +5612,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4340,7 +5633,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35751</v>
+        <v>35753</v>
       </c>
       <c r="G5" s="0">
         <v>1173</v>
@@ -4351,7 +5644,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4372,7 +5665,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32227</v>
+        <v>32230</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -4383,7 +5676,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4404,7 +5697,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48240</v>
+        <v>48248</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -4415,7 +5708,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4436,18 +5729,18 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33629</v>
+        <v>33636</v>
       </c>
       <c r="G8" s="0">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>641</v>
-      </c>
-      <c r="K8" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4468,7 +5761,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19798</v>
+        <v>19799</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -4477,9 +5770,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>747</v>
-      </c>
-      <c r="K9" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4500,7 +5793,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28521</v>
+        <v>28526</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -4511,7 +5804,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4532,7 +5825,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29895</v>
+        <v>29899</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -4543,7 +5836,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4564,7 +5857,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17794</v>
+        <v>17802</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -4575,7 +5868,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4596,10 +5889,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22397</v>
+        <v>22422</v>
       </c>
       <c r="G13" s="0">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -4607,7 +5900,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4628,7 +5921,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16984</v>
+        <v>16989</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -4639,7 +5932,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4660,7 +5953,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31533</v>
+        <v>31541</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -4669,9 +5962,9 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>497</v>
-      </c>
-      <c r="K15" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4692,18 +5985,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25214</v>
+        <v>25265</v>
       </c>
       <c r="G16" s="0">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4724,10 +6017,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14825</v>
+        <v>14874</v>
       </c>
       <c r="G17" s="0">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -4735,7 +6028,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4756,10 +6049,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13991</v>
+        <v>14006</v>
       </c>
       <c r="G18" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -4767,7 +6060,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4788,7 +6081,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14813</v>
+        <v>14863</v>
       </c>
       <c r="G19" s="0">
         <v>313</v>
@@ -4797,9 +6090,9 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>559</v>
-      </c>
-      <c r="K19" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4829,7 +6122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -4889,7 +6182,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70964</v>
+        <v>70969</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -4900,7 +6193,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4921,10 +6214,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127014</v>
+        <v>127035</v>
       </c>
       <c r="G3" s="0">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -4932,7 +6225,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4953,7 +6246,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -4964,7 +6257,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4988,7 +6281,7 @@
         <v>35753</v>
       </c>
       <c r="G5" s="0">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -4996,7 +6289,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5017,7 +6310,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32230</v>
+        <v>32243</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -5028,7 +6321,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5049,7 +6342,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48248</v>
+        <v>48258</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -5060,7 +6353,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5081,7 +6374,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33636</v>
+        <v>33642</v>
       </c>
       <c r="G8" s="0">
         <v>1195</v>
@@ -5092,7 +6385,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5113,7 +6406,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19799</v>
+        <v>19800</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -5124,7 +6417,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5145,7 +6438,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28526</v>
+        <v>28530</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -5156,7 +6449,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5177,7 +6470,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29899</v>
+        <v>29904</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -5188,7 +6481,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5209,7 +6502,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17802</v>
+        <v>17808</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -5220,7 +6513,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5241,7 +6534,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22422</v>
+        <v>22454</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -5250,9 +6543,9 @@
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>581</v>
-      </c>
-      <c r="K13" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5273,7 +6566,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16989</v>
+        <v>16999</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -5284,7 +6577,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5305,10 +6598,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31541</v>
+        <v>31562</v>
       </c>
       <c r="G15" s="0">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -5316,7 +6609,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5337,18 +6630,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25265</v>
+        <v>25314</v>
       </c>
       <c r="G16" s="0">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>651</v>
-      </c>
-      <c r="K16" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5369,18 +6662,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14874</v>
+        <v>14929</v>
       </c>
       <c r="G17" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>420</v>
-      </c>
-      <c r="K17" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5401,7 +6694,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14006</v>
+        <v>14025</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -5412,7 +6705,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5433,18 +6726,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14863</v>
+        <v>14915</v>
       </c>
       <c r="G19" s="0">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5474,7 +6767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -5534,7 +6827,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70969</v>
+        <v>70975</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -5545,7 +6838,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5566,7 +6859,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127035</v>
+        <v>127049</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -5577,7 +6870,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5598,7 +6891,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45080</v>
+        <v>45084</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -5609,7 +6902,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5630,10 +6923,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35753</v>
+        <v>35754</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -5641,7 +6934,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5662,7 +6955,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32243</v>
+        <v>32247</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -5673,7 +6966,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5694,7 +6987,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48258</v>
+        <v>48264</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -5705,7 +6998,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5726,10 +7019,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33642</v>
+        <v>33649</v>
       </c>
       <c r="G8" s="0">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -5737,7 +7030,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5769,7 +7062,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5790,7 +7083,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28530</v>
+        <v>28531</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -5801,7 +7094,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5822,7 +7115,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29904</v>
+        <v>29918</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -5833,7 +7126,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5854,10 +7147,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17808</v>
+        <v>17813</v>
       </c>
       <c r="G12" s="0">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -5865,7 +7158,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5886,7 +7179,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22454</v>
+        <v>22486</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -5897,7 +7190,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5918,10 +7211,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16999</v>
+        <v>17009</v>
       </c>
       <c r="G14" s="0">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -5929,7 +7222,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5950,7 +7243,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31562</v>
+        <v>31576</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -5961,7 +7254,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5982,18 +7275,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25314</v>
+        <v>25353</v>
       </c>
       <c r="G16" s="0">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6014,18 +7307,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14929</v>
+        <v>14959</v>
       </c>
       <c r="G17" s="0">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>421</v>
-      </c>
-      <c r="K17" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6046,7 +7339,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14025</v>
+        <v>14053</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -6057,7 +7350,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6078,7 +7371,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14915</v>
+        <v>14952</v>
       </c>
       <c r="G19" s="0">
         <v>314</v>
@@ -6089,7 +7382,7 @@
       <c r="J19" s="0">
         <v>561</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6119,7 +7412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -6179,7 +7472,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70975</v>
+        <v>70979</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -6190,7 +7483,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6211,7 +7504,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127049</v>
+        <v>127059</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -6222,7 +7515,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6243,7 +7536,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45084</v>
+        <v>45081</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -6254,7 +7547,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6275,7 +7568,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35754</v>
+        <v>35755</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -6286,7 +7579,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6307,10 +7600,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32247</v>
+        <v>32249</v>
       </c>
       <c r="G6" s="0">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -6318,7 +7611,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6339,7 +7632,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48264</v>
+        <v>48266</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -6350,7 +7643,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -6371,7 +7664,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33649</v>
+        <v>33660</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -6382,7 +7675,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6403,7 +7696,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19800</v>
+        <v>19802</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -6414,7 +7707,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6446,7 +7739,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6467,7 +7760,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29918</v>
+        <v>29925</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -6478,7 +7771,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6499,7 +7792,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17813</v>
+        <v>17820</v>
       </c>
       <c r="G12" s="0">
         <v>469</v>
@@ -6510,7 +7803,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6531,7 +7824,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22486</v>
+        <v>22522</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -6542,7 +7835,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6563,7 +7856,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17009</v>
+        <v>17025</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -6574,7 +7867,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6595,7 +7888,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31576</v>
+        <v>31592</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -6606,7 +7899,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -6627,7 +7920,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25353</v>
+        <v>25405</v>
       </c>
       <c r="G16" s="0">
         <v>789</v>
@@ -6638,7 +7931,7 @@
       <c r="J16" s="0">
         <v>655</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6659,7 +7952,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14959</v>
+        <v>15013</v>
       </c>
       <c r="G17" s="0">
         <v>372</v>
@@ -6668,9 +7961,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>422</v>
-      </c>
-      <c r="K17" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6691,7 +7984,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14053</v>
+        <v>14073</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -6700,9 +7993,9 @@
         <v>0</v>
       </c>
       <c r="J18" s="0">
-        <v>223</v>
-      </c>
-      <c r="K18" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6723,18 +8016,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14952</v>
+        <v>14997</v>
       </c>
       <c r="G19" s="0">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>561</v>
-      </c>
-      <c r="K19" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6762,649 +8055,4 @@
   </hyperlinks>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2018</v>
-      </c>
-      <c r="C2" s="0">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
-        <v>70979</v>
-      </c>
-      <c r="G2" s="0">
-        <v>1790</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>1214</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2018</v>
-      </c>
-      <c r="C3" s="0">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="0">
-        <v>127059</v>
-      </c>
-      <c r="G3" s="0">
-        <v>4283</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>2834</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="0">
-        <v>4</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="0">
-        <v>45081</v>
-      </c>
-      <c r="G4" s="0">
-        <v>1550</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
-        <v>1022</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="0">
-        <v>8</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="0">
-        <v>35755</v>
-      </c>
-      <c r="G5" s="0">
-        <v>1171</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
-        <v>834</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="0">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="0">
-        <v>32249</v>
-      </c>
-      <c r="G6" s="0">
-        <v>1377</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
-        <v>472</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="0">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="0">
-        <v>48266</v>
-      </c>
-      <c r="G7" s="0">
-        <v>1246</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>1172</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C8" s="0">
-        <v>5</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="0">
-        <v>33660</v>
-      </c>
-      <c r="G8" s="0">
-        <v>1196</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>642</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C9" s="0">
-        <v>5</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="0">
-        <v>19802</v>
-      </c>
-      <c r="G9" s="0">
-        <v>405</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>746</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C10" s="0">
-        <v>5</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="0">
-        <v>28531</v>
-      </c>
-      <c r="G10" s="0">
-        <v>701</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>562</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="0">
-        <v>10</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="0">
-        <v>29925</v>
-      </c>
-      <c r="G11" s="0">
-        <v>621</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>1955</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2022</v>
-      </c>
-      <c r="C12" s="0">
-        <v>10</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="0">
-        <v>17820</v>
-      </c>
-      <c r="G12" s="0">
-        <v>469</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>509</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2022</v>
-      </c>
-      <c r="C13" s="0">
-        <v>11</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="0">
-        <v>22522</v>
-      </c>
-      <c r="G13" s="0">
-        <v>501</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>584</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C14" s="0">
-        <v>3</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="0">
-        <v>17025</v>
-      </c>
-      <c r="G14" s="0">
-        <v>239</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>113</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C15" s="0">
-        <v>3</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="0">
-        <v>31592</v>
-      </c>
-      <c r="G15" s="0">
-        <v>1003</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>495</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C16" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="0">
-        <v>25405</v>
-      </c>
-      <c r="G16" s="0">
-        <v>789</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>655</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="0">
-        <v>15013</v>
-      </c>
-      <c r="G17" s="0">
-        <v>372</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>423</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C18" s="0">
-        <v>9</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="0">
-        <v>14073</v>
-      </c>
-      <c r="G18" s="0">
-        <v>385</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>224</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C19" s="0">
-        <v>10</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="0">
-        <v>14997</v>
-      </c>
-      <c r="G19" s="0">
-        <v>315</v>
-      </c>
-      <c r="I19" s="0">
-        <v>0</v>
-      </c>
-      <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K19"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId35"/>
-    <hyperlink ref="K3" r:id="rId36"/>
-    <hyperlink ref="K4" r:id="rId37"/>
-    <hyperlink ref="K5" r:id="rId38"/>
-    <hyperlink ref="K6" r:id="rId39"/>
-    <hyperlink ref="K7" r:id="rId40"/>
-    <hyperlink ref="K8" r:id="rId41"/>
-    <hyperlink ref="K9" r:id="rId42"/>
-    <hyperlink ref="K10" r:id="rId43"/>
-    <hyperlink ref="K11" r:id="rId44"/>
-    <hyperlink ref="K12" r:id="rId45"/>
-    <hyperlink ref="K13" r:id="rId46"/>
-    <hyperlink ref="K14" r:id="rId47"/>
-    <hyperlink ref="K15" r:id="rId48"/>
-    <hyperlink ref="K16" r:id="rId49"/>
-    <hyperlink ref="K17" r:id="rId50"/>
-    <hyperlink ref="K18" r:id="rId51"/>
-    <hyperlink ref="K19" r:id="rId52"/>
-  </hyperlinks>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
+++ b/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
@@ -17,6 +17,7 @@
     <sheet name="20231212041822 - Dec 12 2023" sheetId="10" r:id="rId11"/>
     <sheet name="20231213041820 - Dec 13 2023" sheetId="11" r:id="rId12"/>
     <sheet name="20231214041814 - Dec 14 2023" sheetId="12" r:id="rId13"/>
+    <sheet name="20231215041825 - Dec 15 2023" sheetId="13" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20231203113249 - Dec 03 2023'!$A$1:$K$19</definedName>
@@ -31,6 +32,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'20231212041822 - Dec 12 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'20231213041820 - Dec 13 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'20231214041814 - Dec 14 2023'!$A$1:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'20231215041825 - Dec 15 2023'!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -295,8 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -939,24 +942,24 @@
   </sheetData>
   <autoFilter ref="A1:K19"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId188"/>
-    <hyperlink ref="K3" r:id="rId189"/>
-    <hyperlink ref="K4" r:id="rId190"/>
-    <hyperlink ref="K5" r:id="rId191"/>
-    <hyperlink ref="K6" r:id="rId192"/>
-    <hyperlink ref="K7" r:id="rId193"/>
-    <hyperlink ref="K8" r:id="rId194"/>
-    <hyperlink ref="K9" r:id="rId195"/>
-    <hyperlink ref="K10" r:id="rId196"/>
-    <hyperlink ref="K11" r:id="rId197"/>
-    <hyperlink ref="K12" r:id="rId198"/>
-    <hyperlink ref="K13" r:id="rId199"/>
-    <hyperlink ref="K14" r:id="rId200"/>
-    <hyperlink ref="K15" r:id="rId201"/>
-    <hyperlink ref="K16" r:id="rId202"/>
-    <hyperlink ref="K17" r:id="rId203"/>
-    <hyperlink ref="K18" r:id="rId204"/>
-    <hyperlink ref="K19" r:id="rId205"/>
+    <hyperlink ref="K2" r:id="rId205"/>
+    <hyperlink ref="K3" r:id="rId206"/>
+    <hyperlink ref="K4" r:id="rId207"/>
+    <hyperlink ref="K5" r:id="rId208"/>
+    <hyperlink ref="K6" r:id="rId209"/>
+    <hyperlink ref="K7" r:id="rId210"/>
+    <hyperlink ref="K8" r:id="rId211"/>
+    <hyperlink ref="K9" r:id="rId212"/>
+    <hyperlink ref="K10" r:id="rId213"/>
+    <hyperlink ref="K11" r:id="rId214"/>
+    <hyperlink ref="K12" r:id="rId215"/>
+    <hyperlink ref="K13" r:id="rId216"/>
+    <hyperlink ref="K14" r:id="rId217"/>
+    <hyperlink ref="K15" r:id="rId218"/>
+    <hyperlink ref="K16" r:id="rId219"/>
+    <hyperlink ref="K17" r:id="rId220"/>
+    <hyperlink ref="K18" r:id="rId221"/>
+    <hyperlink ref="K19" r:id="rId222"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -1578,6 +1581,651 @@
         <v>560</v>
       </c>
       <c r="K19" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId52"/>
+    <hyperlink ref="K3" r:id="rId53"/>
+    <hyperlink ref="K4" r:id="rId54"/>
+    <hyperlink ref="K5" r:id="rId55"/>
+    <hyperlink ref="K6" r:id="rId56"/>
+    <hyperlink ref="K7" r:id="rId57"/>
+    <hyperlink ref="K8" r:id="rId58"/>
+    <hyperlink ref="K9" r:id="rId59"/>
+    <hyperlink ref="K10" r:id="rId60"/>
+    <hyperlink ref="K11" r:id="rId61"/>
+    <hyperlink ref="K12" r:id="rId62"/>
+    <hyperlink ref="K13" r:id="rId63"/>
+    <hyperlink ref="K14" r:id="rId64"/>
+    <hyperlink ref="K15" r:id="rId65"/>
+    <hyperlink ref="K16" r:id="rId66"/>
+    <hyperlink ref="K17" r:id="rId67"/>
+    <hyperlink ref="K18" r:id="rId68"/>
+    <hyperlink ref="K19" r:id="rId69"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70985</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>127071</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4282</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45089</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1551</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35762</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1171</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32249</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1377</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48275</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1245</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33682</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1197</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>642</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19805</v>
+      </c>
+      <c r="G9" s="0">
+        <v>405</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>746</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28535</v>
+      </c>
+      <c r="G10" s="0">
+        <v>702</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29935</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17829</v>
+      </c>
+      <c r="G12" s="0">
+        <v>469</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>509</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22582</v>
+      </c>
+      <c r="G13" s="0">
+        <v>501</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>584</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>17039</v>
+      </c>
+      <c r="G14" s="0">
+        <v>239</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31625</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1003</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>495</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25488</v>
+      </c>
+      <c r="G16" s="0">
+        <v>790</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>658</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>15097</v>
+      </c>
+      <c r="G17" s="0">
+        <v>373</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>425</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>14116</v>
+      </c>
+      <c r="G18" s="0">
+        <v>385</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>224</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>15071</v>
+      </c>
+      <c r="G19" s="0">
+        <v>315</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>560</v>
+      </c>
+      <c r="K19" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1607,7 +2255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -1667,7 +2315,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70985</v>
+        <v>70987</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -1678,7 +2326,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1699,7 +2347,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127071</v>
+        <v>127082</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -1710,7 +2358,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1731,7 +2379,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="G4" s="0">
         <v>1551</v>
@@ -1742,7 +2390,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1763,7 +2411,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35762</v>
+        <v>35767</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -1774,7 +2422,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1795,7 +2443,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32249</v>
+        <v>32250</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -1806,7 +2454,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1827,10 +2475,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48275</v>
+        <v>48282</v>
       </c>
       <c r="G7" s="0">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1838,7 +2486,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1859,7 +2507,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33682</v>
+        <v>33691</v>
       </c>
       <c r="G8" s="0">
         <v>1197</v>
@@ -1870,7 +2518,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1891,7 +2539,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19805</v>
+        <v>19811</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -1902,7 +2550,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1934,7 +2582,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1955,7 +2603,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29935</v>
+        <v>29939</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -1966,7 +2614,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1987,7 +2635,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17829</v>
+        <v>17835</v>
       </c>
       <c r="G12" s="0">
         <v>469</v>
@@ -1996,9 +2644,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>509</v>
-      </c>
-      <c r="K12" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2019,7 +2667,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22582</v>
+        <v>22607</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -2030,7 +2678,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2051,7 +2699,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17039</v>
+        <v>17048</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -2062,7 +2710,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2083,7 +2731,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31625</v>
+        <v>31633</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -2094,7 +2742,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="12" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2115,18 +2763,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25488</v>
+        <v>25526</v>
       </c>
       <c r="G16" s="0">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>658</v>
-      </c>
-      <c r="K16" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2147,18 +2795,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15097</v>
+        <v>15147</v>
       </c>
       <c r="G17" s="0">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>425</v>
-      </c>
-      <c r="K17" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2179,10 +2827,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14116</v>
+        <v>14132</v>
       </c>
       <c r="G18" s="0">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -2190,7 +2838,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2211,18 +2859,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15071</v>
+        <v>15100</v>
       </c>
       <c r="G19" s="0">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2252,7 +2900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2312,7 +2960,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70987</v>
+        <v>70988</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2323,7 +2971,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2344,7 +2992,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127082</v>
+        <v>127094</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -2355,7 +3003,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2376,7 +3024,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45092</v>
+        <v>45095</v>
       </c>
       <c r="G4" s="0">
         <v>1551</v>
@@ -2387,7 +3035,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2408,7 +3056,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35767</v>
+        <v>35771</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -2419,7 +3067,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2440,7 +3088,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32250</v>
+        <v>32253</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -2451,7 +3099,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2472,7 +3120,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48282</v>
+        <v>48290</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -2483,7 +3131,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2504,7 +3152,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33691</v>
+        <v>33700</v>
       </c>
       <c r="G8" s="0">
         <v>1197</v>
@@ -2515,7 +3163,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2536,7 +3184,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19811</v>
+        <v>19815</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -2545,9 +3193,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>746</v>
-      </c>
-      <c r="K9" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2568,7 +3216,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28535</v>
+        <v>28539</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -2579,7 +3227,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2600,7 +3248,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29939</v>
+        <v>29951</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -2611,7 +3259,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2632,10 +3280,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17835</v>
+        <v>17838</v>
       </c>
       <c r="G12" s="0">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -2643,7 +3291,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2664,7 +3312,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22607</v>
+        <v>22643</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -2675,7 +3323,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="13" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2696,7 +3344,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17048</v>
+        <v>17055</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -2705,9 +3353,9 @@
         <v>0</v>
       </c>
       <c r="J14" s="0">
-        <v>113</v>
-      </c>
-      <c r="K14" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2728,7 +3376,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31633</v>
+        <v>31646</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -2737,9 +3385,9 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>495</v>
-      </c>
-      <c r="K15" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="K15" s="13" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2760,18 +3408,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25526</v>
+        <v>25565</v>
       </c>
       <c r="G16" s="0">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>661</v>
-      </c>
-      <c r="K16" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="K16" s="13" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2792,10 +3440,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15147</v>
+        <v>15193</v>
       </c>
       <c r="G17" s="0">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -2803,7 +3451,7 @@
       <c r="J17" s="0">
         <v>428</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2824,7 +3472,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14132</v>
+        <v>14164</v>
       </c>
       <c r="G18" s="0">
         <v>386</v>
@@ -2835,7 +3483,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2856,18 +3504,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15100</v>
+        <v>15147</v>
       </c>
       <c r="G19" s="0">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>561</v>
-      </c>
-      <c r="K19" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="K19" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3519,6 +4167,651 @@
   </sheetData>
   <autoFilter ref="A1:K19"/>
   <hyperlinks>
+    <hyperlink ref="K2" r:id="rId188"/>
+    <hyperlink ref="K3" r:id="rId189"/>
+    <hyperlink ref="K4" r:id="rId190"/>
+    <hyperlink ref="K5" r:id="rId191"/>
+    <hyperlink ref="K6" r:id="rId192"/>
+    <hyperlink ref="K7" r:id="rId193"/>
+    <hyperlink ref="K8" r:id="rId194"/>
+    <hyperlink ref="K9" r:id="rId195"/>
+    <hyperlink ref="K10" r:id="rId196"/>
+    <hyperlink ref="K11" r:id="rId197"/>
+    <hyperlink ref="K12" r:id="rId198"/>
+    <hyperlink ref="K13" r:id="rId199"/>
+    <hyperlink ref="K14" r:id="rId200"/>
+    <hyperlink ref="K15" r:id="rId201"/>
+    <hyperlink ref="K16" r:id="rId202"/>
+    <hyperlink ref="K17" r:id="rId203"/>
+    <hyperlink ref="K18" r:id="rId204"/>
+    <hyperlink ref="K19" r:id="rId205"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70952</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>126982</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4283</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2833</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45070</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1550</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35743</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1172</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32220</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1377</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48227</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1246</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33618</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1194</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>641</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19792</v>
+      </c>
+      <c r="G9" s="0">
+        <v>406</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>747</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28515</v>
+      </c>
+      <c r="G10" s="0">
+        <v>701</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29882</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17783</v>
+      </c>
+      <c r="G12" s="0">
+        <v>470</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>520</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22364</v>
+      </c>
+      <c r="G13" s="0">
+        <v>498</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>581</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>16966</v>
+      </c>
+      <c r="G14" s="0">
+        <v>240</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31502</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1004</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>497</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25121</v>
+      </c>
+      <c r="G16" s="0">
+        <v>780</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>653</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>14744</v>
+      </c>
+      <c r="G17" s="0">
+        <v>368</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>420</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>13943</v>
+      </c>
+      <c r="G18" s="0">
+        <v>384</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>223</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>14727</v>
+      </c>
+      <c r="G19" s="0">
+        <v>311</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>560</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
     <hyperlink ref="K2" r:id="rId171"/>
     <hyperlink ref="K3" r:id="rId172"/>
     <hyperlink ref="K4" r:id="rId173"/>
@@ -3542,7 +4835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -3602,7 +4895,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70952</v>
+        <v>70961</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -3613,7 +4906,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3634,7 +4927,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126982</v>
+        <v>126997</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -3645,7 +4938,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3666,7 +4959,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45070</v>
+        <v>45075</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -3677,7 +4970,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3698,7 +4991,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35743</v>
+        <v>35746</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -3709,7 +5002,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3730,7 +5023,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32220</v>
+        <v>32222</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -3741,7 +5034,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3762,7 +5055,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48227</v>
+        <v>48233</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -3773,7 +5066,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3794,7 +5087,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33618</v>
+        <v>33626</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -3805,7 +5098,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3826,7 +5119,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19792</v>
+        <v>19797</v>
       </c>
       <c r="G9" s="0">
         <v>406</v>
@@ -3837,7 +5130,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3858,7 +5151,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28515</v>
+        <v>28517</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -3869,7 +5162,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3890,7 +5183,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29882</v>
+        <v>29888</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3901,7 +5194,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3922,7 +5215,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17783</v>
+        <v>17786</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3931,9 +5224,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>520</v>
-      </c>
-      <c r="K12" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3954,10 +5247,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22364</v>
+        <v>22381</v>
       </c>
       <c r="G13" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -3965,7 +5258,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3986,7 +5279,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16966</v>
+        <v>16976</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -3997,7 +5290,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4018,7 +5311,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31502</v>
+        <v>31517</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -4029,7 +5322,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4050,10 +5343,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25121</v>
+        <v>25168</v>
       </c>
       <c r="G16" s="0">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -4061,7 +5354,7 @@
       <c r="J16" s="0">
         <v>653</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4082,10 +5375,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14744</v>
+        <v>14774</v>
       </c>
       <c r="G17" s="0">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -4093,7 +5386,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4114,7 +5407,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13943</v>
+        <v>13959</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -4125,7 +5418,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4146,18 +5439,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14727</v>
+        <v>14768</v>
       </c>
       <c r="G19" s="0">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4187,7 +5480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -4247,7 +5540,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70961</v>
+        <v>70965</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -4258,7 +5551,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4279,7 +5572,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126997</v>
+        <v>127005</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -4290,7 +5583,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4311,7 +5604,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -4322,7 +5615,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4343,10 +5636,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35746</v>
+        <v>35751</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -4354,7 +5647,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4375,10 +5668,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32222</v>
+        <v>32227</v>
       </c>
       <c r="G6" s="0">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -4386,7 +5679,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4407,7 +5700,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48233</v>
+        <v>48240</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -4418,7 +5711,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4439,7 +5732,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33626</v>
+        <v>33629</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -4450,7 +5743,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4471,10 +5764,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19797</v>
+        <v>19798</v>
       </c>
       <c r="G9" s="0">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -4482,7 +5775,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4503,7 +5796,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28517</v>
+        <v>28521</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -4514,7 +5807,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4535,7 +5828,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29888</v>
+        <v>29895</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -4546,7 +5839,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4567,7 +5860,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17786</v>
+        <v>17794</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -4578,7 +5871,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4599,7 +5892,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22381</v>
+        <v>22397</v>
       </c>
       <c r="G13" s="0">
         <v>500</v>
@@ -4610,7 +5903,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4631,7 +5924,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16976</v>
+        <v>16984</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -4642,7 +5935,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4663,7 +5956,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31517</v>
+        <v>31533</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -4674,7 +5967,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4695,7 +5988,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25168</v>
+        <v>25214</v>
       </c>
       <c r="G16" s="0">
         <v>781</v>
@@ -4704,9 +5997,9 @@
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>653</v>
-      </c>
-      <c r="K16" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4727,10 +6020,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14774</v>
+        <v>14825</v>
       </c>
       <c r="G17" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -4738,7 +6031,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4759,7 +6052,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13959</v>
+        <v>13991</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -4770,7 +6063,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4791,10 +6084,10 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14768</v>
+        <v>14813</v>
       </c>
       <c r="G19" s="0">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -4802,7 +6095,7 @@
       <c r="J19" s="0">
         <v>559</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4832,7 +6125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -4892,7 +6185,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70965</v>
+        <v>70964</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -4903,7 +6196,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4924,18 +6217,18 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127005</v>
+        <v>127014</v>
       </c>
       <c r="G3" s="0">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2833</v>
-      </c>
-      <c r="K3" s="5" t="s">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4956,7 +6249,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45076</v>
+        <v>45079</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -4967,7 +6260,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4988,7 +6281,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35751</v>
+        <v>35753</v>
       </c>
       <c r="G5" s="0">
         <v>1173</v>
@@ -4999,7 +6292,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5020,7 +6313,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32227</v>
+        <v>32230</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -5031,7 +6324,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5052,7 +6345,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48240</v>
+        <v>48248</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -5063,7 +6356,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5084,18 +6377,18 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33629</v>
+        <v>33636</v>
       </c>
       <c r="G8" s="0">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>641</v>
-      </c>
-      <c r="K8" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5116,7 +6409,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19798</v>
+        <v>19799</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -5125,9 +6418,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>747</v>
-      </c>
-      <c r="K9" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5148,7 +6441,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28521</v>
+        <v>28526</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -5159,7 +6452,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5180,7 +6473,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29895</v>
+        <v>29899</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -5191,7 +6484,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5212,7 +6505,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17794</v>
+        <v>17802</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -5223,7 +6516,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5244,10 +6537,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22397</v>
+        <v>22422</v>
       </c>
       <c r="G13" s="0">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -5255,7 +6548,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5276,7 +6569,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16984</v>
+        <v>16989</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -5287,7 +6580,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5308,7 +6601,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31533</v>
+        <v>31541</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -5317,9 +6610,9 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>497</v>
-      </c>
-      <c r="K15" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5340,18 +6633,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25214</v>
+        <v>25265</v>
       </c>
       <c r="G16" s="0">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5372,10 +6665,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14825</v>
+        <v>14874</v>
       </c>
       <c r="G17" s="0">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -5383,7 +6676,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5404,10 +6697,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13991</v>
+        <v>14006</v>
       </c>
       <c r="G18" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -5415,7 +6708,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5436,7 +6729,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14813</v>
+        <v>14863</v>
       </c>
       <c r="G19" s="0">
         <v>313</v>
@@ -5445,9 +6738,9 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>559</v>
-      </c>
-      <c r="K19" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5477,7 +6770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -5537,7 +6830,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70964</v>
+        <v>70969</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -5548,7 +6841,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5569,10 +6862,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127014</v>
+        <v>127035</v>
       </c>
       <c r="G3" s="0">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -5580,7 +6873,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5601,7 +6894,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -5612,7 +6905,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5636,7 +6929,7 @@
         <v>35753</v>
       </c>
       <c r="G5" s="0">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -5644,7 +6937,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5665,7 +6958,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32230</v>
+        <v>32243</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -5676,7 +6969,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5697,7 +6990,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48248</v>
+        <v>48258</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -5708,7 +7001,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5729,7 +7022,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33636</v>
+        <v>33642</v>
       </c>
       <c r="G8" s="0">
         <v>1195</v>
@@ -5740,7 +7033,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5761,7 +7054,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19799</v>
+        <v>19800</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -5772,7 +7065,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5793,7 +7086,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28526</v>
+        <v>28530</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -5804,7 +7097,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5825,7 +7118,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29899</v>
+        <v>29904</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -5836,7 +7129,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5857,7 +7150,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17802</v>
+        <v>17808</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -5868,7 +7161,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5889,7 +7182,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22422</v>
+        <v>22454</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -5898,9 +7191,9 @@
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>581</v>
-      </c>
-      <c r="K13" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5921,7 +7214,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16989</v>
+        <v>16999</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -5932,7 +7225,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5953,10 +7246,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31541</v>
+        <v>31562</v>
       </c>
       <c r="G15" s="0">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -5964,7 +7257,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5985,18 +7278,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25265</v>
+        <v>25314</v>
       </c>
       <c r="G16" s="0">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>651</v>
-      </c>
-      <c r="K16" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6017,18 +7310,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14874</v>
+        <v>14929</v>
       </c>
       <c r="G17" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>420</v>
-      </c>
-      <c r="K17" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6049,7 +7342,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14006</v>
+        <v>14025</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -6060,7 +7353,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6081,18 +7374,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14863</v>
+        <v>14915</v>
       </c>
       <c r="G19" s="0">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6122,7 +7415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -6182,7 +7475,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70969</v>
+        <v>70975</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -6193,7 +7486,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6214,7 +7507,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127035</v>
+        <v>127049</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -6225,7 +7518,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6246,7 +7539,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45080</v>
+        <v>45084</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -6257,7 +7550,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6278,10 +7571,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35753</v>
+        <v>35754</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -6289,7 +7582,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6310,7 +7603,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32243</v>
+        <v>32247</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -6321,7 +7614,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6342,7 +7635,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48258</v>
+        <v>48264</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -6353,7 +7646,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -6374,10 +7667,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33642</v>
+        <v>33649</v>
       </c>
       <c r="G8" s="0">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -6385,7 +7678,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6417,7 +7710,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6438,7 +7731,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28530</v>
+        <v>28531</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -6449,7 +7742,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6470,7 +7763,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29904</v>
+        <v>29918</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -6481,7 +7774,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6502,10 +7795,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17808</v>
+        <v>17813</v>
       </c>
       <c r="G12" s="0">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -6513,7 +7806,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6534,7 +7827,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22454</v>
+        <v>22486</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -6545,7 +7838,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6566,10 +7859,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16999</v>
+        <v>17009</v>
       </c>
       <c r="G14" s="0">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -6577,7 +7870,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6598,7 +7891,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31562</v>
+        <v>31576</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -6609,7 +7902,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -6630,18 +7923,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25314</v>
+        <v>25353</v>
       </c>
       <c r="G16" s="0">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6662,18 +7955,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14929</v>
+        <v>14959</v>
       </c>
       <c r="G17" s="0">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>421</v>
-      </c>
-      <c r="K17" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6694,7 +7987,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14025</v>
+        <v>14053</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -6705,7 +7998,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6726,7 +8019,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14915</v>
+        <v>14952</v>
       </c>
       <c r="G19" s="0">
         <v>314</v>
@@ -6737,7 +8030,7 @@
       <c r="J19" s="0">
         <v>561</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6767,7 +8060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -6827,7 +8120,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70975</v>
+        <v>70979</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -6838,7 +8131,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6859,7 +8152,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127049</v>
+        <v>127059</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -6870,7 +8163,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6891,7 +8184,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45084</v>
+        <v>45081</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -6902,7 +8195,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6923,7 +8216,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35754</v>
+        <v>35755</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -6934,7 +8227,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6955,10 +8248,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32247</v>
+        <v>32249</v>
       </c>
       <c r="G6" s="0">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -6966,7 +8259,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6987,7 +8280,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48264</v>
+        <v>48266</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -6998,7 +8291,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7019,7 +8312,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33649</v>
+        <v>33660</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -7030,7 +8323,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7051,7 +8344,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19800</v>
+        <v>19802</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -7062,7 +8355,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7094,7 +8387,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7115,7 +8408,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29918</v>
+        <v>29925</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -7126,7 +8419,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7147,7 +8440,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17813</v>
+        <v>17820</v>
       </c>
       <c r="G12" s="0">
         <v>469</v>
@@ -7158,7 +8451,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7179,7 +8472,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22486</v>
+        <v>22522</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -7190,7 +8483,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7211,7 +8504,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17009</v>
+        <v>17025</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -7222,7 +8515,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7243,7 +8536,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31576</v>
+        <v>31592</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -7254,7 +8547,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7275,7 +8568,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25353</v>
+        <v>25405</v>
       </c>
       <c r="G16" s="0">
         <v>789</v>
@@ -7286,7 +8579,7 @@
       <c r="J16" s="0">
         <v>655</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7307,7 +8600,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14959</v>
+        <v>15013</v>
       </c>
       <c r="G17" s="0">
         <v>372</v>
@@ -7316,9 +8609,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>422</v>
-      </c>
-      <c r="K17" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7339,7 +8632,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14053</v>
+        <v>14073</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -7348,9 +8641,9 @@
         <v>0</v>
       </c>
       <c r="J18" s="0">
-        <v>223</v>
-      </c>
-      <c r="K18" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7371,18 +8664,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14952</v>
+        <v>14997</v>
       </c>
       <c r="G19" s="0">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>561</v>
-      </c>
-      <c r="K19" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7410,649 +8703,4 @@
   </hyperlinks>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2018</v>
-      </c>
-      <c r="C2" s="0">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
-        <v>70979</v>
-      </c>
-      <c r="G2" s="0">
-        <v>1790</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>1214</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2018</v>
-      </c>
-      <c r="C3" s="0">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="0">
-        <v>127059</v>
-      </c>
-      <c r="G3" s="0">
-        <v>4283</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>2834</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="0">
-        <v>4</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="0">
-        <v>45081</v>
-      </c>
-      <c r="G4" s="0">
-        <v>1550</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
-        <v>1022</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="0">
-        <v>8</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="0">
-        <v>35755</v>
-      </c>
-      <c r="G5" s="0">
-        <v>1171</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
-        <v>834</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="0">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="0">
-        <v>32249</v>
-      </c>
-      <c r="G6" s="0">
-        <v>1377</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
-        <v>472</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="0">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="0">
-        <v>48266</v>
-      </c>
-      <c r="G7" s="0">
-        <v>1246</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>1172</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C8" s="0">
-        <v>5</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="0">
-        <v>33660</v>
-      </c>
-      <c r="G8" s="0">
-        <v>1196</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>642</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C9" s="0">
-        <v>5</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="0">
-        <v>19802</v>
-      </c>
-      <c r="G9" s="0">
-        <v>405</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>746</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C10" s="0">
-        <v>5</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="0">
-        <v>28531</v>
-      </c>
-      <c r="G10" s="0">
-        <v>701</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>562</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="0">
-        <v>10</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="0">
-        <v>29925</v>
-      </c>
-      <c r="G11" s="0">
-        <v>621</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>1955</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2022</v>
-      </c>
-      <c r="C12" s="0">
-        <v>10</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="0">
-        <v>17820</v>
-      </c>
-      <c r="G12" s="0">
-        <v>469</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>509</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2022</v>
-      </c>
-      <c r="C13" s="0">
-        <v>11</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="0">
-        <v>22522</v>
-      </c>
-      <c r="G13" s="0">
-        <v>501</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>584</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C14" s="0">
-        <v>3</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="0">
-        <v>17025</v>
-      </c>
-      <c r="G14" s="0">
-        <v>239</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>113</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C15" s="0">
-        <v>3</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="0">
-        <v>31592</v>
-      </c>
-      <c r="G15" s="0">
-        <v>1003</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>495</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C16" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="0">
-        <v>25405</v>
-      </c>
-      <c r="G16" s="0">
-        <v>789</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>655</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="0">
-        <v>15013</v>
-      </c>
-      <c r="G17" s="0">
-        <v>372</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>423</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C18" s="0">
-        <v>9</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="0">
-        <v>14073</v>
-      </c>
-      <c r="G18" s="0">
-        <v>385</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>224</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C19" s="0">
-        <v>10</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="0">
-        <v>14997</v>
-      </c>
-      <c r="G19" s="0">
-        <v>315</v>
-      </c>
-      <c r="I19" s="0">
-        <v>0</v>
-      </c>
-      <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K19"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId52"/>
-    <hyperlink ref="K3" r:id="rId53"/>
-    <hyperlink ref="K4" r:id="rId54"/>
-    <hyperlink ref="K5" r:id="rId55"/>
-    <hyperlink ref="K6" r:id="rId56"/>
-    <hyperlink ref="K7" r:id="rId57"/>
-    <hyperlink ref="K8" r:id="rId58"/>
-    <hyperlink ref="K9" r:id="rId59"/>
-    <hyperlink ref="K10" r:id="rId60"/>
-    <hyperlink ref="K11" r:id="rId61"/>
-    <hyperlink ref="K12" r:id="rId62"/>
-    <hyperlink ref="K13" r:id="rId63"/>
-    <hyperlink ref="K14" r:id="rId64"/>
-    <hyperlink ref="K15" r:id="rId65"/>
-    <hyperlink ref="K16" r:id="rId66"/>
-    <hyperlink ref="K17" r:id="rId67"/>
-    <hyperlink ref="K18" r:id="rId68"/>
-    <hyperlink ref="K19" r:id="rId69"/>
-  </hyperlinks>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
+++ b/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
@@ -18,6 +18,7 @@
     <sheet name="20231213041820 - Dec 13 2023" sheetId="11" r:id="rId12"/>
     <sheet name="20231214041814 - Dec 14 2023" sheetId="12" r:id="rId13"/>
     <sheet name="20231215041825 - Dec 15 2023" sheetId="13" r:id="rId14"/>
+    <sheet name="20231216041746 - Dec 16 2023" sheetId="14" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20231203113249 - Dec 03 2023'!$A$1:$K$19</definedName>
@@ -33,6 +34,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'20231213041820 - Dec 13 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'20231214041814 - Dec 14 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'20231215041825 - Dec 15 2023'!$A$1:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'20231216041746 - Dec 16 2023'!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -297,8 +299,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -942,24 +945,24 @@
   </sheetData>
   <autoFilter ref="A1:K19"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId205"/>
-    <hyperlink ref="K3" r:id="rId206"/>
-    <hyperlink ref="K4" r:id="rId207"/>
-    <hyperlink ref="K5" r:id="rId208"/>
-    <hyperlink ref="K6" r:id="rId209"/>
-    <hyperlink ref="K7" r:id="rId210"/>
-    <hyperlink ref="K8" r:id="rId211"/>
-    <hyperlink ref="K9" r:id="rId212"/>
-    <hyperlink ref="K10" r:id="rId213"/>
-    <hyperlink ref="K11" r:id="rId214"/>
-    <hyperlink ref="K12" r:id="rId215"/>
-    <hyperlink ref="K13" r:id="rId216"/>
-    <hyperlink ref="K14" r:id="rId217"/>
-    <hyperlink ref="K15" r:id="rId218"/>
-    <hyperlink ref="K16" r:id="rId219"/>
-    <hyperlink ref="K17" r:id="rId220"/>
-    <hyperlink ref="K18" r:id="rId221"/>
-    <hyperlink ref="K19" r:id="rId222"/>
+    <hyperlink ref="K2" r:id="rId222"/>
+    <hyperlink ref="K3" r:id="rId223"/>
+    <hyperlink ref="K4" r:id="rId224"/>
+    <hyperlink ref="K5" r:id="rId225"/>
+    <hyperlink ref="K6" r:id="rId226"/>
+    <hyperlink ref="K7" r:id="rId227"/>
+    <hyperlink ref="K8" r:id="rId228"/>
+    <hyperlink ref="K9" r:id="rId229"/>
+    <hyperlink ref="K10" r:id="rId230"/>
+    <hyperlink ref="K11" r:id="rId231"/>
+    <hyperlink ref="K12" r:id="rId232"/>
+    <hyperlink ref="K13" r:id="rId233"/>
+    <hyperlink ref="K14" r:id="rId234"/>
+    <hyperlink ref="K15" r:id="rId235"/>
+    <hyperlink ref="K16" r:id="rId236"/>
+    <hyperlink ref="K17" r:id="rId237"/>
+    <hyperlink ref="K18" r:id="rId238"/>
+    <hyperlink ref="K19" r:id="rId239"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -1581,6 +1584,651 @@
         <v>560</v>
       </c>
       <c r="K19" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId69"/>
+    <hyperlink ref="K3" r:id="rId70"/>
+    <hyperlink ref="K4" r:id="rId71"/>
+    <hyperlink ref="K5" r:id="rId72"/>
+    <hyperlink ref="K6" r:id="rId73"/>
+    <hyperlink ref="K7" r:id="rId74"/>
+    <hyperlink ref="K8" r:id="rId75"/>
+    <hyperlink ref="K9" r:id="rId76"/>
+    <hyperlink ref="K10" r:id="rId77"/>
+    <hyperlink ref="K11" r:id="rId78"/>
+    <hyperlink ref="K12" r:id="rId79"/>
+    <hyperlink ref="K13" r:id="rId80"/>
+    <hyperlink ref="K14" r:id="rId81"/>
+    <hyperlink ref="K15" r:id="rId82"/>
+    <hyperlink ref="K16" r:id="rId83"/>
+    <hyperlink ref="K17" r:id="rId84"/>
+    <hyperlink ref="K18" r:id="rId85"/>
+    <hyperlink ref="K19" r:id="rId86"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70985</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>127071</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4282</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45089</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1551</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35762</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1171</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32249</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1377</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48275</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1245</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33682</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1197</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>642</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19805</v>
+      </c>
+      <c r="G9" s="0">
+        <v>405</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>746</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28535</v>
+      </c>
+      <c r="G10" s="0">
+        <v>702</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29935</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17829</v>
+      </c>
+      <c r="G12" s="0">
+        <v>469</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>509</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22582</v>
+      </c>
+      <c r="G13" s="0">
+        <v>501</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>584</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>17039</v>
+      </c>
+      <c r="G14" s="0">
+        <v>239</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31625</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1003</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>495</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25488</v>
+      </c>
+      <c r="G16" s="0">
+        <v>790</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>658</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>15097</v>
+      </c>
+      <c r="G17" s="0">
+        <v>373</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>425</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>14116</v>
+      </c>
+      <c r="G18" s="0">
+        <v>385</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>224</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>15071</v>
+      </c>
+      <c r="G19" s="0">
+        <v>315</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>560</v>
+      </c>
+      <c r="K19" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1610,7 +2258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -1670,7 +2318,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70985</v>
+        <v>70987</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -1681,7 +2329,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1702,7 +2350,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127071</v>
+        <v>127082</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -1713,7 +2361,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1734,7 +2382,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="G4" s="0">
         <v>1551</v>
@@ -1745,7 +2393,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1766,7 +2414,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35762</v>
+        <v>35767</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -1777,7 +2425,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1798,7 +2446,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32249</v>
+        <v>32250</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -1809,7 +2457,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1830,10 +2478,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48275</v>
+        <v>48282</v>
       </c>
       <c r="G7" s="0">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1841,7 +2489,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1862,7 +2510,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33682</v>
+        <v>33691</v>
       </c>
       <c r="G8" s="0">
         <v>1197</v>
@@ -1873,7 +2521,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1894,7 +2542,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19805</v>
+        <v>19811</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -1905,7 +2553,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1937,7 +2585,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1958,7 +2606,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29935</v>
+        <v>29939</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -1969,7 +2617,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1990,7 +2638,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17829</v>
+        <v>17835</v>
       </c>
       <c r="G12" s="0">
         <v>469</v>
@@ -1999,9 +2647,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>509</v>
-      </c>
-      <c r="K12" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2022,7 +2670,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22582</v>
+        <v>22607</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -2033,7 +2681,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2054,7 +2702,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17039</v>
+        <v>17048</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -2065,7 +2713,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2086,7 +2734,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31625</v>
+        <v>31633</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -2097,7 +2745,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="12" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2118,18 +2766,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25488</v>
+        <v>25526</v>
       </c>
       <c r="G16" s="0">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>658</v>
-      </c>
-      <c r="K16" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2150,18 +2798,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15097</v>
+        <v>15147</v>
       </c>
       <c r="G17" s="0">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>425</v>
-      </c>
-      <c r="K17" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2182,10 +2830,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14116</v>
+        <v>14132</v>
       </c>
       <c r="G18" s="0">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -2193,7 +2841,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2214,18 +2862,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15071</v>
+        <v>15100</v>
       </c>
       <c r="G19" s="0">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2255,7 +2903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2315,7 +2963,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70987</v>
+        <v>70988</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2326,7 +2974,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2347,7 +2995,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127082</v>
+        <v>127094</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -2358,7 +3006,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2379,7 +3027,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45092</v>
+        <v>45095</v>
       </c>
       <c r="G4" s="0">
         <v>1551</v>
@@ -2390,7 +3038,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2411,7 +3059,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35767</v>
+        <v>35771</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -2422,7 +3070,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2443,7 +3091,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32250</v>
+        <v>32253</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -2454,7 +3102,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2475,7 +3123,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48282</v>
+        <v>48290</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -2486,7 +3134,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2507,7 +3155,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33691</v>
+        <v>33700</v>
       </c>
       <c r="G8" s="0">
         <v>1197</v>
@@ -2518,7 +3166,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2539,7 +3187,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19811</v>
+        <v>19815</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -2548,9 +3196,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>746</v>
-      </c>
-      <c r="K9" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2571,7 +3219,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28535</v>
+        <v>28539</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -2582,7 +3230,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2603,7 +3251,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29939</v>
+        <v>29951</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -2614,7 +3262,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2635,10 +3283,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17835</v>
+        <v>17838</v>
       </c>
       <c r="G12" s="0">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -2646,7 +3294,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2667,7 +3315,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22607</v>
+        <v>22643</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -2678,7 +3326,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="13" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2699,7 +3347,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17048</v>
+        <v>17055</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -2708,9 +3356,9 @@
         <v>0</v>
       </c>
       <c r="J14" s="0">
-        <v>113</v>
-      </c>
-      <c r="K14" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2731,7 +3379,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31633</v>
+        <v>31646</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -2740,9 +3388,9 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>495</v>
-      </c>
-      <c r="K15" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="K15" s="13" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2763,18 +3411,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25526</v>
+        <v>25565</v>
       </c>
       <c r="G16" s="0">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>661</v>
-      </c>
-      <c r="K16" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="K16" s="13" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2795,10 +3443,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15147</v>
+        <v>15193</v>
       </c>
       <c r="G17" s="0">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -2806,7 +3454,7 @@
       <c r="J17" s="0">
         <v>428</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2827,7 +3475,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14132</v>
+        <v>14164</v>
       </c>
       <c r="G18" s="0">
         <v>386</v>
@@ -2838,7 +3486,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2859,18 +3507,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15100</v>
+        <v>15147</v>
       </c>
       <c r="G19" s="0">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>561</v>
-      </c>
-      <c r="K19" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="K19" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2900,7 +3548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2960,7 +3608,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70988</v>
+        <v>70996</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2971,7 +3619,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2992,7 +3640,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127094</v>
+        <v>127104</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -3003,7 +3651,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3027,7 +3675,7 @@
         <v>45095</v>
       </c>
       <c r="G4" s="0">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I4" s="0">
         <v>0</v>
@@ -3035,7 +3683,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3067,7 +3715,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="14" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3088,7 +3736,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32253</v>
+        <v>32255</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -3099,7 +3747,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3120,7 +3768,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48290</v>
+        <v>48297</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -3129,9 +3777,9 @@
         <v>0</v>
       </c>
       <c r="J7" s="0">
-        <v>1172</v>
-      </c>
-      <c r="K7" s="13" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3152,10 +3800,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33700</v>
+        <v>33704</v>
       </c>
       <c r="G8" s="0">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -3163,7 +3811,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3184,10 +3832,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19815</v>
+        <v>19818</v>
       </c>
       <c r="G9" s="0">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -3195,7 +3843,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3216,7 +3864,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28539</v>
+        <v>28542</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -3227,7 +3875,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3248,7 +3896,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29951</v>
+        <v>29953</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3259,7 +3907,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3280,7 +3928,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17838</v>
+        <v>17840</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3291,7 +3939,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="14" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3312,7 +3960,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22643</v>
+        <v>22675</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -3323,7 +3971,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3344,7 +3992,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17055</v>
+        <v>17067</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -3355,7 +4003,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3376,7 +4024,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31646</v>
+        <v>31653</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -3387,7 +4035,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="14" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3408,18 +4056,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25565</v>
+        <v>25607</v>
       </c>
       <c r="G16" s="0">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>659</v>
-      </c>
-      <c r="K16" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="K16" s="14" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3440,18 +4088,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15193</v>
+        <v>15235</v>
       </c>
       <c r="G17" s="0">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>428</v>
-      </c>
-      <c r="K17" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="K17" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3472,10 +4120,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14164</v>
+        <v>14189</v>
       </c>
       <c r="G18" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -3483,7 +4131,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3504,7 +4152,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15147</v>
+        <v>15168</v>
       </c>
       <c r="G19" s="0">
         <v>317</v>
@@ -3513,9 +4161,9 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>563</v>
-      </c>
-      <c r="K19" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="K19" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4167,6 +4815,651 @@
   </sheetData>
   <autoFilter ref="A1:K19"/>
   <hyperlinks>
+    <hyperlink ref="K2" r:id="rId205"/>
+    <hyperlink ref="K3" r:id="rId206"/>
+    <hyperlink ref="K4" r:id="rId207"/>
+    <hyperlink ref="K5" r:id="rId208"/>
+    <hyperlink ref="K6" r:id="rId209"/>
+    <hyperlink ref="K7" r:id="rId210"/>
+    <hyperlink ref="K8" r:id="rId211"/>
+    <hyperlink ref="K9" r:id="rId212"/>
+    <hyperlink ref="K10" r:id="rId213"/>
+    <hyperlink ref="K11" r:id="rId214"/>
+    <hyperlink ref="K12" r:id="rId215"/>
+    <hyperlink ref="K13" r:id="rId216"/>
+    <hyperlink ref="K14" r:id="rId217"/>
+    <hyperlink ref="K15" r:id="rId218"/>
+    <hyperlink ref="K16" r:id="rId219"/>
+    <hyperlink ref="K17" r:id="rId220"/>
+    <hyperlink ref="K18" r:id="rId221"/>
+    <hyperlink ref="K19" r:id="rId222"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70952</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>126982</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4283</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2833</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45070</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1550</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35743</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1172</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32220</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1377</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48227</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1246</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33618</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1194</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>641</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19792</v>
+      </c>
+      <c r="G9" s="0">
+        <v>406</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>747</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28515</v>
+      </c>
+      <c r="G10" s="0">
+        <v>701</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29882</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17783</v>
+      </c>
+      <c r="G12" s="0">
+        <v>470</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>520</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22364</v>
+      </c>
+      <c r="G13" s="0">
+        <v>498</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>581</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>16966</v>
+      </c>
+      <c r="G14" s="0">
+        <v>240</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31502</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1004</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>497</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25121</v>
+      </c>
+      <c r="G16" s="0">
+        <v>780</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>653</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>14744</v>
+      </c>
+      <c r="G17" s="0">
+        <v>368</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>420</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>13943</v>
+      </c>
+      <c r="G18" s="0">
+        <v>384</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>223</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>14727</v>
+      </c>
+      <c r="G19" s="0">
+        <v>311</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>560</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
     <hyperlink ref="K2" r:id="rId188"/>
     <hyperlink ref="K3" r:id="rId189"/>
     <hyperlink ref="K4" r:id="rId190"/>
@@ -4190,7 +5483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -4250,7 +5543,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70952</v>
+        <v>70961</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -4261,7 +5554,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4282,7 +5575,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126982</v>
+        <v>126997</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -4293,7 +5586,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4314,7 +5607,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45070</v>
+        <v>45075</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -4325,7 +5618,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4346,7 +5639,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35743</v>
+        <v>35746</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -4357,7 +5650,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4378,7 +5671,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32220</v>
+        <v>32222</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -4389,7 +5682,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4410,7 +5703,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48227</v>
+        <v>48233</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -4421,7 +5714,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4442,7 +5735,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33618</v>
+        <v>33626</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -4453,7 +5746,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4474,7 +5767,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19792</v>
+        <v>19797</v>
       </c>
       <c r="G9" s="0">
         <v>406</v>
@@ -4485,7 +5778,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4506,7 +5799,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28515</v>
+        <v>28517</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -4517,7 +5810,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4538,7 +5831,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29882</v>
+        <v>29888</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -4549,7 +5842,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4570,7 +5863,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17783</v>
+        <v>17786</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -4579,9 +5872,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>520</v>
-      </c>
-      <c r="K12" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4602,10 +5895,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22364</v>
+        <v>22381</v>
       </c>
       <c r="G13" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -4613,7 +5906,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4634,7 +5927,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16966</v>
+        <v>16976</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -4645,7 +5938,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4666,7 +5959,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31502</v>
+        <v>31517</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -4677,7 +5970,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4698,10 +5991,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25121</v>
+        <v>25168</v>
       </c>
       <c r="G16" s="0">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -4709,7 +6002,7 @@
       <c r="J16" s="0">
         <v>653</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4730,10 +6023,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14744</v>
+        <v>14774</v>
       </c>
       <c r="G17" s="0">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -4741,7 +6034,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4762,7 +6055,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13943</v>
+        <v>13959</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -4773,7 +6066,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4794,18 +6087,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14727</v>
+        <v>14768</v>
       </c>
       <c r="G19" s="0">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4835,7 +6128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -4895,7 +6188,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70961</v>
+        <v>70965</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -4906,7 +6199,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4927,7 +6220,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126997</v>
+        <v>127005</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -4938,7 +6231,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4959,7 +6252,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -4970,7 +6263,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4991,10 +6284,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35746</v>
+        <v>35751</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -5002,7 +6295,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5023,10 +6316,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32222</v>
+        <v>32227</v>
       </c>
       <c r="G6" s="0">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -5034,7 +6327,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5055,7 +6348,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48233</v>
+        <v>48240</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -5066,7 +6359,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5087,7 +6380,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33626</v>
+        <v>33629</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -5098,7 +6391,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5119,10 +6412,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19797</v>
+        <v>19798</v>
       </c>
       <c r="G9" s="0">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -5130,7 +6423,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5151,7 +6444,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28517</v>
+        <v>28521</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -5162,7 +6455,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5183,7 +6476,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29888</v>
+        <v>29895</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -5194,7 +6487,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5215,7 +6508,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17786</v>
+        <v>17794</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -5226,7 +6519,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5247,7 +6540,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22381</v>
+        <v>22397</v>
       </c>
       <c r="G13" s="0">
         <v>500</v>
@@ -5258,7 +6551,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5279,7 +6572,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16976</v>
+        <v>16984</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -5290,7 +6583,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5311,7 +6604,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31517</v>
+        <v>31533</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -5322,7 +6615,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5343,7 +6636,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25168</v>
+        <v>25214</v>
       </c>
       <c r="G16" s="0">
         <v>781</v>
@@ -5352,9 +6645,9 @@
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>653</v>
-      </c>
-      <c r="K16" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5375,10 +6668,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14774</v>
+        <v>14825</v>
       </c>
       <c r="G17" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -5386,7 +6679,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5407,7 +6700,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13959</v>
+        <v>13991</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -5418,7 +6711,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5439,10 +6732,10 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14768</v>
+        <v>14813</v>
       </c>
       <c r="G19" s="0">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -5450,7 +6743,7 @@
       <c r="J19" s="0">
         <v>559</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5480,7 +6773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -5540,7 +6833,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70965</v>
+        <v>70964</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -5551,7 +6844,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5572,18 +6865,18 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127005</v>
+        <v>127014</v>
       </c>
       <c r="G3" s="0">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2833</v>
-      </c>
-      <c r="K3" s="5" t="s">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5604,7 +6897,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45076</v>
+        <v>45079</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -5615,7 +6908,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5636,7 +6929,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35751</v>
+        <v>35753</v>
       </c>
       <c r="G5" s="0">
         <v>1173</v>
@@ -5647,7 +6940,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5668,7 +6961,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32227</v>
+        <v>32230</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -5679,7 +6972,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5700,7 +6993,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48240</v>
+        <v>48248</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -5711,7 +7004,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5732,18 +7025,18 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33629</v>
+        <v>33636</v>
       </c>
       <c r="G8" s="0">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>641</v>
-      </c>
-      <c r="K8" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5764,7 +7057,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19798</v>
+        <v>19799</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -5773,9 +7066,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>747</v>
-      </c>
-      <c r="K9" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5796,7 +7089,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28521</v>
+        <v>28526</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -5807,7 +7100,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5828,7 +7121,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29895</v>
+        <v>29899</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -5839,7 +7132,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5860,7 +7153,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17794</v>
+        <v>17802</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -5871,7 +7164,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5892,10 +7185,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22397</v>
+        <v>22422</v>
       </c>
       <c r="G13" s="0">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -5903,7 +7196,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5924,7 +7217,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16984</v>
+        <v>16989</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -5935,7 +7228,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5956,7 +7249,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31533</v>
+        <v>31541</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -5965,9 +7258,9 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>497</v>
-      </c>
-      <c r="K15" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5988,18 +7281,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25214</v>
+        <v>25265</v>
       </c>
       <c r="G16" s="0">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6020,10 +7313,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14825</v>
+        <v>14874</v>
       </c>
       <c r="G17" s="0">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -6031,7 +7324,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6052,10 +7345,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13991</v>
+        <v>14006</v>
       </c>
       <c r="G18" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -6063,7 +7356,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6084,7 +7377,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14813</v>
+        <v>14863</v>
       </c>
       <c r="G19" s="0">
         <v>313</v>
@@ -6093,9 +7386,9 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>559</v>
-      </c>
-      <c r="K19" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6125,7 +7418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -6185,7 +7478,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70964</v>
+        <v>70969</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -6196,7 +7489,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6217,10 +7510,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127014</v>
+        <v>127035</v>
       </c>
       <c r="G3" s="0">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -6228,7 +7521,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6249,7 +7542,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -6260,7 +7553,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6284,7 +7577,7 @@
         <v>35753</v>
       </c>
       <c r="G5" s="0">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -6292,7 +7585,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6313,7 +7606,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32230</v>
+        <v>32243</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -6324,7 +7617,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6345,7 +7638,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48248</v>
+        <v>48258</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -6356,7 +7649,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -6377,7 +7670,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33636</v>
+        <v>33642</v>
       </c>
       <c r="G8" s="0">
         <v>1195</v>
@@ -6388,7 +7681,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6409,7 +7702,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19799</v>
+        <v>19800</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -6420,7 +7713,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6441,7 +7734,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28526</v>
+        <v>28530</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -6452,7 +7745,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6473,7 +7766,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29899</v>
+        <v>29904</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -6484,7 +7777,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6505,7 +7798,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17802</v>
+        <v>17808</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -6516,7 +7809,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6537,7 +7830,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22422</v>
+        <v>22454</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -6546,9 +7839,9 @@
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>581</v>
-      </c>
-      <c r="K13" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6569,7 +7862,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16989</v>
+        <v>16999</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -6580,7 +7873,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6601,10 +7894,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31541</v>
+        <v>31562</v>
       </c>
       <c r="G15" s="0">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -6612,7 +7905,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -6633,18 +7926,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25265</v>
+        <v>25314</v>
       </c>
       <c r="G16" s="0">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>651</v>
-      </c>
-      <c r="K16" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6665,18 +7958,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14874</v>
+        <v>14929</v>
       </c>
       <c r="G17" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>420</v>
-      </c>
-      <c r="K17" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6697,7 +7990,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14006</v>
+        <v>14025</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -6708,7 +8001,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6729,18 +8022,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14863</v>
+        <v>14915</v>
       </c>
       <c r="G19" s="0">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6770,7 +8063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -6830,7 +8123,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70969</v>
+        <v>70975</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -6841,7 +8134,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6862,7 +8155,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127035</v>
+        <v>127049</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -6873,7 +8166,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6894,7 +8187,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45080</v>
+        <v>45084</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -6905,7 +8198,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6926,10 +8219,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35753</v>
+        <v>35754</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -6937,7 +8230,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6958,7 +8251,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32243</v>
+        <v>32247</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -6969,7 +8262,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6990,7 +8283,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48258</v>
+        <v>48264</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -7001,7 +8294,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7022,10 +8315,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33642</v>
+        <v>33649</v>
       </c>
       <c r="G8" s="0">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -7033,7 +8326,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7065,7 +8358,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7086,7 +8379,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28530</v>
+        <v>28531</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -7097,7 +8390,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7118,7 +8411,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29904</v>
+        <v>29918</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -7129,7 +8422,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7150,10 +8443,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17808</v>
+        <v>17813</v>
       </c>
       <c r="G12" s="0">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -7161,7 +8454,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7182,7 +8475,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22454</v>
+        <v>22486</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -7193,7 +8486,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7214,10 +8507,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16999</v>
+        <v>17009</v>
       </c>
       <c r="G14" s="0">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -7225,7 +8518,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7246,7 +8539,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31562</v>
+        <v>31576</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -7257,7 +8550,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7278,18 +8571,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25314</v>
+        <v>25353</v>
       </c>
       <c r="G16" s="0">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7310,18 +8603,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14929</v>
+        <v>14959</v>
       </c>
       <c r="G17" s="0">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>421</v>
-      </c>
-      <c r="K17" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7342,7 +8635,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14025</v>
+        <v>14053</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -7353,7 +8646,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7374,7 +8667,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14915</v>
+        <v>14952</v>
       </c>
       <c r="G19" s="0">
         <v>314</v>
@@ -7385,7 +8678,7 @@
       <c r="J19" s="0">
         <v>561</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7415,7 +8708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -7475,7 +8768,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70975</v>
+        <v>70979</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -7486,7 +8779,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7507,7 +8800,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127049</v>
+        <v>127059</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -7518,7 +8811,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7539,7 +8832,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45084</v>
+        <v>45081</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -7550,7 +8843,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7571,7 +8864,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35754</v>
+        <v>35755</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -7582,7 +8875,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7603,10 +8896,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32247</v>
+        <v>32249</v>
       </c>
       <c r="G6" s="0">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -7614,7 +8907,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7635,7 +8928,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48264</v>
+        <v>48266</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -7646,7 +8939,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7667,7 +8960,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33649</v>
+        <v>33660</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -7678,7 +8971,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7699,7 +8992,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19800</v>
+        <v>19802</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -7710,7 +9003,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7742,7 +9035,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7763,7 +9056,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29918</v>
+        <v>29925</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -7774,7 +9067,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7795,7 +9088,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17813</v>
+        <v>17820</v>
       </c>
       <c r="G12" s="0">
         <v>469</v>
@@ -7806,7 +9099,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7827,7 +9120,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22486</v>
+        <v>22522</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -7838,7 +9131,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7859,7 +9152,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17009</v>
+        <v>17025</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -7870,7 +9163,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7891,7 +9184,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31576</v>
+        <v>31592</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -7902,7 +9195,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7923,7 +9216,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25353</v>
+        <v>25405</v>
       </c>
       <c r="G16" s="0">
         <v>789</v>
@@ -7934,7 +9227,7 @@
       <c r="J16" s="0">
         <v>655</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7955,7 +9248,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14959</v>
+        <v>15013</v>
       </c>
       <c r="G17" s="0">
         <v>372</v>
@@ -7964,9 +9257,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>422</v>
-      </c>
-      <c r="K17" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7987,7 +9280,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14053</v>
+        <v>14073</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -7996,9 +9289,9 @@
         <v>0</v>
       </c>
       <c r="J18" s="0">
-        <v>223</v>
-      </c>
-      <c r="K18" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8019,18 +9312,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14952</v>
+        <v>14997</v>
       </c>
       <c r="G19" s="0">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>561</v>
-      </c>
-      <c r="K19" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8058,649 +9351,4 @@
   </hyperlinks>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2018</v>
-      </c>
-      <c r="C2" s="0">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
-        <v>70979</v>
-      </c>
-      <c r="G2" s="0">
-        <v>1790</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>1214</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2018</v>
-      </c>
-      <c r="C3" s="0">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="0">
-        <v>127059</v>
-      </c>
-      <c r="G3" s="0">
-        <v>4283</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>2834</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="0">
-        <v>4</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="0">
-        <v>45081</v>
-      </c>
-      <c r="G4" s="0">
-        <v>1550</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
-        <v>1022</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="0">
-        <v>8</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="0">
-        <v>35755</v>
-      </c>
-      <c r="G5" s="0">
-        <v>1171</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
-        <v>834</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="0">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="0">
-        <v>32249</v>
-      </c>
-      <c r="G6" s="0">
-        <v>1377</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
-        <v>472</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="0">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="0">
-        <v>48266</v>
-      </c>
-      <c r="G7" s="0">
-        <v>1246</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>1172</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C8" s="0">
-        <v>5</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="0">
-        <v>33660</v>
-      </c>
-      <c r="G8" s="0">
-        <v>1196</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>642</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C9" s="0">
-        <v>5</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="0">
-        <v>19802</v>
-      </c>
-      <c r="G9" s="0">
-        <v>405</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>746</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C10" s="0">
-        <v>5</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="0">
-        <v>28531</v>
-      </c>
-      <c r="G10" s="0">
-        <v>701</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>562</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="0">
-        <v>10</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="0">
-        <v>29925</v>
-      </c>
-      <c r="G11" s="0">
-        <v>621</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>1955</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2022</v>
-      </c>
-      <c r="C12" s="0">
-        <v>10</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="0">
-        <v>17820</v>
-      </c>
-      <c r="G12" s="0">
-        <v>469</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>509</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2022</v>
-      </c>
-      <c r="C13" s="0">
-        <v>11</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="0">
-        <v>22522</v>
-      </c>
-      <c r="G13" s="0">
-        <v>501</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>584</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C14" s="0">
-        <v>3</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="0">
-        <v>17025</v>
-      </c>
-      <c r="G14" s="0">
-        <v>239</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>113</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C15" s="0">
-        <v>3</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="0">
-        <v>31592</v>
-      </c>
-      <c r="G15" s="0">
-        <v>1003</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>495</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C16" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="0">
-        <v>25405</v>
-      </c>
-      <c r="G16" s="0">
-        <v>789</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>655</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="0">
-        <v>15013</v>
-      </c>
-      <c r="G17" s="0">
-        <v>372</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>423</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C18" s="0">
-        <v>9</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="0">
-        <v>14073</v>
-      </c>
-      <c r="G18" s="0">
-        <v>385</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>224</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C19" s="0">
-        <v>10</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="0">
-        <v>14997</v>
-      </c>
-      <c r="G19" s="0">
-        <v>315</v>
-      </c>
-      <c r="I19" s="0">
-        <v>0</v>
-      </c>
-      <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K19"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId69"/>
-    <hyperlink ref="K3" r:id="rId70"/>
-    <hyperlink ref="K4" r:id="rId71"/>
-    <hyperlink ref="K5" r:id="rId72"/>
-    <hyperlink ref="K6" r:id="rId73"/>
-    <hyperlink ref="K7" r:id="rId74"/>
-    <hyperlink ref="K8" r:id="rId75"/>
-    <hyperlink ref="K9" r:id="rId76"/>
-    <hyperlink ref="K10" r:id="rId77"/>
-    <hyperlink ref="K11" r:id="rId78"/>
-    <hyperlink ref="K12" r:id="rId79"/>
-    <hyperlink ref="K13" r:id="rId80"/>
-    <hyperlink ref="K14" r:id="rId81"/>
-    <hyperlink ref="K15" r:id="rId82"/>
-    <hyperlink ref="K16" r:id="rId83"/>
-    <hyperlink ref="K17" r:id="rId84"/>
-    <hyperlink ref="K18" r:id="rId85"/>
-    <hyperlink ref="K19" r:id="rId86"/>
-  </hyperlinks>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
+++ b/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
@@ -19,6 +19,7 @@
     <sheet name="20231214041814 - Dec 14 2023" sheetId="12" r:id="rId13"/>
     <sheet name="20231215041825 - Dec 15 2023" sheetId="13" r:id="rId14"/>
     <sheet name="20231216041746 - Dec 16 2023" sheetId="14" r:id="rId15"/>
+    <sheet name="20231217041802 - Dec 17 2023" sheetId="15" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20231203113249 - Dec 03 2023'!$A$1:$K$19</definedName>
@@ -35,6 +36,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'20231214041814 - Dec 14 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'20231215041825 - Dec 15 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'20231216041746 - Dec 16 2023'!$A$1:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'20231217041802 - Dec 17 2023'!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -299,8 +301,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -945,24 +948,24 @@
   </sheetData>
   <autoFilter ref="A1:K19"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId222"/>
-    <hyperlink ref="K3" r:id="rId223"/>
-    <hyperlink ref="K4" r:id="rId224"/>
-    <hyperlink ref="K5" r:id="rId225"/>
-    <hyperlink ref="K6" r:id="rId226"/>
-    <hyperlink ref="K7" r:id="rId227"/>
-    <hyperlink ref="K8" r:id="rId228"/>
-    <hyperlink ref="K9" r:id="rId229"/>
-    <hyperlink ref="K10" r:id="rId230"/>
-    <hyperlink ref="K11" r:id="rId231"/>
-    <hyperlink ref="K12" r:id="rId232"/>
-    <hyperlink ref="K13" r:id="rId233"/>
-    <hyperlink ref="K14" r:id="rId234"/>
-    <hyperlink ref="K15" r:id="rId235"/>
-    <hyperlink ref="K16" r:id="rId236"/>
-    <hyperlink ref="K17" r:id="rId237"/>
-    <hyperlink ref="K18" r:id="rId238"/>
-    <hyperlink ref="K19" r:id="rId239"/>
+    <hyperlink ref="K2" r:id="rId239"/>
+    <hyperlink ref="K3" r:id="rId240"/>
+    <hyperlink ref="K4" r:id="rId241"/>
+    <hyperlink ref="K5" r:id="rId242"/>
+    <hyperlink ref="K6" r:id="rId243"/>
+    <hyperlink ref="K7" r:id="rId244"/>
+    <hyperlink ref="K8" r:id="rId245"/>
+    <hyperlink ref="K9" r:id="rId246"/>
+    <hyperlink ref="K10" r:id="rId247"/>
+    <hyperlink ref="K11" r:id="rId248"/>
+    <hyperlink ref="K12" r:id="rId249"/>
+    <hyperlink ref="K13" r:id="rId250"/>
+    <hyperlink ref="K14" r:id="rId251"/>
+    <hyperlink ref="K15" r:id="rId252"/>
+    <hyperlink ref="K16" r:id="rId253"/>
+    <hyperlink ref="K17" r:id="rId254"/>
+    <hyperlink ref="K18" r:id="rId255"/>
+    <hyperlink ref="K19" r:id="rId256"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -1584,6 +1587,651 @@
         <v>560</v>
       </c>
       <c r="K19" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId86"/>
+    <hyperlink ref="K3" r:id="rId87"/>
+    <hyperlink ref="K4" r:id="rId88"/>
+    <hyperlink ref="K5" r:id="rId89"/>
+    <hyperlink ref="K6" r:id="rId90"/>
+    <hyperlink ref="K7" r:id="rId91"/>
+    <hyperlink ref="K8" r:id="rId92"/>
+    <hyperlink ref="K9" r:id="rId93"/>
+    <hyperlink ref="K10" r:id="rId94"/>
+    <hyperlink ref="K11" r:id="rId95"/>
+    <hyperlink ref="K12" r:id="rId96"/>
+    <hyperlink ref="K13" r:id="rId97"/>
+    <hyperlink ref="K14" r:id="rId98"/>
+    <hyperlink ref="K15" r:id="rId99"/>
+    <hyperlink ref="K16" r:id="rId100"/>
+    <hyperlink ref="K17" r:id="rId101"/>
+    <hyperlink ref="K18" r:id="rId102"/>
+    <hyperlink ref="K19" r:id="rId103"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70985</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>127071</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4282</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45089</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1551</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35762</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1171</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32249</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1377</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48275</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1245</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33682</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1197</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>642</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19805</v>
+      </c>
+      <c r="G9" s="0">
+        <v>405</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>746</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28535</v>
+      </c>
+      <c r="G10" s="0">
+        <v>702</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29935</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17829</v>
+      </c>
+      <c r="G12" s="0">
+        <v>469</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>509</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22582</v>
+      </c>
+      <c r="G13" s="0">
+        <v>501</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>584</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>17039</v>
+      </c>
+      <c r="G14" s="0">
+        <v>239</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31625</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1003</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>495</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25488</v>
+      </c>
+      <c r="G16" s="0">
+        <v>790</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>658</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>15097</v>
+      </c>
+      <c r="G17" s="0">
+        <v>373</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>425</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>14116</v>
+      </c>
+      <c r="G18" s="0">
+        <v>385</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>224</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>15071</v>
+      </c>
+      <c r="G19" s="0">
+        <v>315</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>560</v>
+      </c>
+      <c r="K19" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1613,7 +2261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -1673,7 +2321,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70985</v>
+        <v>70987</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -1684,7 +2332,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1705,7 +2353,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127071</v>
+        <v>127082</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -1716,7 +2364,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1737,7 +2385,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="G4" s="0">
         <v>1551</v>
@@ -1748,7 +2396,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1769,7 +2417,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35762</v>
+        <v>35767</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -1780,7 +2428,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1801,7 +2449,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32249</v>
+        <v>32250</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -1812,7 +2460,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1833,10 +2481,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48275</v>
+        <v>48282</v>
       </c>
       <c r="G7" s="0">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1844,7 +2492,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1865,7 +2513,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33682</v>
+        <v>33691</v>
       </c>
       <c r="G8" s="0">
         <v>1197</v>
@@ -1876,7 +2524,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1897,7 +2545,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19805</v>
+        <v>19811</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -1908,7 +2556,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1940,7 +2588,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1961,7 +2609,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29935</v>
+        <v>29939</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -1972,7 +2620,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1993,7 +2641,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17829</v>
+        <v>17835</v>
       </c>
       <c r="G12" s="0">
         <v>469</v>
@@ -2002,9 +2650,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>509</v>
-      </c>
-      <c r="K12" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2025,7 +2673,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22582</v>
+        <v>22607</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -2036,7 +2684,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2057,7 +2705,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17039</v>
+        <v>17048</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -2068,7 +2716,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2089,7 +2737,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31625</v>
+        <v>31633</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -2100,7 +2748,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="12" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2121,18 +2769,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25488</v>
+        <v>25526</v>
       </c>
       <c r="G16" s="0">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>658</v>
-      </c>
-      <c r="K16" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2153,18 +2801,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15097</v>
+        <v>15147</v>
       </c>
       <c r="G17" s="0">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>425</v>
-      </c>
-      <c r="K17" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2185,10 +2833,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14116</v>
+        <v>14132</v>
       </c>
       <c r="G18" s="0">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -2196,7 +2844,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2217,18 +2865,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15071</v>
+        <v>15100</v>
       </c>
       <c r="G19" s="0">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2258,7 +2906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2318,7 +2966,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70987</v>
+        <v>70988</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2329,7 +2977,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2350,7 +2998,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127082</v>
+        <v>127094</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -2361,7 +3009,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2382,7 +3030,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45092</v>
+        <v>45095</v>
       </c>
       <c r="G4" s="0">
         <v>1551</v>
@@ -2393,7 +3041,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2414,7 +3062,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35767</v>
+        <v>35771</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -2425,7 +3073,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2446,7 +3094,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32250</v>
+        <v>32253</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -2457,7 +3105,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2478,7 +3126,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48282</v>
+        <v>48290</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -2489,7 +3137,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2510,7 +3158,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33691</v>
+        <v>33700</v>
       </c>
       <c r="G8" s="0">
         <v>1197</v>
@@ -2521,7 +3169,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2542,7 +3190,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19811</v>
+        <v>19815</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -2551,9 +3199,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>746</v>
-      </c>
-      <c r="K9" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2574,7 +3222,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28535</v>
+        <v>28539</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -2585,7 +3233,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2606,7 +3254,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29939</v>
+        <v>29951</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -2617,7 +3265,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2638,10 +3286,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17835</v>
+        <v>17838</v>
       </c>
       <c r="G12" s="0">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -2649,7 +3297,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2670,7 +3318,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22607</v>
+        <v>22643</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -2681,7 +3329,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="13" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2702,7 +3350,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17048</v>
+        <v>17055</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -2711,9 +3359,9 @@
         <v>0</v>
       </c>
       <c r="J14" s="0">
-        <v>113</v>
-      </c>
-      <c r="K14" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2734,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31633</v>
+        <v>31646</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -2743,9 +3391,9 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>495</v>
-      </c>
-      <c r="K15" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="K15" s="13" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2766,18 +3414,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25526</v>
+        <v>25565</v>
       </c>
       <c r="G16" s="0">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>661</v>
-      </c>
-      <c r="K16" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="K16" s="13" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2798,10 +3446,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15147</v>
+        <v>15193</v>
       </c>
       <c r="G17" s="0">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -2809,7 +3457,7 @@
       <c r="J17" s="0">
         <v>428</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2830,7 +3478,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14132</v>
+        <v>14164</v>
       </c>
       <c r="G18" s="0">
         <v>386</v>
@@ -2841,7 +3489,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2862,18 +3510,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15100</v>
+        <v>15147</v>
       </c>
       <c r="G19" s="0">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>561</v>
-      </c>
-      <c r="K19" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="K19" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2903,7 +3551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2963,7 +3611,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70988</v>
+        <v>70996</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2974,7 +3622,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2995,7 +3643,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127094</v>
+        <v>127104</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -3006,7 +3654,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3030,7 +3678,7 @@
         <v>45095</v>
       </c>
       <c r="G4" s="0">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I4" s="0">
         <v>0</v>
@@ -3038,7 +3686,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3070,7 +3718,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="14" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3091,7 +3739,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32253</v>
+        <v>32255</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -3102,7 +3750,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3123,7 +3771,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48290</v>
+        <v>48297</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -3132,9 +3780,9 @@
         <v>0</v>
       </c>
       <c r="J7" s="0">
-        <v>1172</v>
-      </c>
-      <c r="K7" s="13" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3155,10 +3803,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33700</v>
+        <v>33704</v>
       </c>
       <c r="G8" s="0">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -3166,7 +3814,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3187,10 +3835,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19815</v>
+        <v>19818</v>
       </c>
       <c r="G9" s="0">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -3198,7 +3846,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3219,7 +3867,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28539</v>
+        <v>28542</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -3230,7 +3878,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3251,7 +3899,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29951</v>
+        <v>29953</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3262,7 +3910,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3283,7 +3931,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17838</v>
+        <v>17840</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3294,7 +3942,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="14" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3315,7 +3963,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22643</v>
+        <v>22675</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -3326,7 +3974,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3347,7 +3995,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17055</v>
+        <v>17067</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -3358,7 +4006,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3379,7 +4027,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31646</v>
+        <v>31653</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -3390,7 +4038,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="14" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3411,18 +4059,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25565</v>
+        <v>25607</v>
       </c>
       <c r="G16" s="0">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>659</v>
-      </c>
-      <c r="K16" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="K16" s="14" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3443,18 +4091,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15193</v>
+        <v>15235</v>
       </c>
       <c r="G17" s="0">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>428</v>
-      </c>
-      <c r="K17" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="K17" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3475,10 +4123,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14164</v>
+        <v>14189</v>
       </c>
       <c r="G18" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -3486,7 +4134,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3507,7 +4155,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15147</v>
+        <v>15168</v>
       </c>
       <c r="G19" s="0">
         <v>317</v>
@@ -3516,9 +4164,9 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>563</v>
-      </c>
-      <c r="K19" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="K19" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3548,7 +4196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -3608,7 +4256,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70996</v>
+        <v>71000</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -3619,7 +4267,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3640,7 +4288,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127104</v>
+        <v>127115</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -3651,7 +4299,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3683,7 +4331,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3704,10 +4352,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35771</v>
+        <v>35774</v>
       </c>
       <c r="G5" s="0">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -3715,7 +4363,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3739,7 +4387,7 @@
         <v>32255</v>
       </c>
       <c r="G6" s="0">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -3747,7 +4395,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3768,10 +4416,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48297</v>
+        <v>48302</v>
       </c>
       <c r="G7" s="0">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -3779,7 +4427,7 @@
       <c r="J7" s="0">
         <v>1173</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="15" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3800,7 +4448,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33704</v>
+        <v>33706</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -3811,7 +4459,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3832,10 +4480,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19818</v>
+        <v>19821</v>
       </c>
       <c r="G9" s="0">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -3843,7 +4491,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="15" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3864,7 +4512,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28542</v>
+        <v>28543</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -3875,7 +4523,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3896,7 +4544,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29953</v>
+        <v>29954</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3907,7 +4555,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3928,7 +4576,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17840</v>
+        <v>17841</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3939,7 +4587,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="15" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3960,7 +4608,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22675</v>
+        <v>22705</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -3971,7 +4619,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="15" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3992,10 +4640,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17067</v>
+        <v>17075</v>
       </c>
       <c r="G14" s="0">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -4003,7 +4651,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="15" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4024,7 +4672,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31653</v>
+        <v>31662</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -4035,7 +4683,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="15" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4056,18 +4704,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25607</v>
+        <v>25651</v>
       </c>
       <c r="G16" s="0">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>660</v>
-      </c>
-      <c r="K16" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="K16" s="15" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4088,10 +4736,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15235</v>
+        <v>15269</v>
       </c>
       <c r="G17" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -4099,7 +4747,7 @@
       <c r="J17" s="0">
         <v>429</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="15" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4120,7 +4768,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14189</v>
+        <v>14211</v>
       </c>
       <c r="G18" s="0">
         <v>388</v>
@@ -4131,7 +4779,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="15" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4152,18 +4800,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15168</v>
+        <v>15205</v>
       </c>
       <c r="G19" s="0">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>565</v>
-      </c>
-      <c r="K19" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="K19" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4815,6 +5463,651 @@
   </sheetData>
   <autoFilter ref="A1:K19"/>
   <hyperlinks>
+    <hyperlink ref="K2" r:id="rId222"/>
+    <hyperlink ref="K3" r:id="rId223"/>
+    <hyperlink ref="K4" r:id="rId224"/>
+    <hyperlink ref="K5" r:id="rId225"/>
+    <hyperlink ref="K6" r:id="rId226"/>
+    <hyperlink ref="K7" r:id="rId227"/>
+    <hyperlink ref="K8" r:id="rId228"/>
+    <hyperlink ref="K9" r:id="rId229"/>
+    <hyperlink ref="K10" r:id="rId230"/>
+    <hyperlink ref="K11" r:id="rId231"/>
+    <hyperlink ref="K12" r:id="rId232"/>
+    <hyperlink ref="K13" r:id="rId233"/>
+    <hyperlink ref="K14" r:id="rId234"/>
+    <hyperlink ref="K15" r:id="rId235"/>
+    <hyperlink ref="K16" r:id="rId236"/>
+    <hyperlink ref="K17" r:id="rId237"/>
+    <hyperlink ref="K18" r:id="rId238"/>
+    <hyperlink ref="K19" r:id="rId239"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70952</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>126982</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4283</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2833</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45070</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1550</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35743</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1172</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32220</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1377</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48227</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1246</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33618</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1194</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>641</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19792</v>
+      </c>
+      <c r="G9" s="0">
+        <v>406</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>747</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28515</v>
+      </c>
+      <c r="G10" s="0">
+        <v>701</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29882</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17783</v>
+      </c>
+      <c r="G12" s="0">
+        <v>470</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>520</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22364</v>
+      </c>
+      <c r="G13" s="0">
+        <v>498</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>581</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>16966</v>
+      </c>
+      <c r="G14" s="0">
+        <v>240</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31502</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1004</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>497</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25121</v>
+      </c>
+      <c r="G16" s="0">
+        <v>780</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>653</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>14744</v>
+      </c>
+      <c r="G17" s="0">
+        <v>368</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>420</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>13943</v>
+      </c>
+      <c r="G18" s="0">
+        <v>384</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>223</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>14727</v>
+      </c>
+      <c r="G19" s="0">
+        <v>311</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>560</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
     <hyperlink ref="K2" r:id="rId205"/>
     <hyperlink ref="K3" r:id="rId206"/>
     <hyperlink ref="K4" r:id="rId207"/>
@@ -4838,7 +6131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -4898,7 +6191,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70952</v>
+        <v>70961</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -4909,7 +6202,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4930,7 +6223,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126982</v>
+        <v>126997</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -4941,7 +6234,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4962,7 +6255,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45070</v>
+        <v>45075</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -4973,7 +6266,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4994,7 +6287,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35743</v>
+        <v>35746</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -5005,7 +6298,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5026,7 +6319,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32220</v>
+        <v>32222</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -5037,7 +6330,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5058,7 +6351,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48227</v>
+        <v>48233</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -5069,7 +6362,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5090,7 +6383,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33618</v>
+        <v>33626</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -5101,7 +6394,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5122,7 +6415,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19792</v>
+        <v>19797</v>
       </c>
       <c r="G9" s="0">
         <v>406</v>
@@ -5133,7 +6426,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5154,7 +6447,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28515</v>
+        <v>28517</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -5165,7 +6458,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5186,7 +6479,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29882</v>
+        <v>29888</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -5197,7 +6490,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5218,7 +6511,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17783</v>
+        <v>17786</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -5227,9 +6520,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>520</v>
-      </c>
-      <c r="K12" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5250,10 +6543,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22364</v>
+        <v>22381</v>
       </c>
       <c r="G13" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -5261,7 +6554,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5282,7 +6575,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16966</v>
+        <v>16976</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -5293,7 +6586,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5314,7 +6607,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31502</v>
+        <v>31517</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -5325,7 +6618,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5346,10 +6639,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25121</v>
+        <v>25168</v>
       </c>
       <c r="G16" s="0">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -5357,7 +6650,7 @@
       <c r="J16" s="0">
         <v>653</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5378,10 +6671,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14744</v>
+        <v>14774</v>
       </c>
       <c r="G17" s="0">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -5389,7 +6682,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5410,7 +6703,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13943</v>
+        <v>13959</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -5421,7 +6714,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5442,18 +6735,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14727</v>
+        <v>14768</v>
       </c>
       <c r="G19" s="0">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5483,7 +6776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -5543,7 +6836,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70961</v>
+        <v>70965</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -5554,7 +6847,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5575,7 +6868,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126997</v>
+        <v>127005</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -5586,7 +6879,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5607,7 +6900,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -5618,7 +6911,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5639,10 +6932,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35746</v>
+        <v>35751</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -5650,7 +6943,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5671,10 +6964,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32222</v>
+        <v>32227</v>
       </c>
       <c r="G6" s="0">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -5682,7 +6975,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5703,7 +6996,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48233</v>
+        <v>48240</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -5714,7 +7007,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5735,7 +7028,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33626</v>
+        <v>33629</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -5746,7 +7039,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5767,10 +7060,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19797</v>
+        <v>19798</v>
       </c>
       <c r="G9" s="0">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -5778,7 +7071,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5799,7 +7092,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28517</v>
+        <v>28521</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -5810,7 +7103,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5831,7 +7124,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29888</v>
+        <v>29895</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -5842,7 +7135,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5863,7 +7156,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17786</v>
+        <v>17794</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -5874,7 +7167,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5895,7 +7188,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22381</v>
+        <v>22397</v>
       </c>
       <c r="G13" s="0">
         <v>500</v>
@@ -5906,7 +7199,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5927,7 +7220,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16976</v>
+        <v>16984</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -5938,7 +7231,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5959,7 +7252,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31517</v>
+        <v>31533</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -5970,7 +7263,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5991,7 +7284,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25168</v>
+        <v>25214</v>
       </c>
       <c r="G16" s="0">
         <v>781</v>
@@ -6000,9 +7293,9 @@
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>653</v>
-      </c>
-      <c r="K16" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6023,10 +7316,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14774</v>
+        <v>14825</v>
       </c>
       <c r="G17" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -6034,7 +7327,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6055,7 +7348,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13959</v>
+        <v>13991</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -6066,7 +7359,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6087,10 +7380,10 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14768</v>
+        <v>14813</v>
       </c>
       <c r="G19" s="0">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -6098,7 +7391,7 @@
       <c r="J19" s="0">
         <v>559</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6128,7 +7421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -6188,7 +7481,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70965</v>
+        <v>70964</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -6199,7 +7492,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6220,18 +7513,18 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127005</v>
+        <v>127014</v>
       </c>
       <c r="G3" s="0">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2833</v>
-      </c>
-      <c r="K3" s="5" t="s">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6252,7 +7545,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45076</v>
+        <v>45079</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -6263,7 +7556,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6284,7 +7577,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35751</v>
+        <v>35753</v>
       </c>
       <c r="G5" s="0">
         <v>1173</v>
@@ -6295,7 +7588,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6316,7 +7609,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32227</v>
+        <v>32230</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -6327,7 +7620,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6348,7 +7641,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48240</v>
+        <v>48248</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -6359,7 +7652,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -6380,18 +7673,18 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33629</v>
+        <v>33636</v>
       </c>
       <c r="G8" s="0">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>641</v>
-      </c>
-      <c r="K8" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6412,7 +7705,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19798</v>
+        <v>19799</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -6421,9 +7714,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>747</v>
-      </c>
-      <c r="K9" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6444,7 +7737,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28521</v>
+        <v>28526</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -6455,7 +7748,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6476,7 +7769,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29895</v>
+        <v>29899</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -6487,7 +7780,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6508,7 +7801,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17794</v>
+        <v>17802</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -6519,7 +7812,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6540,10 +7833,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22397</v>
+        <v>22422</v>
       </c>
       <c r="G13" s="0">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -6551,7 +7844,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6572,7 +7865,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16984</v>
+        <v>16989</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -6583,7 +7876,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6604,7 +7897,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31533</v>
+        <v>31541</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -6613,9 +7906,9 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>497</v>
-      </c>
-      <c r="K15" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -6636,18 +7929,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25214</v>
+        <v>25265</v>
       </c>
       <c r="G16" s="0">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6668,10 +7961,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14825</v>
+        <v>14874</v>
       </c>
       <c r="G17" s="0">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -6679,7 +7972,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6700,10 +7993,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13991</v>
+        <v>14006</v>
       </c>
       <c r="G18" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -6711,7 +8004,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6732,7 +8025,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14813</v>
+        <v>14863</v>
       </c>
       <c r="G19" s="0">
         <v>313</v>
@@ -6741,9 +8034,9 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>559</v>
-      </c>
-      <c r="K19" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6773,7 +8066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -6833,7 +8126,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70964</v>
+        <v>70969</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -6844,7 +8137,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6865,10 +8158,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127014</v>
+        <v>127035</v>
       </c>
       <c r="G3" s="0">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -6876,7 +8169,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6897,7 +8190,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -6908,7 +8201,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6932,7 +8225,7 @@
         <v>35753</v>
       </c>
       <c r="G5" s="0">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -6940,7 +8233,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6961,7 +8254,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32230</v>
+        <v>32243</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -6972,7 +8265,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6993,7 +8286,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48248</v>
+        <v>48258</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -7004,7 +8297,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7025,7 +8318,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33636</v>
+        <v>33642</v>
       </c>
       <c r="G8" s="0">
         <v>1195</v>
@@ -7036,7 +8329,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7057,7 +8350,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19799</v>
+        <v>19800</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -7068,7 +8361,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7089,7 +8382,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28526</v>
+        <v>28530</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -7100,7 +8393,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7121,7 +8414,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29899</v>
+        <v>29904</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -7132,7 +8425,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7153,7 +8446,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17802</v>
+        <v>17808</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -7164,7 +8457,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7185,7 +8478,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22422</v>
+        <v>22454</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -7194,9 +8487,9 @@
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>581</v>
-      </c>
-      <c r="K13" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7217,7 +8510,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16989</v>
+        <v>16999</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -7228,7 +8521,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7249,10 +8542,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31541</v>
+        <v>31562</v>
       </c>
       <c r="G15" s="0">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -7260,7 +8553,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7281,18 +8574,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25265</v>
+        <v>25314</v>
       </c>
       <c r="G16" s="0">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>651</v>
-      </c>
-      <c r="K16" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7313,18 +8606,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14874</v>
+        <v>14929</v>
       </c>
       <c r="G17" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>420</v>
-      </c>
-      <c r="K17" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7345,7 +8638,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14006</v>
+        <v>14025</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -7356,7 +8649,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7377,18 +8670,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14863</v>
+        <v>14915</v>
       </c>
       <c r="G19" s="0">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7418,7 +8711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -7478,7 +8771,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70969</v>
+        <v>70975</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -7489,7 +8782,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7510,7 +8803,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127035</v>
+        <v>127049</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -7521,7 +8814,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7542,7 +8835,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45080</v>
+        <v>45084</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -7553,7 +8846,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7574,10 +8867,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35753</v>
+        <v>35754</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -7585,7 +8878,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7606,7 +8899,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32243</v>
+        <v>32247</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -7617,7 +8910,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7638,7 +8931,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48258</v>
+        <v>48264</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -7649,7 +8942,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7670,10 +8963,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33642</v>
+        <v>33649</v>
       </c>
       <c r="G8" s="0">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -7681,7 +8974,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7713,7 +9006,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7734,7 +9027,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28530</v>
+        <v>28531</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -7745,7 +9038,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7766,7 +9059,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29904</v>
+        <v>29918</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -7777,7 +9070,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7798,10 +9091,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17808</v>
+        <v>17813</v>
       </c>
       <c r="G12" s="0">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -7809,7 +9102,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7830,7 +9123,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22454</v>
+        <v>22486</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -7841,7 +9134,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7862,10 +9155,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16999</v>
+        <v>17009</v>
       </c>
       <c r="G14" s="0">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -7873,7 +9166,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7894,7 +9187,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31562</v>
+        <v>31576</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -7905,7 +9198,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7926,18 +9219,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25314</v>
+        <v>25353</v>
       </c>
       <c r="G16" s="0">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7958,18 +9251,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14929</v>
+        <v>14959</v>
       </c>
       <c r="G17" s="0">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>421</v>
-      </c>
-      <c r="K17" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7990,7 +9283,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14025</v>
+        <v>14053</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -8001,7 +9294,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8022,7 +9315,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14915</v>
+        <v>14952</v>
       </c>
       <c r="G19" s="0">
         <v>314</v>
@@ -8033,7 +9326,7 @@
       <c r="J19" s="0">
         <v>561</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8063,7 +9356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -8123,7 +9416,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70975</v>
+        <v>70979</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -8134,7 +9427,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8155,7 +9448,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127049</v>
+        <v>127059</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -8166,7 +9459,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8187,7 +9480,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45084</v>
+        <v>45081</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -8198,7 +9491,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8219,7 +9512,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35754</v>
+        <v>35755</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -8230,7 +9523,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -8251,10 +9544,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32247</v>
+        <v>32249</v>
       </c>
       <c r="G6" s="0">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -8262,7 +9555,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8283,7 +9576,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48264</v>
+        <v>48266</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -8294,7 +9587,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8315,7 +9608,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33649</v>
+        <v>33660</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -8326,7 +9619,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8347,7 +9640,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19800</v>
+        <v>19802</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -8358,7 +9651,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8390,7 +9683,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8411,7 +9704,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29918</v>
+        <v>29925</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -8422,7 +9715,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8443,7 +9736,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17813</v>
+        <v>17820</v>
       </c>
       <c r="G12" s="0">
         <v>469</v>
@@ -8454,7 +9747,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8475,7 +9768,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22486</v>
+        <v>22522</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -8486,7 +9779,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -8507,7 +9800,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17009</v>
+        <v>17025</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -8518,7 +9811,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -8539,7 +9832,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31576</v>
+        <v>31592</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -8550,7 +9843,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8571,7 +9864,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25353</v>
+        <v>25405</v>
       </c>
       <c r="G16" s="0">
         <v>789</v>
@@ -8582,7 +9875,7 @@
       <c r="J16" s="0">
         <v>655</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8603,7 +9896,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14959</v>
+        <v>15013</v>
       </c>
       <c r="G17" s="0">
         <v>372</v>
@@ -8612,9 +9905,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>422</v>
-      </c>
-      <c r="K17" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8635,7 +9928,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14053</v>
+        <v>14073</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -8644,9 +9937,9 @@
         <v>0</v>
       </c>
       <c r="J18" s="0">
-        <v>223</v>
-      </c>
-      <c r="K18" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8667,18 +9960,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14952</v>
+        <v>14997</v>
       </c>
       <c r="G19" s="0">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>561</v>
-      </c>
-      <c r="K19" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8706,649 +9999,4 @@
   </hyperlinks>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2018</v>
-      </c>
-      <c r="C2" s="0">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
-        <v>70979</v>
-      </c>
-      <c r="G2" s="0">
-        <v>1790</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>1214</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2018</v>
-      </c>
-      <c r="C3" s="0">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="0">
-        <v>127059</v>
-      </c>
-      <c r="G3" s="0">
-        <v>4283</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>2834</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="0">
-        <v>4</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="0">
-        <v>45081</v>
-      </c>
-      <c r="G4" s="0">
-        <v>1550</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
-        <v>1022</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="0">
-        <v>8</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="0">
-        <v>35755</v>
-      </c>
-      <c r="G5" s="0">
-        <v>1171</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
-        <v>834</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="0">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="0">
-        <v>32249</v>
-      </c>
-      <c r="G6" s="0">
-        <v>1377</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
-        <v>472</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="0">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="0">
-        <v>48266</v>
-      </c>
-      <c r="G7" s="0">
-        <v>1246</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>1172</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C8" s="0">
-        <v>5</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="0">
-        <v>33660</v>
-      </c>
-      <c r="G8" s="0">
-        <v>1196</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>642</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C9" s="0">
-        <v>5</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="0">
-        <v>19802</v>
-      </c>
-      <c r="G9" s="0">
-        <v>405</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>746</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C10" s="0">
-        <v>5</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="0">
-        <v>28531</v>
-      </c>
-      <c r="G10" s="0">
-        <v>701</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>562</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="0">
-        <v>10</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="0">
-        <v>29925</v>
-      </c>
-      <c r="G11" s="0">
-        <v>621</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>1955</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2022</v>
-      </c>
-      <c r="C12" s="0">
-        <v>10</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="0">
-        <v>17820</v>
-      </c>
-      <c r="G12" s="0">
-        <v>469</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>509</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2022</v>
-      </c>
-      <c r="C13" s="0">
-        <v>11</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="0">
-        <v>22522</v>
-      </c>
-      <c r="G13" s="0">
-        <v>501</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>584</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C14" s="0">
-        <v>3</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="0">
-        <v>17025</v>
-      </c>
-      <c r="G14" s="0">
-        <v>239</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>113</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C15" s="0">
-        <v>3</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="0">
-        <v>31592</v>
-      </c>
-      <c r="G15" s="0">
-        <v>1003</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>495</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C16" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="0">
-        <v>25405</v>
-      </c>
-      <c r="G16" s="0">
-        <v>789</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>655</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="0">
-        <v>15013</v>
-      </c>
-      <c r="G17" s="0">
-        <v>372</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>423</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C18" s="0">
-        <v>9</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="0">
-        <v>14073</v>
-      </c>
-      <c r="G18" s="0">
-        <v>385</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>224</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C19" s="0">
-        <v>10</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="0">
-        <v>14997</v>
-      </c>
-      <c r="G19" s="0">
-        <v>315</v>
-      </c>
-      <c r="I19" s="0">
-        <v>0</v>
-      </c>
-      <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K19"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId86"/>
-    <hyperlink ref="K3" r:id="rId87"/>
-    <hyperlink ref="K4" r:id="rId88"/>
-    <hyperlink ref="K5" r:id="rId89"/>
-    <hyperlink ref="K6" r:id="rId90"/>
-    <hyperlink ref="K7" r:id="rId91"/>
-    <hyperlink ref="K8" r:id="rId92"/>
-    <hyperlink ref="K9" r:id="rId93"/>
-    <hyperlink ref="K10" r:id="rId94"/>
-    <hyperlink ref="K11" r:id="rId95"/>
-    <hyperlink ref="K12" r:id="rId96"/>
-    <hyperlink ref="K13" r:id="rId97"/>
-    <hyperlink ref="K14" r:id="rId98"/>
-    <hyperlink ref="K15" r:id="rId99"/>
-    <hyperlink ref="K16" r:id="rId100"/>
-    <hyperlink ref="K17" r:id="rId101"/>
-    <hyperlink ref="K18" r:id="rId102"/>
-    <hyperlink ref="K19" r:id="rId103"/>
-  </hyperlinks>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
+++ b/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
@@ -20,6 +20,7 @@
     <sheet name="20231215041825 - Dec 15 2023" sheetId="13" r:id="rId14"/>
     <sheet name="20231216041746 - Dec 16 2023" sheetId="14" r:id="rId15"/>
     <sheet name="20231217041802 - Dec 17 2023" sheetId="15" r:id="rId16"/>
+    <sheet name="20231218041853 - Dec 18 2023" sheetId="16" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20231203113249 - Dec 03 2023'!$A$1:$K$19</definedName>
@@ -37,6 +38,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'20231215041825 - Dec 15 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'20231216041746 - Dec 16 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'20231217041802 - Dec 17 2023'!$A$1:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'20231218041853 - Dec 18 2023'!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -301,8 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -948,24 +951,24 @@
   </sheetData>
   <autoFilter ref="A1:K19"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId239"/>
-    <hyperlink ref="K3" r:id="rId240"/>
-    <hyperlink ref="K4" r:id="rId241"/>
-    <hyperlink ref="K5" r:id="rId242"/>
-    <hyperlink ref="K6" r:id="rId243"/>
-    <hyperlink ref="K7" r:id="rId244"/>
-    <hyperlink ref="K8" r:id="rId245"/>
-    <hyperlink ref="K9" r:id="rId246"/>
-    <hyperlink ref="K10" r:id="rId247"/>
-    <hyperlink ref="K11" r:id="rId248"/>
-    <hyperlink ref="K12" r:id="rId249"/>
-    <hyperlink ref="K13" r:id="rId250"/>
-    <hyperlink ref="K14" r:id="rId251"/>
-    <hyperlink ref="K15" r:id="rId252"/>
-    <hyperlink ref="K16" r:id="rId253"/>
-    <hyperlink ref="K17" r:id="rId254"/>
-    <hyperlink ref="K18" r:id="rId255"/>
-    <hyperlink ref="K19" r:id="rId256"/>
+    <hyperlink ref="K2" r:id="rId256"/>
+    <hyperlink ref="K3" r:id="rId257"/>
+    <hyperlink ref="K4" r:id="rId258"/>
+    <hyperlink ref="K5" r:id="rId259"/>
+    <hyperlink ref="K6" r:id="rId260"/>
+    <hyperlink ref="K7" r:id="rId261"/>
+    <hyperlink ref="K8" r:id="rId262"/>
+    <hyperlink ref="K9" r:id="rId263"/>
+    <hyperlink ref="K10" r:id="rId264"/>
+    <hyperlink ref="K11" r:id="rId265"/>
+    <hyperlink ref="K12" r:id="rId266"/>
+    <hyperlink ref="K13" r:id="rId267"/>
+    <hyperlink ref="K14" r:id="rId268"/>
+    <hyperlink ref="K15" r:id="rId269"/>
+    <hyperlink ref="K16" r:id="rId270"/>
+    <hyperlink ref="K17" r:id="rId271"/>
+    <hyperlink ref="K18" r:id="rId272"/>
+    <hyperlink ref="K19" r:id="rId273"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -1587,6 +1590,651 @@
         <v>560</v>
       </c>
       <c r="K19" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId103"/>
+    <hyperlink ref="K3" r:id="rId104"/>
+    <hyperlink ref="K4" r:id="rId105"/>
+    <hyperlink ref="K5" r:id="rId106"/>
+    <hyperlink ref="K6" r:id="rId107"/>
+    <hyperlink ref="K7" r:id="rId108"/>
+    <hyperlink ref="K8" r:id="rId109"/>
+    <hyperlink ref="K9" r:id="rId110"/>
+    <hyperlink ref="K10" r:id="rId111"/>
+    <hyperlink ref="K11" r:id="rId112"/>
+    <hyperlink ref="K12" r:id="rId113"/>
+    <hyperlink ref="K13" r:id="rId114"/>
+    <hyperlink ref="K14" r:id="rId115"/>
+    <hyperlink ref="K15" r:id="rId116"/>
+    <hyperlink ref="K16" r:id="rId117"/>
+    <hyperlink ref="K17" r:id="rId118"/>
+    <hyperlink ref="K18" r:id="rId119"/>
+    <hyperlink ref="K19" r:id="rId120"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70985</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>127071</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4282</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45089</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1551</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35762</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1171</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32249</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1377</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48275</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1245</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33682</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1197</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>642</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19805</v>
+      </c>
+      <c r="G9" s="0">
+        <v>405</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>746</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28535</v>
+      </c>
+      <c r="G10" s="0">
+        <v>702</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29935</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17829</v>
+      </c>
+      <c r="G12" s="0">
+        <v>469</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>509</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22582</v>
+      </c>
+      <c r="G13" s="0">
+        <v>501</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>584</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>17039</v>
+      </c>
+      <c r="G14" s="0">
+        <v>239</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31625</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1003</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>495</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25488</v>
+      </c>
+      <c r="G16" s="0">
+        <v>790</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>658</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>15097</v>
+      </c>
+      <c r="G17" s="0">
+        <v>373</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>425</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>14116</v>
+      </c>
+      <c r="G18" s="0">
+        <v>385</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>224</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>15071</v>
+      </c>
+      <c r="G19" s="0">
+        <v>315</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>560</v>
+      </c>
+      <c r="K19" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1616,7 +2264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -1676,7 +2324,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70985</v>
+        <v>70987</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -1687,7 +2335,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1708,7 +2356,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127071</v>
+        <v>127082</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -1719,7 +2367,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1740,7 +2388,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="G4" s="0">
         <v>1551</v>
@@ -1751,7 +2399,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1772,7 +2420,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35762</v>
+        <v>35767</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -1783,7 +2431,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1804,7 +2452,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32249</v>
+        <v>32250</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -1815,7 +2463,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1836,10 +2484,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48275</v>
+        <v>48282</v>
       </c>
       <c r="G7" s="0">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1847,7 +2495,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1868,7 +2516,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33682</v>
+        <v>33691</v>
       </c>
       <c r="G8" s="0">
         <v>1197</v>
@@ -1879,7 +2527,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1900,7 +2548,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19805</v>
+        <v>19811</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -1911,7 +2559,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1943,7 +2591,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1964,7 +2612,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29935</v>
+        <v>29939</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -1975,7 +2623,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1996,7 +2644,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17829</v>
+        <v>17835</v>
       </c>
       <c r="G12" s="0">
         <v>469</v>
@@ -2005,9 +2653,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>509</v>
-      </c>
-      <c r="K12" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2028,7 +2676,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22582</v>
+        <v>22607</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -2039,7 +2687,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2060,7 +2708,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17039</v>
+        <v>17048</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -2071,7 +2719,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2092,7 +2740,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31625</v>
+        <v>31633</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -2103,7 +2751,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="12" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2124,18 +2772,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25488</v>
+        <v>25526</v>
       </c>
       <c r="G16" s="0">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>658</v>
-      </c>
-      <c r="K16" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2156,18 +2804,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15097</v>
+        <v>15147</v>
       </c>
       <c r="G17" s="0">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>425</v>
-      </c>
-      <c r="K17" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2188,10 +2836,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14116</v>
+        <v>14132</v>
       </c>
       <c r="G18" s="0">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -2199,7 +2847,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2220,18 +2868,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15071</v>
+        <v>15100</v>
       </c>
       <c r="G19" s="0">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2261,7 +2909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2321,7 +2969,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70987</v>
+        <v>70988</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2332,7 +2980,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2353,7 +3001,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127082</v>
+        <v>127094</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -2364,7 +3012,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2385,7 +3033,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45092</v>
+        <v>45095</v>
       </c>
       <c r="G4" s="0">
         <v>1551</v>
@@ -2396,7 +3044,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2417,7 +3065,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35767</v>
+        <v>35771</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -2428,7 +3076,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2449,7 +3097,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32250</v>
+        <v>32253</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -2460,7 +3108,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2481,7 +3129,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48282</v>
+        <v>48290</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -2492,7 +3140,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2513,7 +3161,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33691</v>
+        <v>33700</v>
       </c>
       <c r="G8" s="0">
         <v>1197</v>
@@ -2524,7 +3172,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2545,7 +3193,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19811</v>
+        <v>19815</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -2554,9 +3202,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>746</v>
-      </c>
-      <c r="K9" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2577,7 +3225,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28535</v>
+        <v>28539</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -2588,7 +3236,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2609,7 +3257,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29939</v>
+        <v>29951</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -2620,7 +3268,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2641,10 +3289,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17835</v>
+        <v>17838</v>
       </c>
       <c r="G12" s="0">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -2652,7 +3300,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2673,7 +3321,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22607</v>
+        <v>22643</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -2684,7 +3332,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="13" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2705,7 +3353,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17048</v>
+        <v>17055</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -2714,9 +3362,9 @@
         <v>0</v>
       </c>
       <c r="J14" s="0">
-        <v>113</v>
-      </c>
-      <c r="K14" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2737,7 +3385,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31633</v>
+        <v>31646</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -2746,9 +3394,9 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>495</v>
-      </c>
-      <c r="K15" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="K15" s="13" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2769,18 +3417,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25526</v>
+        <v>25565</v>
       </c>
       <c r="G16" s="0">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>661</v>
-      </c>
-      <c r="K16" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="K16" s="13" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2801,10 +3449,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15147</v>
+        <v>15193</v>
       </c>
       <c r="G17" s="0">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -2812,7 +3460,7 @@
       <c r="J17" s="0">
         <v>428</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2833,7 +3481,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14132</v>
+        <v>14164</v>
       </c>
       <c r="G18" s="0">
         <v>386</v>
@@ -2844,7 +3492,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2865,18 +3513,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15100</v>
+        <v>15147</v>
       </c>
       <c r="G19" s="0">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>561</v>
-      </c>
-      <c r="K19" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="K19" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2906,7 +3554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2966,7 +3614,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70988</v>
+        <v>70996</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2977,7 +3625,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2998,7 +3646,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127094</v>
+        <v>127104</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -3009,7 +3657,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3033,7 +3681,7 @@
         <v>45095</v>
       </c>
       <c r="G4" s="0">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I4" s="0">
         <v>0</v>
@@ -3041,7 +3689,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3073,7 +3721,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="14" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3094,7 +3742,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32253</v>
+        <v>32255</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -3105,7 +3753,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3126,7 +3774,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48290</v>
+        <v>48297</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -3135,9 +3783,9 @@
         <v>0</v>
       </c>
       <c r="J7" s="0">
-        <v>1172</v>
-      </c>
-      <c r="K7" s="13" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3158,10 +3806,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33700</v>
+        <v>33704</v>
       </c>
       <c r="G8" s="0">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -3169,7 +3817,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3190,10 +3838,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19815</v>
+        <v>19818</v>
       </c>
       <c r="G9" s="0">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -3201,7 +3849,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3222,7 +3870,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28539</v>
+        <v>28542</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -3233,7 +3881,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3254,7 +3902,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29951</v>
+        <v>29953</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3265,7 +3913,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3286,7 +3934,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17838</v>
+        <v>17840</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3297,7 +3945,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="14" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3318,7 +3966,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22643</v>
+        <v>22675</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -3329,7 +3977,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3350,7 +3998,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17055</v>
+        <v>17067</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -3361,7 +4009,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3382,7 +4030,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31646</v>
+        <v>31653</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -3393,7 +4041,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="14" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3414,18 +4062,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25565</v>
+        <v>25607</v>
       </c>
       <c r="G16" s="0">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>659</v>
-      </c>
-      <c r="K16" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="K16" s="14" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3446,18 +4094,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15193</v>
+        <v>15235</v>
       </c>
       <c r="G17" s="0">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>428</v>
-      </c>
-      <c r="K17" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="K17" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3478,10 +4126,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14164</v>
+        <v>14189</v>
       </c>
       <c r="G18" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -3489,7 +4137,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3510,7 +4158,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15147</v>
+        <v>15168</v>
       </c>
       <c r="G19" s="0">
         <v>317</v>
@@ -3519,9 +4167,9 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>563</v>
-      </c>
-      <c r="K19" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="K19" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3551,7 +4199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -3611,7 +4259,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70996</v>
+        <v>71000</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -3622,7 +4270,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3643,7 +4291,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127104</v>
+        <v>127115</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -3654,7 +4302,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3686,7 +4334,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3707,10 +4355,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35771</v>
+        <v>35774</v>
       </c>
       <c r="G5" s="0">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -3718,7 +4366,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3742,7 +4390,7 @@
         <v>32255</v>
       </c>
       <c r="G6" s="0">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -3750,7 +4398,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3771,10 +4419,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48297</v>
+        <v>48302</v>
       </c>
       <c r="G7" s="0">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -3782,7 +4430,7 @@
       <c r="J7" s="0">
         <v>1173</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="15" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3803,7 +4451,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33704</v>
+        <v>33706</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -3814,7 +4462,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3835,10 +4483,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19818</v>
+        <v>19821</v>
       </c>
       <c r="G9" s="0">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -3846,7 +4494,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="15" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3867,7 +4515,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28542</v>
+        <v>28543</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -3878,7 +4526,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3899,7 +4547,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29953</v>
+        <v>29954</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3910,7 +4558,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3931,7 +4579,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17840</v>
+        <v>17841</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3942,7 +4590,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="15" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3963,7 +4611,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22675</v>
+        <v>22705</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -3974,7 +4622,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="15" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3995,10 +4643,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17067</v>
+        <v>17075</v>
       </c>
       <c r="G14" s="0">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -4006,7 +4654,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="15" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4027,7 +4675,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31653</v>
+        <v>31662</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -4038,7 +4686,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="15" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4059,18 +4707,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25607</v>
+        <v>25651</v>
       </c>
       <c r="G16" s="0">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>660</v>
-      </c>
-      <c r="K16" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="K16" s="15" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4091,10 +4739,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15235</v>
+        <v>15269</v>
       </c>
       <c r="G17" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -4102,7 +4750,7 @@
       <c r="J17" s="0">
         <v>429</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="15" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4123,7 +4771,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14189</v>
+        <v>14211</v>
       </c>
       <c r="G18" s="0">
         <v>388</v>
@@ -4134,7 +4782,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="15" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4155,18 +4803,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15168</v>
+        <v>15205</v>
       </c>
       <c r="G19" s="0">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>565</v>
-      </c>
-      <c r="K19" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="K19" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4196,7 +4844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -4256,7 +4904,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>71000</v>
+        <v>71009</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -4267,7 +4915,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4288,10 +4936,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127115</v>
+        <v>127122</v>
       </c>
       <c r="G3" s="0">
-        <v>4282</v>
+        <v>4283</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -4299,7 +4947,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4320,7 +4968,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -4331,7 +4979,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4352,7 +5000,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35774</v>
+        <v>35775</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -4363,7 +5011,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4395,7 +5043,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4416,7 +5064,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48302</v>
+        <v>48304</v>
       </c>
       <c r="G7" s="0">
         <v>1248</v>
@@ -4427,7 +5075,7 @@
       <c r="J7" s="0">
         <v>1173</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4448,7 +5096,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33706</v>
+        <v>33708</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -4459,7 +5107,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="16" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4480,7 +5128,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19821</v>
+        <v>19823</v>
       </c>
       <c r="G9" s="0">
         <v>407</v>
@@ -4491,7 +5139,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4512,7 +5160,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28543</v>
+        <v>28545</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -4523,7 +5171,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="16" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4544,7 +5192,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29954</v>
+        <v>29959</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -4555,7 +5203,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4576,10 +5224,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17841</v>
+        <v>17842</v>
       </c>
       <c r="G12" s="0">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -4587,7 +5235,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="16" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4608,10 +5256,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22705</v>
+        <v>22734</v>
       </c>
       <c r="G13" s="0">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -4619,7 +5267,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="16" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4640,7 +5288,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17075</v>
+        <v>17089</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -4651,7 +5299,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="16" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4672,10 +5320,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31662</v>
+        <v>31674</v>
       </c>
       <c r="G15" s="0">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -4683,7 +5331,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="16" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4704,10 +5352,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25651</v>
+        <v>25699</v>
       </c>
       <c r="G16" s="0">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -4715,7 +5363,7 @@
       <c r="J16" s="0">
         <v>657</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="16" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4736,18 +5384,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15269</v>
+        <v>15302</v>
       </c>
       <c r="G17" s="0">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>429</v>
-      </c>
-      <c r="K17" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="K17" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4768,7 +5416,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14211</v>
+        <v>14226</v>
       </c>
       <c r="G18" s="0">
         <v>388</v>
@@ -4779,7 +5427,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="16" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4800,18 +5448,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15205</v>
+        <v>15242</v>
       </c>
       <c r="G19" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>564</v>
-      </c>
-      <c r="K19" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="K19" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5463,6 +6111,651 @@
   </sheetData>
   <autoFilter ref="A1:K19"/>
   <hyperlinks>
+    <hyperlink ref="K2" r:id="rId239"/>
+    <hyperlink ref="K3" r:id="rId240"/>
+    <hyperlink ref="K4" r:id="rId241"/>
+    <hyperlink ref="K5" r:id="rId242"/>
+    <hyperlink ref="K6" r:id="rId243"/>
+    <hyperlink ref="K7" r:id="rId244"/>
+    <hyperlink ref="K8" r:id="rId245"/>
+    <hyperlink ref="K9" r:id="rId246"/>
+    <hyperlink ref="K10" r:id="rId247"/>
+    <hyperlink ref="K11" r:id="rId248"/>
+    <hyperlink ref="K12" r:id="rId249"/>
+    <hyperlink ref="K13" r:id="rId250"/>
+    <hyperlink ref="K14" r:id="rId251"/>
+    <hyperlink ref="K15" r:id="rId252"/>
+    <hyperlink ref="K16" r:id="rId253"/>
+    <hyperlink ref="K17" r:id="rId254"/>
+    <hyperlink ref="K18" r:id="rId255"/>
+    <hyperlink ref="K19" r:id="rId256"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70952</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>126982</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4283</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2833</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45070</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1550</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35743</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1172</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32220</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1377</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48227</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1246</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33618</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1194</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>641</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19792</v>
+      </c>
+      <c r="G9" s="0">
+        <v>406</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>747</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28515</v>
+      </c>
+      <c r="G10" s="0">
+        <v>701</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29882</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17783</v>
+      </c>
+      <c r="G12" s="0">
+        <v>470</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>520</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22364</v>
+      </c>
+      <c r="G13" s="0">
+        <v>498</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>581</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>16966</v>
+      </c>
+      <c r="G14" s="0">
+        <v>240</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31502</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1004</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>497</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25121</v>
+      </c>
+      <c r="G16" s="0">
+        <v>780</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>653</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>14744</v>
+      </c>
+      <c r="G17" s="0">
+        <v>368</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>420</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>13943</v>
+      </c>
+      <c r="G18" s="0">
+        <v>384</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>223</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>14727</v>
+      </c>
+      <c r="G19" s="0">
+        <v>311</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>560</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
     <hyperlink ref="K2" r:id="rId222"/>
     <hyperlink ref="K3" r:id="rId223"/>
     <hyperlink ref="K4" r:id="rId224"/>
@@ -5486,7 +6779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -5546,7 +6839,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70952</v>
+        <v>70961</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -5557,7 +6850,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5578,7 +6871,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126982</v>
+        <v>126997</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -5589,7 +6882,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5610,7 +6903,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45070</v>
+        <v>45075</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -5621,7 +6914,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5642,7 +6935,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35743</v>
+        <v>35746</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -5653,7 +6946,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5674,7 +6967,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32220</v>
+        <v>32222</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -5685,7 +6978,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5706,7 +6999,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48227</v>
+        <v>48233</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -5717,7 +7010,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5738,7 +7031,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33618</v>
+        <v>33626</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -5749,7 +7042,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5770,7 +7063,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19792</v>
+        <v>19797</v>
       </c>
       <c r="G9" s="0">
         <v>406</v>
@@ -5781,7 +7074,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5802,7 +7095,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28515</v>
+        <v>28517</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -5813,7 +7106,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5834,7 +7127,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29882</v>
+        <v>29888</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -5845,7 +7138,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5866,7 +7159,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17783</v>
+        <v>17786</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -5875,9 +7168,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>520</v>
-      </c>
-      <c r="K12" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5898,10 +7191,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22364</v>
+        <v>22381</v>
       </c>
       <c r="G13" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -5909,7 +7202,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5930,7 +7223,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16966</v>
+        <v>16976</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -5941,7 +7234,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5962,7 +7255,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31502</v>
+        <v>31517</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -5973,7 +7266,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5994,10 +7287,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25121</v>
+        <v>25168</v>
       </c>
       <c r="G16" s="0">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -6005,7 +7298,7 @@
       <c r="J16" s="0">
         <v>653</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6026,10 +7319,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14744</v>
+        <v>14774</v>
       </c>
       <c r="G17" s="0">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -6037,7 +7330,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6058,7 +7351,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13943</v>
+        <v>13959</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -6069,7 +7362,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6090,18 +7383,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14727</v>
+        <v>14768</v>
       </c>
       <c r="G19" s="0">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6131,7 +7424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -6191,7 +7484,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70961</v>
+        <v>70965</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -6202,7 +7495,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6223,7 +7516,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126997</v>
+        <v>127005</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -6234,7 +7527,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6255,7 +7548,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -6266,7 +7559,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6287,10 +7580,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35746</v>
+        <v>35751</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -6298,7 +7591,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6319,10 +7612,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32222</v>
+        <v>32227</v>
       </c>
       <c r="G6" s="0">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -6330,7 +7623,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6351,7 +7644,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48233</v>
+        <v>48240</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -6362,7 +7655,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -6383,7 +7676,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33626</v>
+        <v>33629</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -6394,7 +7687,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6415,10 +7708,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19797</v>
+        <v>19798</v>
       </c>
       <c r="G9" s="0">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -6426,7 +7719,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6447,7 +7740,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28517</v>
+        <v>28521</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -6458,7 +7751,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6479,7 +7772,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29888</v>
+        <v>29895</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -6490,7 +7783,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6511,7 +7804,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17786</v>
+        <v>17794</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -6522,7 +7815,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6543,7 +7836,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22381</v>
+        <v>22397</v>
       </c>
       <c r="G13" s="0">
         <v>500</v>
@@ -6554,7 +7847,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6575,7 +7868,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16976</v>
+        <v>16984</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -6586,7 +7879,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6607,7 +7900,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31517</v>
+        <v>31533</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -6618,7 +7911,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -6639,7 +7932,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25168</v>
+        <v>25214</v>
       </c>
       <c r="G16" s="0">
         <v>781</v>
@@ -6648,9 +7941,9 @@
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>653</v>
-      </c>
-      <c r="K16" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6671,10 +7964,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14774</v>
+        <v>14825</v>
       </c>
       <c r="G17" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -6682,7 +7975,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6703,7 +7996,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13959</v>
+        <v>13991</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -6714,7 +8007,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6735,10 +8028,10 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14768</v>
+        <v>14813</v>
       </c>
       <c r="G19" s="0">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -6746,7 +8039,7 @@
       <c r="J19" s="0">
         <v>559</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6776,7 +8069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -6836,7 +8129,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70965</v>
+        <v>70964</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -6847,7 +8140,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6868,18 +8161,18 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127005</v>
+        <v>127014</v>
       </c>
       <c r="G3" s="0">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2833</v>
-      </c>
-      <c r="K3" s="5" t="s">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6900,7 +8193,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45076</v>
+        <v>45079</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -6911,7 +8204,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6932,7 +8225,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35751</v>
+        <v>35753</v>
       </c>
       <c r="G5" s="0">
         <v>1173</v>
@@ -6943,7 +8236,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6964,7 +8257,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32227</v>
+        <v>32230</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -6975,7 +8268,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6996,7 +8289,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48240</v>
+        <v>48248</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -7007,7 +8300,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7028,18 +8321,18 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33629</v>
+        <v>33636</v>
       </c>
       <c r="G8" s="0">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>641</v>
-      </c>
-      <c r="K8" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7060,7 +8353,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19798</v>
+        <v>19799</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -7069,9 +8362,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>747</v>
-      </c>
-      <c r="K9" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7092,7 +8385,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28521</v>
+        <v>28526</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -7103,7 +8396,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7124,7 +8417,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29895</v>
+        <v>29899</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -7135,7 +8428,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7156,7 +8449,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17794</v>
+        <v>17802</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -7167,7 +8460,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7188,10 +8481,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22397</v>
+        <v>22422</v>
       </c>
       <c r="G13" s="0">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -7199,7 +8492,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7220,7 +8513,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16984</v>
+        <v>16989</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -7231,7 +8524,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7252,7 +8545,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31533</v>
+        <v>31541</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -7261,9 +8554,9 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>497</v>
-      </c>
-      <c r="K15" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7284,18 +8577,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25214</v>
+        <v>25265</v>
       </c>
       <c r="G16" s="0">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7316,10 +8609,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14825</v>
+        <v>14874</v>
       </c>
       <c r="G17" s="0">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -7327,7 +8620,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7348,10 +8641,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13991</v>
+        <v>14006</v>
       </c>
       <c r="G18" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -7359,7 +8652,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7380,7 +8673,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14813</v>
+        <v>14863</v>
       </c>
       <c r="G19" s="0">
         <v>313</v>
@@ -7389,9 +8682,9 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>559</v>
-      </c>
-      <c r="K19" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7421,7 +8714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -7481,7 +8774,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70964</v>
+        <v>70969</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -7492,7 +8785,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7513,10 +8806,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127014</v>
+        <v>127035</v>
       </c>
       <c r="G3" s="0">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -7524,7 +8817,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7545,7 +8838,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -7556,7 +8849,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7580,7 +8873,7 @@
         <v>35753</v>
       </c>
       <c r="G5" s="0">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -7588,7 +8881,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7609,7 +8902,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32230</v>
+        <v>32243</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -7620,7 +8913,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7641,7 +8934,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48248</v>
+        <v>48258</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -7652,7 +8945,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7673,7 +8966,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33636</v>
+        <v>33642</v>
       </c>
       <c r="G8" s="0">
         <v>1195</v>
@@ -7684,7 +8977,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7705,7 +8998,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19799</v>
+        <v>19800</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -7716,7 +9009,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7737,7 +9030,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28526</v>
+        <v>28530</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -7748,7 +9041,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7769,7 +9062,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29899</v>
+        <v>29904</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -7780,7 +9073,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7801,7 +9094,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17802</v>
+        <v>17808</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -7812,7 +9105,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7833,7 +9126,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22422</v>
+        <v>22454</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -7842,9 +9135,9 @@
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>581</v>
-      </c>
-      <c r="K13" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7865,7 +9158,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16989</v>
+        <v>16999</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -7876,7 +9169,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7897,10 +9190,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31541</v>
+        <v>31562</v>
       </c>
       <c r="G15" s="0">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -7908,7 +9201,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7929,18 +9222,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25265</v>
+        <v>25314</v>
       </c>
       <c r="G16" s="0">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>651</v>
-      </c>
-      <c r="K16" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7961,18 +9254,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14874</v>
+        <v>14929</v>
       </c>
       <c r="G17" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>420</v>
-      </c>
-      <c r="K17" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7993,7 +9286,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14006</v>
+        <v>14025</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -8004,7 +9297,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8025,18 +9318,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14863</v>
+        <v>14915</v>
       </c>
       <c r="G19" s="0">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8066,7 +9359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -8126,7 +9419,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70969</v>
+        <v>70975</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -8137,7 +9430,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8158,7 +9451,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127035</v>
+        <v>127049</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -8169,7 +9462,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8190,7 +9483,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45080</v>
+        <v>45084</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -8201,7 +9494,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8222,10 +9515,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35753</v>
+        <v>35754</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -8233,7 +9526,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -8254,7 +9547,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32243</v>
+        <v>32247</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -8265,7 +9558,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8286,7 +9579,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48258</v>
+        <v>48264</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -8297,7 +9590,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8318,10 +9611,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33642</v>
+        <v>33649</v>
       </c>
       <c r="G8" s="0">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -8329,7 +9622,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8361,7 +9654,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8382,7 +9675,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28530</v>
+        <v>28531</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -8393,7 +9686,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8414,7 +9707,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29904</v>
+        <v>29918</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -8425,7 +9718,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8446,10 +9739,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17808</v>
+        <v>17813</v>
       </c>
       <c r="G12" s="0">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -8457,7 +9750,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8478,7 +9771,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22454</v>
+        <v>22486</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -8489,7 +9782,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -8510,10 +9803,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16999</v>
+        <v>17009</v>
       </c>
       <c r="G14" s="0">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -8521,7 +9814,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -8542,7 +9835,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31562</v>
+        <v>31576</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -8553,7 +9846,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8574,18 +9867,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25314</v>
+        <v>25353</v>
       </c>
       <c r="G16" s="0">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8606,18 +9899,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14929</v>
+        <v>14959</v>
       </c>
       <c r="G17" s="0">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>421</v>
-      </c>
-      <c r="K17" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8638,7 +9931,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14025</v>
+        <v>14053</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -8649,7 +9942,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8670,7 +9963,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14915</v>
+        <v>14952</v>
       </c>
       <c r="G19" s="0">
         <v>314</v>
@@ -8681,7 +9974,7 @@
       <c r="J19" s="0">
         <v>561</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8711,7 +10004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -8771,7 +10064,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70975</v>
+        <v>70979</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -8782,7 +10075,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8803,7 +10096,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127049</v>
+        <v>127059</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -8814,7 +10107,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8835,7 +10128,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45084</v>
+        <v>45081</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -8846,7 +10139,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8867,7 +10160,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35754</v>
+        <v>35755</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -8878,7 +10171,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -8899,10 +10192,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32247</v>
+        <v>32249</v>
       </c>
       <c r="G6" s="0">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -8910,7 +10203,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8931,7 +10224,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48264</v>
+        <v>48266</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -8942,7 +10235,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8963,7 +10256,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33649</v>
+        <v>33660</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -8974,7 +10267,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8995,7 +10288,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19800</v>
+        <v>19802</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -9006,7 +10299,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -9038,7 +10331,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9059,7 +10352,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29918</v>
+        <v>29925</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -9070,7 +10363,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9091,7 +10384,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17813</v>
+        <v>17820</v>
       </c>
       <c r="G12" s="0">
         <v>469</v>
@@ -9102,7 +10395,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9123,7 +10416,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22486</v>
+        <v>22522</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -9134,7 +10427,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -9155,7 +10448,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17009</v>
+        <v>17025</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -9166,7 +10459,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9187,7 +10480,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31576</v>
+        <v>31592</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -9198,7 +10491,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9219,7 +10512,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25353</v>
+        <v>25405</v>
       </c>
       <c r="G16" s="0">
         <v>789</v>
@@ -9230,7 +10523,7 @@
       <c r="J16" s="0">
         <v>655</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -9251,7 +10544,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14959</v>
+        <v>15013</v>
       </c>
       <c r="G17" s="0">
         <v>372</v>
@@ -9260,9 +10553,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>422</v>
-      </c>
-      <c r="K17" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9283,7 +10576,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14053</v>
+        <v>14073</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -9292,9 +10585,9 @@
         <v>0</v>
       </c>
       <c r="J18" s="0">
-        <v>223</v>
-      </c>
-      <c r="K18" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9315,18 +10608,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14952</v>
+        <v>14997</v>
       </c>
       <c r="G19" s="0">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>561</v>
-      </c>
-      <c r="K19" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9354,649 +10647,4 @@
   </hyperlinks>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2018</v>
-      </c>
-      <c r="C2" s="0">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
-        <v>70979</v>
-      </c>
-      <c r="G2" s="0">
-        <v>1790</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>1214</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2018</v>
-      </c>
-      <c r="C3" s="0">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="0">
-        <v>127059</v>
-      </c>
-      <c r="G3" s="0">
-        <v>4283</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>2834</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="0">
-        <v>4</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="0">
-        <v>45081</v>
-      </c>
-      <c r="G4" s="0">
-        <v>1550</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
-        <v>1022</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="0">
-        <v>8</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="0">
-        <v>35755</v>
-      </c>
-      <c r="G5" s="0">
-        <v>1171</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
-        <v>834</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="0">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="0">
-        <v>32249</v>
-      </c>
-      <c r="G6" s="0">
-        <v>1377</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
-        <v>472</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="0">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="0">
-        <v>48266</v>
-      </c>
-      <c r="G7" s="0">
-        <v>1246</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>1172</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C8" s="0">
-        <v>5</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="0">
-        <v>33660</v>
-      </c>
-      <c r="G8" s="0">
-        <v>1196</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>642</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C9" s="0">
-        <v>5</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="0">
-        <v>19802</v>
-      </c>
-      <c r="G9" s="0">
-        <v>405</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>746</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C10" s="0">
-        <v>5</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="0">
-        <v>28531</v>
-      </c>
-      <c r="G10" s="0">
-        <v>701</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>562</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="0">
-        <v>10</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="0">
-        <v>29925</v>
-      </c>
-      <c r="G11" s="0">
-        <v>621</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>1955</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2022</v>
-      </c>
-      <c r="C12" s="0">
-        <v>10</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="0">
-        <v>17820</v>
-      </c>
-      <c r="G12" s="0">
-        <v>469</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>509</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2022</v>
-      </c>
-      <c r="C13" s="0">
-        <v>11</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="0">
-        <v>22522</v>
-      </c>
-      <c r="G13" s="0">
-        <v>501</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>584</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C14" s="0">
-        <v>3</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="0">
-        <v>17025</v>
-      </c>
-      <c r="G14" s="0">
-        <v>239</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>113</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C15" s="0">
-        <v>3</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="0">
-        <v>31592</v>
-      </c>
-      <c r="G15" s="0">
-        <v>1003</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>495</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C16" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="0">
-        <v>25405</v>
-      </c>
-      <c r="G16" s="0">
-        <v>789</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>655</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="0">
-        <v>15013</v>
-      </c>
-      <c r="G17" s="0">
-        <v>372</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>423</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C18" s="0">
-        <v>9</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="0">
-        <v>14073</v>
-      </c>
-      <c r="G18" s="0">
-        <v>385</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>224</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C19" s="0">
-        <v>10</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="0">
-        <v>14997</v>
-      </c>
-      <c r="G19" s="0">
-        <v>315</v>
-      </c>
-      <c r="I19" s="0">
-        <v>0</v>
-      </c>
-      <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K19"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId103"/>
-    <hyperlink ref="K3" r:id="rId104"/>
-    <hyperlink ref="K4" r:id="rId105"/>
-    <hyperlink ref="K5" r:id="rId106"/>
-    <hyperlink ref="K6" r:id="rId107"/>
-    <hyperlink ref="K7" r:id="rId108"/>
-    <hyperlink ref="K8" r:id="rId109"/>
-    <hyperlink ref="K9" r:id="rId110"/>
-    <hyperlink ref="K10" r:id="rId111"/>
-    <hyperlink ref="K11" r:id="rId112"/>
-    <hyperlink ref="K12" r:id="rId113"/>
-    <hyperlink ref="K13" r:id="rId114"/>
-    <hyperlink ref="K14" r:id="rId115"/>
-    <hyperlink ref="K15" r:id="rId116"/>
-    <hyperlink ref="K16" r:id="rId117"/>
-    <hyperlink ref="K17" r:id="rId118"/>
-    <hyperlink ref="K18" r:id="rId119"/>
-    <hyperlink ref="K19" r:id="rId120"/>
-  </hyperlinks>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
+++ b/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
@@ -21,6 +21,7 @@
     <sheet name="20231216041746 - Dec 16 2023" sheetId="14" r:id="rId15"/>
     <sheet name="20231217041802 - Dec 17 2023" sheetId="15" r:id="rId16"/>
     <sheet name="20231218041853 - Dec 18 2023" sheetId="16" r:id="rId17"/>
+    <sheet name="20231219041817 - Dec 19 2023" sheetId="17" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20231203113249 - Dec 03 2023'!$A$1:$K$19</definedName>
@@ -39,6 +40,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'20231216041746 - Dec 16 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'20231217041802 - Dec 17 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'20231218041853 - Dec 18 2023'!$A$1:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'20231219041817 - Dec 19 2023'!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -303,8 +305,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -951,24 +954,24 @@
   </sheetData>
   <autoFilter ref="A1:K19"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId256"/>
-    <hyperlink ref="K3" r:id="rId257"/>
-    <hyperlink ref="K4" r:id="rId258"/>
-    <hyperlink ref="K5" r:id="rId259"/>
-    <hyperlink ref="K6" r:id="rId260"/>
-    <hyperlink ref="K7" r:id="rId261"/>
-    <hyperlink ref="K8" r:id="rId262"/>
-    <hyperlink ref="K9" r:id="rId263"/>
-    <hyperlink ref="K10" r:id="rId264"/>
-    <hyperlink ref="K11" r:id="rId265"/>
-    <hyperlink ref="K12" r:id="rId266"/>
-    <hyperlink ref="K13" r:id="rId267"/>
-    <hyperlink ref="K14" r:id="rId268"/>
-    <hyperlink ref="K15" r:id="rId269"/>
-    <hyperlink ref="K16" r:id="rId270"/>
-    <hyperlink ref="K17" r:id="rId271"/>
-    <hyperlink ref="K18" r:id="rId272"/>
-    <hyperlink ref="K19" r:id="rId273"/>
+    <hyperlink ref="K2" r:id="rId273"/>
+    <hyperlink ref="K3" r:id="rId274"/>
+    <hyperlink ref="K4" r:id="rId275"/>
+    <hyperlink ref="K5" r:id="rId276"/>
+    <hyperlink ref="K6" r:id="rId277"/>
+    <hyperlink ref="K7" r:id="rId278"/>
+    <hyperlink ref="K8" r:id="rId279"/>
+    <hyperlink ref="K9" r:id="rId280"/>
+    <hyperlink ref="K10" r:id="rId281"/>
+    <hyperlink ref="K11" r:id="rId282"/>
+    <hyperlink ref="K12" r:id="rId283"/>
+    <hyperlink ref="K13" r:id="rId284"/>
+    <hyperlink ref="K14" r:id="rId285"/>
+    <hyperlink ref="K15" r:id="rId286"/>
+    <hyperlink ref="K16" r:id="rId287"/>
+    <hyperlink ref="K17" r:id="rId288"/>
+    <hyperlink ref="K18" r:id="rId289"/>
+    <hyperlink ref="K19" r:id="rId290"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -1590,6 +1593,651 @@
         <v>560</v>
       </c>
       <c r="K19" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId120"/>
+    <hyperlink ref="K3" r:id="rId121"/>
+    <hyperlink ref="K4" r:id="rId122"/>
+    <hyperlink ref="K5" r:id="rId123"/>
+    <hyperlink ref="K6" r:id="rId124"/>
+    <hyperlink ref="K7" r:id="rId125"/>
+    <hyperlink ref="K8" r:id="rId126"/>
+    <hyperlink ref="K9" r:id="rId127"/>
+    <hyperlink ref="K10" r:id="rId128"/>
+    <hyperlink ref="K11" r:id="rId129"/>
+    <hyperlink ref="K12" r:id="rId130"/>
+    <hyperlink ref="K13" r:id="rId131"/>
+    <hyperlink ref="K14" r:id="rId132"/>
+    <hyperlink ref="K15" r:id="rId133"/>
+    <hyperlink ref="K16" r:id="rId134"/>
+    <hyperlink ref="K17" r:id="rId135"/>
+    <hyperlink ref="K18" r:id="rId136"/>
+    <hyperlink ref="K19" r:id="rId137"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70985</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>127071</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4282</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45089</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1551</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35762</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1171</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32249</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1377</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48275</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1245</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33682</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1197</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>642</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19805</v>
+      </c>
+      <c r="G9" s="0">
+        <v>405</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>746</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28535</v>
+      </c>
+      <c r="G10" s="0">
+        <v>702</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29935</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17829</v>
+      </c>
+      <c r="G12" s="0">
+        <v>469</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>509</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22582</v>
+      </c>
+      <c r="G13" s="0">
+        <v>501</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>584</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>17039</v>
+      </c>
+      <c r="G14" s="0">
+        <v>239</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31625</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1003</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>495</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25488</v>
+      </c>
+      <c r="G16" s="0">
+        <v>790</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>658</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>15097</v>
+      </c>
+      <c r="G17" s="0">
+        <v>373</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>425</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>14116</v>
+      </c>
+      <c r="G18" s="0">
+        <v>385</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>224</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>15071</v>
+      </c>
+      <c r="G19" s="0">
+        <v>315</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>560</v>
+      </c>
+      <c r="K19" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1619,7 +2267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -1679,7 +2327,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70985</v>
+        <v>70987</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -1690,7 +2338,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1711,7 +2359,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127071</v>
+        <v>127082</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -1722,7 +2370,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1743,7 +2391,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="G4" s="0">
         <v>1551</v>
@@ -1754,7 +2402,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1775,7 +2423,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35762</v>
+        <v>35767</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -1786,7 +2434,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1807,7 +2455,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32249</v>
+        <v>32250</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -1818,7 +2466,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1839,10 +2487,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48275</v>
+        <v>48282</v>
       </c>
       <c r="G7" s="0">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1850,7 +2498,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1871,7 +2519,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33682</v>
+        <v>33691</v>
       </c>
       <c r="G8" s="0">
         <v>1197</v>
@@ -1882,7 +2530,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1903,7 +2551,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19805</v>
+        <v>19811</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -1914,7 +2562,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1946,7 +2594,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1967,7 +2615,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29935</v>
+        <v>29939</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -1978,7 +2626,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1999,7 +2647,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17829</v>
+        <v>17835</v>
       </c>
       <c r="G12" s="0">
         <v>469</v>
@@ -2008,9 +2656,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>509</v>
-      </c>
-      <c r="K12" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2031,7 +2679,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22582</v>
+        <v>22607</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -2042,7 +2690,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2063,7 +2711,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17039</v>
+        <v>17048</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -2074,7 +2722,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2095,7 +2743,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31625</v>
+        <v>31633</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -2106,7 +2754,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="12" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2127,18 +2775,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25488</v>
+        <v>25526</v>
       </c>
       <c r="G16" s="0">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>658</v>
-      </c>
-      <c r="K16" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2159,18 +2807,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15097</v>
+        <v>15147</v>
       </c>
       <c r="G17" s="0">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>425</v>
-      </c>
-      <c r="K17" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2191,10 +2839,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14116</v>
+        <v>14132</v>
       </c>
       <c r="G18" s="0">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -2202,7 +2850,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2223,18 +2871,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15071</v>
+        <v>15100</v>
       </c>
       <c r="G19" s="0">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2264,7 +2912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2324,7 +2972,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70987</v>
+        <v>70988</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2335,7 +2983,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2356,7 +3004,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127082</v>
+        <v>127094</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -2367,7 +3015,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2388,7 +3036,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45092</v>
+        <v>45095</v>
       </c>
       <c r="G4" s="0">
         <v>1551</v>
@@ -2399,7 +3047,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2420,7 +3068,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35767</v>
+        <v>35771</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -2431,7 +3079,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2452,7 +3100,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32250</v>
+        <v>32253</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -2463,7 +3111,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2484,7 +3132,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48282</v>
+        <v>48290</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -2495,7 +3143,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2516,7 +3164,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33691</v>
+        <v>33700</v>
       </c>
       <c r="G8" s="0">
         <v>1197</v>
@@ -2527,7 +3175,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2548,7 +3196,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19811</v>
+        <v>19815</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -2557,9 +3205,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>746</v>
-      </c>
-      <c r="K9" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2580,7 +3228,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28535</v>
+        <v>28539</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -2591,7 +3239,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2612,7 +3260,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29939</v>
+        <v>29951</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -2623,7 +3271,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2644,10 +3292,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17835</v>
+        <v>17838</v>
       </c>
       <c r="G12" s="0">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -2655,7 +3303,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2676,7 +3324,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22607</v>
+        <v>22643</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -2687,7 +3335,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="13" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2708,7 +3356,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17048</v>
+        <v>17055</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -2717,9 +3365,9 @@
         <v>0</v>
       </c>
       <c r="J14" s="0">
-        <v>113</v>
-      </c>
-      <c r="K14" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2740,7 +3388,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31633</v>
+        <v>31646</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -2749,9 +3397,9 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>495</v>
-      </c>
-      <c r="K15" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="K15" s="13" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2772,18 +3420,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25526</v>
+        <v>25565</v>
       </c>
       <c r="G16" s="0">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>661</v>
-      </c>
-      <c r="K16" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="K16" s="13" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2804,10 +3452,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15147</v>
+        <v>15193</v>
       </c>
       <c r="G17" s="0">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -2815,7 +3463,7 @@
       <c r="J17" s="0">
         <v>428</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2836,7 +3484,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14132</v>
+        <v>14164</v>
       </c>
       <c r="G18" s="0">
         <v>386</v>
@@ -2847,7 +3495,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2868,18 +3516,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15100</v>
+        <v>15147</v>
       </c>
       <c r="G19" s="0">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>561</v>
-      </c>
-      <c r="K19" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="K19" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2909,7 +3557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2969,7 +3617,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70988</v>
+        <v>70996</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2980,7 +3628,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3001,7 +3649,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127094</v>
+        <v>127104</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -3012,7 +3660,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3036,7 +3684,7 @@
         <v>45095</v>
       </c>
       <c r="G4" s="0">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I4" s="0">
         <v>0</v>
@@ -3044,7 +3692,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3076,7 +3724,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="14" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3097,7 +3745,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32253</v>
+        <v>32255</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -3108,7 +3756,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3129,7 +3777,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48290</v>
+        <v>48297</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -3138,9 +3786,9 @@
         <v>0</v>
       </c>
       <c r="J7" s="0">
-        <v>1172</v>
-      </c>
-      <c r="K7" s="13" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3161,10 +3809,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33700</v>
+        <v>33704</v>
       </c>
       <c r="G8" s="0">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -3172,7 +3820,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3193,10 +3841,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19815</v>
+        <v>19818</v>
       </c>
       <c r="G9" s="0">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -3204,7 +3852,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3225,7 +3873,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28539</v>
+        <v>28542</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -3236,7 +3884,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3257,7 +3905,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29951</v>
+        <v>29953</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3268,7 +3916,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3289,7 +3937,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17838</v>
+        <v>17840</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3300,7 +3948,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="14" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3321,7 +3969,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22643</v>
+        <v>22675</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -3332,7 +3980,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3353,7 +4001,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17055</v>
+        <v>17067</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -3364,7 +4012,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3385,7 +4033,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31646</v>
+        <v>31653</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -3396,7 +4044,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="14" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3417,18 +4065,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25565</v>
+        <v>25607</v>
       </c>
       <c r="G16" s="0">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>659</v>
-      </c>
-      <c r="K16" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="K16" s="14" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3449,18 +4097,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15193</v>
+        <v>15235</v>
       </c>
       <c r="G17" s="0">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>428</v>
-      </c>
-      <c r="K17" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="K17" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3481,10 +4129,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14164</v>
+        <v>14189</v>
       </c>
       <c r="G18" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -3492,7 +4140,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3513,7 +4161,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15147</v>
+        <v>15168</v>
       </c>
       <c r="G19" s="0">
         <v>317</v>
@@ -3522,9 +4170,9 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>563</v>
-      </c>
-      <c r="K19" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="K19" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3554,7 +4202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -3614,7 +4262,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70996</v>
+        <v>71000</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -3625,7 +4273,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3646,7 +4294,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127104</v>
+        <v>127115</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -3657,7 +4305,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3689,7 +4337,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3710,10 +4358,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35771</v>
+        <v>35774</v>
       </c>
       <c r="G5" s="0">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -3721,7 +4369,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3745,7 +4393,7 @@
         <v>32255</v>
       </c>
       <c r="G6" s="0">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -3753,7 +4401,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3774,10 +4422,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48297</v>
+        <v>48302</v>
       </c>
       <c r="G7" s="0">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -3785,7 +4433,7 @@
       <c r="J7" s="0">
         <v>1173</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="15" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3806,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33704</v>
+        <v>33706</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -3817,7 +4465,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3838,10 +4486,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19818</v>
+        <v>19821</v>
       </c>
       <c r="G9" s="0">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -3849,7 +4497,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="15" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3870,7 +4518,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28542</v>
+        <v>28543</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -3881,7 +4529,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3902,7 +4550,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29953</v>
+        <v>29954</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3913,7 +4561,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3934,7 +4582,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17840</v>
+        <v>17841</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3945,7 +4593,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="15" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3966,7 +4614,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22675</v>
+        <v>22705</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -3977,7 +4625,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="15" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3998,10 +4646,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17067</v>
+        <v>17075</v>
       </c>
       <c r="G14" s="0">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -4009,7 +4657,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="15" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4030,7 +4678,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31653</v>
+        <v>31662</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -4041,7 +4689,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="15" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4062,18 +4710,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25607</v>
+        <v>25651</v>
       </c>
       <c r="G16" s="0">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>660</v>
-      </c>
-      <c r="K16" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="K16" s="15" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4094,10 +4742,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15235</v>
+        <v>15269</v>
       </c>
       <c r="G17" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -4105,7 +4753,7 @@
       <c r="J17" s="0">
         <v>429</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="15" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4126,7 +4774,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14189</v>
+        <v>14211</v>
       </c>
       <c r="G18" s="0">
         <v>388</v>
@@ -4137,7 +4785,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="15" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4158,18 +4806,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15168</v>
+        <v>15205</v>
       </c>
       <c r="G19" s="0">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>565</v>
-      </c>
-      <c r="K19" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="K19" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4199,7 +4847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -4259,7 +4907,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>71000</v>
+        <v>71009</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -4270,7 +4918,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4291,10 +4939,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127115</v>
+        <v>127122</v>
       </c>
       <c r="G3" s="0">
-        <v>4282</v>
+        <v>4283</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -4302,7 +4950,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4323,7 +4971,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -4334,7 +4982,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4355,7 +5003,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35774</v>
+        <v>35775</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -4366,7 +5014,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4398,7 +5046,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4419,7 +5067,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48302</v>
+        <v>48304</v>
       </c>
       <c r="G7" s="0">
         <v>1248</v>
@@ -4430,7 +5078,7 @@
       <c r="J7" s="0">
         <v>1173</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4451,7 +5099,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33706</v>
+        <v>33708</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -4462,7 +5110,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="16" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4483,7 +5131,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19821</v>
+        <v>19823</v>
       </c>
       <c r="G9" s="0">
         <v>407</v>
@@ -4494,7 +5142,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4515,7 +5163,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28543</v>
+        <v>28545</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -4526,7 +5174,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="16" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4547,7 +5195,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29954</v>
+        <v>29959</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -4558,7 +5206,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4579,10 +5227,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17841</v>
+        <v>17842</v>
       </c>
       <c r="G12" s="0">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -4590,7 +5238,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="16" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4611,10 +5259,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22705</v>
+        <v>22734</v>
       </c>
       <c r="G13" s="0">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -4622,7 +5270,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="16" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4643,7 +5291,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17075</v>
+        <v>17089</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -4654,7 +5302,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="16" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4675,10 +5323,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31662</v>
+        <v>31674</v>
       </c>
       <c r="G15" s="0">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -4686,7 +5334,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="16" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4707,10 +5355,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25651</v>
+        <v>25699</v>
       </c>
       <c r="G16" s="0">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -4718,7 +5366,7 @@
       <c r="J16" s="0">
         <v>657</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="16" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4739,18 +5387,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15269</v>
+        <v>15302</v>
       </c>
       <c r="G17" s="0">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>429</v>
-      </c>
-      <c r="K17" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="K17" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4771,7 +5419,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14211</v>
+        <v>14226</v>
       </c>
       <c r="G18" s="0">
         <v>388</v>
@@ -4782,7 +5430,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="16" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4803,18 +5451,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15205</v>
+        <v>15242</v>
       </c>
       <c r="G19" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>564</v>
-      </c>
-      <c r="K19" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="K19" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4844,7 +5492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -4904,7 +5552,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>71009</v>
+        <v>71019</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -4915,7 +5563,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4936,7 +5584,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127122</v>
+        <v>127133</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -4945,9 +5593,9 @@
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2834</v>
-      </c>
-      <c r="K3" s="16" t="s">
+        <v>2832</v>
+      </c>
+      <c r="K3" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4968,7 +5616,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45096</v>
+        <v>45101</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -4979,7 +5627,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="17" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5000,7 +5648,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35775</v>
+        <v>35774</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -5011,7 +5659,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5032,7 +5680,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32255</v>
+        <v>32257</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -5043,7 +5691,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="17" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5064,7 +5712,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48304</v>
+        <v>48307</v>
       </c>
       <c r="G7" s="0">
         <v>1248</v>
@@ -5075,7 +5723,7 @@
       <c r="J7" s="0">
         <v>1173</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="17" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5096,7 +5744,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33708</v>
+        <v>33714</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -5107,7 +5755,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="17" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5128,7 +5776,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19823</v>
+        <v>19828</v>
       </c>
       <c r="G9" s="0">
         <v>407</v>
@@ -5139,7 +5787,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="17" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5160,7 +5808,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28545</v>
+        <v>28549</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -5171,7 +5819,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="17" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5192,7 +5840,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29959</v>
+        <v>29962</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -5203,7 +5851,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="17" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5224,7 +5872,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17842</v>
+        <v>17854</v>
       </c>
       <c r="G12" s="0">
         <v>471</v>
@@ -5235,7 +5883,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5256,10 +5904,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22734</v>
+        <v>22761</v>
       </c>
       <c r="G13" s="0">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -5267,7 +5915,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="17" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5288,7 +5936,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17089</v>
+        <v>17102</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -5299,7 +5947,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="17" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5320,7 +5968,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31674</v>
+        <v>31684</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -5331,7 +5979,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5352,7 +6000,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25699</v>
+        <v>25764</v>
       </c>
       <c r="G16" s="0">
         <v>796</v>
@@ -5361,9 +6009,9 @@
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>657</v>
-      </c>
-      <c r="K16" s="16" t="s">
+        <v>656</v>
+      </c>
+      <c r="K16" s="17" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5384,10 +6032,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15302</v>
+        <v>15358</v>
       </c>
       <c r="G17" s="0">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -5395,7 +6043,7 @@
       <c r="J17" s="0">
         <v>430</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5416,10 +6064,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14226</v>
+        <v>14245</v>
       </c>
       <c r="G18" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -5427,7 +6075,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="17" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5448,7 +6096,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15242</v>
+        <v>15283</v>
       </c>
       <c r="G19" s="0">
         <v>319</v>
@@ -5459,7 +6107,7 @@
       <c r="J19" s="0">
         <v>565</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="17" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6111,6 +6759,651 @@
   </sheetData>
   <autoFilter ref="A1:K19"/>
   <hyperlinks>
+    <hyperlink ref="K2" r:id="rId256"/>
+    <hyperlink ref="K3" r:id="rId257"/>
+    <hyperlink ref="K4" r:id="rId258"/>
+    <hyperlink ref="K5" r:id="rId259"/>
+    <hyperlink ref="K6" r:id="rId260"/>
+    <hyperlink ref="K7" r:id="rId261"/>
+    <hyperlink ref="K8" r:id="rId262"/>
+    <hyperlink ref="K9" r:id="rId263"/>
+    <hyperlink ref="K10" r:id="rId264"/>
+    <hyperlink ref="K11" r:id="rId265"/>
+    <hyperlink ref="K12" r:id="rId266"/>
+    <hyperlink ref="K13" r:id="rId267"/>
+    <hyperlink ref="K14" r:id="rId268"/>
+    <hyperlink ref="K15" r:id="rId269"/>
+    <hyperlink ref="K16" r:id="rId270"/>
+    <hyperlink ref="K17" r:id="rId271"/>
+    <hyperlink ref="K18" r:id="rId272"/>
+    <hyperlink ref="K19" r:id="rId273"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70952</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>126982</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4283</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2833</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45070</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1550</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35743</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1172</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32220</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1377</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48227</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1246</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33618</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1194</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>641</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19792</v>
+      </c>
+      <c r="G9" s="0">
+        <v>406</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>747</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28515</v>
+      </c>
+      <c r="G10" s="0">
+        <v>701</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29882</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17783</v>
+      </c>
+      <c r="G12" s="0">
+        <v>470</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>520</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22364</v>
+      </c>
+      <c r="G13" s="0">
+        <v>498</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>581</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>16966</v>
+      </c>
+      <c r="G14" s="0">
+        <v>240</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31502</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1004</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>497</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25121</v>
+      </c>
+      <c r="G16" s="0">
+        <v>780</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>653</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>14744</v>
+      </c>
+      <c r="G17" s="0">
+        <v>368</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>420</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>13943</v>
+      </c>
+      <c r="G18" s="0">
+        <v>384</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>223</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>14727</v>
+      </c>
+      <c r="G19" s="0">
+        <v>311</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>560</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
     <hyperlink ref="K2" r:id="rId239"/>
     <hyperlink ref="K3" r:id="rId240"/>
     <hyperlink ref="K4" r:id="rId241"/>
@@ -6134,7 +7427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -6194,7 +7487,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70952</v>
+        <v>70961</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -6205,7 +7498,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6226,7 +7519,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126982</v>
+        <v>126997</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -6237,7 +7530,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6258,7 +7551,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45070</v>
+        <v>45075</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -6269,7 +7562,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6290,7 +7583,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35743</v>
+        <v>35746</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -6301,7 +7594,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6322,7 +7615,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32220</v>
+        <v>32222</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -6333,7 +7626,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6354,7 +7647,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48227</v>
+        <v>48233</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -6365,7 +7658,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -6386,7 +7679,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33618</v>
+        <v>33626</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -6397,7 +7690,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6418,7 +7711,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19792</v>
+        <v>19797</v>
       </c>
       <c r="G9" s="0">
         <v>406</v>
@@ -6429,7 +7722,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6450,7 +7743,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28515</v>
+        <v>28517</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -6461,7 +7754,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6482,7 +7775,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29882</v>
+        <v>29888</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -6493,7 +7786,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6514,7 +7807,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17783</v>
+        <v>17786</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -6523,9 +7816,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>520</v>
-      </c>
-      <c r="K12" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6546,10 +7839,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22364</v>
+        <v>22381</v>
       </c>
       <c r="G13" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -6557,7 +7850,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6578,7 +7871,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16966</v>
+        <v>16976</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -6589,7 +7882,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6610,7 +7903,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31502</v>
+        <v>31517</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -6621,7 +7914,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -6642,10 +7935,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25121</v>
+        <v>25168</v>
       </c>
       <c r="G16" s="0">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -6653,7 +7946,7 @@
       <c r="J16" s="0">
         <v>653</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6674,10 +7967,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14744</v>
+        <v>14774</v>
       </c>
       <c r="G17" s="0">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -6685,7 +7978,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6706,7 +7999,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13943</v>
+        <v>13959</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -6717,7 +8010,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6738,18 +8031,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14727</v>
+        <v>14768</v>
       </c>
       <c r="G19" s="0">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6779,7 +8072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -6839,7 +8132,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70961</v>
+        <v>70965</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -6850,7 +8143,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6871,7 +8164,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126997</v>
+        <v>127005</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -6882,7 +8175,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6903,7 +8196,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -6914,7 +8207,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6935,10 +8228,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35746</v>
+        <v>35751</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -6946,7 +8239,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6967,10 +8260,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32222</v>
+        <v>32227</v>
       </c>
       <c r="G6" s="0">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -6978,7 +8271,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6999,7 +8292,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48233</v>
+        <v>48240</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -7010,7 +8303,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7031,7 +8324,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33626</v>
+        <v>33629</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -7042,7 +8335,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7063,10 +8356,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19797</v>
+        <v>19798</v>
       </c>
       <c r="G9" s="0">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -7074,7 +8367,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7095,7 +8388,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28517</v>
+        <v>28521</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -7106,7 +8399,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7127,7 +8420,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29888</v>
+        <v>29895</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -7138,7 +8431,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7159,7 +8452,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17786</v>
+        <v>17794</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -7170,7 +8463,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7191,7 +8484,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22381</v>
+        <v>22397</v>
       </c>
       <c r="G13" s="0">
         <v>500</v>
@@ -7202,7 +8495,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7223,7 +8516,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16976</v>
+        <v>16984</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -7234,7 +8527,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7255,7 +8548,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31517</v>
+        <v>31533</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -7266,7 +8559,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7287,7 +8580,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25168</v>
+        <v>25214</v>
       </c>
       <c r="G16" s="0">
         <v>781</v>
@@ -7296,9 +8589,9 @@
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>653</v>
-      </c>
-      <c r="K16" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7319,10 +8612,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14774</v>
+        <v>14825</v>
       </c>
       <c r="G17" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -7330,7 +8623,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7351,7 +8644,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13959</v>
+        <v>13991</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -7362,7 +8655,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7383,10 +8676,10 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14768</v>
+        <v>14813</v>
       </c>
       <c r="G19" s="0">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -7394,7 +8687,7 @@
       <c r="J19" s="0">
         <v>559</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7424,7 +8717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -7484,7 +8777,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70965</v>
+        <v>70964</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -7495,7 +8788,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7516,18 +8809,18 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127005</v>
+        <v>127014</v>
       </c>
       <c r="G3" s="0">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2833</v>
-      </c>
-      <c r="K3" s="5" t="s">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7548,7 +8841,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45076</v>
+        <v>45079</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -7559,7 +8852,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7580,7 +8873,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35751</v>
+        <v>35753</v>
       </c>
       <c r="G5" s="0">
         <v>1173</v>
@@ -7591,7 +8884,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7612,7 +8905,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32227</v>
+        <v>32230</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -7623,7 +8916,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7644,7 +8937,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48240</v>
+        <v>48248</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -7655,7 +8948,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7676,18 +8969,18 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33629</v>
+        <v>33636</v>
       </c>
       <c r="G8" s="0">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>641</v>
-      </c>
-      <c r="K8" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7708,7 +9001,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19798</v>
+        <v>19799</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -7717,9 +9010,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>747</v>
-      </c>
-      <c r="K9" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7740,7 +9033,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28521</v>
+        <v>28526</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -7751,7 +9044,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7772,7 +9065,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29895</v>
+        <v>29899</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -7783,7 +9076,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7804,7 +9097,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17794</v>
+        <v>17802</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -7815,7 +9108,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7836,10 +9129,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22397</v>
+        <v>22422</v>
       </c>
       <c r="G13" s="0">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -7847,7 +9140,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7868,7 +9161,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16984</v>
+        <v>16989</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -7879,7 +9172,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7900,7 +9193,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31533</v>
+        <v>31541</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -7909,9 +9202,9 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>497</v>
-      </c>
-      <c r="K15" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7932,18 +9225,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25214</v>
+        <v>25265</v>
       </c>
       <c r="G16" s="0">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7964,10 +9257,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14825</v>
+        <v>14874</v>
       </c>
       <c r="G17" s="0">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -7975,7 +9268,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7996,10 +9289,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13991</v>
+        <v>14006</v>
       </c>
       <c r="G18" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -8007,7 +9300,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8028,7 +9321,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14813</v>
+        <v>14863</v>
       </c>
       <c r="G19" s="0">
         <v>313</v>
@@ -8037,9 +9330,9 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>559</v>
-      </c>
-      <c r="K19" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8069,7 +9362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -8129,7 +9422,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70964</v>
+        <v>70969</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -8140,7 +9433,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8161,10 +9454,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127014</v>
+        <v>127035</v>
       </c>
       <c r="G3" s="0">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -8172,7 +9465,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8193,7 +9486,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -8204,7 +9497,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8228,7 +9521,7 @@
         <v>35753</v>
       </c>
       <c r="G5" s="0">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -8236,7 +9529,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -8257,7 +9550,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32230</v>
+        <v>32243</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -8268,7 +9561,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8289,7 +9582,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48248</v>
+        <v>48258</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -8300,7 +9593,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8321,7 +9614,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33636</v>
+        <v>33642</v>
       </c>
       <c r="G8" s="0">
         <v>1195</v>
@@ -8332,7 +9625,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8353,7 +9646,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19799</v>
+        <v>19800</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -8364,7 +9657,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8385,7 +9678,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28526</v>
+        <v>28530</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -8396,7 +9689,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8417,7 +9710,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29899</v>
+        <v>29904</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -8428,7 +9721,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8449,7 +9742,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17802</v>
+        <v>17808</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -8460,7 +9753,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8481,7 +9774,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22422</v>
+        <v>22454</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -8490,9 +9783,9 @@
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>581</v>
-      </c>
-      <c r="K13" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -8513,7 +9806,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16989</v>
+        <v>16999</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -8524,7 +9817,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -8545,10 +9838,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31541</v>
+        <v>31562</v>
       </c>
       <c r="G15" s="0">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -8556,7 +9849,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8577,18 +9870,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25265</v>
+        <v>25314</v>
       </c>
       <c r="G16" s="0">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>651</v>
-      </c>
-      <c r="K16" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8609,18 +9902,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14874</v>
+        <v>14929</v>
       </c>
       <c r="G17" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>420</v>
-      </c>
-      <c r="K17" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8641,7 +9934,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14006</v>
+        <v>14025</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -8652,7 +9945,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8673,18 +9966,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14863</v>
+        <v>14915</v>
       </c>
       <c r="G19" s="0">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8714,7 +10007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -8774,7 +10067,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70969</v>
+        <v>70975</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -8785,7 +10078,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8806,7 +10099,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127035</v>
+        <v>127049</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -8817,7 +10110,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8838,7 +10131,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45080</v>
+        <v>45084</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -8849,7 +10142,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8870,10 +10163,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35753</v>
+        <v>35754</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -8881,7 +10174,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -8902,7 +10195,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32243</v>
+        <v>32247</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -8913,7 +10206,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8934,7 +10227,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48258</v>
+        <v>48264</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -8945,7 +10238,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8966,10 +10259,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33642</v>
+        <v>33649</v>
       </c>
       <c r="G8" s="0">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -8977,7 +10270,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -9009,7 +10302,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -9030,7 +10323,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28530</v>
+        <v>28531</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -9041,7 +10334,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9062,7 +10355,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29904</v>
+        <v>29918</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -9073,7 +10366,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9094,10 +10387,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17808</v>
+        <v>17813</v>
       </c>
       <c r="G12" s="0">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -9105,7 +10398,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9126,7 +10419,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22454</v>
+        <v>22486</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -9137,7 +10430,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -9158,10 +10451,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16999</v>
+        <v>17009</v>
       </c>
       <c r="G14" s="0">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -9169,7 +10462,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9190,7 +10483,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31562</v>
+        <v>31576</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -9201,7 +10494,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9222,18 +10515,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25314</v>
+        <v>25353</v>
       </c>
       <c r="G16" s="0">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -9254,18 +10547,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14929</v>
+        <v>14959</v>
       </c>
       <c r="G17" s="0">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>421</v>
-      </c>
-      <c r="K17" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9286,7 +10579,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14025</v>
+        <v>14053</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -9297,7 +10590,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9318,7 +10611,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14915</v>
+        <v>14952</v>
       </c>
       <c r="G19" s="0">
         <v>314</v>
@@ -9329,7 +10622,7 @@
       <c r="J19" s="0">
         <v>561</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9359,7 +10652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -9419,7 +10712,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70975</v>
+        <v>70979</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -9430,7 +10723,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9451,7 +10744,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127049</v>
+        <v>127059</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -9462,7 +10755,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9483,7 +10776,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45084</v>
+        <v>45081</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -9494,7 +10787,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9515,7 +10808,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35754</v>
+        <v>35755</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -9526,7 +10819,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -9547,10 +10840,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32247</v>
+        <v>32249</v>
       </c>
       <c r="G6" s="0">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -9558,7 +10851,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -9579,7 +10872,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48264</v>
+        <v>48266</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -9590,7 +10883,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -9611,7 +10904,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33649</v>
+        <v>33660</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -9622,7 +10915,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -9643,7 +10936,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19800</v>
+        <v>19802</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -9654,7 +10947,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -9686,7 +10979,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9707,7 +11000,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29918</v>
+        <v>29925</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -9718,7 +11011,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9739,7 +11032,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17813</v>
+        <v>17820</v>
       </c>
       <c r="G12" s="0">
         <v>469</v>
@@ -9750,7 +11043,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9771,7 +11064,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22486</v>
+        <v>22522</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -9782,7 +11075,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -9803,7 +11096,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17009</v>
+        <v>17025</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -9814,7 +11107,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9835,7 +11128,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31576</v>
+        <v>31592</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -9846,7 +11139,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9867,7 +11160,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25353</v>
+        <v>25405</v>
       </c>
       <c r="G16" s="0">
         <v>789</v>
@@ -9878,7 +11171,7 @@
       <c r="J16" s="0">
         <v>655</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -9899,7 +11192,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14959</v>
+        <v>15013</v>
       </c>
       <c r="G17" s="0">
         <v>372</v>
@@ -9908,9 +11201,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>422</v>
-      </c>
-      <c r="K17" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9931,7 +11224,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14053</v>
+        <v>14073</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -9940,9 +11233,9 @@
         <v>0</v>
       </c>
       <c r="J18" s="0">
-        <v>223</v>
-      </c>
-      <c r="K18" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9963,18 +11256,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14952</v>
+        <v>14997</v>
       </c>
       <c r="G19" s="0">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>561</v>
-      </c>
-      <c r="K19" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -10002,649 +11295,4 @@
   </hyperlinks>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2018</v>
-      </c>
-      <c r="C2" s="0">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
-        <v>70979</v>
-      </c>
-      <c r="G2" s="0">
-        <v>1790</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>1214</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2018</v>
-      </c>
-      <c r="C3" s="0">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="0">
-        <v>127059</v>
-      </c>
-      <c r="G3" s="0">
-        <v>4283</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>2834</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="0">
-        <v>4</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="0">
-        <v>45081</v>
-      </c>
-      <c r="G4" s="0">
-        <v>1550</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
-        <v>1022</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="0">
-        <v>8</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="0">
-        <v>35755</v>
-      </c>
-      <c r="G5" s="0">
-        <v>1171</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
-        <v>834</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="0">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="0">
-        <v>32249</v>
-      </c>
-      <c r="G6" s="0">
-        <v>1377</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
-        <v>472</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="0">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="0">
-        <v>48266</v>
-      </c>
-      <c r="G7" s="0">
-        <v>1246</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>1172</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C8" s="0">
-        <v>5</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="0">
-        <v>33660</v>
-      </c>
-      <c r="G8" s="0">
-        <v>1196</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>642</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C9" s="0">
-        <v>5</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="0">
-        <v>19802</v>
-      </c>
-      <c r="G9" s="0">
-        <v>405</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>746</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C10" s="0">
-        <v>5</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="0">
-        <v>28531</v>
-      </c>
-      <c r="G10" s="0">
-        <v>701</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>562</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="0">
-        <v>10</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="0">
-        <v>29925</v>
-      </c>
-      <c r="G11" s="0">
-        <v>621</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>1955</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2022</v>
-      </c>
-      <c r="C12" s="0">
-        <v>10</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="0">
-        <v>17820</v>
-      </c>
-      <c r="G12" s="0">
-        <v>469</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>509</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2022</v>
-      </c>
-      <c r="C13" s="0">
-        <v>11</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="0">
-        <v>22522</v>
-      </c>
-      <c r="G13" s="0">
-        <v>501</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>584</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C14" s="0">
-        <v>3</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="0">
-        <v>17025</v>
-      </c>
-      <c r="G14" s="0">
-        <v>239</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>113</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C15" s="0">
-        <v>3</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="0">
-        <v>31592</v>
-      </c>
-      <c r="G15" s="0">
-        <v>1003</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>495</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C16" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="0">
-        <v>25405</v>
-      </c>
-      <c r="G16" s="0">
-        <v>789</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>655</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="0">
-        <v>15013</v>
-      </c>
-      <c r="G17" s="0">
-        <v>372</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>423</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C18" s="0">
-        <v>9</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="0">
-        <v>14073</v>
-      </c>
-      <c r="G18" s="0">
-        <v>385</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>224</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C19" s="0">
-        <v>10</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="0">
-        <v>14997</v>
-      </c>
-      <c r="G19" s="0">
-        <v>315</v>
-      </c>
-      <c r="I19" s="0">
-        <v>0</v>
-      </c>
-      <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K19"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId120"/>
-    <hyperlink ref="K3" r:id="rId121"/>
-    <hyperlink ref="K4" r:id="rId122"/>
-    <hyperlink ref="K5" r:id="rId123"/>
-    <hyperlink ref="K6" r:id="rId124"/>
-    <hyperlink ref="K7" r:id="rId125"/>
-    <hyperlink ref="K8" r:id="rId126"/>
-    <hyperlink ref="K9" r:id="rId127"/>
-    <hyperlink ref="K10" r:id="rId128"/>
-    <hyperlink ref="K11" r:id="rId129"/>
-    <hyperlink ref="K12" r:id="rId130"/>
-    <hyperlink ref="K13" r:id="rId131"/>
-    <hyperlink ref="K14" r:id="rId132"/>
-    <hyperlink ref="K15" r:id="rId133"/>
-    <hyperlink ref="K16" r:id="rId134"/>
-    <hyperlink ref="K17" r:id="rId135"/>
-    <hyperlink ref="K18" r:id="rId136"/>
-    <hyperlink ref="K19" r:id="rId137"/>
-  </hyperlinks>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
+++ b/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
@@ -22,6 +22,7 @@
     <sheet name="20231217041802 - Dec 17 2023" sheetId="15" r:id="rId16"/>
     <sheet name="20231218041853 - Dec 18 2023" sheetId="16" r:id="rId17"/>
     <sheet name="20231219041817 - Dec 19 2023" sheetId="17" r:id="rId18"/>
+    <sheet name="20231220041511 - Dec 20 2023" sheetId="18" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20231203113249 - Dec 03 2023'!$A$1:$K$19</definedName>
@@ -41,6 +42,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'20231217041802 - Dec 17 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'20231218041853 - Dec 18 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'20231219041817 - Dec 19 2023'!$A$1:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'20231220041511 - Dec 20 2023'!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -305,8 +307,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -954,24 +957,24 @@
   </sheetData>
   <autoFilter ref="A1:K19"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId273"/>
-    <hyperlink ref="K3" r:id="rId274"/>
-    <hyperlink ref="K4" r:id="rId275"/>
-    <hyperlink ref="K5" r:id="rId276"/>
-    <hyperlink ref="K6" r:id="rId277"/>
-    <hyperlink ref="K7" r:id="rId278"/>
-    <hyperlink ref="K8" r:id="rId279"/>
-    <hyperlink ref="K9" r:id="rId280"/>
-    <hyperlink ref="K10" r:id="rId281"/>
-    <hyperlink ref="K11" r:id="rId282"/>
-    <hyperlink ref="K12" r:id="rId283"/>
-    <hyperlink ref="K13" r:id="rId284"/>
-    <hyperlink ref="K14" r:id="rId285"/>
-    <hyperlink ref="K15" r:id="rId286"/>
-    <hyperlink ref="K16" r:id="rId287"/>
-    <hyperlink ref="K17" r:id="rId288"/>
-    <hyperlink ref="K18" r:id="rId289"/>
-    <hyperlink ref="K19" r:id="rId290"/>
+    <hyperlink ref="K2" r:id="rId290"/>
+    <hyperlink ref="K3" r:id="rId291"/>
+    <hyperlink ref="K4" r:id="rId292"/>
+    <hyperlink ref="K5" r:id="rId293"/>
+    <hyperlink ref="K6" r:id="rId294"/>
+    <hyperlink ref="K7" r:id="rId295"/>
+    <hyperlink ref="K8" r:id="rId296"/>
+    <hyperlink ref="K9" r:id="rId297"/>
+    <hyperlink ref="K10" r:id="rId298"/>
+    <hyperlink ref="K11" r:id="rId299"/>
+    <hyperlink ref="K12" r:id="rId300"/>
+    <hyperlink ref="K13" r:id="rId301"/>
+    <hyperlink ref="K14" r:id="rId302"/>
+    <hyperlink ref="K15" r:id="rId303"/>
+    <hyperlink ref="K16" r:id="rId304"/>
+    <hyperlink ref="K17" r:id="rId305"/>
+    <hyperlink ref="K18" r:id="rId306"/>
+    <hyperlink ref="K19" r:id="rId307"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -1593,6 +1596,651 @@
         <v>560</v>
       </c>
       <c r="K19" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId137"/>
+    <hyperlink ref="K3" r:id="rId138"/>
+    <hyperlink ref="K4" r:id="rId139"/>
+    <hyperlink ref="K5" r:id="rId140"/>
+    <hyperlink ref="K6" r:id="rId141"/>
+    <hyperlink ref="K7" r:id="rId142"/>
+    <hyperlink ref="K8" r:id="rId143"/>
+    <hyperlink ref="K9" r:id="rId144"/>
+    <hyperlink ref="K10" r:id="rId145"/>
+    <hyperlink ref="K11" r:id="rId146"/>
+    <hyperlink ref="K12" r:id="rId147"/>
+    <hyperlink ref="K13" r:id="rId148"/>
+    <hyperlink ref="K14" r:id="rId149"/>
+    <hyperlink ref="K15" r:id="rId150"/>
+    <hyperlink ref="K16" r:id="rId151"/>
+    <hyperlink ref="K17" r:id="rId152"/>
+    <hyperlink ref="K18" r:id="rId153"/>
+    <hyperlink ref="K19" r:id="rId154"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70985</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>127071</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4282</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45089</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1551</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35762</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1171</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32249</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1377</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48275</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1245</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33682</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1197</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>642</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19805</v>
+      </c>
+      <c r="G9" s="0">
+        <v>405</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>746</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28535</v>
+      </c>
+      <c r="G10" s="0">
+        <v>702</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29935</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17829</v>
+      </c>
+      <c r="G12" s="0">
+        <v>469</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>509</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22582</v>
+      </c>
+      <c r="G13" s="0">
+        <v>501</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>584</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>17039</v>
+      </c>
+      <c r="G14" s="0">
+        <v>239</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31625</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1003</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>495</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25488</v>
+      </c>
+      <c r="G16" s="0">
+        <v>790</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>658</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>15097</v>
+      </c>
+      <c r="G17" s="0">
+        <v>373</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>425</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>14116</v>
+      </c>
+      <c r="G18" s="0">
+        <v>385</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>224</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>15071</v>
+      </c>
+      <c r="G19" s="0">
+        <v>315</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>560</v>
+      </c>
+      <c r="K19" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1622,7 +2270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -1682,7 +2330,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70985</v>
+        <v>70987</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -1693,7 +2341,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1714,7 +2362,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127071</v>
+        <v>127082</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -1725,7 +2373,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1746,7 +2394,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="G4" s="0">
         <v>1551</v>
@@ -1757,7 +2405,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1778,7 +2426,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35762</v>
+        <v>35767</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -1789,7 +2437,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1810,7 +2458,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32249</v>
+        <v>32250</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -1821,7 +2469,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1842,10 +2490,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48275</v>
+        <v>48282</v>
       </c>
       <c r="G7" s="0">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1853,7 +2501,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1874,7 +2522,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33682</v>
+        <v>33691</v>
       </c>
       <c r="G8" s="0">
         <v>1197</v>
@@ -1885,7 +2533,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1906,7 +2554,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19805</v>
+        <v>19811</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -1917,7 +2565,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1949,7 +2597,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1970,7 +2618,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29935</v>
+        <v>29939</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -1981,7 +2629,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2002,7 +2650,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17829</v>
+        <v>17835</v>
       </c>
       <c r="G12" s="0">
         <v>469</v>
@@ -2011,9 +2659,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>509</v>
-      </c>
-      <c r="K12" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2034,7 +2682,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22582</v>
+        <v>22607</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -2045,7 +2693,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2066,7 +2714,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17039</v>
+        <v>17048</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -2077,7 +2725,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2098,7 +2746,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31625</v>
+        <v>31633</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -2109,7 +2757,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="12" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2130,18 +2778,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25488</v>
+        <v>25526</v>
       </c>
       <c r="G16" s="0">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>658</v>
-      </c>
-      <c r="K16" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2162,18 +2810,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15097</v>
+        <v>15147</v>
       </c>
       <c r="G17" s="0">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>425</v>
-      </c>
-      <c r="K17" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2194,10 +2842,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14116</v>
+        <v>14132</v>
       </c>
       <c r="G18" s="0">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -2205,7 +2853,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2226,18 +2874,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15071</v>
+        <v>15100</v>
       </c>
       <c r="G19" s="0">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2267,7 +2915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2327,7 +2975,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70987</v>
+        <v>70988</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2338,7 +2986,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2359,7 +3007,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127082</v>
+        <v>127094</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -2370,7 +3018,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2391,7 +3039,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45092</v>
+        <v>45095</v>
       </c>
       <c r="G4" s="0">
         <v>1551</v>
@@ -2402,7 +3050,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2423,7 +3071,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35767</v>
+        <v>35771</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -2434,7 +3082,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2455,7 +3103,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32250</v>
+        <v>32253</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -2466,7 +3114,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2487,7 +3135,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48282</v>
+        <v>48290</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -2498,7 +3146,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2519,7 +3167,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33691</v>
+        <v>33700</v>
       </c>
       <c r="G8" s="0">
         <v>1197</v>
@@ -2530,7 +3178,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2551,7 +3199,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19811</v>
+        <v>19815</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -2560,9 +3208,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>746</v>
-      </c>
-      <c r="K9" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2583,7 +3231,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28535</v>
+        <v>28539</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -2594,7 +3242,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2615,7 +3263,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29939</v>
+        <v>29951</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -2626,7 +3274,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2647,10 +3295,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17835</v>
+        <v>17838</v>
       </c>
       <c r="G12" s="0">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -2658,7 +3306,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2679,7 +3327,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22607</v>
+        <v>22643</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -2690,7 +3338,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="13" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2711,7 +3359,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17048</v>
+        <v>17055</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -2720,9 +3368,9 @@
         <v>0</v>
       </c>
       <c r="J14" s="0">
-        <v>113</v>
-      </c>
-      <c r="K14" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2743,7 +3391,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31633</v>
+        <v>31646</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -2752,9 +3400,9 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>495</v>
-      </c>
-      <c r="K15" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="K15" s="13" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2775,18 +3423,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25526</v>
+        <v>25565</v>
       </c>
       <c r="G16" s="0">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>661</v>
-      </c>
-      <c r="K16" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="K16" s="13" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2807,10 +3455,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15147</v>
+        <v>15193</v>
       </c>
       <c r="G17" s="0">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -2818,7 +3466,7 @@
       <c r="J17" s="0">
         <v>428</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2839,7 +3487,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14132</v>
+        <v>14164</v>
       </c>
       <c r="G18" s="0">
         <v>386</v>
@@ -2850,7 +3498,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2871,18 +3519,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15100</v>
+        <v>15147</v>
       </c>
       <c r="G19" s="0">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>561</v>
-      </c>
-      <c r="K19" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="K19" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2912,7 +3560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2972,7 +3620,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70988</v>
+        <v>70996</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2983,7 +3631,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3004,7 +3652,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127094</v>
+        <v>127104</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -3015,7 +3663,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3039,7 +3687,7 @@
         <v>45095</v>
       </c>
       <c r="G4" s="0">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I4" s="0">
         <v>0</v>
@@ -3047,7 +3695,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3079,7 +3727,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="14" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3100,7 +3748,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32253</v>
+        <v>32255</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -3111,7 +3759,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3132,7 +3780,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48290</v>
+        <v>48297</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -3141,9 +3789,9 @@
         <v>0</v>
       </c>
       <c r="J7" s="0">
-        <v>1172</v>
-      </c>
-      <c r="K7" s="13" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3164,10 +3812,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33700</v>
+        <v>33704</v>
       </c>
       <c r="G8" s="0">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -3175,7 +3823,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3196,10 +3844,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19815</v>
+        <v>19818</v>
       </c>
       <c r="G9" s="0">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -3207,7 +3855,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3228,7 +3876,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28539</v>
+        <v>28542</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -3239,7 +3887,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3260,7 +3908,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29951</v>
+        <v>29953</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3271,7 +3919,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3292,7 +3940,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17838</v>
+        <v>17840</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3303,7 +3951,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="14" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3324,7 +3972,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22643</v>
+        <v>22675</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -3335,7 +3983,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3356,7 +4004,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17055</v>
+        <v>17067</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -3367,7 +4015,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3388,7 +4036,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31646</v>
+        <v>31653</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -3399,7 +4047,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="14" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3420,18 +4068,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25565</v>
+        <v>25607</v>
       </c>
       <c r="G16" s="0">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>659</v>
-      </c>
-      <c r="K16" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="K16" s="14" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3452,18 +4100,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15193</v>
+        <v>15235</v>
       </c>
       <c r="G17" s="0">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>428</v>
-      </c>
-      <c r="K17" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="K17" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3484,10 +4132,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14164</v>
+        <v>14189</v>
       </c>
       <c r="G18" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -3495,7 +4143,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3516,7 +4164,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15147</v>
+        <v>15168</v>
       </c>
       <c r="G19" s="0">
         <v>317</v>
@@ -3525,9 +4173,9 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>563</v>
-      </c>
-      <c r="K19" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="K19" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3557,7 +4205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -3617,7 +4265,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70996</v>
+        <v>71000</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -3628,7 +4276,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3649,7 +4297,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127104</v>
+        <v>127115</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -3660,7 +4308,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3692,7 +4340,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3713,10 +4361,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35771</v>
+        <v>35774</v>
       </c>
       <c r="G5" s="0">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -3724,7 +4372,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3748,7 +4396,7 @@
         <v>32255</v>
       </c>
       <c r="G6" s="0">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -3756,7 +4404,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3777,10 +4425,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48297</v>
+        <v>48302</v>
       </c>
       <c r="G7" s="0">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -3788,7 +4436,7 @@
       <c r="J7" s="0">
         <v>1173</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="15" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3809,7 +4457,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33704</v>
+        <v>33706</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -3820,7 +4468,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3841,10 +4489,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19818</v>
+        <v>19821</v>
       </c>
       <c r="G9" s="0">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -3852,7 +4500,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="15" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3873,7 +4521,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28542</v>
+        <v>28543</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -3884,7 +4532,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3905,7 +4553,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29953</v>
+        <v>29954</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3916,7 +4564,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3937,7 +4585,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17840</v>
+        <v>17841</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3948,7 +4596,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="15" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3969,7 +4617,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22675</v>
+        <v>22705</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -3980,7 +4628,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="15" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4001,10 +4649,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17067</v>
+        <v>17075</v>
       </c>
       <c r="G14" s="0">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -4012,7 +4660,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="15" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4033,7 +4681,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31653</v>
+        <v>31662</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -4044,7 +4692,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="15" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4065,18 +4713,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25607</v>
+        <v>25651</v>
       </c>
       <c r="G16" s="0">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>660</v>
-      </c>
-      <c r="K16" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="K16" s="15" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4097,10 +4745,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15235</v>
+        <v>15269</v>
       </c>
       <c r="G17" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -4108,7 +4756,7 @@
       <c r="J17" s="0">
         <v>429</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="15" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4129,7 +4777,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14189</v>
+        <v>14211</v>
       </c>
       <c r="G18" s="0">
         <v>388</v>
@@ -4140,7 +4788,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="15" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4161,18 +4809,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15168</v>
+        <v>15205</v>
       </c>
       <c r="G19" s="0">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>565</v>
-      </c>
-      <c r="K19" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="K19" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4202,7 +4850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -4262,7 +4910,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>71000</v>
+        <v>71009</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -4273,7 +4921,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4294,10 +4942,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127115</v>
+        <v>127122</v>
       </c>
       <c r="G3" s="0">
-        <v>4282</v>
+        <v>4283</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -4305,7 +4953,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4326,7 +4974,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -4337,7 +4985,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4358,7 +5006,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35774</v>
+        <v>35775</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -4369,7 +5017,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4401,7 +5049,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4422,7 +5070,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48302</v>
+        <v>48304</v>
       </c>
       <c r="G7" s="0">
         <v>1248</v>
@@ -4433,7 +5081,7 @@
       <c r="J7" s="0">
         <v>1173</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4454,7 +5102,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33706</v>
+        <v>33708</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -4465,7 +5113,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="16" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4486,7 +5134,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19821</v>
+        <v>19823</v>
       </c>
       <c r="G9" s="0">
         <v>407</v>
@@ -4497,7 +5145,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4518,7 +5166,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28543</v>
+        <v>28545</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -4529,7 +5177,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="16" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4550,7 +5198,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29954</v>
+        <v>29959</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -4561,7 +5209,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4582,10 +5230,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17841</v>
+        <v>17842</v>
       </c>
       <c r="G12" s="0">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -4593,7 +5241,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="16" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4614,10 +5262,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22705</v>
+        <v>22734</v>
       </c>
       <c r="G13" s="0">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -4625,7 +5273,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="16" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4646,7 +5294,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17075</v>
+        <v>17089</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -4657,7 +5305,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="16" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4678,10 +5326,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31662</v>
+        <v>31674</v>
       </c>
       <c r="G15" s="0">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -4689,7 +5337,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="16" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4710,10 +5358,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25651</v>
+        <v>25699</v>
       </c>
       <c r="G16" s="0">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -4721,7 +5369,7 @@
       <c r="J16" s="0">
         <v>657</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="16" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4742,18 +5390,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15269</v>
+        <v>15302</v>
       </c>
       <c r="G17" s="0">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>429</v>
-      </c>
-      <c r="K17" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="K17" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4774,7 +5422,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14211</v>
+        <v>14226</v>
       </c>
       <c r="G18" s="0">
         <v>388</v>
@@ -4785,7 +5433,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="16" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4806,18 +5454,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15205</v>
+        <v>15242</v>
       </c>
       <c r="G19" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>564</v>
-      </c>
-      <c r="K19" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="K19" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4847,7 +5495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -4907,7 +5555,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>71009</v>
+        <v>71019</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -4918,7 +5566,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4939,7 +5587,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127122</v>
+        <v>127133</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -4948,9 +5596,9 @@
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2834</v>
-      </c>
-      <c r="K3" s="16" t="s">
+        <v>2832</v>
+      </c>
+      <c r="K3" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4971,7 +5619,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45096</v>
+        <v>45101</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -4982,7 +5630,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="17" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5003,7 +5651,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35775</v>
+        <v>35774</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -5014,7 +5662,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5035,7 +5683,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32255</v>
+        <v>32257</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -5046,7 +5694,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="17" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5067,7 +5715,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48304</v>
+        <v>48307</v>
       </c>
       <c r="G7" s="0">
         <v>1248</v>
@@ -5078,7 +5726,7 @@
       <c r="J7" s="0">
         <v>1173</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="17" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5099,7 +5747,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33708</v>
+        <v>33714</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -5110,7 +5758,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="17" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5131,7 +5779,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19823</v>
+        <v>19828</v>
       </c>
       <c r="G9" s="0">
         <v>407</v>
@@ -5142,7 +5790,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="17" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5163,7 +5811,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28545</v>
+        <v>28549</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -5174,7 +5822,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="17" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5195,7 +5843,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29959</v>
+        <v>29962</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -5206,7 +5854,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="17" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5227,7 +5875,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17842</v>
+        <v>17854</v>
       </c>
       <c r="G12" s="0">
         <v>471</v>
@@ -5238,7 +5886,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5259,10 +5907,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22734</v>
+        <v>22761</v>
       </c>
       <c r="G13" s="0">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -5270,7 +5918,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="17" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5291,7 +5939,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17089</v>
+        <v>17102</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -5302,7 +5950,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="17" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5323,7 +5971,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31674</v>
+        <v>31684</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -5334,7 +5982,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5355,7 +6003,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25699</v>
+        <v>25764</v>
       </c>
       <c r="G16" s="0">
         <v>796</v>
@@ -5364,9 +6012,9 @@
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>657</v>
-      </c>
-      <c r="K16" s="16" t="s">
+        <v>656</v>
+      </c>
+      <c r="K16" s="17" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5387,10 +6035,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15302</v>
+        <v>15358</v>
       </c>
       <c r="G17" s="0">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -5398,7 +6046,7 @@
       <c r="J17" s="0">
         <v>430</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5419,10 +6067,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14226</v>
+        <v>14245</v>
       </c>
       <c r="G18" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -5430,7 +6078,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="17" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5451,7 +6099,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15242</v>
+        <v>15283</v>
       </c>
       <c r="G19" s="0">
         <v>319</v>
@@ -5462,7 +6110,7 @@
       <c r="J19" s="0">
         <v>565</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="17" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5492,7 +6140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -5552,7 +6200,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>71019</v>
+        <v>71022</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -5563,7 +6211,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5584,7 +6232,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127133</v>
+        <v>127140</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -5595,7 +6243,7 @@
       <c r="J3" s="0">
         <v>2832</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="18" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5616,7 +6264,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -5627,7 +6275,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5648,7 +6296,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35774</v>
+        <v>35775</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -5659,7 +6307,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="18" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5680,7 +6328,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32257</v>
+        <v>32258</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -5691,7 +6339,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5712,18 +6360,18 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48307</v>
+        <v>48316</v>
       </c>
       <c r="G7" s="0">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
       </c>
       <c r="J7" s="0">
-        <v>1173</v>
-      </c>
-      <c r="K7" s="17" t="s">
+        <v>1170</v>
+      </c>
+      <c r="K7" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5744,10 +6392,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33714</v>
+        <v>33717</v>
       </c>
       <c r="G8" s="0">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -5755,7 +6403,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="18" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5776,7 +6424,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19828</v>
+        <v>19830</v>
       </c>
       <c r="G9" s="0">
         <v>407</v>
@@ -5785,9 +6433,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>747</v>
-      </c>
-      <c r="K9" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="K9" s="18" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5808,7 +6456,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28549</v>
+        <v>28552</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -5817,9 +6465,9 @@
         <v>0</v>
       </c>
       <c r="J10" s="0">
-        <v>562</v>
-      </c>
-      <c r="K10" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="K10" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5840,7 +6488,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29962</v>
+        <v>29969</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -5851,7 +6499,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5872,7 +6520,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17854</v>
+        <v>17861</v>
       </c>
       <c r="G12" s="0">
         <v>471</v>
@@ -5883,7 +6531,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="18" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5904,7 +6552,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22761</v>
+        <v>22767</v>
       </c>
       <c r="G13" s="0">
         <v>504</v>
@@ -5915,7 +6563,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="18" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5936,7 +6584,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17102</v>
+        <v>17107</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -5947,7 +6595,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="18" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5968,7 +6616,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31684</v>
+        <v>31699</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -5979,7 +6627,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="18" t="s">
         <v>59</v>
       </c>
     </row>
@@ -6000,18 +6648,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25764</v>
+        <v>25805</v>
       </c>
       <c r="G16" s="0">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>656</v>
-      </c>
-      <c r="K16" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="K16" s="18" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6032,10 +6680,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15358</v>
+        <v>15404</v>
       </c>
       <c r="G17" s="0">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -6043,7 +6691,7 @@
       <c r="J17" s="0">
         <v>430</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="18" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6064,7 +6712,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14245</v>
+        <v>14269</v>
       </c>
       <c r="G18" s="0">
         <v>390</v>
@@ -6075,7 +6723,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="18" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6096,7 +6744,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15283</v>
+        <v>15309</v>
       </c>
       <c r="G19" s="0">
         <v>319</v>
@@ -6107,7 +6755,7 @@
       <c r="J19" s="0">
         <v>565</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K19" s="18" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6759,6 +7407,651 @@
   </sheetData>
   <autoFilter ref="A1:K19"/>
   <hyperlinks>
+    <hyperlink ref="K2" r:id="rId273"/>
+    <hyperlink ref="K3" r:id="rId274"/>
+    <hyperlink ref="K4" r:id="rId275"/>
+    <hyperlink ref="K5" r:id="rId276"/>
+    <hyperlink ref="K6" r:id="rId277"/>
+    <hyperlink ref="K7" r:id="rId278"/>
+    <hyperlink ref="K8" r:id="rId279"/>
+    <hyperlink ref="K9" r:id="rId280"/>
+    <hyperlink ref="K10" r:id="rId281"/>
+    <hyperlink ref="K11" r:id="rId282"/>
+    <hyperlink ref="K12" r:id="rId283"/>
+    <hyperlink ref="K13" r:id="rId284"/>
+    <hyperlink ref="K14" r:id="rId285"/>
+    <hyperlink ref="K15" r:id="rId286"/>
+    <hyperlink ref="K16" r:id="rId287"/>
+    <hyperlink ref="K17" r:id="rId288"/>
+    <hyperlink ref="K18" r:id="rId289"/>
+    <hyperlink ref="K19" r:id="rId290"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70952</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>126982</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4283</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2833</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45070</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1550</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35743</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1172</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32220</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1377</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48227</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1246</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33618</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1194</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>641</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19792</v>
+      </c>
+      <c r="G9" s="0">
+        <v>406</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>747</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28515</v>
+      </c>
+      <c r="G10" s="0">
+        <v>701</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29882</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17783</v>
+      </c>
+      <c r="G12" s="0">
+        <v>470</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>520</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22364</v>
+      </c>
+      <c r="G13" s="0">
+        <v>498</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>581</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>16966</v>
+      </c>
+      <c r="G14" s="0">
+        <v>240</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31502</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1004</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>497</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25121</v>
+      </c>
+      <c r="G16" s="0">
+        <v>780</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>653</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>14744</v>
+      </c>
+      <c r="G17" s="0">
+        <v>368</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>420</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>13943</v>
+      </c>
+      <c r="G18" s="0">
+        <v>384</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>223</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>14727</v>
+      </c>
+      <c r="G19" s="0">
+        <v>311</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>560</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
     <hyperlink ref="K2" r:id="rId256"/>
     <hyperlink ref="K3" r:id="rId257"/>
     <hyperlink ref="K4" r:id="rId258"/>
@@ -6782,7 +8075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -6842,7 +8135,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70952</v>
+        <v>70961</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -6853,7 +8146,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6874,7 +8167,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126982</v>
+        <v>126997</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -6885,7 +8178,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6906,7 +8199,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45070</v>
+        <v>45075</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -6917,7 +8210,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6938,7 +8231,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35743</v>
+        <v>35746</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -6949,7 +8242,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6970,7 +8263,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32220</v>
+        <v>32222</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -6981,7 +8274,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7002,7 +8295,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48227</v>
+        <v>48233</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -7013,7 +8306,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7034,7 +8327,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33618</v>
+        <v>33626</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -7045,7 +8338,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7066,7 +8359,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19792</v>
+        <v>19797</v>
       </c>
       <c r="G9" s="0">
         <v>406</v>
@@ -7077,7 +8370,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7098,7 +8391,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28515</v>
+        <v>28517</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -7109,7 +8402,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7130,7 +8423,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29882</v>
+        <v>29888</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -7141,7 +8434,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7162,7 +8455,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17783</v>
+        <v>17786</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -7171,9 +8464,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>520</v>
-      </c>
-      <c r="K12" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7194,10 +8487,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22364</v>
+        <v>22381</v>
       </c>
       <c r="G13" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -7205,7 +8498,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7226,7 +8519,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16966</v>
+        <v>16976</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -7237,7 +8530,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7258,7 +8551,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31502</v>
+        <v>31517</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -7269,7 +8562,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7290,10 +8583,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25121</v>
+        <v>25168</v>
       </c>
       <c r="G16" s="0">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -7301,7 +8594,7 @@
       <c r="J16" s="0">
         <v>653</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7322,10 +8615,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14744</v>
+        <v>14774</v>
       </c>
       <c r="G17" s="0">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -7333,7 +8626,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7354,7 +8647,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13943</v>
+        <v>13959</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -7365,7 +8658,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7386,18 +8679,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14727</v>
+        <v>14768</v>
       </c>
       <c r="G19" s="0">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7427,7 +8720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -7487,7 +8780,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70961</v>
+        <v>70965</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -7498,7 +8791,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7519,7 +8812,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126997</v>
+        <v>127005</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -7530,7 +8823,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7551,7 +8844,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -7562,7 +8855,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7583,10 +8876,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35746</v>
+        <v>35751</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -7594,7 +8887,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7615,10 +8908,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32222</v>
+        <v>32227</v>
       </c>
       <c r="G6" s="0">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -7626,7 +8919,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7647,7 +8940,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48233</v>
+        <v>48240</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -7658,7 +8951,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7679,7 +8972,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33626</v>
+        <v>33629</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -7690,7 +8983,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7711,10 +9004,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19797</v>
+        <v>19798</v>
       </c>
       <c r="G9" s="0">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -7722,7 +9015,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7743,7 +9036,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28517</v>
+        <v>28521</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -7754,7 +9047,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7775,7 +9068,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29888</v>
+        <v>29895</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -7786,7 +9079,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7807,7 +9100,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17786</v>
+        <v>17794</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -7818,7 +9111,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7839,7 +9132,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22381</v>
+        <v>22397</v>
       </c>
       <c r="G13" s="0">
         <v>500</v>
@@ -7850,7 +9143,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7871,7 +9164,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16976</v>
+        <v>16984</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -7882,7 +9175,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7903,7 +9196,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31517</v>
+        <v>31533</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -7914,7 +9207,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7935,7 +9228,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25168</v>
+        <v>25214</v>
       </c>
       <c r="G16" s="0">
         <v>781</v>
@@ -7944,9 +9237,9 @@
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>653</v>
-      </c>
-      <c r="K16" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7967,10 +9260,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14774</v>
+        <v>14825</v>
       </c>
       <c r="G17" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -7978,7 +9271,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7999,7 +9292,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13959</v>
+        <v>13991</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -8010,7 +9303,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8031,10 +9324,10 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14768</v>
+        <v>14813</v>
       </c>
       <c r="G19" s="0">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -8042,7 +9335,7 @@
       <c r="J19" s="0">
         <v>559</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8072,7 +9365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -8132,7 +9425,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70965</v>
+        <v>70964</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -8143,7 +9436,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8164,18 +9457,18 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127005</v>
+        <v>127014</v>
       </c>
       <c r="G3" s="0">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2833</v>
-      </c>
-      <c r="K3" s="5" t="s">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8196,7 +9489,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45076</v>
+        <v>45079</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -8207,7 +9500,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8228,7 +9521,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35751</v>
+        <v>35753</v>
       </c>
       <c r="G5" s="0">
         <v>1173</v>
@@ -8239,7 +9532,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -8260,7 +9553,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32227</v>
+        <v>32230</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -8271,7 +9564,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8292,7 +9585,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48240</v>
+        <v>48248</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -8303,7 +9596,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8324,18 +9617,18 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33629</v>
+        <v>33636</v>
       </c>
       <c r="G8" s="0">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>641</v>
-      </c>
-      <c r="K8" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8356,7 +9649,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19798</v>
+        <v>19799</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -8365,9 +9658,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>747</v>
-      </c>
-      <c r="K9" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8388,7 +9681,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28521</v>
+        <v>28526</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -8399,7 +9692,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8420,7 +9713,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29895</v>
+        <v>29899</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -8431,7 +9724,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8452,7 +9745,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17794</v>
+        <v>17802</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -8463,7 +9756,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8484,10 +9777,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22397</v>
+        <v>22422</v>
       </c>
       <c r="G13" s="0">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -8495,7 +9788,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -8516,7 +9809,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16984</v>
+        <v>16989</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -8527,7 +9820,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -8548,7 +9841,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31533</v>
+        <v>31541</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -8557,9 +9850,9 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>497</v>
-      </c>
-      <c r="K15" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8580,18 +9873,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25214</v>
+        <v>25265</v>
       </c>
       <c r="G16" s="0">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8612,10 +9905,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14825</v>
+        <v>14874</v>
       </c>
       <c r="G17" s="0">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -8623,7 +9916,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8644,10 +9937,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13991</v>
+        <v>14006</v>
       </c>
       <c r="G18" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -8655,7 +9948,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8676,7 +9969,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14813</v>
+        <v>14863</v>
       </c>
       <c r="G19" s="0">
         <v>313</v>
@@ -8685,9 +9978,9 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>559</v>
-      </c>
-      <c r="K19" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8717,7 +10010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -8777,7 +10070,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70964</v>
+        <v>70969</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -8788,7 +10081,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8809,10 +10102,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127014</v>
+        <v>127035</v>
       </c>
       <c r="G3" s="0">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -8820,7 +10113,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8841,7 +10134,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -8852,7 +10145,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8876,7 +10169,7 @@
         <v>35753</v>
       </c>
       <c r="G5" s="0">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -8884,7 +10177,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -8905,7 +10198,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32230</v>
+        <v>32243</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -8916,7 +10209,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8937,7 +10230,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48248</v>
+        <v>48258</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -8948,7 +10241,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8969,7 +10262,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33636</v>
+        <v>33642</v>
       </c>
       <c r="G8" s="0">
         <v>1195</v>
@@ -8980,7 +10273,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -9001,7 +10294,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19799</v>
+        <v>19800</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -9012,7 +10305,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -9033,7 +10326,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28526</v>
+        <v>28530</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -9044,7 +10337,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9065,7 +10358,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29899</v>
+        <v>29904</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -9076,7 +10369,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9097,7 +10390,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17802</v>
+        <v>17808</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -9108,7 +10401,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9129,7 +10422,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22422</v>
+        <v>22454</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -9138,9 +10431,9 @@
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>581</v>
-      </c>
-      <c r="K13" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -9161,7 +10454,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16989</v>
+        <v>16999</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -9172,7 +10465,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9193,10 +10486,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31541</v>
+        <v>31562</v>
       </c>
       <c r="G15" s="0">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -9204,7 +10497,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9225,18 +10518,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25265</v>
+        <v>25314</v>
       </c>
       <c r="G16" s="0">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>651</v>
-      </c>
-      <c r="K16" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -9257,18 +10550,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14874</v>
+        <v>14929</v>
       </c>
       <c r="G17" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>420</v>
-      </c>
-      <c r="K17" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9289,7 +10582,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14006</v>
+        <v>14025</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -9300,7 +10593,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9321,18 +10614,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14863</v>
+        <v>14915</v>
       </c>
       <c r="G19" s="0">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9362,7 +10655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -9422,7 +10715,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70969</v>
+        <v>70975</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -9433,7 +10726,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9454,7 +10747,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127035</v>
+        <v>127049</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -9465,7 +10758,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9486,7 +10779,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45080</v>
+        <v>45084</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -9497,7 +10790,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9518,10 +10811,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35753</v>
+        <v>35754</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -9529,7 +10822,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -9550,7 +10843,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32243</v>
+        <v>32247</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -9561,7 +10854,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -9582,7 +10875,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48258</v>
+        <v>48264</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -9593,7 +10886,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -9614,10 +10907,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33642</v>
+        <v>33649</v>
       </c>
       <c r="G8" s="0">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -9625,7 +10918,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -9657,7 +10950,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -9678,7 +10971,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28530</v>
+        <v>28531</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -9689,7 +10982,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9710,7 +11003,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29904</v>
+        <v>29918</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -9721,7 +11014,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9742,10 +11035,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17808</v>
+        <v>17813</v>
       </c>
       <c r="G12" s="0">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -9753,7 +11046,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9774,7 +11067,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22454</v>
+        <v>22486</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -9785,7 +11078,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -9806,10 +11099,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16999</v>
+        <v>17009</v>
       </c>
       <c r="G14" s="0">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -9817,7 +11110,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9838,7 +11131,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31562</v>
+        <v>31576</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -9849,7 +11142,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9870,18 +11163,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25314</v>
+        <v>25353</v>
       </c>
       <c r="G16" s="0">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -9902,18 +11195,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14929</v>
+        <v>14959</v>
       </c>
       <c r="G17" s="0">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>421</v>
-      </c>
-      <c r="K17" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9934,7 +11227,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14025</v>
+        <v>14053</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -9945,7 +11238,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9966,7 +11259,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14915</v>
+        <v>14952</v>
       </c>
       <c r="G19" s="0">
         <v>314</v>
@@ -9977,7 +11270,7 @@
       <c r="J19" s="0">
         <v>561</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -10007,7 +11300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -10067,7 +11360,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70975</v>
+        <v>70979</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -10078,7 +11371,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10099,7 +11392,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127049</v>
+        <v>127059</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -10110,7 +11403,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10131,7 +11424,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45084</v>
+        <v>45081</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -10142,7 +11435,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10163,7 +11456,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35754</v>
+        <v>35755</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -10174,7 +11467,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10195,10 +11488,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32247</v>
+        <v>32249</v>
       </c>
       <c r="G6" s="0">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -10206,7 +11499,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10227,7 +11520,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48264</v>
+        <v>48266</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -10238,7 +11531,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -10259,7 +11552,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33649</v>
+        <v>33660</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -10270,7 +11563,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -10291,7 +11584,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19800</v>
+        <v>19802</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -10302,7 +11595,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10334,7 +11627,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -10355,7 +11648,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29918</v>
+        <v>29925</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -10366,7 +11659,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -10387,7 +11680,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17813</v>
+        <v>17820</v>
       </c>
       <c r="G12" s="0">
         <v>469</v>
@@ -10398,7 +11691,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10419,7 +11712,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22486</v>
+        <v>22522</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -10430,7 +11723,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -10451,7 +11744,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17009</v>
+        <v>17025</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -10462,7 +11755,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -10483,7 +11776,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31576</v>
+        <v>31592</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -10494,7 +11787,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10515,7 +11808,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25353</v>
+        <v>25405</v>
       </c>
       <c r="G16" s="0">
         <v>789</v>
@@ -10526,7 +11819,7 @@
       <c r="J16" s="0">
         <v>655</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -10547,7 +11840,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14959</v>
+        <v>15013</v>
       </c>
       <c r="G17" s="0">
         <v>372</v>
@@ -10556,9 +11849,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>422</v>
-      </c>
-      <c r="K17" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -10579,7 +11872,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14053</v>
+        <v>14073</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -10588,9 +11881,9 @@
         <v>0</v>
       </c>
       <c r="J18" s="0">
-        <v>223</v>
-      </c>
-      <c r="K18" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10611,18 +11904,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14952</v>
+        <v>14997</v>
       </c>
       <c r="G19" s="0">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>561</v>
-      </c>
-      <c r="K19" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -10650,649 +11943,4 @@
   </hyperlinks>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2018</v>
-      </c>
-      <c r="C2" s="0">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
-        <v>70979</v>
-      </c>
-      <c r="G2" s="0">
-        <v>1790</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>1214</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2018</v>
-      </c>
-      <c r="C3" s="0">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="0">
-        <v>127059</v>
-      </c>
-      <c r="G3" s="0">
-        <v>4283</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>2834</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="0">
-        <v>4</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="0">
-        <v>45081</v>
-      </c>
-      <c r="G4" s="0">
-        <v>1550</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
-        <v>1022</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="0">
-        <v>8</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="0">
-        <v>35755</v>
-      </c>
-      <c r="G5" s="0">
-        <v>1171</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
-        <v>834</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="0">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="0">
-        <v>32249</v>
-      </c>
-      <c r="G6" s="0">
-        <v>1377</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
-        <v>472</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="0">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="0">
-        <v>48266</v>
-      </c>
-      <c r="G7" s="0">
-        <v>1246</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>1172</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C8" s="0">
-        <v>5</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="0">
-        <v>33660</v>
-      </c>
-      <c r="G8" s="0">
-        <v>1196</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>642</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C9" s="0">
-        <v>5</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="0">
-        <v>19802</v>
-      </c>
-      <c r="G9" s="0">
-        <v>405</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>746</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C10" s="0">
-        <v>5</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="0">
-        <v>28531</v>
-      </c>
-      <c r="G10" s="0">
-        <v>701</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>562</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="0">
-        <v>10</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="0">
-        <v>29925</v>
-      </c>
-      <c r="G11" s="0">
-        <v>621</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>1955</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2022</v>
-      </c>
-      <c r="C12" s="0">
-        <v>10</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="0">
-        <v>17820</v>
-      </c>
-      <c r="G12" s="0">
-        <v>469</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>509</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2022</v>
-      </c>
-      <c r="C13" s="0">
-        <v>11</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="0">
-        <v>22522</v>
-      </c>
-      <c r="G13" s="0">
-        <v>501</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>584</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C14" s="0">
-        <v>3</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="0">
-        <v>17025</v>
-      </c>
-      <c r="G14" s="0">
-        <v>239</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>113</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C15" s="0">
-        <v>3</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="0">
-        <v>31592</v>
-      </c>
-      <c r="G15" s="0">
-        <v>1003</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>495</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C16" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="0">
-        <v>25405</v>
-      </c>
-      <c r="G16" s="0">
-        <v>789</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>655</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="0">
-        <v>15013</v>
-      </c>
-      <c r="G17" s="0">
-        <v>372</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>423</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C18" s="0">
-        <v>9</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="0">
-        <v>14073</v>
-      </c>
-      <c r="G18" s="0">
-        <v>385</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>224</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C19" s="0">
-        <v>10</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="0">
-        <v>14997</v>
-      </c>
-      <c r="G19" s="0">
-        <v>315</v>
-      </c>
-      <c r="I19" s="0">
-        <v>0</v>
-      </c>
-      <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K19"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId137"/>
-    <hyperlink ref="K3" r:id="rId138"/>
-    <hyperlink ref="K4" r:id="rId139"/>
-    <hyperlink ref="K5" r:id="rId140"/>
-    <hyperlink ref="K6" r:id="rId141"/>
-    <hyperlink ref="K7" r:id="rId142"/>
-    <hyperlink ref="K8" r:id="rId143"/>
-    <hyperlink ref="K9" r:id="rId144"/>
-    <hyperlink ref="K10" r:id="rId145"/>
-    <hyperlink ref="K11" r:id="rId146"/>
-    <hyperlink ref="K12" r:id="rId147"/>
-    <hyperlink ref="K13" r:id="rId148"/>
-    <hyperlink ref="K14" r:id="rId149"/>
-    <hyperlink ref="K15" r:id="rId150"/>
-    <hyperlink ref="K16" r:id="rId151"/>
-    <hyperlink ref="K17" r:id="rId152"/>
-    <hyperlink ref="K18" r:id="rId153"/>
-    <hyperlink ref="K19" r:id="rId154"/>
-  </hyperlinks>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
+++ b/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
@@ -23,6 +23,7 @@
     <sheet name="20231218041853 - Dec 18 2023" sheetId="16" r:id="rId17"/>
     <sheet name="20231219041817 - Dec 19 2023" sheetId="17" r:id="rId18"/>
     <sheet name="20231220041511 - Dec 20 2023" sheetId="18" r:id="rId19"/>
+    <sheet name="20231221041750 - Dec 21 2023" sheetId="19" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20231203113249 - Dec 03 2023'!$A$1:$K$19</definedName>
@@ -43,6 +44,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'20231218041853 - Dec 18 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'20231219041817 - Dec 19 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'20231220041511 - Dec 20 2023'!$A$1:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'20231221041750 - Dec 21 2023'!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -307,8 +309,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -957,24 +960,24 @@
   </sheetData>
   <autoFilter ref="A1:K19"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId290"/>
-    <hyperlink ref="K3" r:id="rId291"/>
-    <hyperlink ref="K4" r:id="rId292"/>
-    <hyperlink ref="K5" r:id="rId293"/>
-    <hyperlink ref="K6" r:id="rId294"/>
-    <hyperlink ref="K7" r:id="rId295"/>
-    <hyperlink ref="K8" r:id="rId296"/>
-    <hyperlink ref="K9" r:id="rId297"/>
-    <hyperlink ref="K10" r:id="rId298"/>
-    <hyperlink ref="K11" r:id="rId299"/>
-    <hyperlink ref="K12" r:id="rId300"/>
-    <hyperlink ref="K13" r:id="rId301"/>
-    <hyperlink ref="K14" r:id="rId302"/>
-    <hyperlink ref="K15" r:id="rId303"/>
-    <hyperlink ref="K16" r:id="rId304"/>
-    <hyperlink ref="K17" r:id="rId305"/>
-    <hyperlink ref="K18" r:id="rId306"/>
-    <hyperlink ref="K19" r:id="rId307"/>
+    <hyperlink ref="K2" r:id="rId307"/>
+    <hyperlink ref="K3" r:id="rId308"/>
+    <hyperlink ref="K4" r:id="rId309"/>
+    <hyperlink ref="K5" r:id="rId310"/>
+    <hyperlink ref="K6" r:id="rId311"/>
+    <hyperlink ref="K7" r:id="rId312"/>
+    <hyperlink ref="K8" r:id="rId313"/>
+    <hyperlink ref="K9" r:id="rId314"/>
+    <hyperlink ref="K10" r:id="rId315"/>
+    <hyperlink ref="K11" r:id="rId316"/>
+    <hyperlink ref="K12" r:id="rId317"/>
+    <hyperlink ref="K13" r:id="rId318"/>
+    <hyperlink ref="K14" r:id="rId319"/>
+    <hyperlink ref="K15" r:id="rId320"/>
+    <hyperlink ref="K16" r:id="rId321"/>
+    <hyperlink ref="K17" r:id="rId322"/>
+    <hyperlink ref="K18" r:id="rId323"/>
+    <hyperlink ref="K19" r:id="rId324"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -1596,6 +1599,651 @@
         <v>560</v>
       </c>
       <c r="K19" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId154"/>
+    <hyperlink ref="K3" r:id="rId155"/>
+    <hyperlink ref="K4" r:id="rId156"/>
+    <hyperlink ref="K5" r:id="rId157"/>
+    <hyperlink ref="K6" r:id="rId158"/>
+    <hyperlink ref="K7" r:id="rId159"/>
+    <hyperlink ref="K8" r:id="rId160"/>
+    <hyperlink ref="K9" r:id="rId161"/>
+    <hyperlink ref="K10" r:id="rId162"/>
+    <hyperlink ref="K11" r:id="rId163"/>
+    <hyperlink ref="K12" r:id="rId164"/>
+    <hyperlink ref="K13" r:id="rId165"/>
+    <hyperlink ref="K14" r:id="rId166"/>
+    <hyperlink ref="K15" r:id="rId167"/>
+    <hyperlink ref="K16" r:id="rId168"/>
+    <hyperlink ref="K17" r:id="rId169"/>
+    <hyperlink ref="K18" r:id="rId170"/>
+    <hyperlink ref="K19" r:id="rId171"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70985</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>127071</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4282</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45089</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1551</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35762</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1171</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32249</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1377</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48275</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1245</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33682</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1197</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>642</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19805</v>
+      </c>
+      <c r="G9" s="0">
+        <v>405</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>746</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28535</v>
+      </c>
+      <c r="G10" s="0">
+        <v>702</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29935</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17829</v>
+      </c>
+      <c r="G12" s="0">
+        <v>469</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>509</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22582</v>
+      </c>
+      <c r="G13" s="0">
+        <v>501</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>584</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>17039</v>
+      </c>
+      <c r="G14" s="0">
+        <v>239</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31625</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1003</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>495</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25488</v>
+      </c>
+      <c r="G16" s="0">
+        <v>790</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>658</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>15097</v>
+      </c>
+      <c r="G17" s="0">
+        <v>373</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>425</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>14116</v>
+      </c>
+      <c r="G18" s="0">
+        <v>385</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>224</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>15071</v>
+      </c>
+      <c r="G19" s="0">
+        <v>315</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>560</v>
+      </c>
+      <c r="K19" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1625,7 +2273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -1685,7 +2333,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70985</v>
+        <v>70987</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -1696,7 +2344,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1717,7 +2365,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127071</v>
+        <v>127082</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -1728,7 +2376,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1749,7 +2397,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="G4" s="0">
         <v>1551</v>
@@ -1760,7 +2408,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1781,7 +2429,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35762</v>
+        <v>35767</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -1792,7 +2440,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1813,7 +2461,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32249</v>
+        <v>32250</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -1824,7 +2472,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1845,10 +2493,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48275</v>
+        <v>48282</v>
       </c>
       <c r="G7" s="0">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1856,7 +2504,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1877,7 +2525,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33682</v>
+        <v>33691</v>
       </c>
       <c r="G8" s="0">
         <v>1197</v>
@@ -1888,7 +2536,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1909,7 +2557,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19805</v>
+        <v>19811</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -1920,7 +2568,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1952,7 +2600,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1973,7 +2621,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29935</v>
+        <v>29939</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -1984,7 +2632,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2005,7 +2653,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17829</v>
+        <v>17835</v>
       </c>
       <c r="G12" s="0">
         <v>469</v>
@@ -2014,9 +2662,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>509</v>
-      </c>
-      <c r="K12" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2037,7 +2685,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22582</v>
+        <v>22607</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -2048,7 +2696,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2069,7 +2717,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17039</v>
+        <v>17048</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -2080,7 +2728,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2101,7 +2749,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31625</v>
+        <v>31633</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -2112,7 +2760,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="12" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2133,18 +2781,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25488</v>
+        <v>25526</v>
       </c>
       <c r="G16" s="0">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>658</v>
-      </c>
-      <c r="K16" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2165,18 +2813,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15097</v>
+        <v>15147</v>
       </c>
       <c r="G17" s="0">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>425</v>
-      </c>
-      <c r="K17" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2197,10 +2845,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14116</v>
+        <v>14132</v>
       </c>
       <c r="G18" s="0">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -2208,7 +2856,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2229,18 +2877,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15071</v>
+        <v>15100</v>
       </c>
       <c r="G19" s="0">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2270,7 +2918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2330,7 +2978,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70987</v>
+        <v>70988</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2341,7 +2989,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2362,7 +3010,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127082</v>
+        <v>127094</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -2373,7 +3021,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2394,7 +3042,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45092</v>
+        <v>45095</v>
       </c>
       <c r="G4" s="0">
         <v>1551</v>
@@ -2405,7 +3053,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2426,7 +3074,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35767</v>
+        <v>35771</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -2437,7 +3085,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2458,7 +3106,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32250</v>
+        <v>32253</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -2469,7 +3117,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2490,7 +3138,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48282</v>
+        <v>48290</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -2501,7 +3149,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2522,7 +3170,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33691</v>
+        <v>33700</v>
       </c>
       <c r="G8" s="0">
         <v>1197</v>
@@ -2533,7 +3181,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2554,7 +3202,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19811</v>
+        <v>19815</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -2563,9 +3211,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>746</v>
-      </c>
-      <c r="K9" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2586,7 +3234,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28535</v>
+        <v>28539</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -2597,7 +3245,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2618,7 +3266,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29939</v>
+        <v>29951</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -2629,7 +3277,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2650,10 +3298,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17835</v>
+        <v>17838</v>
       </c>
       <c r="G12" s="0">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -2661,7 +3309,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2682,7 +3330,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22607</v>
+        <v>22643</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -2693,7 +3341,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="13" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2714,7 +3362,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17048</v>
+        <v>17055</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -2723,9 +3371,9 @@
         <v>0</v>
       </c>
       <c r="J14" s="0">
-        <v>113</v>
-      </c>
-      <c r="K14" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2746,7 +3394,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31633</v>
+        <v>31646</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -2755,9 +3403,9 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>495</v>
-      </c>
-      <c r="K15" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="K15" s="13" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2778,18 +3426,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25526</v>
+        <v>25565</v>
       </c>
       <c r="G16" s="0">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>661</v>
-      </c>
-      <c r="K16" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="K16" s="13" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2810,10 +3458,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15147</v>
+        <v>15193</v>
       </c>
       <c r="G17" s="0">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -2821,7 +3469,7 @@
       <c r="J17" s="0">
         <v>428</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2842,7 +3490,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14132</v>
+        <v>14164</v>
       </c>
       <c r="G18" s="0">
         <v>386</v>
@@ -2853,7 +3501,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2874,18 +3522,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15100</v>
+        <v>15147</v>
       </c>
       <c r="G19" s="0">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>561</v>
-      </c>
-      <c r="K19" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="K19" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2915,7 +3563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2975,7 +3623,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70988</v>
+        <v>70996</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2986,7 +3634,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3007,7 +3655,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127094</v>
+        <v>127104</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -3018,7 +3666,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3042,7 +3690,7 @@
         <v>45095</v>
       </c>
       <c r="G4" s="0">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I4" s="0">
         <v>0</v>
@@ -3050,7 +3698,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3082,7 +3730,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="14" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3103,7 +3751,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32253</v>
+        <v>32255</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -3114,7 +3762,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3135,7 +3783,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48290</v>
+        <v>48297</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -3144,9 +3792,9 @@
         <v>0</v>
       </c>
       <c r="J7" s="0">
-        <v>1172</v>
-      </c>
-      <c r="K7" s="13" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3167,10 +3815,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33700</v>
+        <v>33704</v>
       </c>
       <c r="G8" s="0">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -3178,7 +3826,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3199,10 +3847,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19815</v>
+        <v>19818</v>
       </c>
       <c r="G9" s="0">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -3210,7 +3858,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3231,7 +3879,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28539</v>
+        <v>28542</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -3242,7 +3890,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3263,7 +3911,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29951</v>
+        <v>29953</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3274,7 +3922,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3295,7 +3943,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17838</v>
+        <v>17840</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3306,7 +3954,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="14" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3327,7 +3975,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22643</v>
+        <v>22675</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -3338,7 +3986,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3359,7 +4007,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17055</v>
+        <v>17067</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -3370,7 +4018,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3391,7 +4039,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31646</v>
+        <v>31653</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -3402,7 +4050,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="14" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3423,18 +4071,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25565</v>
+        <v>25607</v>
       </c>
       <c r="G16" s="0">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>659</v>
-      </c>
-      <c r="K16" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="K16" s="14" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3455,18 +4103,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15193</v>
+        <v>15235</v>
       </c>
       <c r="G17" s="0">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>428</v>
-      </c>
-      <c r="K17" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="K17" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3487,10 +4135,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14164</v>
+        <v>14189</v>
       </c>
       <c r="G18" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -3498,7 +4146,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3519,7 +4167,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15147</v>
+        <v>15168</v>
       </c>
       <c r="G19" s="0">
         <v>317</v>
@@ -3528,9 +4176,9 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>563</v>
-      </c>
-      <c r="K19" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="K19" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3560,7 +4208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -3620,7 +4268,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70996</v>
+        <v>71000</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -3631,7 +4279,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3652,7 +4300,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127104</v>
+        <v>127115</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -3663,7 +4311,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3695,7 +4343,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3716,10 +4364,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35771</v>
+        <v>35774</v>
       </c>
       <c r="G5" s="0">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -3727,7 +4375,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3751,7 +4399,7 @@
         <v>32255</v>
       </c>
       <c r="G6" s="0">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -3759,7 +4407,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3780,10 +4428,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48297</v>
+        <v>48302</v>
       </c>
       <c r="G7" s="0">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -3791,7 +4439,7 @@
       <c r="J7" s="0">
         <v>1173</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="15" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3812,7 +4460,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33704</v>
+        <v>33706</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -3823,7 +4471,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3844,10 +4492,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19818</v>
+        <v>19821</v>
       </c>
       <c r="G9" s="0">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -3855,7 +4503,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="15" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3876,7 +4524,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28542</v>
+        <v>28543</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -3887,7 +4535,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3908,7 +4556,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29953</v>
+        <v>29954</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3919,7 +4567,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3940,7 +4588,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17840</v>
+        <v>17841</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3951,7 +4599,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="15" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3972,7 +4620,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22675</v>
+        <v>22705</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -3983,7 +4631,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="15" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4004,10 +4652,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17067</v>
+        <v>17075</v>
       </c>
       <c r="G14" s="0">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -4015,7 +4663,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="15" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4036,7 +4684,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31653</v>
+        <v>31662</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -4047,7 +4695,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="15" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4068,18 +4716,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25607</v>
+        <v>25651</v>
       </c>
       <c r="G16" s="0">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>660</v>
-      </c>
-      <c r="K16" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="K16" s="15" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4100,10 +4748,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15235</v>
+        <v>15269</v>
       </c>
       <c r="G17" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -4111,7 +4759,7 @@
       <c r="J17" s="0">
         <v>429</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="15" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4132,7 +4780,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14189</v>
+        <v>14211</v>
       </c>
       <c r="G18" s="0">
         <v>388</v>
@@ -4143,7 +4791,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="15" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4164,18 +4812,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15168</v>
+        <v>15205</v>
       </c>
       <c r="G19" s="0">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>565</v>
-      </c>
-      <c r="K19" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="K19" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4205,7 +4853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -4265,7 +4913,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>71000</v>
+        <v>71009</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -4276,7 +4924,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4297,10 +4945,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127115</v>
+        <v>127122</v>
       </c>
       <c r="G3" s="0">
-        <v>4282</v>
+        <v>4283</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -4308,7 +4956,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4329,7 +4977,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -4340,7 +4988,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4361,7 +5009,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35774</v>
+        <v>35775</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -4372,7 +5020,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4404,7 +5052,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4425,7 +5073,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48302</v>
+        <v>48304</v>
       </c>
       <c r="G7" s="0">
         <v>1248</v>
@@ -4436,7 +5084,7 @@
       <c r="J7" s="0">
         <v>1173</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4457,7 +5105,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33706</v>
+        <v>33708</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -4468,7 +5116,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="16" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4489,7 +5137,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19821</v>
+        <v>19823</v>
       </c>
       <c r="G9" s="0">
         <v>407</v>
@@ -4500,7 +5148,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4521,7 +5169,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28543</v>
+        <v>28545</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -4532,7 +5180,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="16" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4553,7 +5201,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29954</v>
+        <v>29959</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -4564,7 +5212,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4585,10 +5233,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17841</v>
+        <v>17842</v>
       </c>
       <c r="G12" s="0">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -4596,7 +5244,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="16" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4617,10 +5265,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22705</v>
+        <v>22734</v>
       </c>
       <c r="G13" s="0">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -4628,7 +5276,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="16" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4649,7 +5297,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17075</v>
+        <v>17089</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -4660,7 +5308,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="16" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4681,10 +5329,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31662</v>
+        <v>31674</v>
       </c>
       <c r="G15" s="0">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -4692,7 +5340,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="16" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4713,10 +5361,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25651</v>
+        <v>25699</v>
       </c>
       <c r="G16" s="0">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -4724,7 +5372,7 @@
       <c r="J16" s="0">
         <v>657</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="16" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4745,18 +5393,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15269</v>
+        <v>15302</v>
       </c>
       <c r="G17" s="0">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>429</v>
-      </c>
-      <c r="K17" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="K17" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4777,7 +5425,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14211</v>
+        <v>14226</v>
       </c>
       <c r="G18" s="0">
         <v>388</v>
@@ -4788,7 +5436,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="16" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4809,18 +5457,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15205</v>
+        <v>15242</v>
       </c>
       <c r="G19" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>564</v>
-      </c>
-      <c r="K19" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="K19" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4850,7 +5498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -4910,7 +5558,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>71009</v>
+        <v>71019</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -4921,7 +5569,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4942,7 +5590,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127122</v>
+        <v>127133</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -4951,9 +5599,9 @@
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2834</v>
-      </c>
-      <c r="K3" s="16" t="s">
+        <v>2832</v>
+      </c>
+      <c r="K3" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4974,7 +5622,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45096</v>
+        <v>45101</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -4985,7 +5633,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="17" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5006,7 +5654,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35775</v>
+        <v>35774</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -5017,7 +5665,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5038,7 +5686,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32255</v>
+        <v>32257</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -5049,7 +5697,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="17" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5070,7 +5718,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48304</v>
+        <v>48307</v>
       </c>
       <c r="G7" s="0">
         <v>1248</v>
@@ -5081,7 +5729,7 @@
       <c r="J7" s="0">
         <v>1173</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="17" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5102,7 +5750,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33708</v>
+        <v>33714</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -5113,7 +5761,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="17" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5134,7 +5782,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19823</v>
+        <v>19828</v>
       </c>
       <c r="G9" s="0">
         <v>407</v>
@@ -5145,7 +5793,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="17" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5166,7 +5814,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28545</v>
+        <v>28549</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -5177,7 +5825,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="17" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5198,7 +5846,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29959</v>
+        <v>29962</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -5209,7 +5857,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="17" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5230,7 +5878,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17842</v>
+        <v>17854</v>
       </c>
       <c r="G12" s="0">
         <v>471</v>
@@ -5241,7 +5889,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5262,10 +5910,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22734</v>
+        <v>22761</v>
       </c>
       <c r="G13" s="0">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -5273,7 +5921,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="17" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5294,7 +5942,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17089</v>
+        <v>17102</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -5305,7 +5953,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="17" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5326,7 +5974,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31674</v>
+        <v>31684</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -5337,7 +5985,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5358,7 +6006,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25699</v>
+        <v>25764</v>
       </c>
       <c r="G16" s="0">
         <v>796</v>
@@ -5367,9 +6015,9 @@
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>657</v>
-      </c>
-      <c r="K16" s="16" t="s">
+        <v>656</v>
+      </c>
+      <c r="K16" s="17" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5390,10 +6038,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15302</v>
+        <v>15358</v>
       </c>
       <c r="G17" s="0">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -5401,7 +6049,7 @@
       <c r="J17" s="0">
         <v>430</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5422,10 +6070,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14226</v>
+        <v>14245</v>
       </c>
       <c r="G18" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -5433,7 +6081,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="17" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5454,7 +6102,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15242</v>
+        <v>15283</v>
       </c>
       <c r="G19" s="0">
         <v>319</v>
@@ -5465,7 +6113,7 @@
       <c r="J19" s="0">
         <v>565</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="17" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5495,7 +6143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -5555,7 +6203,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>71019</v>
+        <v>71022</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -5566,7 +6214,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5587,7 +6235,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127133</v>
+        <v>127140</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -5598,7 +6246,7 @@
       <c r="J3" s="0">
         <v>2832</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="18" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5619,7 +6267,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -5630,7 +6278,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5651,7 +6299,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35774</v>
+        <v>35775</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -5662,7 +6310,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="18" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5683,7 +6331,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32257</v>
+        <v>32258</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -5694,7 +6342,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5715,18 +6363,18 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48307</v>
+        <v>48316</v>
       </c>
       <c r="G7" s="0">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
       </c>
       <c r="J7" s="0">
-        <v>1173</v>
-      </c>
-      <c r="K7" s="17" t="s">
+        <v>1170</v>
+      </c>
+      <c r="K7" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5747,10 +6395,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33714</v>
+        <v>33717</v>
       </c>
       <c r="G8" s="0">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -5758,7 +6406,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="18" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5779,7 +6427,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19828</v>
+        <v>19830</v>
       </c>
       <c r="G9" s="0">
         <v>407</v>
@@ -5788,9 +6436,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>747</v>
-      </c>
-      <c r="K9" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="K9" s="18" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5811,7 +6459,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28549</v>
+        <v>28552</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -5820,9 +6468,9 @@
         <v>0</v>
       </c>
       <c r="J10" s="0">
-        <v>562</v>
-      </c>
-      <c r="K10" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="K10" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5843,7 +6491,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29962</v>
+        <v>29969</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -5854,7 +6502,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5875,7 +6523,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17854</v>
+        <v>17861</v>
       </c>
       <c r="G12" s="0">
         <v>471</v>
@@ -5886,7 +6534,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="18" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5907,7 +6555,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22761</v>
+        <v>22767</v>
       </c>
       <c r="G13" s="0">
         <v>504</v>
@@ -5918,7 +6566,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="18" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5939,7 +6587,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17102</v>
+        <v>17107</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -5950,7 +6598,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="18" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5971,7 +6619,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31684</v>
+        <v>31699</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -5982,7 +6630,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="18" t="s">
         <v>59</v>
       </c>
     </row>
@@ -6003,18 +6651,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25764</v>
+        <v>25805</v>
       </c>
       <c r="G16" s="0">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>656</v>
-      </c>
-      <c r="K16" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="K16" s="18" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6035,10 +6683,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15358</v>
+        <v>15404</v>
       </c>
       <c r="G17" s="0">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -6046,7 +6694,7 @@
       <c r="J17" s="0">
         <v>430</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="18" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6067,7 +6715,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14245</v>
+        <v>14269</v>
       </c>
       <c r="G18" s="0">
         <v>390</v>
@@ -6078,7 +6726,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="18" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6099,7 +6747,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15283</v>
+        <v>15309</v>
       </c>
       <c r="G19" s="0">
         <v>319</v>
@@ -6110,7 +6758,7 @@
       <c r="J19" s="0">
         <v>565</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K19" s="18" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6140,7 +6788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -6200,7 +6848,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>71022</v>
+        <v>71024</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -6211,7 +6859,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6232,7 +6880,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127140</v>
+        <v>127147</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -6243,7 +6891,7 @@
       <c r="J3" s="0">
         <v>2832</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6264,7 +6912,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -6275,7 +6923,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="19" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6296,7 +6944,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35775</v>
+        <v>35776</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -6307,7 +6955,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="19" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6328,7 +6976,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32258</v>
+        <v>32260</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -6339,7 +6987,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6360,7 +7008,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48316</v>
+        <v>48321</v>
       </c>
       <c r="G7" s="0">
         <v>1249</v>
@@ -6371,7 +7019,7 @@
       <c r="J7" s="0">
         <v>1170</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -6392,7 +7040,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33717</v>
+        <v>33721</v>
       </c>
       <c r="G8" s="0">
         <v>1197</v>
@@ -6403,7 +7051,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="19" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6424,7 +7072,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19830</v>
+        <v>19832</v>
       </c>
       <c r="G9" s="0">
         <v>407</v>
@@ -6435,7 +7083,7 @@
       <c r="J9" s="0">
         <v>748</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="19" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6456,7 +7104,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28552</v>
+        <v>28551</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -6467,7 +7115,7 @@
       <c r="J10" s="0">
         <v>561</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="19" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6488,7 +7136,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29969</v>
+        <v>29974</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -6499,7 +7147,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="19" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6520,7 +7168,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17861</v>
+        <v>17868</v>
       </c>
       <c r="G12" s="0">
         <v>471</v>
@@ -6531,7 +7179,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="19" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6552,10 +7200,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22767</v>
+        <v>22794</v>
       </c>
       <c r="G13" s="0">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -6563,7 +7211,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="19" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6584,7 +7232,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17107</v>
+        <v>17114</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -6595,7 +7243,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="19" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6616,10 +7264,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31699</v>
+        <v>31721</v>
       </c>
       <c r="G15" s="0">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -6627,7 +7275,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="19" t="s">
         <v>59</v>
       </c>
     </row>
@@ -6648,18 +7296,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25805</v>
+        <v>25855</v>
       </c>
       <c r="G16" s="0">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>657</v>
-      </c>
-      <c r="K16" s="18" t="s">
+        <v>661</v>
+      </c>
+      <c r="K16" s="19" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6680,18 +7328,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15404</v>
+        <v>15442</v>
       </c>
       <c r="G17" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>430</v>
-      </c>
-      <c r="K17" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="K17" s="19" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6712,7 +7360,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14269</v>
+        <v>14287</v>
       </c>
       <c r="G18" s="0">
         <v>390</v>
@@ -6723,7 +7371,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="19" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6744,7 +7392,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15309</v>
+        <v>15352</v>
       </c>
       <c r="G19" s="0">
         <v>319</v>
@@ -6755,7 +7403,7 @@
       <c r="J19" s="0">
         <v>565</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="19" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7407,6 +8055,651 @@
   </sheetData>
   <autoFilter ref="A1:K19"/>
   <hyperlinks>
+    <hyperlink ref="K2" r:id="rId290"/>
+    <hyperlink ref="K3" r:id="rId291"/>
+    <hyperlink ref="K4" r:id="rId292"/>
+    <hyperlink ref="K5" r:id="rId293"/>
+    <hyperlink ref="K6" r:id="rId294"/>
+    <hyperlink ref="K7" r:id="rId295"/>
+    <hyperlink ref="K8" r:id="rId296"/>
+    <hyperlink ref="K9" r:id="rId297"/>
+    <hyperlink ref="K10" r:id="rId298"/>
+    <hyperlink ref="K11" r:id="rId299"/>
+    <hyperlink ref="K12" r:id="rId300"/>
+    <hyperlink ref="K13" r:id="rId301"/>
+    <hyperlink ref="K14" r:id="rId302"/>
+    <hyperlink ref="K15" r:id="rId303"/>
+    <hyperlink ref="K16" r:id="rId304"/>
+    <hyperlink ref="K17" r:id="rId305"/>
+    <hyperlink ref="K18" r:id="rId306"/>
+    <hyperlink ref="K19" r:id="rId307"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70952</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>126982</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4283</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2833</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45070</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1550</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35743</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1172</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32220</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1377</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48227</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1246</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33618</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1194</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>641</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19792</v>
+      </c>
+      <c r="G9" s="0">
+        <v>406</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>747</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28515</v>
+      </c>
+      <c r="G10" s="0">
+        <v>701</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29882</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17783</v>
+      </c>
+      <c r="G12" s="0">
+        <v>470</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>520</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22364</v>
+      </c>
+      <c r="G13" s="0">
+        <v>498</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>581</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>16966</v>
+      </c>
+      <c r="G14" s="0">
+        <v>240</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31502</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1004</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>497</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25121</v>
+      </c>
+      <c r="G16" s="0">
+        <v>780</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>653</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>14744</v>
+      </c>
+      <c r="G17" s="0">
+        <v>368</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>420</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>13943</v>
+      </c>
+      <c r="G18" s="0">
+        <v>384</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>223</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>14727</v>
+      </c>
+      <c r="G19" s="0">
+        <v>311</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>560</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
     <hyperlink ref="K2" r:id="rId273"/>
     <hyperlink ref="K3" r:id="rId274"/>
     <hyperlink ref="K4" r:id="rId275"/>
@@ -7430,7 +8723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -7490,7 +8783,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70952</v>
+        <v>70961</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -7501,7 +8794,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7522,7 +8815,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126982</v>
+        <v>126997</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -7533,7 +8826,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7554,7 +8847,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45070</v>
+        <v>45075</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -7565,7 +8858,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7586,7 +8879,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35743</v>
+        <v>35746</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -7597,7 +8890,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7618,7 +8911,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32220</v>
+        <v>32222</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -7629,7 +8922,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7650,7 +8943,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48227</v>
+        <v>48233</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -7661,7 +8954,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7682,7 +8975,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33618</v>
+        <v>33626</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -7693,7 +8986,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7714,7 +9007,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19792</v>
+        <v>19797</v>
       </c>
       <c r="G9" s="0">
         <v>406</v>
@@ -7725,7 +9018,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7746,7 +9039,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28515</v>
+        <v>28517</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -7757,7 +9050,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7778,7 +9071,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29882</v>
+        <v>29888</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -7789,7 +9082,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7810,7 +9103,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17783</v>
+        <v>17786</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -7819,9 +9112,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>520</v>
-      </c>
-      <c r="K12" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7842,10 +9135,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22364</v>
+        <v>22381</v>
       </c>
       <c r="G13" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -7853,7 +9146,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7874,7 +9167,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16966</v>
+        <v>16976</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -7885,7 +9178,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7906,7 +9199,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31502</v>
+        <v>31517</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -7917,7 +9210,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7938,10 +9231,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25121</v>
+        <v>25168</v>
       </c>
       <c r="G16" s="0">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -7949,7 +9242,7 @@
       <c r="J16" s="0">
         <v>653</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7970,10 +9263,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14744</v>
+        <v>14774</v>
       </c>
       <c r="G17" s="0">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -7981,7 +9274,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8002,7 +9295,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13943</v>
+        <v>13959</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -8013,7 +9306,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8034,18 +9327,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14727</v>
+        <v>14768</v>
       </c>
       <c r="G19" s="0">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8075,7 +9368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -8135,7 +9428,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70961</v>
+        <v>70965</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -8146,7 +9439,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8167,7 +9460,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126997</v>
+        <v>127005</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -8178,7 +9471,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8199,7 +9492,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -8210,7 +9503,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8231,10 +9524,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35746</v>
+        <v>35751</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -8242,7 +9535,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -8263,10 +9556,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32222</v>
+        <v>32227</v>
       </c>
       <c r="G6" s="0">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -8274,7 +9567,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8295,7 +9588,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48233</v>
+        <v>48240</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -8306,7 +9599,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8327,7 +9620,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33626</v>
+        <v>33629</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -8338,7 +9631,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8359,10 +9652,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19797</v>
+        <v>19798</v>
       </c>
       <c r="G9" s="0">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -8370,7 +9663,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8391,7 +9684,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28517</v>
+        <v>28521</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -8402,7 +9695,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8423,7 +9716,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29888</v>
+        <v>29895</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -8434,7 +9727,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8455,7 +9748,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17786</v>
+        <v>17794</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -8466,7 +9759,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8487,7 +9780,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22381</v>
+        <v>22397</v>
       </c>
       <c r="G13" s="0">
         <v>500</v>
@@ -8498,7 +9791,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -8519,7 +9812,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16976</v>
+        <v>16984</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -8530,7 +9823,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -8551,7 +9844,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31517</v>
+        <v>31533</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -8562,7 +9855,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8583,7 +9876,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25168</v>
+        <v>25214</v>
       </c>
       <c r="G16" s="0">
         <v>781</v>
@@ -8592,9 +9885,9 @@
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>653</v>
-      </c>
-      <c r="K16" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8615,10 +9908,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14774</v>
+        <v>14825</v>
       </c>
       <c r="G17" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -8626,7 +9919,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8647,7 +9940,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13959</v>
+        <v>13991</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -8658,7 +9951,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8679,10 +9972,10 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14768</v>
+        <v>14813</v>
       </c>
       <c r="G19" s="0">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -8690,7 +9983,7 @@
       <c r="J19" s="0">
         <v>559</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8720,7 +10013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -8780,7 +10073,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70965</v>
+        <v>70964</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -8791,7 +10084,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8812,18 +10105,18 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127005</v>
+        <v>127014</v>
       </c>
       <c r="G3" s="0">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2833</v>
-      </c>
-      <c r="K3" s="5" t="s">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8844,7 +10137,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45076</v>
+        <v>45079</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -8855,7 +10148,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8876,7 +10169,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35751</v>
+        <v>35753</v>
       </c>
       <c r="G5" s="0">
         <v>1173</v>
@@ -8887,7 +10180,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -8908,7 +10201,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32227</v>
+        <v>32230</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -8919,7 +10212,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8940,7 +10233,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48240</v>
+        <v>48248</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -8951,7 +10244,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8972,18 +10265,18 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33629</v>
+        <v>33636</v>
       </c>
       <c r="G8" s="0">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>641</v>
-      </c>
-      <c r="K8" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -9004,7 +10297,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19798</v>
+        <v>19799</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -9013,9 +10306,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>747</v>
-      </c>
-      <c r="K9" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -9036,7 +10329,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28521</v>
+        <v>28526</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -9047,7 +10340,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9068,7 +10361,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29895</v>
+        <v>29899</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -9079,7 +10372,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9100,7 +10393,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17794</v>
+        <v>17802</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -9111,7 +10404,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9132,10 +10425,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22397</v>
+        <v>22422</v>
       </c>
       <c r="G13" s="0">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -9143,7 +10436,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -9164,7 +10457,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16984</v>
+        <v>16989</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -9175,7 +10468,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9196,7 +10489,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31533</v>
+        <v>31541</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -9205,9 +10498,9 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>497</v>
-      </c>
-      <c r="K15" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9228,18 +10521,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25214</v>
+        <v>25265</v>
       </c>
       <c r="G16" s="0">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -9260,10 +10553,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14825</v>
+        <v>14874</v>
       </c>
       <c r="G17" s="0">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -9271,7 +10564,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9292,10 +10585,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13991</v>
+        <v>14006</v>
       </c>
       <c r="G18" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -9303,7 +10596,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9324,7 +10617,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14813</v>
+        <v>14863</v>
       </c>
       <c r="G19" s="0">
         <v>313</v>
@@ -9333,9 +10626,9 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>559</v>
-      </c>
-      <c r="K19" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9365,7 +10658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -9425,7 +10718,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70964</v>
+        <v>70969</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -9436,7 +10729,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9457,10 +10750,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127014</v>
+        <v>127035</v>
       </c>
       <c r="G3" s="0">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -9468,7 +10761,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9489,7 +10782,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -9500,7 +10793,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9524,7 +10817,7 @@
         <v>35753</v>
       </c>
       <c r="G5" s="0">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -9532,7 +10825,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -9553,7 +10846,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32230</v>
+        <v>32243</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -9564,7 +10857,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -9585,7 +10878,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48248</v>
+        <v>48258</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -9596,7 +10889,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -9617,7 +10910,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33636</v>
+        <v>33642</v>
       </c>
       <c r="G8" s="0">
         <v>1195</v>
@@ -9628,7 +10921,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -9649,7 +10942,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19799</v>
+        <v>19800</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -9660,7 +10953,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -9681,7 +10974,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28526</v>
+        <v>28530</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -9692,7 +10985,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9713,7 +11006,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29899</v>
+        <v>29904</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -9724,7 +11017,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9745,7 +11038,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17802</v>
+        <v>17808</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -9756,7 +11049,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9777,7 +11070,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22422</v>
+        <v>22454</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -9786,9 +11079,9 @@
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>581</v>
-      </c>
-      <c r="K13" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -9809,7 +11102,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16989</v>
+        <v>16999</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -9820,7 +11113,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9841,10 +11134,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31541</v>
+        <v>31562</v>
       </c>
       <c r="G15" s="0">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -9852,7 +11145,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9873,18 +11166,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25265</v>
+        <v>25314</v>
       </c>
       <c r="G16" s="0">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>651</v>
-      </c>
-      <c r="K16" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -9905,18 +11198,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14874</v>
+        <v>14929</v>
       </c>
       <c r="G17" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>420</v>
-      </c>
-      <c r="K17" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9937,7 +11230,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14006</v>
+        <v>14025</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -9948,7 +11241,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9969,18 +11262,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14863</v>
+        <v>14915</v>
       </c>
       <c r="G19" s="0">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -10010,7 +11303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -10070,7 +11363,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70969</v>
+        <v>70975</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -10081,7 +11374,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10102,7 +11395,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127035</v>
+        <v>127049</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -10113,7 +11406,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10134,7 +11427,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45080</v>
+        <v>45084</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -10145,7 +11438,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10166,10 +11459,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35753</v>
+        <v>35754</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -10177,7 +11470,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10198,7 +11491,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32243</v>
+        <v>32247</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -10209,7 +11502,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10230,7 +11523,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48258</v>
+        <v>48264</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -10241,7 +11534,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -10262,10 +11555,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33642</v>
+        <v>33649</v>
       </c>
       <c r="G8" s="0">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -10273,7 +11566,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -10305,7 +11598,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10326,7 +11619,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28530</v>
+        <v>28531</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -10337,7 +11630,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -10358,7 +11651,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29904</v>
+        <v>29918</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -10369,7 +11662,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -10390,10 +11683,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17808</v>
+        <v>17813</v>
       </c>
       <c r="G12" s="0">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -10401,7 +11694,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10422,7 +11715,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22454</v>
+        <v>22486</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -10433,7 +11726,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -10454,10 +11747,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16999</v>
+        <v>17009</v>
       </c>
       <c r="G14" s="0">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -10465,7 +11758,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -10486,7 +11779,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31562</v>
+        <v>31576</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -10497,7 +11790,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10518,18 +11811,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25314</v>
+        <v>25353</v>
       </c>
       <c r="G16" s="0">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -10550,18 +11843,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14929</v>
+        <v>14959</v>
       </c>
       <c r="G17" s="0">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>421</v>
-      </c>
-      <c r="K17" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -10582,7 +11875,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14025</v>
+        <v>14053</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -10593,7 +11886,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10614,7 +11907,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14915</v>
+        <v>14952</v>
       </c>
       <c r="G19" s="0">
         <v>314</v>
@@ -10625,7 +11918,7 @@
       <c r="J19" s="0">
         <v>561</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -10655,7 +11948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -10715,7 +12008,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70975</v>
+        <v>70979</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -10726,7 +12019,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10747,7 +12040,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127049</v>
+        <v>127059</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -10758,7 +12051,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10779,7 +12072,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45084</v>
+        <v>45081</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -10790,7 +12083,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10811,7 +12104,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35754</v>
+        <v>35755</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -10822,7 +12115,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10843,10 +12136,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32247</v>
+        <v>32249</v>
       </c>
       <c r="G6" s="0">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -10854,7 +12147,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10875,7 +12168,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48264</v>
+        <v>48266</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -10886,7 +12179,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -10907,7 +12200,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33649</v>
+        <v>33660</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -10918,7 +12211,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -10939,7 +12232,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19800</v>
+        <v>19802</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -10950,7 +12243,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10982,7 +12275,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -11003,7 +12296,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29918</v>
+        <v>29925</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -11014,7 +12307,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -11035,7 +12328,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17813</v>
+        <v>17820</v>
       </c>
       <c r="G12" s="0">
         <v>469</v>
@@ -11046,7 +12339,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -11067,7 +12360,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22486</v>
+        <v>22522</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -11078,7 +12371,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -11099,7 +12392,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17009</v>
+        <v>17025</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -11110,7 +12403,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -11131,7 +12424,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31576</v>
+        <v>31592</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -11142,7 +12435,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -11163,7 +12456,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25353</v>
+        <v>25405</v>
       </c>
       <c r="G16" s="0">
         <v>789</v>
@@ -11174,7 +12467,7 @@
       <c r="J16" s="0">
         <v>655</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -11195,7 +12488,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14959</v>
+        <v>15013</v>
       </c>
       <c r="G17" s="0">
         <v>372</v>
@@ -11204,9 +12497,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>422</v>
-      </c>
-      <c r="K17" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -11227,7 +12520,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14053</v>
+        <v>14073</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -11236,9 +12529,9 @@
         <v>0</v>
       </c>
       <c r="J18" s="0">
-        <v>223</v>
-      </c>
-      <c r="K18" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -11259,18 +12552,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14952</v>
+        <v>14997</v>
       </c>
       <c r="G19" s="0">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>561</v>
-      </c>
-      <c r="K19" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -11298,649 +12591,4 @@
   </hyperlinks>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2018</v>
-      </c>
-      <c r="C2" s="0">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
-        <v>70979</v>
-      </c>
-      <c r="G2" s="0">
-        <v>1790</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>1214</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2018</v>
-      </c>
-      <c r="C3" s="0">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="0">
-        <v>127059</v>
-      </c>
-      <c r="G3" s="0">
-        <v>4283</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>2834</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="0">
-        <v>4</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="0">
-        <v>45081</v>
-      </c>
-      <c r="G4" s="0">
-        <v>1550</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
-        <v>1022</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="0">
-        <v>8</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="0">
-        <v>35755</v>
-      </c>
-      <c r="G5" s="0">
-        <v>1171</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
-        <v>834</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="0">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="0">
-        <v>32249</v>
-      </c>
-      <c r="G6" s="0">
-        <v>1377</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
-        <v>472</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="0">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="0">
-        <v>48266</v>
-      </c>
-      <c r="G7" s="0">
-        <v>1246</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>1172</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C8" s="0">
-        <v>5</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="0">
-        <v>33660</v>
-      </c>
-      <c r="G8" s="0">
-        <v>1196</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>642</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C9" s="0">
-        <v>5</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="0">
-        <v>19802</v>
-      </c>
-      <c r="G9" s="0">
-        <v>405</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>746</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C10" s="0">
-        <v>5</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="0">
-        <v>28531</v>
-      </c>
-      <c r="G10" s="0">
-        <v>701</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>562</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="0">
-        <v>10</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="0">
-        <v>29925</v>
-      </c>
-      <c r="G11" s="0">
-        <v>621</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>1955</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2022</v>
-      </c>
-      <c r="C12" s="0">
-        <v>10</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="0">
-        <v>17820</v>
-      </c>
-      <c r="G12" s="0">
-        <v>469</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>509</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2022</v>
-      </c>
-      <c r="C13" s="0">
-        <v>11</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="0">
-        <v>22522</v>
-      </c>
-      <c r="G13" s="0">
-        <v>501</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>584</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C14" s="0">
-        <v>3</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="0">
-        <v>17025</v>
-      </c>
-      <c r="G14" s="0">
-        <v>239</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>113</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C15" s="0">
-        <v>3</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="0">
-        <v>31592</v>
-      </c>
-      <c r="G15" s="0">
-        <v>1003</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>495</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C16" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="0">
-        <v>25405</v>
-      </c>
-      <c r="G16" s="0">
-        <v>789</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>655</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="0">
-        <v>15013</v>
-      </c>
-      <c r="G17" s="0">
-        <v>372</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>423</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C18" s="0">
-        <v>9</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="0">
-        <v>14073</v>
-      </c>
-      <c r="G18" s="0">
-        <v>385</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>224</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C19" s="0">
-        <v>10</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="0">
-        <v>14997</v>
-      </c>
-      <c r="G19" s="0">
-        <v>315</v>
-      </c>
-      <c r="I19" s="0">
-        <v>0</v>
-      </c>
-      <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K19"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId154"/>
-    <hyperlink ref="K3" r:id="rId155"/>
-    <hyperlink ref="K4" r:id="rId156"/>
-    <hyperlink ref="K5" r:id="rId157"/>
-    <hyperlink ref="K6" r:id="rId158"/>
-    <hyperlink ref="K7" r:id="rId159"/>
-    <hyperlink ref="K8" r:id="rId160"/>
-    <hyperlink ref="K9" r:id="rId161"/>
-    <hyperlink ref="K10" r:id="rId162"/>
-    <hyperlink ref="K11" r:id="rId163"/>
-    <hyperlink ref="K12" r:id="rId164"/>
-    <hyperlink ref="K13" r:id="rId165"/>
-    <hyperlink ref="K14" r:id="rId166"/>
-    <hyperlink ref="K15" r:id="rId167"/>
-    <hyperlink ref="K16" r:id="rId168"/>
-    <hyperlink ref="K17" r:id="rId169"/>
-    <hyperlink ref="K18" r:id="rId170"/>
-    <hyperlink ref="K19" r:id="rId171"/>
-  </hyperlinks>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
+++ b/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
@@ -24,6 +24,7 @@
     <sheet name="20231219041817 - Dec 19 2023" sheetId="17" r:id="rId18"/>
     <sheet name="20231220041511 - Dec 20 2023" sheetId="18" r:id="rId19"/>
     <sheet name="20231221041750 - Dec 21 2023" sheetId="19" r:id="rId20"/>
+    <sheet name="20231222041751 - Dec 22 2023" sheetId="20" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20231203113249 - Dec 03 2023'!$A$1:$K$19</definedName>
@@ -45,6 +46,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'20231219041817 - Dec 19 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'20231220041511 - Dec 20 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'20231221041750 - Dec 21 2023'!$A$1:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'20231222041751 - Dec 22 2023'!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -309,8 +311,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -960,24 +963,24 @@
   </sheetData>
   <autoFilter ref="A1:K19"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId307"/>
-    <hyperlink ref="K3" r:id="rId308"/>
-    <hyperlink ref="K4" r:id="rId309"/>
-    <hyperlink ref="K5" r:id="rId310"/>
-    <hyperlink ref="K6" r:id="rId311"/>
-    <hyperlink ref="K7" r:id="rId312"/>
-    <hyperlink ref="K8" r:id="rId313"/>
-    <hyperlink ref="K9" r:id="rId314"/>
-    <hyperlink ref="K10" r:id="rId315"/>
-    <hyperlink ref="K11" r:id="rId316"/>
-    <hyperlink ref="K12" r:id="rId317"/>
-    <hyperlink ref="K13" r:id="rId318"/>
-    <hyperlink ref="K14" r:id="rId319"/>
-    <hyperlink ref="K15" r:id="rId320"/>
-    <hyperlink ref="K16" r:id="rId321"/>
-    <hyperlink ref="K17" r:id="rId322"/>
-    <hyperlink ref="K18" r:id="rId323"/>
-    <hyperlink ref="K19" r:id="rId324"/>
+    <hyperlink ref="K2" r:id="rId324"/>
+    <hyperlink ref="K3" r:id="rId325"/>
+    <hyperlink ref="K4" r:id="rId326"/>
+    <hyperlink ref="K5" r:id="rId327"/>
+    <hyperlink ref="K6" r:id="rId328"/>
+    <hyperlink ref="K7" r:id="rId329"/>
+    <hyperlink ref="K8" r:id="rId330"/>
+    <hyperlink ref="K9" r:id="rId331"/>
+    <hyperlink ref="K10" r:id="rId332"/>
+    <hyperlink ref="K11" r:id="rId333"/>
+    <hyperlink ref="K12" r:id="rId334"/>
+    <hyperlink ref="K13" r:id="rId335"/>
+    <hyperlink ref="K14" r:id="rId336"/>
+    <hyperlink ref="K15" r:id="rId337"/>
+    <hyperlink ref="K16" r:id="rId338"/>
+    <hyperlink ref="K17" r:id="rId339"/>
+    <hyperlink ref="K18" r:id="rId340"/>
+    <hyperlink ref="K19" r:id="rId341"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -1599,6 +1602,651 @@
         <v>560</v>
       </c>
       <c r="K19" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId171"/>
+    <hyperlink ref="K3" r:id="rId172"/>
+    <hyperlink ref="K4" r:id="rId173"/>
+    <hyperlink ref="K5" r:id="rId174"/>
+    <hyperlink ref="K6" r:id="rId175"/>
+    <hyperlink ref="K7" r:id="rId176"/>
+    <hyperlink ref="K8" r:id="rId177"/>
+    <hyperlink ref="K9" r:id="rId178"/>
+    <hyperlink ref="K10" r:id="rId179"/>
+    <hyperlink ref="K11" r:id="rId180"/>
+    <hyperlink ref="K12" r:id="rId181"/>
+    <hyperlink ref="K13" r:id="rId182"/>
+    <hyperlink ref="K14" r:id="rId183"/>
+    <hyperlink ref="K15" r:id="rId184"/>
+    <hyperlink ref="K16" r:id="rId185"/>
+    <hyperlink ref="K17" r:id="rId186"/>
+    <hyperlink ref="K18" r:id="rId187"/>
+    <hyperlink ref="K19" r:id="rId188"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70985</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>127071</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4282</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45089</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1551</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35762</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1171</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32249</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1377</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48275</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1245</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33682</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1197</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>642</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19805</v>
+      </c>
+      <c r="G9" s="0">
+        <v>405</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>746</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28535</v>
+      </c>
+      <c r="G10" s="0">
+        <v>702</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29935</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17829</v>
+      </c>
+      <c r="G12" s="0">
+        <v>469</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>509</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22582</v>
+      </c>
+      <c r="G13" s="0">
+        <v>501</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>584</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>17039</v>
+      </c>
+      <c r="G14" s="0">
+        <v>239</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31625</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1003</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>495</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25488</v>
+      </c>
+      <c r="G16" s="0">
+        <v>790</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>658</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>15097</v>
+      </c>
+      <c r="G17" s="0">
+        <v>373</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>425</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>14116</v>
+      </c>
+      <c r="G18" s="0">
+        <v>385</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>224</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>15071</v>
+      </c>
+      <c r="G19" s="0">
+        <v>315</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>560</v>
+      </c>
+      <c r="K19" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1628,7 +2276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -1688,7 +2336,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70985</v>
+        <v>70987</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -1699,7 +2347,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1720,7 +2368,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127071</v>
+        <v>127082</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -1731,7 +2379,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1752,7 +2400,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="G4" s="0">
         <v>1551</v>
@@ -1763,7 +2411,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1784,7 +2432,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35762</v>
+        <v>35767</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -1795,7 +2443,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1816,7 +2464,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32249</v>
+        <v>32250</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -1827,7 +2475,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1848,10 +2496,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48275</v>
+        <v>48282</v>
       </c>
       <c r="G7" s="0">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1859,7 +2507,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1880,7 +2528,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33682</v>
+        <v>33691</v>
       </c>
       <c r="G8" s="0">
         <v>1197</v>
@@ -1891,7 +2539,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1912,7 +2560,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19805</v>
+        <v>19811</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -1923,7 +2571,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1955,7 +2603,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1976,7 +2624,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29935</v>
+        <v>29939</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -1987,7 +2635,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2008,7 +2656,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17829</v>
+        <v>17835</v>
       </c>
       <c r="G12" s="0">
         <v>469</v>
@@ -2017,9 +2665,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>509</v>
-      </c>
-      <c r="K12" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2040,7 +2688,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22582</v>
+        <v>22607</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -2051,7 +2699,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2072,7 +2720,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17039</v>
+        <v>17048</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -2083,7 +2731,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2104,7 +2752,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31625</v>
+        <v>31633</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -2115,7 +2763,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="12" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2136,18 +2784,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25488</v>
+        <v>25526</v>
       </c>
       <c r="G16" s="0">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>658</v>
-      </c>
-      <c r="K16" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2168,18 +2816,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15097</v>
+        <v>15147</v>
       </c>
       <c r="G17" s="0">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>425</v>
-      </c>
-      <c r="K17" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2200,10 +2848,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14116</v>
+        <v>14132</v>
       </c>
       <c r="G18" s="0">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -2211,7 +2859,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2232,18 +2880,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15071</v>
+        <v>15100</v>
       </c>
       <c r="G19" s="0">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2273,7 +2921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2333,7 +2981,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70987</v>
+        <v>70988</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2344,7 +2992,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2365,7 +3013,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127082</v>
+        <v>127094</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -2376,7 +3024,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2397,7 +3045,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45092</v>
+        <v>45095</v>
       </c>
       <c r="G4" s="0">
         <v>1551</v>
@@ -2408,7 +3056,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2429,7 +3077,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35767</v>
+        <v>35771</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -2440,7 +3088,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2461,7 +3109,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32250</v>
+        <v>32253</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -2472,7 +3120,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2493,7 +3141,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48282</v>
+        <v>48290</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -2504,7 +3152,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2525,7 +3173,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33691</v>
+        <v>33700</v>
       </c>
       <c r="G8" s="0">
         <v>1197</v>
@@ -2536,7 +3184,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2557,7 +3205,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19811</v>
+        <v>19815</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -2566,9 +3214,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>746</v>
-      </c>
-      <c r="K9" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2589,7 +3237,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28535</v>
+        <v>28539</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -2600,7 +3248,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2621,7 +3269,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29939</v>
+        <v>29951</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -2632,7 +3280,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2653,10 +3301,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17835</v>
+        <v>17838</v>
       </c>
       <c r="G12" s="0">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -2664,7 +3312,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2685,7 +3333,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22607</v>
+        <v>22643</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -2696,7 +3344,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="13" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2717,7 +3365,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17048</v>
+        <v>17055</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -2726,9 +3374,9 @@
         <v>0</v>
       </c>
       <c r="J14" s="0">
-        <v>113</v>
-      </c>
-      <c r="K14" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2749,7 +3397,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31633</v>
+        <v>31646</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -2758,9 +3406,9 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>495</v>
-      </c>
-      <c r="K15" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="K15" s="13" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2781,18 +3429,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25526</v>
+        <v>25565</v>
       </c>
       <c r="G16" s="0">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>661</v>
-      </c>
-      <c r="K16" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="K16" s="13" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2813,10 +3461,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15147</v>
+        <v>15193</v>
       </c>
       <c r="G17" s="0">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -2824,7 +3472,7 @@
       <c r="J17" s="0">
         <v>428</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2845,7 +3493,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14132</v>
+        <v>14164</v>
       </c>
       <c r="G18" s="0">
         <v>386</v>
@@ -2856,7 +3504,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2877,18 +3525,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15100</v>
+        <v>15147</v>
       </c>
       <c r="G19" s="0">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>561</v>
-      </c>
-      <c r="K19" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="K19" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2918,7 +3566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2978,7 +3626,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70988</v>
+        <v>70996</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2989,7 +3637,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3010,7 +3658,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127094</v>
+        <v>127104</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -3021,7 +3669,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3045,7 +3693,7 @@
         <v>45095</v>
       </c>
       <c r="G4" s="0">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I4" s="0">
         <v>0</v>
@@ -3053,7 +3701,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3085,7 +3733,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="14" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3106,7 +3754,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32253</v>
+        <v>32255</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -3117,7 +3765,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3138,7 +3786,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48290</v>
+        <v>48297</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -3147,9 +3795,9 @@
         <v>0</v>
       </c>
       <c r="J7" s="0">
-        <v>1172</v>
-      </c>
-      <c r="K7" s="13" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3170,10 +3818,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33700</v>
+        <v>33704</v>
       </c>
       <c r="G8" s="0">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -3181,7 +3829,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3202,10 +3850,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19815</v>
+        <v>19818</v>
       </c>
       <c r="G9" s="0">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -3213,7 +3861,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3234,7 +3882,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28539</v>
+        <v>28542</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -3245,7 +3893,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3266,7 +3914,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29951</v>
+        <v>29953</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3277,7 +3925,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3298,7 +3946,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17838</v>
+        <v>17840</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3309,7 +3957,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="14" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3330,7 +3978,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22643</v>
+        <v>22675</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -3341,7 +3989,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3362,7 +4010,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17055</v>
+        <v>17067</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -3373,7 +4021,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3394,7 +4042,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31646</v>
+        <v>31653</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -3405,7 +4053,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="14" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3426,18 +4074,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25565</v>
+        <v>25607</v>
       </c>
       <c r="G16" s="0">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>659</v>
-      </c>
-      <c r="K16" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="K16" s="14" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3458,18 +4106,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15193</v>
+        <v>15235</v>
       </c>
       <c r="G17" s="0">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>428</v>
-      </c>
-      <c r="K17" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="K17" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3490,10 +4138,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14164</v>
+        <v>14189</v>
       </c>
       <c r="G18" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -3501,7 +4149,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3522,7 +4170,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15147</v>
+        <v>15168</v>
       </c>
       <c r="G19" s="0">
         <v>317</v>
@@ -3531,9 +4179,9 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>563</v>
-      </c>
-      <c r="K19" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="K19" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3563,7 +4211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -3623,7 +4271,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70996</v>
+        <v>71000</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -3634,7 +4282,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3655,7 +4303,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127104</v>
+        <v>127115</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -3666,7 +4314,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3698,7 +4346,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3719,10 +4367,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35771</v>
+        <v>35774</v>
       </c>
       <c r="G5" s="0">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -3730,7 +4378,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3754,7 +4402,7 @@
         <v>32255</v>
       </c>
       <c r="G6" s="0">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -3762,7 +4410,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3783,10 +4431,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48297</v>
+        <v>48302</v>
       </c>
       <c r="G7" s="0">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -3794,7 +4442,7 @@
       <c r="J7" s="0">
         <v>1173</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="15" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3815,7 +4463,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33704</v>
+        <v>33706</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -3826,7 +4474,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3847,10 +4495,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19818</v>
+        <v>19821</v>
       </c>
       <c r="G9" s="0">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -3858,7 +4506,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="15" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3879,7 +4527,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28542</v>
+        <v>28543</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -3890,7 +4538,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3911,7 +4559,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29953</v>
+        <v>29954</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3922,7 +4570,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3943,7 +4591,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17840</v>
+        <v>17841</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3954,7 +4602,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="15" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3975,7 +4623,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22675</v>
+        <v>22705</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -3986,7 +4634,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="15" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4007,10 +4655,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17067</v>
+        <v>17075</v>
       </c>
       <c r="G14" s="0">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -4018,7 +4666,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="15" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4039,7 +4687,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31653</v>
+        <v>31662</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -4050,7 +4698,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="15" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4071,18 +4719,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25607</v>
+        <v>25651</v>
       </c>
       <c r="G16" s="0">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>660</v>
-      </c>
-      <c r="K16" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="K16" s="15" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4103,10 +4751,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15235</v>
+        <v>15269</v>
       </c>
       <c r="G17" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -4114,7 +4762,7 @@
       <c r="J17" s="0">
         <v>429</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="15" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4135,7 +4783,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14189</v>
+        <v>14211</v>
       </c>
       <c r="G18" s="0">
         <v>388</v>
@@ -4146,7 +4794,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="15" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4167,18 +4815,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15168</v>
+        <v>15205</v>
       </c>
       <c r="G19" s="0">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>565</v>
-      </c>
-      <c r="K19" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="K19" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4208,7 +4856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -4268,7 +4916,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>71000</v>
+        <v>71009</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -4279,7 +4927,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4300,10 +4948,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127115</v>
+        <v>127122</v>
       </c>
       <c r="G3" s="0">
-        <v>4282</v>
+        <v>4283</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -4311,7 +4959,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4332,7 +4980,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -4343,7 +4991,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4364,7 +5012,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35774</v>
+        <v>35775</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -4375,7 +5023,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4407,7 +5055,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4428,7 +5076,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48302</v>
+        <v>48304</v>
       </c>
       <c r="G7" s="0">
         <v>1248</v>
@@ -4439,7 +5087,7 @@
       <c r="J7" s="0">
         <v>1173</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4460,7 +5108,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33706</v>
+        <v>33708</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -4471,7 +5119,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="16" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4492,7 +5140,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19821</v>
+        <v>19823</v>
       </c>
       <c r="G9" s="0">
         <v>407</v>
@@ -4503,7 +5151,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4524,7 +5172,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28543</v>
+        <v>28545</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -4535,7 +5183,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="16" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4556,7 +5204,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29954</v>
+        <v>29959</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -4567,7 +5215,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4588,10 +5236,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17841</v>
+        <v>17842</v>
       </c>
       <c r="G12" s="0">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -4599,7 +5247,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="16" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4620,10 +5268,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22705</v>
+        <v>22734</v>
       </c>
       <c r="G13" s="0">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -4631,7 +5279,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="16" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4652,7 +5300,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17075</v>
+        <v>17089</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -4663,7 +5311,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="16" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4684,10 +5332,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31662</v>
+        <v>31674</v>
       </c>
       <c r="G15" s="0">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -4695,7 +5343,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="16" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4716,10 +5364,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25651</v>
+        <v>25699</v>
       </c>
       <c r="G16" s="0">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -4727,7 +5375,7 @@
       <c r="J16" s="0">
         <v>657</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="16" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4748,18 +5396,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15269</v>
+        <v>15302</v>
       </c>
       <c r="G17" s="0">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>429</v>
-      </c>
-      <c r="K17" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="K17" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4780,7 +5428,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14211</v>
+        <v>14226</v>
       </c>
       <c r="G18" s="0">
         <v>388</v>
@@ -4791,7 +5439,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="16" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4812,18 +5460,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15205</v>
+        <v>15242</v>
       </c>
       <c r="G19" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>564</v>
-      </c>
-      <c r="K19" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="K19" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4853,7 +5501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -4913,7 +5561,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>71009</v>
+        <v>71019</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -4924,7 +5572,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4945,7 +5593,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127122</v>
+        <v>127133</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -4954,9 +5602,9 @@
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2834</v>
-      </c>
-      <c r="K3" s="16" t="s">
+        <v>2832</v>
+      </c>
+      <c r="K3" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4977,7 +5625,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45096</v>
+        <v>45101</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -4988,7 +5636,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="17" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5009,7 +5657,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35775</v>
+        <v>35774</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -5020,7 +5668,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5041,7 +5689,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32255</v>
+        <v>32257</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -5052,7 +5700,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="17" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5073,7 +5721,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48304</v>
+        <v>48307</v>
       </c>
       <c r="G7" s="0">
         <v>1248</v>
@@ -5084,7 +5732,7 @@
       <c r="J7" s="0">
         <v>1173</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="17" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5105,7 +5753,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33708</v>
+        <v>33714</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -5116,7 +5764,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="17" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5137,7 +5785,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19823</v>
+        <v>19828</v>
       </c>
       <c r="G9" s="0">
         <v>407</v>
@@ -5148,7 +5796,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="17" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5169,7 +5817,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28545</v>
+        <v>28549</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -5180,7 +5828,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="17" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5201,7 +5849,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29959</v>
+        <v>29962</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -5212,7 +5860,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="17" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5233,7 +5881,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17842</v>
+        <v>17854</v>
       </c>
       <c r="G12" s="0">
         <v>471</v>
@@ -5244,7 +5892,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5265,10 +5913,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22734</v>
+        <v>22761</v>
       </c>
       <c r="G13" s="0">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -5276,7 +5924,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="17" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5297,7 +5945,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17089</v>
+        <v>17102</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -5308,7 +5956,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="17" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5329,7 +5977,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31674</v>
+        <v>31684</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -5340,7 +5988,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5361,7 +6009,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25699</v>
+        <v>25764</v>
       </c>
       <c r="G16" s="0">
         <v>796</v>
@@ -5370,9 +6018,9 @@
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>657</v>
-      </c>
-      <c r="K16" s="16" t="s">
+        <v>656</v>
+      </c>
+      <c r="K16" s="17" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5393,10 +6041,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15302</v>
+        <v>15358</v>
       </c>
       <c r="G17" s="0">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -5404,7 +6052,7 @@
       <c r="J17" s="0">
         <v>430</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5425,10 +6073,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14226</v>
+        <v>14245</v>
       </c>
       <c r="G18" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -5436,7 +6084,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="17" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5457,7 +6105,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15242</v>
+        <v>15283</v>
       </c>
       <c r="G19" s="0">
         <v>319</v>
@@ -5468,7 +6116,7 @@
       <c r="J19" s="0">
         <v>565</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="17" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5498,7 +6146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -5558,7 +6206,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>71019</v>
+        <v>71022</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -5569,7 +6217,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5590,7 +6238,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127133</v>
+        <v>127140</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -5601,7 +6249,7 @@
       <c r="J3" s="0">
         <v>2832</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="18" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5622,7 +6270,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -5633,7 +6281,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5654,7 +6302,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35774</v>
+        <v>35775</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -5665,7 +6313,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="18" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5686,7 +6334,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32257</v>
+        <v>32258</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -5697,7 +6345,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5718,18 +6366,18 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48307</v>
+        <v>48316</v>
       </c>
       <c r="G7" s="0">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
       </c>
       <c r="J7" s="0">
-        <v>1173</v>
-      </c>
-      <c r="K7" s="17" t="s">
+        <v>1170</v>
+      </c>
+      <c r="K7" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5750,10 +6398,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33714</v>
+        <v>33717</v>
       </c>
       <c r="G8" s="0">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -5761,7 +6409,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="18" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5782,7 +6430,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19828</v>
+        <v>19830</v>
       </c>
       <c r="G9" s="0">
         <v>407</v>
@@ -5791,9 +6439,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>747</v>
-      </c>
-      <c r="K9" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="K9" s="18" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5814,7 +6462,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28549</v>
+        <v>28552</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -5823,9 +6471,9 @@
         <v>0</v>
       </c>
       <c r="J10" s="0">
-        <v>562</v>
-      </c>
-      <c r="K10" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="K10" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5846,7 +6494,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29962</v>
+        <v>29969</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -5857,7 +6505,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5878,7 +6526,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17854</v>
+        <v>17861</v>
       </c>
       <c r="G12" s="0">
         <v>471</v>
@@ -5889,7 +6537,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="18" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5910,7 +6558,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22761</v>
+        <v>22767</v>
       </c>
       <c r="G13" s="0">
         <v>504</v>
@@ -5921,7 +6569,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="18" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5942,7 +6590,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17102</v>
+        <v>17107</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -5953,7 +6601,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="18" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5974,7 +6622,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31684</v>
+        <v>31699</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -5985,7 +6633,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="18" t="s">
         <v>59</v>
       </c>
     </row>
@@ -6006,18 +6654,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25764</v>
+        <v>25805</v>
       </c>
       <c r="G16" s="0">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>656</v>
-      </c>
-      <c r="K16" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="K16" s="18" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6038,10 +6686,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15358</v>
+        <v>15404</v>
       </c>
       <c r="G17" s="0">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -6049,7 +6697,7 @@
       <c r="J17" s="0">
         <v>430</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="18" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6070,7 +6718,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14245</v>
+        <v>14269</v>
       </c>
       <c r="G18" s="0">
         <v>390</v>
@@ -6081,7 +6729,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="18" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6102,7 +6750,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15283</v>
+        <v>15309</v>
       </c>
       <c r="G19" s="0">
         <v>319</v>
@@ -6113,7 +6761,7 @@
       <c r="J19" s="0">
         <v>565</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K19" s="18" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6143,7 +6791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -6203,7 +6851,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>71022</v>
+        <v>71024</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -6214,7 +6862,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6235,7 +6883,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127140</v>
+        <v>127147</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -6246,7 +6894,7 @@
       <c r="J3" s="0">
         <v>2832</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6267,7 +6915,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -6278,7 +6926,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="19" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6299,7 +6947,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35775</v>
+        <v>35776</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -6310,7 +6958,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="19" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6331,7 +6979,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32258</v>
+        <v>32260</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -6342,7 +6990,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6363,7 +7011,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48316</v>
+        <v>48321</v>
       </c>
       <c r="G7" s="0">
         <v>1249</v>
@@ -6374,7 +7022,7 @@
       <c r="J7" s="0">
         <v>1170</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -6395,7 +7043,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33717</v>
+        <v>33721</v>
       </c>
       <c r="G8" s="0">
         <v>1197</v>
@@ -6406,7 +7054,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="19" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6427,7 +7075,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19830</v>
+        <v>19832</v>
       </c>
       <c r="G9" s="0">
         <v>407</v>
@@ -6438,7 +7086,7 @@
       <c r="J9" s="0">
         <v>748</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="19" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6459,7 +7107,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28552</v>
+        <v>28551</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -6470,7 +7118,7 @@
       <c r="J10" s="0">
         <v>561</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="19" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6491,7 +7139,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29969</v>
+        <v>29974</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -6502,7 +7150,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="19" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6523,7 +7171,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17861</v>
+        <v>17868</v>
       </c>
       <c r="G12" s="0">
         <v>471</v>
@@ -6534,7 +7182,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="19" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6555,10 +7203,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22767</v>
+        <v>22794</v>
       </c>
       <c r="G13" s="0">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -6566,7 +7214,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="19" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6587,7 +7235,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17107</v>
+        <v>17114</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -6598,7 +7246,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="19" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6619,10 +7267,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31699</v>
+        <v>31721</v>
       </c>
       <c r="G15" s="0">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -6630,7 +7278,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="19" t="s">
         <v>59</v>
       </c>
     </row>
@@ -6651,18 +7299,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25805</v>
+        <v>25855</v>
       </c>
       <c r="G16" s="0">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>657</v>
-      </c>
-      <c r="K16" s="18" t="s">
+        <v>661</v>
+      </c>
+      <c r="K16" s="19" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6683,18 +7331,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15404</v>
+        <v>15442</v>
       </c>
       <c r="G17" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>430</v>
-      </c>
-      <c r="K17" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="K17" s="19" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6715,7 +7363,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14269</v>
+        <v>14287</v>
       </c>
       <c r="G18" s="0">
         <v>390</v>
@@ -6726,7 +7374,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="19" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6747,7 +7395,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15309</v>
+        <v>15352</v>
       </c>
       <c r="G19" s="0">
         <v>319</v>
@@ -6758,7 +7406,7 @@
       <c r="J19" s="0">
         <v>565</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="19" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6788,7 +7436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -6848,7 +7496,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>71024</v>
+        <v>70949</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -6859,7 +7507,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6880,7 +7528,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127147</v>
+        <v>126968</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -6889,9 +7537,9 @@
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2832</v>
-      </c>
-      <c r="K3" s="19" t="s">
+        <v>2831</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6912,10 +7560,10 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45103</v>
+        <v>45069</v>
       </c>
       <c r="G4" s="0">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="I4" s="0">
         <v>0</v>
@@ -6923,7 +7571,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6944,7 +7592,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35776</v>
+        <v>35742</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -6955,7 +7603,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6976,10 +7624,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32260</v>
+        <v>32222</v>
       </c>
       <c r="G6" s="0">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -6987,7 +7635,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7008,18 +7656,18 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48321</v>
+        <v>48208</v>
       </c>
       <c r="G7" s="0">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
       </c>
       <c r="J7" s="0">
-        <v>1170</v>
-      </c>
-      <c r="K7" s="19" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7040,18 +7688,18 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33721</v>
+        <v>33614</v>
       </c>
       <c r="G8" s="0">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>642</v>
-      </c>
-      <c r="K8" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7072,18 +7720,18 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19832</v>
+        <v>19788</v>
       </c>
       <c r="G9" s="0">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>748</v>
-      </c>
-      <c r="K9" s="19" t="s">
+        <v>747</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7104,18 +7752,18 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28551</v>
+        <v>28513</v>
       </c>
       <c r="G10" s="0">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
       </c>
       <c r="J10" s="0">
-        <v>561</v>
-      </c>
-      <c r="K10" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7136,7 +7784,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29974</v>
+        <v>29879</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -7147,7 +7795,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7168,18 +7816,18 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17868</v>
+        <v>17777</v>
       </c>
       <c r="G12" s="0">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>506</v>
-      </c>
-      <c r="K12" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7200,18 +7848,18 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22794</v>
+        <v>22333</v>
       </c>
       <c r="G13" s="0">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>584</v>
-      </c>
-      <c r="K13" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7232,18 +7880,18 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17114</v>
+        <v>16952</v>
       </c>
       <c r="G14" s="0">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
       </c>
       <c r="J14" s="0">
-        <v>112</v>
-      </c>
-      <c r="K14" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7264,18 +7912,18 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31721</v>
+        <v>31478</v>
       </c>
       <c r="G15" s="0">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>496</v>
-      </c>
-      <c r="K15" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7296,18 +7944,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25855</v>
+        <v>25061</v>
       </c>
       <c r="G16" s="0">
-        <v>799</v>
+        <v>778</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>661</v>
-      </c>
-      <c r="K16" s="19" t="s">
+        <v>653</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7328,18 +7976,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15442</v>
+        <v>14695</v>
       </c>
       <c r="G17" s="0">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>432</v>
-      </c>
-      <c r="K17" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7360,18 +8008,18 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14287</v>
+        <v>13918</v>
       </c>
       <c r="G18" s="0">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
       </c>
       <c r="J18" s="0">
-        <v>224</v>
-      </c>
-      <c r="K18" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7392,10 +8040,655 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15352</v>
+        <v>14673</v>
       </c>
       <c r="G19" s="0">
-        <v>319</v>
+        <v>310</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>559</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId307"/>
+    <hyperlink ref="K3" r:id="rId308"/>
+    <hyperlink ref="K4" r:id="rId309"/>
+    <hyperlink ref="K5" r:id="rId310"/>
+    <hyperlink ref="K6" r:id="rId311"/>
+    <hyperlink ref="K7" r:id="rId312"/>
+    <hyperlink ref="K8" r:id="rId313"/>
+    <hyperlink ref="K9" r:id="rId314"/>
+    <hyperlink ref="K10" r:id="rId315"/>
+    <hyperlink ref="K11" r:id="rId316"/>
+    <hyperlink ref="K12" r:id="rId317"/>
+    <hyperlink ref="K13" r:id="rId318"/>
+    <hyperlink ref="K14" r:id="rId319"/>
+    <hyperlink ref="K15" r:id="rId320"/>
+    <hyperlink ref="K16" r:id="rId321"/>
+    <hyperlink ref="K17" r:id="rId322"/>
+    <hyperlink ref="K18" r:id="rId323"/>
+    <hyperlink ref="K19" r:id="rId324"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>71024</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>127159</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4284</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2832</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45105</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1550</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35777</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1173</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32261</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1376</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48327</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1249</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1170</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33732</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1198</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>644</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19832</v>
+      </c>
+      <c r="G9" s="0">
+        <v>407</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>748</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28551</v>
+      </c>
+      <c r="G10" s="0">
+        <v>702</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>561</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29978</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17870</v>
+      </c>
+      <c r="G12" s="0">
+        <v>471</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>506</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22822</v>
+      </c>
+      <c r="G13" s="0">
+        <v>507</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>584</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>17130</v>
+      </c>
+      <c r="G14" s="0">
+        <v>240</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>112</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31734</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1006</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>497</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25894</v>
+      </c>
+      <c r="G16" s="0">
+        <v>800</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>661</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>15475</v>
+      </c>
+      <c r="G17" s="0">
+        <v>383</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>432</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>14308</v>
+      </c>
+      <c r="G18" s="0">
+        <v>391</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>224</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>15381</v>
+      </c>
+      <c r="G19" s="0">
+        <v>320</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -7403,7 +8696,7 @@
       <c r="J19" s="0">
         <v>565</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="20" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7433,7 +8726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -7493,7 +8786,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70949</v>
+        <v>70952</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -7504,7 +8797,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7525,7 +8818,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126968</v>
+        <v>126982</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -7534,9 +8827,9 @@
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2831</v>
-      </c>
-      <c r="K3" s="2" t="s">
+        <v>2833</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7557,10 +8850,10 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="G4" s="0">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I4" s="0">
         <v>0</v>
@@ -7568,7 +8861,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7589,7 +8882,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35742</v>
+        <v>35743</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -7600,7 +8893,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7621,10 +8914,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32222</v>
+        <v>32220</v>
       </c>
       <c r="G6" s="0">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -7632,7 +8925,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7653,10 +8946,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48208</v>
+        <v>48227</v>
       </c>
       <c r="G7" s="0">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -7664,7 +8957,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7685,10 +8978,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33614</v>
+        <v>33618</v>
       </c>
       <c r="G8" s="0">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -7696,7 +8989,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7717,7 +9010,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19788</v>
+        <v>19792</v>
       </c>
       <c r="G9" s="0">
         <v>406</v>
@@ -7728,7 +9021,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7749,7 +9042,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28513</v>
+        <v>28515</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -7760,7 +9053,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7781,7 +9074,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29879</v>
+        <v>29882</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -7792,7 +9085,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7813,7 +9106,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17777</v>
+        <v>17783</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -7824,7 +9117,7 @@
       <c r="J12" s="0">
         <v>520</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7845,7 +9138,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22333</v>
+        <v>22364</v>
       </c>
       <c r="G13" s="0">
         <v>498</v>
@@ -7856,7 +9149,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7877,10 +9170,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16952</v>
+        <v>16966</v>
       </c>
       <c r="G14" s="0">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -7888,7 +9181,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7909,7 +9202,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31478</v>
+        <v>31502</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -7920,7 +9213,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7941,10 +9234,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25061</v>
+        <v>25121</v>
       </c>
       <c r="G16" s="0">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -7952,7 +9245,7 @@
       <c r="J16" s="0">
         <v>653</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7973,18 +9266,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14695</v>
+        <v>14744</v>
       </c>
       <c r="G17" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>419</v>
-      </c>
-      <c r="K17" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8005,10 +9298,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13918</v>
+        <v>13943</v>
       </c>
       <c r="G18" s="0">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -8016,7 +9309,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8037,18 +9330,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14673</v>
+        <v>14727</v>
       </c>
       <c r="G19" s="0">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>559</v>
-      </c>
-      <c r="K19" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8078,7 +9371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -8138,7 +9431,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70952</v>
+        <v>70961</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -8149,7 +9442,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8170,7 +9463,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126982</v>
+        <v>126997</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -8181,7 +9474,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8202,7 +9495,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45070</v>
+        <v>45075</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -8213,7 +9506,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8234,7 +9527,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35743</v>
+        <v>35746</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -8245,7 +9538,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -8266,7 +9559,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32220</v>
+        <v>32222</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -8277,7 +9570,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8298,7 +9591,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48227</v>
+        <v>48233</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -8309,7 +9602,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8330,7 +9623,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33618</v>
+        <v>33626</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -8341,7 +9634,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8362,7 +9655,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19792</v>
+        <v>19797</v>
       </c>
       <c r="G9" s="0">
         <v>406</v>
@@ -8373,7 +9666,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8394,7 +9687,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28515</v>
+        <v>28517</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -8405,7 +9698,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8426,7 +9719,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29882</v>
+        <v>29888</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -8437,7 +9730,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8458,7 +9751,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17783</v>
+        <v>17786</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -8467,9 +9760,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>520</v>
-      </c>
-      <c r="K12" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8490,10 +9783,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22364</v>
+        <v>22381</v>
       </c>
       <c r="G13" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -8501,7 +9794,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -8522,7 +9815,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16966</v>
+        <v>16976</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -8533,7 +9826,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -8554,7 +9847,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31502</v>
+        <v>31517</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -8565,7 +9858,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8586,10 +9879,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25121</v>
+        <v>25168</v>
       </c>
       <c r="G16" s="0">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -8597,7 +9890,7 @@
       <c r="J16" s="0">
         <v>653</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8618,10 +9911,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14744</v>
+        <v>14774</v>
       </c>
       <c r="G17" s="0">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -8629,7 +9922,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8650,7 +9943,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13943</v>
+        <v>13959</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -8661,7 +9954,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8682,18 +9975,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14727</v>
+        <v>14768</v>
       </c>
       <c r="G19" s="0">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8723,7 +10016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -8783,7 +10076,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70961</v>
+        <v>70965</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -8794,7 +10087,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8815,7 +10108,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126997</v>
+        <v>127005</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -8826,7 +10119,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8847,7 +10140,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -8858,7 +10151,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8879,10 +10172,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35746</v>
+        <v>35751</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -8890,7 +10183,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -8911,10 +10204,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32222</v>
+        <v>32227</v>
       </c>
       <c r="G6" s="0">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -8922,7 +10215,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8943,7 +10236,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48233</v>
+        <v>48240</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -8954,7 +10247,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8975,7 +10268,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33626</v>
+        <v>33629</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -8986,7 +10279,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -9007,10 +10300,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19797</v>
+        <v>19798</v>
       </c>
       <c r="G9" s="0">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -9018,7 +10311,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -9039,7 +10332,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28517</v>
+        <v>28521</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -9050,7 +10343,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9071,7 +10364,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29888</v>
+        <v>29895</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -9082,7 +10375,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9103,7 +10396,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17786</v>
+        <v>17794</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -9114,7 +10407,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9135,7 +10428,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22381</v>
+        <v>22397</v>
       </c>
       <c r="G13" s="0">
         <v>500</v>
@@ -9146,7 +10439,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -9167,7 +10460,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16976</v>
+        <v>16984</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -9178,7 +10471,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9199,7 +10492,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31517</v>
+        <v>31533</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -9210,7 +10503,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9231,7 +10524,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25168</v>
+        <v>25214</v>
       </c>
       <c r="G16" s="0">
         <v>781</v>
@@ -9240,9 +10533,9 @@
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>653</v>
-      </c>
-      <c r="K16" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -9263,10 +10556,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14774</v>
+        <v>14825</v>
       </c>
       <c r="G17" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -9274,7 +10567,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9295,7 +10588,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13959</v>
+        <v>13991</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -9306,7 +10599,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9327,10 +10620,10 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14768</v>
+        <v>14813</v>
       </c>
       <c r="G19" s="0">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -9338,7 +10631,7 @@
       <c r="J19" s="0">
         <v>559</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9368,7 +10661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -9428,7 +10721,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70965</v>
+        <v>70964</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -9439,7 +10732,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9460,18 +10753,18 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127005</v>
+        <v>127014</v>
       </c>
       <c r="G3" s="0">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2833</v>
-      </c>
-      <c r="K3" s="5" t="s">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9492,7 +10785,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45076</v>
+        <v>45079</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -9503,7 +10796,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9524,7 +10817,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35751</v>
+        <v>35753</v>
       </c>
       <c r="G5" s="0">
         <v>1173</v>
@@ -9535,7 +10828,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -9556,7 +10849,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32227</v>
+        <v>32230</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -9567,7 +10860,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -9588,7 +10881,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48240</v>
+        <v>48248</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -9599,7 +10892,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -9620,18 +10913,18 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33629</v>
+        <v>33636</v>
       </c>
       <c r="G8" s="0">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>641</v>
-      </c>
-      <c r="K8" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -9652,7 +10945,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19798</v>
+        <v>19799</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -9661,9 +10954,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>747</v>
-      </c>
-      <c r="K9" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -9684,7 +10977,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28521</v>
+        <v>28526</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -9695,7 +10988,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9716,7 +11009,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29895</v>
+        <v>29899</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -9727,7 +11020,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9748,7 +11041,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17794</v>
+        <v>17802</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -9759,7 +11052,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9780,10 +11073,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22397</v>
+        <v>22422</v>
       </c>
       <c r="G13" s="0">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -9791,7 +11084,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -9812,7 +11105,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16984</v>
+        <v>16989</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -9823,7 +11116,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9844,7 +11137,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31533</v>
+        <v>31541</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -9853,9 +11146,9 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>497</v>
-      </c>
-      <c r="K15" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9876,18 +11169,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25214</v>
+        <v>25265</v>
       </c>
       <c r="G16" s="0">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -9908,10 +11201,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14825</v>
+        <v>14874</v>
       </c>
       <c r="G17" s="0">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -9919,7 +11212,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9940,10 +11233,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13991</v>
+        <v>14006</v>
       </c>
       <c r="G18" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -9951,7 +11244,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9972,7 +11265,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14813</v>
+        <v>14863</v>
       </c>
       <c r="G19" s="0">
         <v>313</v>
@@ -9981,9 +11274,9 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>559</v>
-      </c>
-      <c r="K19" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -10013,7 +11306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -10073,7 +11366,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70964</v>
+        <v>70969</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -10084,7 +11377,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10105,10 +11398,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127014</v>
+        <v>127035</v>
       </c>
       <c r="G3" s="0">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -10116,7 +11409,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10137,7 +11430,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -10148,7 +11441,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10172,7 +11465,7 @@
         <v>35753</v>
       </c>
       <c r="G5" s="0">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -10180,7 +11473,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10201,7 +11494,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32230</v>
+        <v>32243</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -10212,7 +11505,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10233,7 +11526,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48248</v>
+        <v>48258</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -10244,7 +11537,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -10265,7 +11558,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33636</v>
+        <v>33642</v>
       </c>
       <c r="G8" s="0">
         <v>1195</v>
@@ -10276,7 +11569,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -10297,7 +11590,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19799</v>
+        <v>19800</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -10308,7 +11601,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10329,7 +11622,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28526</v>
+        <v>28530</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -10340,7 +11633,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -10361,7 +11654,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29899</v>
+        <v>29904</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -10372,7 +11665,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -10393,7 +11686,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17802</v>
+        <v>17808</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -10404,7 +11697,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10425,7 +11718,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22422</v>
+        <v>22454</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -10434,9 +11727,9 @@
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>581</v>
-      </c>
-      <c r="K13" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -10457,7 +11750,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16989</v>
+        <v>16999</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -10468,7 +11761,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -10489,10 +11782,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31541</v>
+        <v>31562</v>
       </c>
       <c r="G15" s="0">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -10500,7 +11793,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10521,18 +11814,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25265</v>
+        <v>25314</v>
       </c>
       <c r="G16" s="0">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>651</v>
-      </c>
-      <c r="K16" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -10553,18 +11846,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14874</v>
+        <v>14929</v>
       </c>
       <c r="G17" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>420</v>
-      </c>
-      <c r="K17" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -10585,7 +11878,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14006</v>
+        <v>14025</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -10596,7 +11889,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10617,18 +11910,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14863</v>
+        <v>14915</v>
       </c>
       <c r="G19" s="0">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -10658,7 +11951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -10718,7 +12011,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70969</v>
+        <v>70975</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -10729,7 +12022,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10750,7 +12043,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127035</v>
+        <v>127049</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -10761,7 +12054,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10782,7 +12075,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45080</v>
+        <v>45084</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -10793,7 +12086,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10814,10 +12107,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35753</v>
+        <v>35754</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -10825,7 +12118,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10846,7 +12139,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32243</v>
+        <v>32247</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -10857,7 +12150,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10878,7 +12171,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48258</v>
+        <v>48264</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -10889,7 +12182,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -10910,10 +12203,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33642</v>
+        <v>33649</v>
       </c>
       <c r="G8" s="0">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -10921,7 +12214,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -10953,7 +12246,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10974,7 +12267,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28530</v>
+        <v>28531</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -10985,7 +12278,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -11006,7 +12299,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29904</v>
+        <v>29918</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -11017,7 +12310,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -11038,10 +12331,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17808</v>
+        <v>17813</v>
       </c>
       <c r="G12" s="0">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -11049,7 +12342,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -11070,7 +12363,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22454</v>
+        <v>22486</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -11081,7 +12374,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -11102,10 +12395,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16999</v>
+        <v>17009</v>
       </c>
       <c r="G14" s="0">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -11113,7 +12406,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -11134,7 +12427,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31562</v>
+        <v>31576</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -11145,7 +12438,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -11166,18 +12459,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25314</v>
+        <v>25353</v>
       </c>
       <c r="G16" s="0">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -11198,18 +12491,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14929</v>
+        <v>14959</v>
       </c>
       <c r="G17" s="0">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>421</v>
-      </c>
-      <c r="K17" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -11230,7 +12523,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14025</v>
+        <v>14053</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -11241,7 +12534,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -11262,7 +12555,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14915</v>
+        <v>14952</v>
       </c>
       <c r="G19" s="0">
         <v>314</v>
@@ -11273,7 +12566,7 @@
       <c r="J19" s="0">
         <v>561</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -11303,7 +12596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -11363,7 +12656,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70975</v>
+        <v>70979</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -11374,7 +12667,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11395,7 +12688,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127049</v>
+        <v>127059</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -11406,7 +12699,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -11427,7 +12720,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45084</v>
+        <v>45081</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -11438,7 +12731,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11459,7 +12752,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35754</v>
+        <v>35755</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -11470,7 +12763,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -11491,10 +12784,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32247</v>
+        <v>32249</v>
       </c>
       <c r="G6" s="0">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -11502,7 +12795,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -11523,7 +12816,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48264</v>
+        <v>48266</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -11534,7 +12827,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -11555,7 +12848,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33649</v>
+        <v>33660</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -11566,7 +12859,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -11587,7 +12880,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19800</v>
+        <v>19802</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -11598,7 +12891,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -11630,7 +12923,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -11651,7 +12944,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29918</v>
+        <v>29925</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -11662,7 +12955,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -11683,7 +12976,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17813</v>
+        <v>17820</v>
       </c>
       <c r="G12" s="0">
         <v>469</v>
@@ -11694,7 +12987,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -11715,7 +13008,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22486</v>
+        <v>22522</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -11726,7 +13019,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -11747,7 +13040,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17009</v>
+        <v>17025</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -11758,7 +13051,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -11779,7 +13072,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31576</v>
+        <v>31592</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -11790,7 +13083,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -11811,7 +13104,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25353</v>
+        <v>25405</v>
       </c>
       <c r="G16" s="0">
         <v>789</v>
@@ -11822,7 +13115,7 @@
       <c r="J16" s="0">
         <v>655</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -11843,7 +13136,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14959</v>
+        <v>15013</v>
       </c>
       <c r="G17" s="0">
         <v>372</v>
@@ -11852,9 +13145,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>422</v>
-      </c>
-      <c r="K17" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -11875,7 +13168,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14053</v>
+        <v>14073</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -11884,9 +13177,9 @@
         <v>0</v>
       </c>
       <c r="J18" s="0">
-        <v>223</v>
-      </c>
-      <c r="K18" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -11907,18 +13200,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14952</v>
+        <v>14997</v>
       </c>
       <c r="G19" s="0">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>561</v>
-      </c>
-      <c r="K19" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -11946,649 +13239,4 @@
   </hyperlinks>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2018</v>
-      </c>
-      <c r="C2" s="0">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
-        <v>70979</v>
-      </c>
-      <c r="G2" s="0">
-        <v>1790</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>1214</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2018</v>
-      </c>
-      <c r="C3" s="0">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="0">
-        <v>127059</v>
-      </c>
-      <c r="G3" s="0">
-        <v>4283</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>2834</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="0">
-        <v>4</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="0">
-        <v>45081</v>
-      </c>
-      <c r="G4" s="0">
-        <v>1550</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
-        <v>1022</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="0">
-        <v>8</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="0">
-        <v>35755</v>
-      </c>
-      <c r="G5" s="0">
-        <v>1171</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
-        <v>834</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="0">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="0">
-        <v>32249</v>
-      </c>
-      <c r="G6" s="0">
-        <v>1377</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
-        <v>472</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="0">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="0">
-        <v>48266</v>
-      </c>
-      <c r="G7" s="0">
-        <v>1246</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>1172</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C8" s="0">
-        <v>5</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="0">
-        <v>33660</v>
-      </c>
-      <c r="G8" s="0">
-        <v>1196</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>642</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C9" s="0">
-        <v>5</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="0">
-        <v>19802</v>
-      </c>
-      <c r="G9" s="0">
-        <v>405</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>746</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C10" s="0">
-        <v>5</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="0">
-        <v>28531</v>
-      </c>
-      <c r="G10" s="0">
-        <v>701</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>562</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="0">
-        <v>10</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="0">
-        <v>29925</v>
-      </c>
-      <c r="G11" s="0">
-        <v>621</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>1955</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2022</v>
-      </c>
-      <c r="C12" s="0">
-        <v>10</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="0">
-        <v>17820</v>
-      </c>
-      <c r="G12" s="0">
-        <v>469</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>509</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2022</v>
-      </c>
-      <c r="C13" s="0">
-        <v>11</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="0">
-        <v>22522</v>
-      </c>
-      <c r="G13" s="0">
-        <v>501</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>584</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C14" s="0">
-        <v>3</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="0">
-        <v>17025</v>
-      </c>
-      <c r="G14" s="0">
-        <v>239</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>113</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C15" s="0">
-        <v>3</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="0">
-        <v>31592</v>
-      </c>
-      <c r="G15" s="0">
-        <v>1003</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>495</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C16" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="0">
-        <v>25405</v>
-      </c>
-      <c r="G16" s="0">
-        <v>789</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>655</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="0">
-        <v>15013</v>
-      </c>
-      <c r="G17" s="0">
-        <v>372</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>423</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C18" s="0">
-        <v>9</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="0">
-        <v>14073</v>
-      </c>
-      <c r="G18" s="0">
-        <v>385</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>224</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C19" s="0">
-        <v>10</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="0">
-        <v>14997</v>
-      </c>
-      <c r="G19" s="0">
-        <v>315</v>
-      </c>
-      <c r="I19" s="0">
-        <v>0</v>
-      </c>
-      <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K19"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId171"/>
-    <hyperlink ref="K3" r:id="rId172"/>
-    <hyperlink ref="K4" r:id="rId173"/>
-    <hyperlink ref="K5" r:id="rId174"/>
-    <hyperlink ref="K6" r:id="rId175"/>
-    <hyperlink ref="K7" r:id="rId176"/>
-    <hyperlink ref="K8" r:id="rId177"/>
-    <hyperlink ref="K9" r:id="rId178"/>
-    <hyperlink ref="K10" r:id="rId179"/>
-    <hyperlink ref="K11" r:id="rId180"/>
-    <hyperlink ref="K12" r:id="rId181"/>
-    <hyperlink ref="K13" r:id="rId182"/>
-    <hyperlink ref="K14" r:id="rId183"/>
-    <hyperlink ref="K15" r:id="rId184"/>
-    <hyperlink ref="K16" r:id="rId185"/>
-    <hyperlink ref="K17" r:id="rId186"/>
-    <hyperlink ref="K18" r:id="rId187"/>
-    <hyperlink ref="K19" r:id="rId188"/>
-  </hyperlinks>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
+++ b/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
@@ -25,6 +25,7 @@
     <sheet name="20231220041511 - Dec 20 2023" sheetId="18" r:id="rId19"/>
     <sheet name="20231221041750 - Dec 21 2023" sheetId="19" r:id="rId20"/>
     <sheet name="20231222041751 - Dec 22 2023" sheetId="20" r:id="rId21"/>
+    <sheet name="20231223041707 - Dec 23 2023" sheetId="21" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20231203113249 - Dec 03 2023'!$A$1:$K$19</definedName>
@@ -47,6 +48,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'20231220041511 - Dec 20 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'20231221041750 - Dec 21 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'20231222041751 - Dec 22 2023'!$A$1:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'20231223041707 - Dec 23 2023'!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -311,8 +313,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -963,24 +966,24 @@
   </sheetData>
   <autoFilter ref="A1:K19"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId324"/>
-    <hyperlink ref="K3" r:id="rId325"/>
-    <hyperlink ref="K4" r:id="rId326"/>
-    <hyperlink ref="K5" r:id="rId327"/>
-    <hyperlink ref="K6" r:id="rId328"/>
-    <hyperlink ref="K7" r:id="rId329"/>
-    <hyperlink ref="K8" r:id="rId330"/>
-    <hyperlink ref="K9" r:id="rId331"/>
-    <hyperlink ref="K10" r:id="rId332"/>
-    <hyperlink ref="K11" r:id="rId333"/>
-    <hyperlink ref="K12" r:id="rId334"/>
-    <hyperlink ref="K13" r:id="rId335"/>
-    <hyperlink ref="K14" r:id="rId336"/>
-    <hyperlink ref="K15" r:id="rId337"/>
-    <hyperlink ref="K16" r:id="rId338"/>
-    <hyperlink ref="K17" r:id="rId339"/>
-    <hyperlink ref="K18" r:id="rId340"/>
-    <hyperlink ref="K19" r:id="rId341"/>
+    <hyperlink ref="K2" r:id="rId341"/>
+    <hyperlink ref="K3" r:id="rId342"/>
+    <hyperlink ref="K4" r:id="rId343"/>
+    <hyperlink ref="K5" r:id="rId344"/>
+    <hyperlink ref="K6" r:id="rId345"/>
+    <hyperlink ref="K7" r:id="rId346"/>
+    <hyperlink ref="K8" r:id="rId347"/>
+    <hyperlink ref="K9" r:id="rId348"/>
+    <hyperlink ref="K10" r:id="rId349"/>
+    <hyperlink ref="K11" r:id="rId350"/>
+    <hyperlink ref="K12" r:id="rId351"/>
+    <hyperlink ref="K13" r:id="rId352"/>
+    <hyperlink ref="K14" r:id="rId353"/>
+    <hyperlink ref="K15" r:id="rId354"/>
+    <hyperlink ref="K16" r:id="rId355"/>
+    <hyperlink ref="K17" r:id="rId356"/>
+    <hyperlink ref="K18" r:id="rId357"/>
+    <hyperlink ref="K19" r:id="rId358"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -1602,6 +1605,651 @@
         <v>560</v>
       </c>
       <c r="K19" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId188"/>
+    <hyperlink ref="K3" r:id="rId189"/>
+    <hyperlink ref="K4" r:id="rId190"/>
+    <hyperlink ref="K5" r:id="rId191"/>
+    <hyperlink ref="K6" r:id="rId192"/>
+    <hyperlink ref="K7" r:id="rId193"/>
+    <hyperlink ref="K8" r:id="rId194"/>
+    <hyperlink ref="K9" r:id="rId195"/>
+    <hyperlink ref="K10" r:id="rId196"/>
+    <hyperlink ref="K11" r:id="rId197"/>
+    <hyperlink ref="K12" r:id="rId198"/>
+    <hyperlink ref="K13" r:id="rId199"/>
+    <hyperlink ref="K14" r:id="rId200"/>
+    <hyperlink ref="K15" r:id="rId201"/>
+    <hyperlink ref="K16" r:id="rId202"/>
+    <hyperlink ref="K17" r:id="rId203"/>
+    <hyperlink ref="K18" r:id="rId204"/>
+    <hyperlink ref="K19" r:id="rId205"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70985</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>127071</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4282</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45089</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1551</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35762</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1171</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32249</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1377</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48275</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1245</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33682</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1197</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>642</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19805</v>
+      </c>
+      <c r="G9" s="0">
+        <v>405</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>746</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28535</v>
+      </c>
+      <c r="G10" s="0">
+        <v>702</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29935</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17829</v>
+      </c>
+      <c r="G12" s="0">
+        <v>469</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>509</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22582</v>
+      </c>
+      <c r="G13" s="0">
+        <v>501</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>584</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>17039</v>
+      </c>
+      <c r="G14" s="0">
+        <v>239</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31625</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1003</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>495</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25488</v>
+      </c>
+      <c r="G16" s="0">
+        <v>790</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>658</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>15097</v>
+      </c>
+      <c r="G17" s="0">
+        <v>373</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>425</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>14116</v>
+      </c>
+      <c r="G18" s="0">
+        <v>385</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>224</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>15071</v>
+      </c>
+      <c r="G19" s="0">
+        <v>315</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>560</v>
+      </c>
+      <c r="K19" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1631,7 +2279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -1691,7 +2339,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70985</v>
+        <v>70987</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -1702,7 +2350,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1723,7 +2371,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127071</v>
+        <v>127082</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -1734,7 +2382,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1755,7 +2403,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="G4" s="0">
         <v>1551</v>
@@ -1766,7 +2414,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1787,7 +2435,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35762</v>
+        <v>35767</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -1798,7 +2446,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1819,7 +2467,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32249</v>
+        <v>32250</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -1830,7 +2478,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1851,10 +2499,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48275</v>
+        <v>48282</v>
       </c>
       <c r="G7" s="0">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1862,7 +2510,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1883,7 +2531,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33682</v>
+        <v>33691</v>
       </c>
       <c r="G8" s="0">
         <v>1197</v>
@@ -1894,7 +2542,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1915,7 +2563,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19805</v>
+        <v>19811</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -1926,7 +2574,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1958,7 +2606,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1979,7 +2627,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29935</v>
+        <v>29939</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -1990,7 +2638,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2011,7 +2659,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17829</v>
+        <v>17835</v>
       </c>
       <c r="G12" s="0">
         <v>469</v>
@@ -2020,9 +2668,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>509</v>
-      </c>
-      <c r="K12" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2043,7 +2691,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22582</v>
+        <v>22607</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -2054,7 +2702,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2075,7 +2723,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17039</v>
+        <v>17048</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -2086,7 +2734,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2107,7 +2755,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31625</v>
+        <v>31633</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -2118,7 +2766,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="12" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2139,18 +2787,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25488</v>
+        <v>25526</v>
       </c>
       <c r="G16" s="0">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>658</v>
-      </c>
-      <c r="K16" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2171,18 +2819,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15097</v>
+        <v>15147</v>
       </c>
       <c r="G17" s="0">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>425</v>
-      </c>
-      <c r="K17" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2203,10 +2851,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14116</v>
+        <v>14132</v>
       </c>
       <c r="G18" s="0">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -2214,7 +2862,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2235,18 +2883,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15071</v>
+        <v>15100</v>
       </c>
       <c r="G19" s="0">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2276,7 +2924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2336,7 +2984,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70987</v>
+        <v>70988</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2347,7 +2995,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2368,7 +3016,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127082</v>
+        <v>127094</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -2379,7 +3027,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2400,7 +3048,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45092</v>
+        <v>45095</v>
       </c>
       <c r="G4" s="0">
         <v>1551</v>
@@ -2411,7 +3059,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2432,7 +3080,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35767</v>
+        <v>35771</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -2443,7 +3091,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2464,7 +3112,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32250</v>
+        <v>32253</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -2475,7 +3123,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2496,7 +3144,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48282</v>
+        <v>48290</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -2507,7 +3155,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2528,7 +3176,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33691</v>
+        <v>33700</v>
       </c>
       <c r="G8" s="0">
         <v>1197</v>
@@ -2539,7 +3187,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2560,7 +3208,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19811</v>
+        <v>19815</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -2569,9 +3217,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>746</v>
-      </c>
-      <c r="K9" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2592,7 +3240,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28535</v>
+        <v>28539</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -2603,7 +3251,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2624,7 +3272,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29939</v>
+        <v>29951</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -2635,7 +3283,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2656,10 +3304,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17835</v>
+        <v>17838</v>
       </c>
       <c r="G12" s="0">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -2667,7 +3315,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2688,7 +3336,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22607</v>
+        <v>22643</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -2699,7 +3347,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="13" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2720,7 +3368,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17048</v>
+        <v>17055</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -2729,9 +3377,9 @@
         <v>0</v>
       </c>
       <c r="J14" s="0">
-        <v>113</v>
-      </c>
-      <c r="K14" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2752,7 +3400,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31633</v>
+        <v>31646</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -2761,9 +3409,9 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>495</v>
-      </c>
-      <c r="K15" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="K15" s="13" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2784,18 +3432,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25526</v>
+        <v>25565</v>
       </c>
       <c r="G16" s="0">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>661</v>
-      </c>
-      <c r="K16" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="K16" s="13" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2816,10 +3464,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15147</v>
+        <v>15193</v>
       </c>
       <c r="G17" s="0">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -2827,7 +3475,7 @@
       <c r="J17" s="0">
         <v>428</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2848,7 +3496,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14132</v>
+        <v>14164</v>
       </c>
       <c r="G18" s="0">
         <v>386</v>
@@ -2859,7 +3507,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2880,18 +3528,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15100</v>
+        <v>15147</v>
       </c>
       <c r="G19" s="0">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>561</v>
-      </c>
-      <c r="K19" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="K19" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2921,7 +3569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2981,7 +3629,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70988</v>
+        <v>70996</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2992,7 +3640,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3013,7 +3661,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127094</v>
+        <v>127104</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -3024,7 +3672,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3048,7 +3696,7 @@
         <v>45095</v>
       </c>
       <c r="G4" s="0">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I4" s="0">
         <v>0</v>
@@ -3056,7 +3704,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3088,7 +3736,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="14" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3109,7 +3757,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32253</v>
+        <v>32255</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -3120,7 +3768,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3141,7 +3789,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48290</v>
+        <v>48297</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -3150,9 +3798,9 @@
         <v>0</v>
       </c>
       <c r="J7" s="0">
-        <v>1172</v>
-      </c>
-      <c r="K7" s="13" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3173,10 +3821,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33700</v>
+        <v>33704</v>
       </c>
       <c r="G8" s="0">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -3184,7 +3832,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3205,10 +3853,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19815</v>
+        <v>19818</v>
       </c>
       <c r="G9" s="0">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -3216,7 +3864,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3237,7 +3885,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28539</v>
+        <v>28542</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -3248,7 +3896,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3269,7 +3917,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29951</v>
+        <v>29953</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3280,7 +3928,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3301,7 +3949,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17838</v>
+        <v>17840</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3312,7 +3960,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="14" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3333,7 +3981,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22643</v>
+        <v>22675</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -3344,7 +3992,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3365,7 +4013,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17055</v>
+        <v>17067</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -3376,7 +4024,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3397,7 +4045,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31646</v>
+        <v>31653</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -3408,7 +4056,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="14" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3429,18 +4077,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25565</v>
+        <v>25607</v>
       </c>
       <c r="G16" s="0">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>659</v>
-      </c>
-      <c r="K16" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="K16" s="14" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3461,18 +4109,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15193</v>
+        <v>15235</v>
       </c>
       <c r="G17" s="0">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>428</v>
-      </c>
-      <c r="K17" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="K17" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3493,10 +4141,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14164</v>
+        <v>14189</v>
       </c>
       <c r="G18" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -3504,7 +4152,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3525,7 +4173,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15147</v>
+        <v>15168</v>
       </c>
       <c r="G19" s="0">
         <v>317</v>
@@ -3534,9 +4182,9 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>563</v>
-      </c>
-      <c r="K19" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="K19" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3566,7 +4214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -3626,7 +4274,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70996</v>
+        <v>71000</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -3637,7 +4285,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3658,7 +4306,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127104</v>
+        <v>127115</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -3669,7 +4317,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3701,7 +4349,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3722,10 +4370,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35771</v>
+        <v>35774</v>
       </c>
       <c r="G5" s="0">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -3733,7 +4381,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3757,7 +4405,7 @@
         <v>32255</v>
       </c>
       <c r="G6" s="0">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -3765,7 +4413,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3786,10 +4434,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48297</v>
+        <v>48302</v>
       </c>
       <c r="G7" s="0">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -3797,7 +4445,7 @@
       <c r="J7" s="0">
         <v>1173</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="15" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3818,7 +4466,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33704</v>
+        <v>33706</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -3829,7 +4477,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3850,10 +4498,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19818</v>
+        <v>19821</v>
       </c>
       <c r="G9" s="0">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -3861,7 +4509,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="15" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3882,7 +4530,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28542</v>
+        <v>28543</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -3893,7 +4541,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3914,7 +4562,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29953</v>
+        <v>29954</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3925,7 +4573,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3946,7 +4594,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17840</v>
+        <v>17841</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3957,7 +4605,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="15" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3978,7 +4626,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22675</v>
+        <v>22705</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -3989,7 +4637,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="15" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4010,10 +4658,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17067</v>
+        <v>17075</v>
       </c>
       <c r="G14" s="0">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -4021,7 +4669,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="15" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4042,7 +4690,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31653</v>
+        <v>31662</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -4053,7 +4701,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="15" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4074,18 +4722,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25607</v>
+        <v>25651</v>
       </c>
       <c r="G16" s="0">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>660</v>
-      </c>
-      <c r="K16" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="K16" s="15" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4106,10 +4754,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15235</v>
+        <v>15269</v>
       </c>
       <c r="G17" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -4117,7 +4765,7 @@
       <c r="J17" s="0">
         <v>429</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="15" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4138,7 +4786,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14189</v>
+        <v>14211</v>
       </c>
       <c r="G18" s="0">
         <v>388</v>
@@ -4149,7 +4797,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="15" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4170,18 +4818,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15168</v>
+        <v>15205</v>
       </c>
       <c r="G19" s="0">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>565</v>
-      </c>
-      <c r="K19" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="K19" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4211,7 +4859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -4271,7 +4919,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>71000</v>
+        <v>71009</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -4282,7 +4930,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4303,10 +4951,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127115</v>
+        <v>127122</v>
       </c>
       <c r="G3" s="0">
-        <v>4282</v>
+        <v>4283</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -4314,7 +4962,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4335,7 +4983,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -4346,7 +4994,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4367,7 +5015,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35774</v>
+        <v>35775</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -4378,7 +5026,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4410,7 +5058,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4431,7 +5079,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48302</v>
+        <v>48304</v>
       </c>
       <c r="G7" s="0">
         <v>1248</v>
@@ -4442,7 +5090,7 @@
       <c r="J7" s="0">
         <v>1173</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4463,7 +5111,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33706</v>
+        <v>33708</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -4474,7 +5122,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="16" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4495,7 +5143,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19821</v>
+        <v>19823</v>
       </c>
       <c r="G9" s="0">
         <v>407</v>
@@ -4506,7 +5154,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4527,7 +5175,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28543</v>
+        <v>28545</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -4538,7 +5186,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="16" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4559,7 +5207,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29954</v>
+        <v>29959</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -4570,7 +5218,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4591,10 +5239,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17841</v>
+        <v>17842</v>
       </c>
       <c r="G12" s="0">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -4602,7 +5250,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="16" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4623,10 +5271,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22705</v>
+        <v>22734</v>
       </c>
       <c r="G13" s="0">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -4634,7 +5282,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="16" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4655,7 +5303,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17075</v>
+        <v>17089</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -4666,7 +5314,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="16" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4687,10 +5335,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31662</v>
+        <v>31674</v>
       </c>
       <c r="G15" s="0">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -4698,7 +5346,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="16" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4719,10 +5367,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25651</v>
+        <v>25699</v>
       </c>
       <c r="G16" s="0">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -4730,7 +5378,7 @@
       <c r="J16" s="0">
         <v>657</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="16" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4751,18 +5399,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15269</v>
+        <v>15302</v>
       </c>
       <c r="G17" s="0">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>429</v>
-      </c>
-      <c r="K17" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="K17" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4783,7 +5431,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14211</v>
+        <v>14226</v>
       </c>
       <c r="G18" s="0">
         <v>388</v>
@@ -4794,7 +5442,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="16" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4815,18 +5463,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15205</v>
+        <v>15242</v>
       </c>
       <c r="G19" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>564</v>
-      </c>
-      <c r="K19" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="K19" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4856,7 +5504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -4916,7 +5564,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>71009</v>
+        <v>71019</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -4927,7 +5575,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4948,7 +5596,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127122</v>
+        <v>127133</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -4957,9 +5605,9 @@
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2834</v>
-      </c>
-      <c r="K3" s="16" t="s">
+        <v>2832</v>
+      </c>
+      <c r="K3" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4980,7 +5628,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45096</v>
+        <v>45101</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -4991,7 +5639,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="17" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5012,7 +5660,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35775</v>
+        <v>35774</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -5023,7 +5671,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5044,7 +5692,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32255</v>
+        <v>32257</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -5055,7 +5703,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="17" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5076,7 +5724,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48304</v>
+        <v>48307</v>
       </c>
       <c r="G7" s="0">
         <v>1248</v>
@@ -5087,7 +5735,7 @@
       <c r="J7" s="0">
         <v>1173</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="17" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5108,7 +5756,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33708</v>
+        <v>33714</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -5119,7 +5767,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="17" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5140,7 +5788,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19823</v>
+        <v>19828</v>
       </c>
       <c r="G9" s="0">
         <v>407</v>
@@ -5151,7 +5799,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="17" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5172,7 +5820,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28545</v>
+        <v>28549</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -5183,7 +5831,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="17" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5204,7 +5852,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29959</v>
+        <v>29962</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -5215,7 +5863,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="17" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5236,7 +5884,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17842</v>
+        <v>17854</v>
       </c>
       <c r="G12" s="0">
         <v>471</v>
@@ -5247,7 +5895,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5268,10 +5916,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22734</v>
+        <v>22761</v>
       </c>
       <c r="G13" s="0">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -5279,7 +5927,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="17" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5300,7 +5948,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17089</v>
+        <v>17102</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -5311,7 +5959,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="17" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5332,7 +5980,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31674</v>
+        <v>31684</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -5343,7 +5991,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5364,7 +6012,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25699</v>
+        <v>25764</v>
       </c>
       <c r="G16" s="0">
         <v>796</v>
@@ -5373,9 +6021,9 @@
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>657</v>
-      </c>
-      <c r="K16" s="16" t="s">
+        <v>656</v>
+      </c>
+      <c r="K16" s="17" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5396,10 +6044,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15302</v>
+        <v>15358</v>
       </c>
       <c r="G17" s="0">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -5407,7 +6055,7 @@
       <c r="J17" s="0">
         <v>430</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5428,10 +6076,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14226</v>
+        <v>14245</v>
       </c>
       <c r="G18" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -5439,7 +6087,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="17" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5460,7 +6108,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15242</v>
+        <v>15283</v>
       </c>
       <c r="G19" s="0">
         <v>319</v>
@@ -5471,7 +6119,7 @@
       <c r="J19" s="0">
         <v>565</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="17" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5501,7 +6149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -5561,7 +6209,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>71019</v>
+        <v>71022</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -5572,7 +6220,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5593,7 +6241,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127133</v>
+        <v>127140</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -5604,7 +6252,7 @@
       <c r="J3" s="0">
         <v>2832</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="18" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5625,7 +6273,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -5636,7 +6284,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5657,7 +6305,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35774</v>
+        <v>35775</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -5668,7 +6316,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="18" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5689,7 +6337,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32257</v>
+        <v>32258</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -5700,7 +6348,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5721,18 +6369,18 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48307</v>
+        <v>48316</v>
       </c>
       <c r="G7" s="0">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
       </c>
       <c r="J7" s="0">
-        <v>1173</v>
-      </c>
-      <c r="K7" s="17" t="s">
+        <v>1170</v>
+      </c>
+      <c r="K7" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5753,10 +6401,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33714</v>
+        <v>33717</v>
       </c>
       <c r="G8" s="0">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -5764,7 +6412,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="18" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5785,7 +6433,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19828</v>
+        <v>19830</v>
       </c>
       <c r="G9" s="0">
         <v>407</v>
@@ -5794,9 +6442,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>747</v>
-      </c>
-      <c r="K9" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="K9" s="18" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5817,7 +6465,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28549</v>
+        <v>28552</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -5826,9 +6474,9 @@
         <v>0</v>
       </c>
       <c r="J10" s="0">
-        <v>562</v>
-      </c>
-      <c r="K10" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="K10" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5849,7 +6497,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29962</v>
+        <v>29969</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -5860,7 +6508,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5881,7 +6529,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17854</v>
+        <v>17861</v>
       </c>
       <c r="G12" s="0">
         <v>471</v>
@@ -5892,7 +6540,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="18" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5913,7 +6561,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22761</v>
+        <v>22767</v>
       </c>
       <c r="G13" s="0">
         <v>504</v>
@@ -5924,7 +6572,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="18" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5945,7 +6593,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17102</v>
+        <v>17107</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -5956,7 +6604,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="18" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5977,7 +6625,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31684</v>
+        <v>31699</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -5988,7 +6636,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="18" t="s">
         <v>59</v>
       </c>
     </row>
@@ -6009,18 +6657,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25764</v>
+        <v>25805</v>
       </c>
       <c r="G16" s="0">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>656</v>
-      </c>
-      <c r="K16" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="K16" s="18" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6041,10 +6689,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15358</v>
+        <v>15404</v>
       </c>
       <c r="G17" s="0">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -6052,7 +6700,7 @@
       <c r="J17" s="0">
         <v>430</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="18" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6073,7 +6721,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14245</v>
+        <v>14269</v>
       </c>
       <c r="G18" s="0">
         <v>390</v>
@@ -6084,7 +6732,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="18" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6105,7 +6753,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15283</v>
+        <v>15309</v>
       </c>
       <c r="G19" s="0">
         <v>319</v>
@@ -6116,7 +6764,7 @@
       <c r="J19" s="0">
         <v>565</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K19" s="18" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6146,7 +6794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -6206,7 +6854,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>71022</v>
+        <v>71024</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -6217,7 +6865,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6238,7 +6886,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127140</v>
+        <v>127147</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -6249,7 +6897,7 @@
       <c r="J3" s="0">
         <v>2832</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6270,7 +6918,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -6281,7 +6929,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="19" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6302,7 +6950,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35775</v>
+        <v>35776</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -6313,7 +6961,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="19" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6334,7 +6982,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32258</v>
+        <v>32260</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -6345,7 +6993,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6366,7 +7014,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48316</v>
+        <v>48321</v>
       </c>
       <c r="G7" s="0">
         <v>1249</v>
@@ -6377,7 +7025,7 @@
       <c r="J7" s="0">
         <v>1170</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -6398,7 +7046,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33717</v>
+        <v>33721</v>
       </c>
       <c r="G8" s="0">
         <v>1197</v>
@@ -6409,7 +7057,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="19" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6430,7 +7078,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19830</v>
+        <v>19832</v>
       </c>
       <c r="G9" s="0">
         <v>407</v>
@@ -6441,7 +7089,7 @@
       <c r="J9" s="0">
         <v>748</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="19" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6462,7 +7110,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28552</v>
+        <v>28551</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -6473,7 +7121,7 @@
       <c r="J10" s="0">
         <v>561</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="19" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6494,7 +7142,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29969</v>
+        <v>29974</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -6505,7 +7153,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="19" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6526,7 +7174,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17861</v>
+        <v>17868</v>
       </c>
       <c r="G12" s="0">
         <v>471</v>
@@ -6537,7 +7185,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="19" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6558,10 +7206,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22767</v>
+        <v>22794</v>
       </c>
       <c r="G13" s="0">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -6569,7 +7217,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="19" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6590,7 +7238,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17107</v>
+        <v>17114</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -6601,7 +7249,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="19" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6622,10 +7270,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31699</v>
+        <v>31721</v>
       </c>
       <c r="G15" s="0">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -6633,7 +7281,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="19" t="s">
         <v>59</v>
       </c>
     </row>
@@ -6654,18 +7302,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25805</v>
+        <v>25855</v>
       </c>
       <c r="G16" s="0">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>657</v>
-      </c>
-      <c r="K16" s="18" t="s">
+        <v>661</v>
+      </c>
+      <c r="K16" s="19" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6686,18 +7334,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15404</v>
+        <v>15442</v>
       </c>
       <c r="G17" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>430</v>
-      </c>
-      <c r="K17" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="K17" s="19" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6718,7 +7366,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14269</v>
+        <v>14287</v>
       </c>
       <c r="G18" s="0">
         <v>390</v>
@@ -6729,7 +7377,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="19" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6750,7 +7398,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15309</v>
+        <v>15352</v>
       </c>
       <c r="G19" s="0">
         <v>319</v>
@@ -6761,7 +7409,7 @@
       <c r="J19" s="0">
         <v>565</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="19" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6791,7 +7439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -6851,7 +7499,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>71024</v>
+        <v>70949</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -6862,7 +7510,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6883,7 +7531,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127147</v>
+        <v>126968</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -6892,9 +7540,9 @@
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2832</v>
-      </c>
-      <c r="K3" s="19" t="s">
+        <v>2831</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6915,10 +7563,10 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45103</v>
+        <v>45069</v>
       </c>
       <c r="G4" s="0">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="I4" s="0">
         <v>0</v>
@@ -6926,7 +7574,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6947,7 +7595,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35776</v>
+        <v>35742</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -6958,7 +7606,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6979,10 +7627,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32260</v>
+        <v>32222</v>
       </c>
       <c r="G6" s="0">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -6990,7 +7638,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7011,18 +7659,18 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48321</v>
+        <v>48208</v>
       </c>
       <c r="G7" s="0">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
       </c>
       <c r="J7" s="0">
-        <v>1170</v>
-      </c>
-      <c r="K7" s="19" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7043,18 +7691,18 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33721</v>
+        <v>33614</v>
       </c>
       <c r="G8" s="0">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>642</v>
-      </c>
-      <c r="K8" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7075,18 +7723,18 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19832</v>
+        <v>19788</v>
       </c>
       <c r="G9" s="0">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>748</v>
-      </c>
-      <c r="K9" s="19" t="s">
+        <v>747</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7107,18 +7755,18 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28551</v>
+        <v>28513</v>
       </c>
       <c r="G10" s="0">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
       </c>
       <c r="J10" s="0">
-        <v>561</v>
-      </c>
-      <c r="K10" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7139,7 +7787,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29974</v>
+        <v>29879</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -7150,7 +7798,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7171,18 +7819,18 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17868</v>
+        <v>17777</v>
       </c>
       <c r="G12" s="0">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>506</v>
-      </c>
-      <c r="K12" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7203,18 +7851,18 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22794</v>
+        <v>22333</v>
       </c>
       <c r="G13" s="0">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>584</v>
-      </c>
-      <c r="K13" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7235,18 +7883,18 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17114</v>
+        <v>16952</v>
       </c>
       <c r="G14" s="0">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
       </c>
       <c r="J14" s="0">
-        <v>112</v>
-      </c>
-      <c r="K14" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7267,18 +7915,18 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31721</v>
+        <v>31478</v>
       </c>
       <c r="G15" s="0">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>496</v>
-      </c>
-      <c r="K15" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7299,18 +7947,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25855</v>
+        <v>25061</v>
       </c>
       <c r="G16" s="0">
-        <v>799</v>
+        <v>778</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>661</v>
-      </c>
-      <c r="K16" s="19" t="s">
+        <v>653</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7331,18 +7979,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15442</v>
+        <v>14695</v>
       </c>
       <c r="G17" s="0">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>432</v>
-      </c>
-      <c r="K17" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7363,18 +8011,18 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14287</v>
+        <v>13918</v>
       </c>
       <c r="G18" s="0">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
       </c>
       <c r="J18" s="0">
-        <v>224</v>
-      </c>
-      <c r="K18" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7395,10 +8043,655 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15352</v>
+        <v>14673</v>
       </c>
       <c r="G19" s="0">
-        <v>319</v>
+        <v>310</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>559</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId324"/>
+    <hyperlink ref="K3" r:id="rId325"/>
+    <hyperlink ref="K4" r:id="rId326"/>
+    <hyperlink ref="K5" r:id="rId327"/>
+    <hyperlink ref="K6" r:id="rId328"/>
+    <hyperlink ref="K7" r:id="rId329"/>
+    <hyperlink ref="K8" r:id="rId330"/>
+    <hyperlink ref="K9" r:id="rId331"/>
+    <hyperlink ref="K10" r:id="rId332"/>
+    <hyperlink ref="K11" r:id="rId333"/>
+    <hyperlink ref="K12" r:id="rId334"/>
+    <hyperlink ref="K13" r:id="rId335"/>
+    <hyperlink ref="K14" r:id="rId336"/>
+    <hyperlink ref="K15" r:id="rId337"/>
+    <hyperlink ref="K16" r:id="rId338"/>
+    <hyperlink ref="K17" r:id="rId339"/>
+    <hyperlink ref="K18" r:id="rId340"/>
+    <hyperlink ref="K19" r:id="rId341"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>71024</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>127159</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4284</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2832</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45105</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1550</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35777</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1173</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32261</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1376</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48327</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1249</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1170</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33732</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1198</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>644</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19832</v>
+      </c>
+      <c r="G9" s="0">
+        <v>407</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>748</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28551</v>
+      </c>
+      <c r="G10" s="0">
+        <v>702</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>561</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29978</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17870</v>
+      </c>
+      <c r="G12" s="0">
+        <v>471</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>506</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22822</v>
+      </c>
+      <c r="G13" s="0">
+        <v>507</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>584</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>17130</v>
+      </c>
+      <c r="G14" s="0">
+        <v>240</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>112</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31734</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1006</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>497</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25894</v>
+      </c>
+      <c r="G16" s="0">
+        <v>800</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>661</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>15475</v>
+      </c>
+      <c r="G17" s="0">
+        <v>383</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>432</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>14308</v>
+      </c>
+      <c r="G18" s="0">
+        <v>391</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>224</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>15381</v>
+      </c>
+      <c r="G19" s="0">
+        <v>320</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -7406,7 +8699,7 @@
       <c r="J19" s="0">
         <v>565</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="20" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7436,7 +8729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -7496,7 +8789,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70949</v>
+        <v>71029</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -7507,7 +8800,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="21" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7528,18 +8821,18 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126968</v>
+        <v>127165</v>
       </c>
       <c r="G3" s="0">
-        <v>4283</v>
+        <v>4285</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2831</v>
-      </c>
-      <c r="K3" s="2" t="s">
+        <v>2832</v>
+      </c>
+      <c r="K3" s="21" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7560,10 +8853,10 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45069</v>
+        <v>45107</v>
       </c>
       <c r="G4" s="0">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I4" s="0">
         <v>0</v>
@@ -7571,7 +8864,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="21" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7592,10 +8885,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35742</v>
+        <v>35776</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -7603,7 +8896,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="21" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7624,10 +8917,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32222</v>
+        <v>32262</v>
       </c>
       <c r="G6" s="0">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -7635,7 +8928,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7656,18 +8949,18 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48208</v>
+        <v>48334</v>
       </c>
       <c r="G7" s="0">
-        <v>1245</v>
+        <v>1249</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
       </c>
       <c r="J7" s="0">
-        <v>1172</v>
-      </c>
-      <c r="K7" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="K7" s="21" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7688,18 +8981,18 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33614</v>
+        <v>33734</v>
       </c>
       <c r="G8" s="0">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>641</v>
-      </c>
-      <c r="K8" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="K8" s="21" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7720,18 +9013,18 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19788</v>
+        <v>19833</v>
       </c>
       <c r="G9" s="0">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>747</v>
-      </c>
-      <c r="K9" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="K9" s="21" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7752,18 +9045,18 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28513</v>
+        <v>28556</v>
       </c>
       <c r="G10" s="0">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
       </c>
       <c r="J10" s="0">
-        <v>562</v>
-      </c>
-      <c r="K10" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="K10" s="21" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7784,7 +9077,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29879</v>
+        <v>29979</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -7795,7 +9088,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="21" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7816,18 +9109,18 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17777</v>
+        <v>17874</v>
       </c>
       <c r="G12" s="0">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>520</v>
-      </c>
-      <c r="K12" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="K12" s="21" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7848,18 +9141,18 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22333</v>
+        <v>22847</v>
       </c>
       <c r="G13" s="0">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>581</v>
-      </c>
-      <c r="K13" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="K13" s="21" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7880,18 +9173,18 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16952</v>
+        <v>17137</v>
       </c>
       <c r="G14" s="0">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
       </c>
       <c r="J14" s="0">
-        <v>113</v>
-      </c>
-      <c r="K14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="21" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7912,10 +9205,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31478</v>
+        <v>31749</v>
       </c>
       <c r="G15" s="0">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -7923,7 +9216,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="21" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7944,18 +9237,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25061</v>
+        <v>25927</v>
       </c>
       <c r="G16" s="0">
-        <v>778</v>
+        <v>803</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>653</v>
-      </c>
-      <c r="K16" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="K16" s="21" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7976,18 +9269,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14695</v>
+        <v>15516</v>
       </c>
       <c r="G17" s="0">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>419</v>
-      </c>
-      <c r="K17" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="K17" s="21" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8008,18 +9301,18 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13918</v>
+        <v>14333</v>
       </c>
       <c r="G18" s="0">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
       </c>
       <c r="J18" s="0">
-        <v>223</v>
-      </c>
-      <c r="K18" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K18" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8040,655 +9333,10 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14673</v>
+        <v>15417</v>
       </c>
       <c r="G19" s="0">
-        <v>310</v>
-      </c>
-      <c r="I19" s="0">
-        <v>0</v>
-      </c>
-      <c r="J19" s="0">
-        <v>559</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K19"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId307"/>
-    <hyperlink ref="K3" r:id="rId308"/>
-    <hyperlink ref="K4" r:id="rId309"/>
-    <hyperlink ref="K5" r:id="rId310"/>
-    <hyperlink ref="K6" r:id="rId311"/>
-    <hyperlink ref="K7" r:id="rId312"/>
-    <hyperlink ref="K8" r:id="rId313"/>
-    <hyperlink ref="K9" r:id="rId314"/>
-    <hyperlink ref="K10" r:id="rId315"/>
-    <hyperlink ref="K11" r:id="rId316"/>
-    <hyperlink ref="K12" r:id="rId317"/>
-    <hyperlink ref="K13" r:id="rId318"/>
-    <hyperlink ref="K14" r:id="rId319"/>
-    <hyperlink ref="K15" r:id="rId320"/>
-    <hyperlink ref="K16" r:id="rId321"/>
-    <hyperlink ref="K17" r:id="rId322"/>
-    <hyperlink ref="K18" r:id="rId323"/>
-    <hyperlink ref="K19" r:id="rId324"/>
-  </hyperlinks>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2018</v>
-      </c>
-      <c r="C2" s="0">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
-        <v>71024</v>
-      </c>
-      <c r="G2" s="0">
-        <v>1790</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>1214</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2018</v>
-      </c>
-      <c r="C3" s="0">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="0">
-        <v>127159</v>
-      </c>
-      <c r="G3" s="0">
-        <v>4284</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>2832</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="0">
-        <v>4</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="0">
-        <v>45105</v>
-      </c>
-      <c r="G4" s="0">
-        <v>1550</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
-        <v>1022</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="0">
-        <v>8</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="0">
-        <v>35777</v>
-      </c>
-      <c r="G5" s="0">
-        <v>1173</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
-        <v>834</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="0">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="0">
-        <v>32261</v>
-      </c>
-      <c r="G6" s="0">
-        <v>1376</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
-        <v>472</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="0">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="0">
-        <v>48327</v>
-      </c>
-      <c r="G7" s="0">
-        <v>1249</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>1170</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C8" s="0">
-        <v>5</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="0">
-        <v>33732</v>
-      </c>
-      <c r="G8" s="0">
-        <v>1198</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>644</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C9" s="0">
-        <v>5</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="0">
-        <v>19832</v>
-      </c>
-      <c r="G9" s="0">
-        <v>407</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>748</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C10" s="0">
-        <v>5</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="0">
-        <v>28551</v>
-      </c>
-      <c r="G10" s="0">
-        <v>702</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>561</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="0">
-        <v>10</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="0">
-        <v>29978</v>
-      </c>
-      <c r="G11" s="0">
-        <v>621</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>1955</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2022</v>
-      </c>
-      <c r="C12" s="0">
-        <v>10</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="0">
-        <v>17870</v>
-      </c>
-      <c r="G12" s="0">
-        <v>471</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>506</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2022</v>
-      </c>
-      <c r="C13" s="0">
-        <v>11</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="0">
-        <v>22822</v>
-      </c>
-      <c r="G13" s="0">
-        <v>507</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>584</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C14" s="0">
-        <v>3</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="0">
-        <v>17130</v>
-      </c>
-      <c r="G14" s="0">
-        <v>240</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>112</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C15" s="0">
-        <v>3</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="0">
-        <v>31734</v>
-      </c>
-      <c r="G15" s="0">
-        <v>1006</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>497</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C16" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="0">
-        <v>25894</v>
-      </c>
-      <c r="G16" s="0">
-        <v>800</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>661</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="0">
-        <v>15475</v>
-      </c>
-      <c r="G17" s="0">
-        <v>383</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>432</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C18" s="0">
-        <v>9</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="0">
-        <v>14308</v>
-      </c>
-      <c r="G18" s="0">
-        <v>391</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>224</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C19" s="0">
-        <v>10</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="0">
-        <v>15381</v>
-      </c>
-      <c r="G19" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -8696,7 +9344,7 @@
       <c r="J19" s="0">
         <v>565</v>
       </c>
-      <c r="K19" s="20" t="s">
+      <c r="K19" s="21" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9348,6 +9996,651 @@
   </sheetData>
   <autoFilter ref="A1:K19"/>
   <hyperlinks>
+    <hyperlink ref="K2" r:id="rId307"/>
+    <hyperlink ref="K3" r:id="rId308"/>
+    <hyperlink ref="K4" r:id="rId309"/>
+    <hyperlink ref="K5" r:id="rId310"/>
+    <hyperlink ref="K6" r:id="rId311"/>
+    <hyperlink ref="K7" r:id="rId312"/>
+    <hyperlink ref="K8" r:id="rId313"/>
+    <hyperlink ref="K9" r:id="rId314"/>
+    <hyperlink ref="K10" r:id="rId315"/>
+    <hyperlink ref="K11" r:id="rId316"/>
+    <hyperlink ref="K12" r:id="rId317"/>
+    <hyperlink ref="K13" r:id="rId318"/>
+    <hyperlink ref="K14" r:id="rId319"/>
+    <hyperlink ref="K15" r:id="rId320"/>
+    <hyperlink ref="K16" r:id="rId321"/>
+    <hyperlink ref="K17" r:id="rId322"/>
+    <hyperlink ref="K18" r:id="rId323"/>
+    <hyperlink ref="K19" r:id="rId324"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70961</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>126997</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4283</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2833</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45075</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1550</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35746</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1172</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32222</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1377</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48233</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1246</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33626</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1194</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>641</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19797</v>
+      </c>
+      <c r="G9" s="0">
+        <v>406</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>747</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28517</v>
+      </c>
+      <c r="G10" s="0">
+        <v>701</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29888</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17786</v>
+      </c>
+      <c r="G12" s="0">
+        <v>470</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>509</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22381</v>
+      </c>
+      <c r="G13" s="0">
+        <v>500</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>581</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>16976</v>
+      </c>
+      <c r="G14" s="0">
+        <v>240</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31517</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1004</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>497</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25168</v>
+      </c>
+      <c r="G16" s="0">
+        <v>781</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>653</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>14774</v>
+      </c>
+      <c r="G17" s="0">
+        <v>370</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>420</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>13959</v>
+      </c>
+      <c r="G18" s="0">
+        <v>384</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>223</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>14768</v>
+      </c>
+      <c r="G19" s="0">
+        <v>312</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>559</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
     <hyperlink ref="K2" r:id="rId290"/>
     <hyperlink ref="K3" r:id="rId291"/>
     <hyperlink ref="K4" r:id="rId292"/>
@@ -9371,7 +10664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -9431,7 +10724,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70961</v>
+        <v>70965</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -9442,7 +10735,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9463,7 +10756,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126997</v>
+        <v>127005</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -9474,7 +10767,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9495,7 +10788,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -9506,7 +10799,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9527,10 +10820,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35746</v>
+        <v>35751</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -9538,7 +10831,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -9559,10 +10852,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32222</v>
+        <v>32227</v>
       </c>
       <c r="G6" s="0">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -9570,7 +10863,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -9591,7 +10884,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48233</v>
+        <v>48240</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -9602,7 +10895,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -9623,7 +10916,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33626</v>
+        <v>33629</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -9634,7 +10927,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -9655,10 +10948,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19797</v>
+        <v>19798</v>
       </c>
       <c r="G9" s="0">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -9666,7 +10959,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -9687,7 +10980,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28517</v>
+        <v>28521</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -9698,7 +10991,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9719,7 +11012,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29888</v>
+        <v>29895</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -9730,7 +11023,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9751,7 +11044,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17786</v>
+        <v>17794</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -9762,7 +11055,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9783,7 +11076,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22381</v>
+        <v>22397</v>
       </c>
       <c r="G13" s="0">
         <v>500</v>
@@ -9794,7 +11087,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -9815,7 +11108,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16976</v>
+        <v>16984</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -9826,7 +11119,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9847,7 +11140,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31517</v>
+        <v>31533</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -9858,7 +11151,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9879,7 +11172,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25168</v>
+        <v>25214</v>
       </c>
       <c r="G16" s="0">
         <v>781</v>
@@ -9888,9 +11181,9 @@
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>653</v>
-      </c>
-      <c r="K16" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -9911,10 +11204,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14774</v>
+        <v>14825</v>
       </c>
       <c r="G17" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -9922,7 +11215,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9943,7 +11236,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13959</v>
+        <v>13991</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -9954,7 +11247,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9975,10 +11268,10 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14768</v>
+        <v>14813</v>
       </c>
       <c r="G19" s="0">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -9986,7 +11279,7 @@
       <c r="J19" s="0">
         <v>559</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -10016,7 +11309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -10076,7 +11369,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70965</v>
+        <v>70964</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -10087,7 +11380,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10108,18 +11401,18 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127005</v>
+        <v>127014</v>
       </c>
       <c r="G3" s="0">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2833</v>
-      </c>
-      <c r="K3" s="5" t="s">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10140,7 +11433,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45076</v>
+        <v>45079</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -10151,7 +11444,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10172,7 +11465,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35751</v>
+        <v>35753</v>
       </c>
       <c r="G5" s="0">
         <v>1173</v>
@@ -10183,7 +11476,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10204,7 +11497,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32227</v>
+        <v>32230</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -10215,7 +11508,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10236,7 +11529,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48240</v>
+        <v>48248</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -10247,7 +11540,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -10268,18 +11561,18 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33629</v>
+        <v>33636</v>
       </c>
       <c r="G8" s="0">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>641</v>
-      </c>
-      <c r="K8" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -10300,7 +11593,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19798</v>
+        <v>19799</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -10309,9 +11602,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>747</v>
-      </c>
-      <c r="K9" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10332,7 +11625,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28521</v>
+        <v>28526</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -10343,7 +11636,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -10364,7 +11657,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29895</v>
+        <v>29899</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -10375,7 +11668,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -10396,7 +11689,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17794</v>
+        <v>17802</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -10407,7 +11700,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10428,10 +11721,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22397</v>
+        <v>22422</v>
       </c>
       <c r="G13" s="0">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -10439,7 +11732,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -10460,7 +11753,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16984</v>
+        <v>16989</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -10471,7 +11764,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -10492,7 +11785,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31533</v>
+        <v>31541</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -10501,9 +11794,9 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>497</v>
-      </c>
-      <c r="K15" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10524,18 +11817,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25214</v>
+        <v>25265</v>
       </c>
       <c r="G16" s="0">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -10556,10 +11849,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14825</v>
+        <v>14874</v>
       </c>
       <c r="G17" s="0">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -10567,7 +11860,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -10588,10 +11881,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13991</v>
+        <v>14006</v>
       </c>
       <c r="G18" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -10599,7 +11892,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10620,7 +11913,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14813</v>
+        <v>14863</v>
       </c>
       <c r="G19" s="0">
         <v>313</v>
@@ -10629,9 +11922,9 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>559</v>
-      </c>
-      <c r="K19" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -10661,7 +11954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -10721,7 +12014,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70964</v>
+        <v>70969</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -10732,7 +12025,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10753,10 +12046,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127014</v>
+        <v>127035</v>
       </c>
       <c r="G3" s="0">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -10764,7 +12057,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10785,7 +12078,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -10796,7 +12089,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10820,7 +12113,7 @@
         <v>35753</v>
       </c>
       <c r="G5" s="0">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -10828,7 +12121,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10849,7 +12142,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32230</v>
+        <v>32243</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -10860,7 +12153,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10881,7 +12174,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48248</v>
+        <v>48258</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -10892,7 +12185,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -10913,7 +12206,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33636</v>
+        <v>33642</v>
       </c>
       <c r="G8" s="0">
         <v>1195</v>
@@ -10924,7 +12217,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -10945,7 +12238,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19799</v>
+        <v>19800</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -10956,7 +12249,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10977,7 +12270,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28526</v>
+        <v>28530</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -10988,7 +12281,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -11009,7 +12302,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29899</v>
+        <v>29904</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -11020,7 +12313,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -11041,7 +12334,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17802</v>
+        <v>17808</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -11052,7 +12345,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -11073,7 +12366,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22422</v>
+        <v>22454</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -11082,9 +12375,9 @@
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>581</v>
-      </c>
-      <c r="K13" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -11105,7 +12398,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16989</v>
+        <v>16999</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -11116,7 +12409,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -11137,10 +12430,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31541</v>
+        <v>31562</v>
       </c>
       <c r="G15" s="0">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -11148,7 +12441,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -11169,18 +12462,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25265</v>
+        <v>25314</v>
       </c>
       <c r="G16" s="0">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>651</v>
-      </c>
-      <c r="K16" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -11201,18 +12494,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14874</v>
+        <v>14929</v>
       </c>
       <c r="G17" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>420</v>
-      </c>
-      <c r="K17" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -11233,7 +12526,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14006</v>
+        <v>14025</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -11244,7 +12537,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -11265,18 +12558,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14863</v>
+        <v>14915</v>
       </c>
       <c r="G19" s="0">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -11306,7 +12599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -11366,7 +12659,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70969</v>
+        <v>70975</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -11377,7 +12670,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11398,7 +12691,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127035</v>
+        <v>127049</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -11409,7 +12702,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -11430,7 +12723,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45080</v>
+        <v>45084</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -11441,7 +12734,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11462,10 +12755,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35753</v>
+        <v>35754</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -11473,7 +12766,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -11494,7 +12787,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32243</v>
+        <v>32247</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -11505,7 +12798,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -11526,7 +12819,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48258</v>
+        <v>48264</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -11537,7 +12830,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -11558,10 +12851,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33642</v>
+        <v>33649</v>
       </c>
       <c r="G8" s="0">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -11569,7 +12862,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -11601,7 +12894,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -11622,7 +12915,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28530</v>
+        <v>28531</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -11633,7 +12926,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -11654,7 +12947,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29904</v>
+        <v>29918</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -11665,7 +12958,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -11686,10 +12979,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17808</v>
+        <v>17813</v>
       </c>
       <c r="G12" s="0">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -11697,7 +12990,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -11718,7 +13011,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22454</v>
+        <v>22486</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -11729,7 +13022,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -11750,10 +13043,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16999</v>
+        <v>17009</v>
       </c>
       <c r="G14" s="0">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -11761,7 +13054,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -11782,7 +13075,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31562</v>
+        <v>31576</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -11793,7 +13086,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -11814,18 +13107,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25314</v>
+        <v>25353</v>
       </c>
       <c r="G16" s="0">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -11846,18 +13139,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14929</v>
+        <v>14959</v>
       </c>
       <c r="G17" s="0">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>421</v>
-      </c>
-      <c r="K17" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -11878,7 +13171,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14025</v>
+        <v>14053</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -11889,7 +13182,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -11910,7 +13203,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14915</v>
+        <v>14952</v>
       </c>
       <c r="G19" s="0">
         <v>314</v>
@@ -11921,7 +13214,7 @@
       <c r="J19" s="0">
         <v>561</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -11951,7 +13244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -12011,7 +13304,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70975</v>
+        <v>70979</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -12022,7 +13315,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -12043,7 +13336,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127049</v>
+        <v>127059</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -12054,7 +13347,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -12075,7 +13368,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45084</v>
+        <v>45081</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -12086,7 +13379,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12107,7 +13400,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35754</v>
+        <v>35755</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -12118,7 +13411,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -12139,10 +13432,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32247</v>
+        <v>32249</v>
       </c>
       <c r="G6" s="0">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -12150,7 +13443,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -12171,7 +13464,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48264</v>
+        <v>48266</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -12182,7 +13475,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -12203,7 +13496,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33649</v>
+        <v>33660</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -12214,7 +13507,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -12235,7 +13528,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19800</v>
+        <v>19802</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -12246,7 +13539,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -12278,7 +13571,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -12299,7 +13592,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29918</v>
+        <v>29925</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -12310,7 +13603,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -12331,7 +13624,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17813</v>
+        <v>17820</v>
       </c>
       <c r="G12" s="0">
         <v>469</v>
@@ -12342,7 +13635,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -12363,7 +13656,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22486</v>
+        <v>22522</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -12374,7 +13667,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -12395,7 +13688,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17009</v>
+        <v>17025</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -12406,7 +13699,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -12427,7 +13720,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31576</v>
+        <v>31592</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -12438,7 +13731,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -12459,7 +13752,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25353</v>
+        <v>25405</v>
       </c>
       <c r="G16" s="0">
         <v>789</v>
@@ -12470,7 +13763,7 @@
       <c r="J16" s="0">
         <v>655</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -12491,7 +13784,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14959</v>
+        <v>15013</v>
       </c>
       <c r="G17" s="0">
         <v>372</v>
@@ -12500,9 +13793,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>422</v>
-      </c>
-      <c r="K17" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -12523,7 +13816,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14053</v>
+        <v>14073</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -12532,9 +13825,9 @@
         <v>0</v>
       </c>
       <c r="J18" s="0">
-        <v>223</v>
-      </c>
-      <c r="K18" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -12555,18 +13848,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14952</v>
+        <v>14997</v>
       </c>
       <c r="G19" s="0">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>561</v>
-      </c>
-      <c r="K19" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -12594,649 +13887,4 @@
   </hyperlinks>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2018</v>
-      </c>
-      <c r="C2" s="0">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
-        <v>70979</v>
-      </c>
-      <c r="G2" s="0">
-        <v>1790</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>1214</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2018</v>
-      </c>
-      <c r="C3" s="0">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="0">
-        <v>127059</v>
-      </c>
-      <c r="G3" s="0">
-        <v>4283</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>2834</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="0">
-        <v>4</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="0">
-        <v>45081</v>
-      </c>
-      <c r="G4" s="0">
-        <v>1550</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
-        <v>1022</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="0">
-        <v>8</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="0">
-        <v>35755</v>
-      </c>
-      <c r="G5" s="0">
-        <v>1171</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
-        <v>834</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="0">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="0">
-        <v>32249</v>
-      </c>
-      <c r="G6" s="0">
-        <v>1377</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
-        <v>472</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="0">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="0">
-        <v>48266</v>
-      </c>
-      <c r="G7" s="0">
-        <v>1246</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>1172</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C8" s="0">
-        <v>5</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="0">
-        <v>33660</v>
-      </c>
-      <c r="G8" s="0">
-        <v>1196</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>642</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C9" s="0">
-        <v>5</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="0">
-        <v>19802</v>
-      </c>
-      <c r="G9" s="0">
-        <v>405</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>746</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C10" s="0">
-        <v>5</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="0">
-        <v>28531</v>
-      </c>
-      <c r="G10" s="0">
-        <v>701</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>562</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="0">
-        <v>10</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="0">
-        <v>29925</v>
-      </c>
-      <c r="G11" s="0">
-        <v>621</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>1955</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2022</v>
-      </c>
-      <c r="C12" s="0">
-        <v>10</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="0">
-        <v>17820</v>
-      </c>
-      <c r="G12" s="0">
-        <v>469</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>509</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2022</v>
-      </c>
-      <c r="C13" s="0">
-        <v>11</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="0">
-        <v>22522</v>
-      </c>
-      <c r="G13" s="0">
-        <v>501</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>584</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C14" s="0">
-        <v>3</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="0">
-        <v>17025</v>
-      </c>
-      <c r="G14" s="0">
-        <v>239</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>113</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C15" s="0">
-        <v>3</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="0">
-        <v>31592</v>
-      </c>
-      <c r="G15" s="0">
-        <v>1003</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>495</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C16" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="0">
-        <v>25405</v>
-      </c>
-      <c r="G16" s="0">
-        <v>789</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>655</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="0">
-        <v>15013</v>
-      </c>
-      <c r="G17" s="0">
-        <v>372</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>423</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C18" s="0">
-        <v>9</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="0">
-        <v>14073</v>
-      </c>
-      <c r="G18" s="0">
-        <v>385</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>224</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C19" s="0">
-        <v>10</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="0">
-        <v>14997</v>
-      </c>
-      <c r="G19" s="0">
-        <v>315</v>
-      </c>
-      <c r="I19" s="0">
-        <v>0</v>
-      </c>
-      <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K19"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId188"/>
-    <hyperlink ref="K3" r:id="rId189"/>
-    <hyperlink ref="K4" r:id="rId190"/>
-    <hyperlink ref="K5" r:id="rId191"/>
-    <hyperlink ref="K6" r:id="rId192"/>
-    <hyperlink ref="K7" r:id="rId193"/>
-    <hyperlink ref="K8" r:id="rId194"/>
-    <hyperlink ref="K9" r:id="rId195"/>
-    <hyperlink ref="K10" r:id="rId196"/>
-    <hyperlink ref="K11" r:id="rId197"/>
-    <hyperlink ref="K12" r:id="rId198"/>
-    <hyperlink ref="K13" r:id="rId199"/>
-    <hyperlink ref="K14" r:id="rId200"/>
-    <hyperlink ref="K15" r:id="rId201"/>
-    <hyperlink ref="K16" r:id="rId202"/>
-    <hyperlink ref="K17" r:id="rId203"/>
-    <hyperlink ref="K18" r:id="rId204"/>
-    <hyperlink ref="K19" r:id="rId205"/>
-  </hyperlinks>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
+++ b/Live Debate-PLb6zvlIyoDAdGmjyTRGVX8Cj_HFLV0tur.xlsx
@@ -26,6 +26,7 @@
     <sheet name="20231221041750 - Dec 21 2023" sheetId="19" r:id="rId20"/>
     <sheet name="20231222041751 - Dec 22 2023" sheetId="20" r:id="rId21"/>
     <sheet name="20231223041707 - Dec 23 2023" sheetId="21" r:id="rId22"/>
+    <sheet name="20231224041724 - Dec 24 2023" sheetId="22" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20231203113249 - Dec 03 2023'!$A$1:$K$19</definedName>
@@ -49,6 +50,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'20231221041750 - Dec 21 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'20231222041751 - Dec 22 2023'!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'20231223041707 - Dec 23 2023'!$A$1:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'20231224041724 - Dec 24 2023'!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -313,8 +315,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
@@ -966,24 +969,24 @@
   </sheetData>
   <autoFilter ref="A1:K19"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId341"/>
-    <hyperlink ref="K3" r:id="rId342"/>
-    <hyperlink ref="K4" r:id="rId343"/>
-    <hyperlink ref="K5" r:id="rId344"/>
-    <hyperlink ref="K6" r:id="rId345"/>
-    <hyperlink ref="K7" r:id="rId346"/>
-    <hyperlink ref="K8" r:id="rId347"/>
-    <hyperlink ref="K9" r:id="rId348"/>
-    <hyperlink ref="K10" r:id="rId349"/>
-    <hyperlink ref="K11" r:id="rId350"/>
-    <hyperlink ref="K12" r:id="rId351"/>
-    <hyperlink ref="K13" r:id="rId352"/>
-    <hyperlink ref="K14" r:id="rId353"/>
-    <hyperlink ref="K15" r:id="rId354"/>
-    <hyperlink ref="K16" r:id="rId355"/>
-    <hyperlink ref="K17" r:id="rId356"/>
-    <hyperlink ref="K18" r:id="rId357"/>
-    <hyperlink ref="K19" r:id="rId358"/>
+    <hyperlink ref="K2" r:id="rId358"/>
+    <hyperlink ref="K3" r:id="rId359"/>
+    <hyperlink ref="K4" r:id="rId360"/>
+    <hyperlink ref="K5" r:id="rId361"/>
+    <hyperlink ref="K6" r:id="rId362"/>
+    <hyperlink ref="K7" r:id="rId363"/>
+    <hyperlink ref="K8" r:id="rId364"/>
+    <hyperlink ref="K9" r:id="rId365"/>
+    <hyperlink ref="K10" r:id="rId366"/>
+    <hyperlink ref="K11" r:id="rId367"/>
+    <hyperlink ref="K12" r:id="rId368"/>
+    <hyperlink ref="K13" r:id="rId369"/>
+    <hyperlink ref="K14" r:id="rId370"/>
+    <hyperlink ref="K15" r:id="rId371"/>
+    <hyperlink ref="K16" r:id="rId372"/>
+    <hyperlink ref="K17" r:id="rId373"/>
+    <hyperlink ref="K18" r:id="rId374"/>
+    <hyperlink ref="K19" r:id="rId375"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -1605,6 +1608,651 @@
         <v>560</v>
       </c>
       <c r="K19" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId205"/>
+    <hyperlink ref="K3" r:id="rId206"/>
+    <hyperlink ref="K4" r:id="rId207"/>
+    <hyperlink ref="K5" r:id="rId208"/>
+    <hyperlink ref="K6" r:id="rId209"/>
+    <hyperlink ref="K7" r:id="rId210"/>
+    <hyperlink ref="K8" r:id="rId211"/>
+    <hyperlink ref="K9" r:id="rId212"/>
+    <hyperlink ref="K10" r:id="rId213"/>
+    <hyperlink ref="K11" r:id="rId214"/>
+    <hyperlink ref="K12" r:id="rId215"/>
+    <hyperlink ref="K13" r:id="rId216"/>
+    <hyperlink ref="K14" r:id="rId217"/>
+    <hyperlink ref="K15" r:id="rId218"/>
+    <hyperlink ref="K16" r:id="rId219"/>
+    <hyperlink ref="K17" r:id="rId220"/>
+    <hyperlink ref="K18" r:id="rId221"/>
+    <hyperlink ref="K19" r:id="rId222"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70985</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>127071</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4282</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45089</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1551</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35762</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1171</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32249</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1377</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48275</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1245</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33682</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1197</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>642</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19805</v>
+      </c>
+      <c r="G9" s="0">
+        <v>405</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>746</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28535</v>
+      </c>
+      <c r="G10" s="0">
+        <v>702</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29935</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17829</v>
+      </c>
+      <c r="G12" s="0">
+        <v>469</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>509</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22582</v>
+      </c>
+      <c r="G13" s="0">
+        <v>501</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>584</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>17039</v>
+      </c>
+      <c r="G14" s="0">
+        <v>239</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31625</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1003</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>495</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25488</v>
+      </c>
+      <c r="G16" s="0">
+        <v>790</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>658</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>15097</v>
+      </c>
+      <c r="G17" s="0">
+        <v>373</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>425</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>14116</v>
+      </c>
+      <c r="G18" s="0">
+        <v>385</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>224</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>15071</v>
+      </c>
+      <c r="G19" s="0">
+        <v>315</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>560</v>
+      </c>
+      <c r="K19" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1634,7 +2282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -1694,7 +2342,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70985</v>
+        <v>70987</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -1705,7 +2353,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1726,7 +2374,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127071</v>
+        <v>127082</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -1737,7 +2385,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1758,7 +2406,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="G4" s="0">
         <v>1551</v>
@@ -1769,7 +2417,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1790,7 +2438,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35762</v>
+        <v>35767</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -1801,7 +2449,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1822,7 +2470,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32249</v>
+        <v>32250</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -1833,7 +2481,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1854,10 +2502,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48275</v>
+        <v>48282</v>
       </c>
       <c r="G7" s="0">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1865,7 +2513,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1886,7 +2534,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33682</v>
+        <v>33691</v>
       </c>
       <c r="G8" s="0">
         <v>1197</v>
@@ -1897,7 +2545,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1918,7 +2566,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19805</v>
+        <v>19811</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -1929,7 +2577,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1961,7 +2609,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1982,7 +2630,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29935</v>
+        <v>29939</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -1993,7 +2641,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2014,7 +2662,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17829</v>
+        <v>17835</v>
       </c>
       <c r="G12" s="0">
         <v>469</v>
@@ -2023,9 +2671,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>509</v>
-      </c>
-      <c r="K12" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2046,7 +2694,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22582</v>
+        <v>22607</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -2057,7 +2705,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2078,7 +2726,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17039</v>
+        <v>17048</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -2089,7 +2737,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2110,7 +2758,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31625</v>
+        <v>31633</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -2121,7 +2769,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="12" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2142,18 +2790,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25488</v>
+        <v>25526</v>
       </c>
       <c r="G16" s="0">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>658</v>
-      </c>
-      <c r="K16" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2174,18 +2822,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15097</v>
+        <v>15147</v>
       </c>
       <c r="G17" s="0">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>425</v>
-      </c>
-      <c r="K17" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2206,10 +2854,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14116</v>
+        <v>14132</v>
       </c>
       <c r="G18" s="0">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -2217,7 +2865,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2238,18 +2886,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15071</v>
+        <v>15100</v>
       </c>
       <c r="G19" s="0">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2279,7 +2927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2339,7 +2987,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70987</v>
+        <v>70988</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2350,7 +2998,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2371,7 +3019,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127082</v>
+        <v>127094</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -2382,7 +3030,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2403,7 +3051,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45092</v>
+        <v>45095</v>
       </c>
       <c r="G4" s="0">
         <v>1551</v>
@@ -2414,7 +3062,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2435,7 +3083,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35767</v>
+        <v>35771</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -2446,7 +3094,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2467,7 +3115,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32250</v>
+        <v>32253</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -2478,7 +3126,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2499,7 +3147,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48282</v>
+        <v>48290</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -2510,7 +3158,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2531,7 +3179,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33691</v>
+        <v>33700</v>
       </c>
       <c r="G8" s="0">
         <v>1197</v>
@@ -2542,7 +3190,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2563,7 +3211,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19811</v>
+        <v>19815</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -2572,9 +3220,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>746</v>
-      </c>
-      <c r="K9" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2595,7 +3243,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28535</v>
+        <v>28539</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -2606,7 +3254,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2627,7 +3275,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29939</v>
+        <v>29951</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -2638,7 +3286,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2659,10 +3307,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17835</v>
+        <v>17838</v>
       </c>
       <c r="G12" s="0">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -2670,7 +3318,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2691,7 +3339,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22607</v>
+        <v>22643</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -2702,7 +3350,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="13" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2723,7 +3371,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17048</v>
+        <v>17055</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -2732,9 +3380,9 @@
         <v>0</v>
       </c>
       <c r="J14" s="0">
-        <v>113</v>
-      </c>
-      <c r="K14" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2755,7 +3403,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31633</v>
+        <v>31646</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -2764,9 +3412,9 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>495</v>
-      </c>
-      <c r="K15" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="K15" s="13" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2787,18 +3435,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25526</v>
+        <v>25565</v>
       </c>
       <c r="G16" s="0">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>661</v>
-      </c>
-      <c r="K16" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="K16" s="13" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2819,10 +3467,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15147</v>
+        <v>15193</v>
       </c>
       <c r="G17" s="0">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -2830,7 +3478,7 @@
       <c r="J17" s="0">
         <v>428</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2851,7 +3499,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14132</v>
+        <v>14164</v>
       </c>
       <c r="G18" s="0">
         <v>386</v>
@@ -2862,7 +3510,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2883,18 +3531,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15100</v>
+        <v>15147</v>
       </c>
       <c r="G19" s="0">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>561</v>
-      </c>
-      <c r="K19" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="K19" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2924,7 +3572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2984,7 +3632,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70988</v>
+        <v>70996</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -2995,7 +3643,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3016,7 +3664,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127094</v>
+        <v>127104</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -3027,7 +3675,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3051,7 +3699,7 @@
         <v>45095</v>
       </c>
       <c r="G4" s="0">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I4" s="0">
         <v>0</v>
@@ -3059,7 +3707,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3091,7 +3739,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="14" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3112,7 +3760,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32253</v>
+        <v>32255</v>
       </c>
       <c r="G6" s="0">
         <v>1377</v>
@@ -3123,7 +3771,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3144,7 +3792,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48290</v>
+        <v>48297</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -3153,9 +3801,9 @@
         <v>0</v>
       </c>
       <c r="J7" s="0">
-        <v>1172</v>
-      </c>
-      <c r="K7" s="13" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3176,10 +3824,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33700</v>
+        <v>33704</v>
       </c>
       <c r="G8" s="0">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -3187,7 +3835,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3208,10 +3856,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19815</v>
+        <v>19818</v>
       </c>
       <c r="G9" s="0">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -3219,7 +3867,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3240,7 +3888,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28539</v>
+        <v>28542</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -3251,7 +3899,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3272,7 +3920,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29951</v>
+        <v>29953</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3283,7 +3931,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3304,7 +3952,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17838</v>
+        <v>17840</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3315,7 +3963,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="14" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3336,7 +3984,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22643</v>
+        <v>22675</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -3347,7 +3995,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3368,7 +4016,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17055</v>
+        <v>17067</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -3379,7 +4027,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3400,7 +4048,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31646</v>
+        <v>31653</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -3411,7 +4059,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="14" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3432,18 +4080,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25565</v>
+        <v>25607</v>
       </c>
       <c r="G16" s="0">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>659</v>
-      </c>
-      <c r="K16" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="K16" s="14" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3464,18 +4112,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15193</v>
+        <v>15235</v>
       </c>
       <c r="G17" s="0">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>428</v>
-      </c>
-      <c r="K17" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="K17" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3496,10 +4144,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14164</v>
+        <v>14189</v>
       </c>
       <c r="G18" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -3507,7 +4155,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3528,7 +4176,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15147</v>
+        <v>15168</v>
       </c>
       <c r="G19" s="0">
         <v>317</v>
@@ -3537,9 +4185,9 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>563</v>
-      </c>
-      <c r="K19" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="K19" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3569,7 +4217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -3629,7 +4277,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70996</v>
+        <v>71000</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -3640,7 +4288,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3661,7 +4309,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127104</v>
+        <v>127115</v>
       </c>
       <c r="G3" s="0">
         <v>4282</v>
@@ -3672,7 +4320,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3704,7 +4352,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3725,10 +4373,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35771</v>
+        <v>35774</v>
       </c>
       <c r="G5" s="0">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -3736,7 +4384,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3760,7 +4408,7 @@
         <v>32255</v>
       </c>
       <c r="G6" s="0">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -3768,7 +4416,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3789,10 +4437,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48297</v>
+        <v>48302</v>
       </c>
       <c r="G7" s="0">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -3800,7 +4448,7 @@
       <c r="J7" s="0">
         <v>1173</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="15" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3821,7 +4469,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33704</v>
+        <v>33706</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -3832,7 +4480,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3853,10 +4501,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19818</v>
+        <v>19821</v>
       </c>
       <c r="G9" s="0">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -3864,7 +4512,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="15" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3885,7 +4533,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28542</v>
+        <v>28543</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -3896,7 +4544,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3917,7 +4565,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29953</v>
+        <v>29954</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -3928,7 +4576,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3949,7 +4597,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17840</v>
+        <v>17841</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -3960,7 +4608,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="15" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3981,7 +4629,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22675</v>
+        <v>22705</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -3992,7 +4640,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="15" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4013,10 +4661,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17067</v>
+        <v>17075</v>
       </c>
       <c r="G14" s="0">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -4024,7 +4672,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="15" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4045,7 +4693,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31653</v>
+        <v>31662</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -4056,7 +4704,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="15" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4077,18 +4725,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25607</v>
+        <v>25651</v>
       </c>
       <c r="G16" s="0">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>660</v>
-      </c>
-      <c r="K16" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="K16" s="15" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4109,10 +4757,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15235</v>
+        <v>15269</v>
       </c>
       <c r="G17" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -4120,7 +4768,7 @@
       <c r="J17" s="0">
         <v>429</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="15" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4141,7 +4789,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14189</v>
+        <v>14211</v>
       </c>
       <c r="G18" s="0">
         <v>388</v>
@@ -4152,7 +4800,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="15" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4173,18 +4821,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15168</v>
+        <v>15205</v>
       </c>
       <c r="G19" s="0">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>565</v>
-      </c>
-      <c r="K19" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="K19" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4214,7 +4862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -4274,7 +4922,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>71000</v>
+        <v>71009</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -4285,7 +4933,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4306,10 +4954,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127115</v>
+        <v>127122</v>
       </c>
       <c r="G3" s="0">
-        <v>4282</v>
+        <v>4283</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -4317,7 +4965,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4338,7 +4986,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -4349,7 +4997,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4370,7 +5018,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35774</v>
+        <v>35775</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -4381,7 +5029,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4413,7 +5061,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4434,7 +5082,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48302</v>
+        <v>48304</v>
       </c>
       <c r="G7" s="0">
         <v>1248</v>
@@ -4445,7 +5093,7 @@
       <c r="J7" s="0">
         <v>1173</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4466,7 +5114,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33706</v>
+        <v>33708</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -4477,7 +5125,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="16" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4498,7 +5146,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19821</v>
+        <v>19823</v>
       </c>
       <c r="G9" s="0">
         <v>407</v>
@@ -4509,7 +5157,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4530,7 +5178,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28543</v>
+        <v>28545</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -4541,7 +5189,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="16" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4562,7 +5210,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29954</v>
+        <v>29959</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -4573,7 +5221,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4594,10 +5242,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17841</v>
+        <v>17842</v>
       </c>
       <c r="G12" s="0">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -4605,7 +5253,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="16" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4626,10 +5274,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22705</v>
+        <v>22734</v>
       </c>
       <c r="G13" s="0">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -4637,7 +5285,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="16" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4658,7 +5306,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17075</v>
+        <v>17089</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -4669,7 +5317,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="16" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4690,10 +5338,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31662</v>
+        <v>31674</v>
       </c>
       <c r="G15" s="0">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -4701,7 +5349,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="16" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4722,10 +5370,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25651</v>
+        <v>25699</v>
       </c>
       <c r="G16" s="0">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -4733,7 +5381,7 @@
       <c r="J16" s="0">
         <v>657</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="16" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4754,18 +5402,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15269</v>
+        <v>15302</v>
       </c>
       <c r="G17" s="0">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>429</v>
-      </c>
-      <c r="K17" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="K17" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4786,7 +5434,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14211</v>
+        <v>14226</v>
       </c>
       <c r="G18" s="0">
         <v>388</v>
@@ -4797,7 +5445,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="16" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4818,18 +5466,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15205</v>
+        <v>15242</v>
       </c>
       <c r="G19" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>564</v>
-      </c>
-      <c r="K19" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="K19" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4859,7 +5507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -4919,7 +5567,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>71009</v>
+        <v>71019</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -4930,7 +5578,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4951,7 +5599,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127122</v>
+        <v>127133</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -4960,9 +5608,9 @@
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2834</v>
-      </c>
-      <c r="K3" s="16" t="s">
+        <v>2832</v>
+      </c>
+      <c r="K3" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4983,7 +5631,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45096</v>
+        <v>45101</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -4994,7 +5642,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="17" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5015,7 +5663,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35775</v>
+        <v>35774</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -5026,7 +5674,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5047,7 +5695,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32255</v>
+        <v>32257</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -5058,7 +5706,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="17" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5079,7 +5727,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48304</v>
+        <v>48307</v>
       </c>
       <c r="G7" s="0">
         <v>1248</v>
@@ -5090,7 +5738,7 @@
       <c r="J7" s="0">
         <v>1173</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="17" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5111,7 +5759,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33708</v>
+        <v>33714</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -5122,7 +5770,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="17" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5143,7 +5791,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19823</v>
+        <v>19828</v>
       </c>
       <c r="G9" s="0">
         <v>407</v>
@@ -5154,7 +5802,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="17" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5175,7 +5823,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28545</v>
+        <v>28549</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -5186,7 +5834,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="17" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5207,7 +5855,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29959</v>
+        <v>29962</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -5218,7 +5866,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="17" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5239,7 +5887,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17842</v>
+        <v>17854</v>
       </c>
       <c r="G12" s="0">
         <v>471</v>
@@ -5250,7 +5898,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5271,10 +5919,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22734</v>
+        <v>22761</v>
       </c>
       <c r="G13" s="0">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -5282,7 +5930,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="17" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5303,7 +5951,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17089</v>
+        <v>17102</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -5314,7 +5962,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="17" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5335,7 +5983,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31674</v>
+        <v>31684</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -5346,7 +5994,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5367,7 +6015,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25699</v>
+        <v>25764</v>
       </c>
       <c r="G16" s="0">
         <v>796</v>
@@ -5376,9 +6024,9 @@
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>657</v>
-      </c>
-      <c r="K16" s="16" t="s">
+        <v>656</v>
+      </c>
+      <c r="K16" s="17" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5399,10 +6047,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15302</v>
+        <v>15358</v>
       </c>
       <c r="G17" s="0">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -5410,7 +6058,7 @@
       <c r="J17" s="0">
         <v>430</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5431,10 +6079,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14226</v>
+        <v>14245</v>
       </c>
       <c r="G18" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -5442,7 +6090,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="17" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5463,7 +6111,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15242</v>
+        <v>15283</v>
       </c>
       <c r="G19" s="0">
         <v>319</v>
@@ -5474,7 +6122,7 @@
       <c r="J19" s="0">
         <v>565</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="17" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5504,7 +6152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -5564,7 +6212,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>71019</v>
+        <v>71022</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -5575,7 +6223,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5596,7 +6244,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127133</v>
+        <v>127140</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -5607,7 +6255,7 @@
       <c r="J3" s="0">
         <v>2832</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="18" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5628,7 +6276,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -5639,7 +6287,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5660,7 +6308,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35774</v>
+        <v>35775</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -5671,7 +6319,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="18" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5692,7 +6340,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32257</v>
+        <v>32258</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -5703,7 +6351,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5724,18 +6372,18 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48307</v>
+        <v>48316</v>
       </c>
       <c r="G7" s="0">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
       </c>
       <c r="J7" s="0">
-        <v>1173</v>
-      </c>
-      <c r="K7" s="17" t="s">
+        <v>1170</v>
+      </c>
+      <c r="K7" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5756,10 +6404,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33714</v>
+        <v>33717</v>
       </c>
       <c r="G8" s="0">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -5767,7 +6415,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="18" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5788,7 +6436,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19828</v>
+        <v>19830</v>
       </c>
       <c r="G9" s="0">
         <v>407</v>
@@ -5797,9 +6445,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>747</v>
-      </c>
-      <c r="K9" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="K9" s="18" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5820,7 +6468,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28549</v>
+        <v>28552</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -5829,9 +6477,9 @@
         <v>0</v>
       </c>
       <c r="J10" s="0">
-        <v>562</v>
-      </c>
-      <c r="K10" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="K10" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5852,7 +6500,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29962</v>
+        <v>29969</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -5863,7 +6511,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5884,7 +6532,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17854</v>
+        <v>17861</v>
       </c>
       <c r="G12" s="0">
         <v>471</v>
@@ -5895,7 +6543,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="18" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5916,7 +6564,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22761</v>
+        <v>22767</v>
       </c>
       <c r="G13" s="0">
         <v>504</v>
@@ -5927,7 +6575,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="18" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5948,7 +6596,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17102</v>
+        <v>17107</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -5959,7 +6607,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="18" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5980,7 +6628,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31684</v>
+        <v>31699</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -5991,7 +6639,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="18" t="s">
         <v>59</v>
       </c>
     </row>
@@ -6012,18 +6660,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25764</v>
+        <v>25805</v>
       </c>
       <c r="G16" s="0">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>656</v>
-      </c>
-      <c r="K16" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="K16" s="18" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6044,10 +6692,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15358</v>
+        <v>15404</v>
       </c>
       <c r="G17" s="0">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -6055,7 +6703,7 @@
       <c r="J17" s="0">
         <v>430</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="18" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6076,7 +6724,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14245</v>
+        <v>14269</v>
       </c>
       <c r="G18" s="0">
         <v>390</v>
@@ -6087,7 +6735,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="18" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6108,7 +6756,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15283</v>
+        <v>15309</v>
       </c>
       <c r="G19" s="0">
         <v>319</v>
@@ -6119,7 +6767,7 @@
       <c r="J19" s="0">
         <v>565</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K19" s="18" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6149,7 +6797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -6209,7 +6857,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>71022</v>
+        <v>71024</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -6220,7 +6868,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6241,7 +6889,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127140</v>
+        <v>127147</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -6252,7 +6900,7 @@
       <c r="J3" s="0">
         <v>2832</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6273,7 +6921,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -6284,7 +6932,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="19" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6305,7 +6953,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35775</v>
+        <v>35776</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -6316,7 +6964,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="19" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6337,7 +6985,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32258</v>
+        <v>32260</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -6348,7 +6996,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6369,7 +7017,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48316</v>
+        <v>48321</v>
       </c>
       <c r="G7" s="0">
         <v>1249</v>
@@ -6380,7 +7028,7 @@
       <c r="J7" s="0">
         <v>1170</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -6401,7 +7049,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33717</v>
+        <v>33721</v>
       </c>
       <c r="G8" s="0">
         <v>1197</v>
@@ -6412,7 +7060,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="19" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6433,7 +7081,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19830</v>
+        <v>19832</v>
       </c>
       <c r="G9" s="0">
         <v>407</v>
@@ -6444,7 +7092,7 @@
       <c r="J9" s="0">
         <v>748</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="19" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6465,7 +7113,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28552</v>
+        <v>28551</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -6476,7 +7124,7 @@
       <c r="J10" s="0">
         <v>561</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="19" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6497,7 +7145,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29969</v>
+        <v>29974</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -6508,7 +7156,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="19" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6529,7 +7177,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17861</v>
+        <v>17868</v>
       </c>
       <c r="G12" s="0">
         <v>471</v>
@@ -6540,7 +7188,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="19" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6561,10 +7209,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22767</v>
+        <v>22794</v>
       </c>
       <c r="G13" s="0">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -6572,7 +7220,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="19" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6593,7 +7241,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17107</v>
+        <v>17114</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -6604,7 +7252,7 @@
       <c r="J14" s="0">
         <v>112</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="19" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6625,10 +7273,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31699</v>
+        <v>31721</v>
       </c>
       <c r="G15" s="0">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -6636,7 +7284,7 @@
       <c r="J15" s="0">
         <v>496</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="19" t="s">
         <v>59</v>
       </c>
     </row>
@@ -6657,18 +7305,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25805</v>
+        <v>25855</v>
       </c>
       <c r="G16" s="0">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>657</v>
-      </c>
-      <c r="K16" s="18" t="s">
+        <v>661</v>
+      </c>
+      <c r="K16" s="19" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6689,18 +7337,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15404</v>
+        <v>15442</v>
       </c>
       <c r="G17" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>430</v>
-      </c>
-      <c r="K17" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="K17" s="19" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6721,7 +7369,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14269</v>
+        <v>14287</v>
       </c>
       <c r="G18" s="0">
         <v>390</v>
@@ -6732,7 +7380,7 @@
       <c r="J18" s="0">
         <v>224</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="19" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6753,7 +7401,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15309</v>
+        <v>15352</v>
       </c>
       <c r="G19" s="0">
         <v>319</v>
@@ -6764,7 +7412,7 @@
       <c r="J19" s="0">
         <v>565</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="19" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6794,7 +7442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -6854,7 +7502,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>71024</v>
+        <v>70949</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -6865,7 +7513,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6886,7 +7534,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127147</v>
+        <v>126968</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -6895,9 +7543,9 @@
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2832</v>
-      </c>
-      <c r="K3" s="19" t="s">
+        <v>2831</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6918,10 +7566,10 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45103</v>
+        <v>45069</v>
       </c>
       <c r="G4" s="0">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="I4" s="0">
         <v>0</v>
@@ -6929,7 +7577,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6950,7 +7598,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35776</v>
+        <v>35742</v>
       </c>
       <c r="G5" s="0">
         <v>1172</v>
@@ -6961,7 +7609,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6982,10 +7630,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32260</v>
+        <v>32222</v>
       </c>
       <c r="G6" s="0">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -6993,7 +7641,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7014,18 +7662,18 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48321</v>
+        <v>48208</v>
       </c>
       <c r="G7" s="0">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
       </c>
       <c r="J7" s="0">
-        <v>1170</v>
-      </c>
-      <c r="K7" s="19" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7046,18 +7694,18 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33721</v>
+        <v>33614</v>
       </c>
       <c r="G8" s="0">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>642</v>
-      </c>
-      <c r="K8" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7078,18 +7726,18 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19832</v>
+        <v>19788</v>
       </c>
       <c r="G9" s="0">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>748</v>
-      </c>
-      <c r="K9" s="19" t="s">
+        <v>747</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7110,18 +7758,18 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28551</v>
+        <v>28513</v>
       </c>
       <c r="G10" s="0">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
       </c>
       <c r="J10" s="0">
-        <v>561</v>
-      </c>
-      <c r="K10" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7142,7 +7790,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29974</v>
+        <v>29879</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -7153,7 +7801,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7174,18 +7822,18 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17868</v>
+        <v>17777</v>
       </c>
       <c r="G12" s="0">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>506</v>
-      </c>
-      <c r="K12" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7206,18 +7854,18 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22794</v>
+        <v>22333</v>
       </c>
       <c r="G13" s="0">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>584</v>
-      </c>
-      <c r="K13" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7238,18 +7886,18 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17114</v>
+        <v>16952</v>
       </c>
       <c r="G14" s="0">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
       </c>
       <c r="J14" s="0">
-        <v>112</v>
-      </c>
-      <c r="K14" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7270,18 +7918,18 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31721</v>
+        <v>31478</v>
       </c>
       <c r="G15" s="0">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>496</v>
-      </c>
-      <c r="K15" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7302,18 +7950,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25855</v>
+        <v>25061</v>
       </c>
       <c r="G16" s="0">
-        <v>799</v>
+        <v>778</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>661</v>
-      </c>
-      <c r="K16" s="19" t="s">
+        <v>653</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7334,18 +7982,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15442</v>
+        <v>14695</v>
       </c>
       <c r="G17" s="0">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>432</v>
-      </c>
-      <c r="K17" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7366,18 +8014,18 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14287</v>
+        <v>13918</v>
       </c>
       <c r="G18" s="0">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
       </c>
       <c r="J18" s="0">
-        <v>224</v>
-      </c>
-      <c r="K18" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7398,10 +8046,655 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15352</v>
+        <v>14673</v>
       </c>
       <c r="G19" s="0">
-        <v>319</v>
+        <v>310</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>559</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId341"/>
+    <hyperlink ref="K3" r:id="rId342"/>
+    <hyperlink ref="K4" r:id="rId343"/>
+    <hyperlink ref="K5" r:id="rId344"/>
+    <hyperlink ref="K6" r:id="rId345"/>
+    <hyperlink ref="K7" r:id="rId346"/>
+    <hyperlink ref="K8" r:id="rId347"/>
+    <hyperlink ref="K9" r:id="rId348"/>
+    <hyperlink ref="K10" r:id="rId349"/>
+    <hyperlink ref="K11" r:id="rId350"/>
+    <hyperlink ref="K12" r:id="rId351"/>
+    <hyperlink ref="K13" r:id="rId352"/>
+    <hyperlink ref="K14" r:id="rId353"/>
+    <hyperlink ref="K15" r:id="rId354"/>
+    <hyperlink ref="K16" r:id="rId355"/>
+    <hyperlink ref="K17" r:id="rId356"/>
+    <hyperlink ref="K18" r:id="rId357"/>
+    <hyperlink ref="K19" r:id="rId358"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>71024</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>127159</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4284</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2832</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45105</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1550</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35777</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1173</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32261</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1376</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48327</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1249</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1170</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33732</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1198</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>644</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19832</v>
+      </c>
+      <c r="G9" s="0">
+        <v>407</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>748</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28551</v>
+      </c>
+      <c r="G10" s="0">
+        <v>702</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>561</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29978</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17870</v>
+      </c>
+      <c r="G12" s="0">
+        <v>471</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>506</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22822</v>
+      </c>
+      <c r="G13" s="0">
+        <v>507</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>584</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>17130</v>
+      </c>
+      <c r="G14" s="0">
+        <v>240</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>112</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31734</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1006</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>497</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25894</v>
+      </c>
+      <c r="G16" s="0">
+        <v>800</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>661</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>15475</v>
+      </c>
+      <c r="G17" s="0">
+        <v>383</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>432</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>14308</v>
+      </c>
+      <c r="G18" s="0">
+        <v>391</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>224</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>15381</v>
+      </c>
+      <c r="G19" s="0">
+        <v>320</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -7409,7 +8702,7 @@
       <c r="J19" s="0">
         <v>565</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="20" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7439,7 +8732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -7499,7 +8792,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70949</v>
+        <v>71029</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -7510,7 +8803,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="21" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7531,18 +8824,18 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126968</v>
+        <v>127165</v>
       </c>
       <c r="G3" s="0">
-        <v>4283</v>
+        <v>4285</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2831</v>
-      </c>
-      <c r="K3" s="2" t="s">
+        <v>2832</v>
+      </c>
+      <c r="K3" s="21" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7563,10 +8856,10 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45069</v>
+        <v>45107</v>
       </c>
       <c r="G4" s="0">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I4" s="0">
         <v>0</v>
@@ -7574,7 +8867,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="21" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7595,10 +8888,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35742</v>
+        <v>35776</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -7606,7 +8899,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="21" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7627,10 +8920,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32222</v>
+        <v>32262</v>
       </c>
       <c r="G6" s="0">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -7638,7 +8931,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7659,18 +8952,18 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48208</v>
+        <v>48334</v>
       </c>
       <c r="G7" s="0">
-        <v>1245</v>
+        <v>1249</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
       </c>
       <c r="J7" s="0">
-        <v>1172</v>
-      </c>
-      <c r="K7" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="K7" s="21" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7691,18 +8984,18 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33614</v>
+        <v>33734</v>
       </c>
       <c r="G8" s="0">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>641</v>
-      </c>
-      <c r="K8" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="K8" s="21" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7723,18 +9016,18 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19788</v>
+        <v>19833</v>
       </c>
       <c r="G9" s="0">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>747</v>
-      </c>
-      <c r="K9" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="K9" s="21" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7755,18 +9048,18 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28513</v>
+        <v>28556</v>
       </c>
       <c r="G10" s="0">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
       </c>
       <c r="J10" s="0">
-        <v>562</v>
-      </c>
-      <c r="K10" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="K10" s="21" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7787,7 +9080,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29879</v>
+        <v>29979</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -7798,7 +9091,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="21" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7819,18 +9112,18 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17777</v>
+        <v>17874</v>
       </c>
       <c r="G12" s="0">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>520</v>
-      </c>
-      <c r="K12" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="K12" s="21" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7851,18 +9144,18 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22333</v>
+        <v>22847</v>
       </c>
       <c r="G13" s="0">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>581</v>
-      </c>
-      <c r="K13" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="K13" s="21" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7883,18 +9176,18 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16952</v>
+        <v>17137</v>
       </c>
       <c r="G14" s="0">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
       </c>
       <c r="J14" s="0">
-        <v>113</v>
-      </c>
-      <c r="K14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="21" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7915,10 +9208,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31478</v>
+        <v>31749</v>
       </c>
       <c r="G15" s="0">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -7926,7 +9219,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="21" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7947,18 +9240,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25061</v>
+        <v>25927</v>
       </c>
       <c r="G16" s="0">
-        <v>778</v>
+        <v>803</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>653</v>
-      </c>
-      <c r="K16" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="K16" s="21" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7979,18 +9272,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14695</v>
+        <v>15516</v>
       </c>
       <c r="G17" s="0">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>419</v>
-      </c>
-      <c r="K17" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="K17" s="21" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8011,18 +9304,18 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13918</v>
+        <v>14333</v>
       </c>
       <c r="G18" s="0">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
       </c>
       <c r="J18" s="0">
-        <v>223</v>
-      </c>
-      <c r="K18" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K18" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8043,655 +9336,10 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14673</v>
+        <v>15417</v>
       </c>
       <c r="G19" s="0">
-        <v>310</v>
-      </c>
-      <c r="I19" s="0">
-        <v>0</v>
-      </c>
-      <c r="J19" s="0">
-        <v>559</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K19"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId324"/>
-    <hyperlink ref="K3" r:id="rId325"/>
-    <hyperlink ref="K4" r:id="rId326"/>
-    <hyperlink ref="K5" r:id="rId327"/>
-    <hyperlink ref="K6" r:id="rId328"/>
-    <hyperlink ref="K7" r:id="rId329"/>
-    <hyperlink ref="K8" r:id="rId330"/>
-    <hyperlink ref="K9" r:id="rId331"/>
-    <hyperlink ref="K10" r:id="rId332"/>
-    <hyperlink ref="K11" r:id="rId333"/>
-    <hyperlink ref="K12" r:id="rId334"/>
-    <hyperlink ref="K13" r:id="rId335"/>
-    <hyperlink ref="K14" r:id="rId336"/>
-    <hyperlink ref="K15" r:id="rId337"/>
-    <hyperlink ref="K16" r:id="rId338"/>
-    <hyperlink ref="K17" r:id="rId339"/>
-    <hyperlink ref="K18" r:id="rId340"/>
-    <hyperlink ref="K19" r:id="rId341"/>
-  </hyperlinks>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2018</v>
-      </c>
-      <c r="C2" s="0">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
-        <v>71024</v>
-      </c>
-      <c r="G2" s="0">
-        <v>1790</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>1214</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2018</v>
-      </c>
-      <c r="C3" s="0">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="0">
-        <v>127159</v>
-      </c>
-      <c r="G3" s="0">
-        <v>4284</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>2832</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="0">
-        <v>4</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="0">
-        <v>45105</v>
-      </c>
-      <c r="G4" s="0">
-        <v>1550</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
-        <v>1022</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="0">
-        <v>8</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="0">
-        <v>35777</v>
-      </c>
-      <c r="G5" s="0">
-        <v>1173</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
-        <v>834</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="0">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="0">
-        <v>32261</v>
-      </c>
-      <c r="G6" s="0">
-        <v>1376</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
-        <v>472</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="0">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="0">
-        <v>48327</v>
-      </c>
-      <c r="G7" s="0">
-        <v>1249</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>1170</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C8" s="0">
-        <v>5</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="0">
-        <v>33732</v>
-      </c>
-      <c r="G8" s="0">
-        <v>1198</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>644</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C9" s="0">
-        <v>5</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="0">
-        <v>19832</v>
-      </c>
-      <c r="G9" s="0">
-        <v>407</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>748</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C10" s="0">
-        <v>5</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="0">
-        <v>28551</v>
-      </c>
-      <c r="G10" s="0">
-        <v>702</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>561</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="0">
-        <v>10</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="0">
-        <v>29978</v>
-      </c>
-      <c r="G11" s="0">
-        <v>621</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>1955</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2022</v>
-      </c>
-      <c r="C12" s="0">
-        <v>10</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="0">
-        <v>17870</v>
-      </c>
-      <c r="G12" s="0">
-        <v>471</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>506</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2022</v>
-      </c>
-      <c r="C13" s="0">
-        <v>11</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="0">
-        <v>22822</v>
-      </c>
-      <c r="G13" s="0">
-        <v>507</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>584</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C14" s="0">
-        <v>3</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="0">
-        <v>17130</v>
-      </c>
-      <c r="G14" s="0">
-        <v>240</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>112</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C15" s="0">
-        <v>3</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="0">
-        <v>31734</v>
-      </c>
-      <c r="G15" s="0">
-        <v>1006</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>497</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C16" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="0">
-        <v>25894</v>
-      </c>
-      <c r="G16" s="0">
-        <v>800</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>661</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="0">
-        <v>15475</v>
-      </c>
-      <c r="G17" s="0">
-        <v>383</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>432</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C18" s="0">
-        <v>9</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="0">
-        <v>14308</v>
-      </c>
-      <c r="G18" s="0">
-        <v>391</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>224</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C19" s="0">
-        <v>10</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="0">
-        <v>15381</v>
-      </c>
-      <c r="G19" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -8699,7 +9347,7 @@
       <c r="J19" s="0">
         <v>565</v>
       </c>
-      <c r="K19" s="20" t="s">
+      <c r="K19" s="21" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8729,7 +9377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -8789,7 +9437,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>71029</v>
+        <v>71031</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -8800,7 +9448,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="22" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8821,10 +9469,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127165</v>
+        <v>127174</v>
       </c>
       <c r="G3" s="0">
-        <v>4285</v>
+        <v>4286</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -8832,7 +9480,7 @@
       <c r="J3" s="0">
         <v>2832</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="22" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8853,7 +9501,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45107</v>
+        <v>45108</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -8864,7 +9512,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="22" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8885,10 +9533,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35776</v>
+        <v>35778</v>
       </c>
       <c r="G5" s="0">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -8896,7 +9544,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="22" t="s">
         <v>25</v>
       </c>
     </row>
@@ -8917,7 +9565,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32262</v>
+        <v>32261</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -8928,7 +9576,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="22" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8949,10 +9597,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48334</v>
+        <v>48336</v>
       </c>
       <c r="G7" s="0">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -8960,7 +9608,7 @@
       <c r="J7" s="0">
         <v>1170</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="22" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8981,7 +9629,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33734</v>
+        <v>33737</v>
       </c>
       <c r="G8" s="0">
         <v>1198</v>
@@ -8992,7 +9640,7 @@
       <c r="J8" s="0">
         <v>644</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="22" t="s">
         <v>36</v>
       </c>
     </row>
@@ -9013,7 +9661,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19833</v>
+        <v>19839</v>
       </c>
       <c r="G9" s="0">
         <v>408</v>
@@ -9024,7 +9672,7 @@
       <c r="J9" s="0">
         <v>748</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="22" t="s">
         <v>39</v>
       </c>
     </row>
@@ -9045,7 +9693,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28556</v>
+        <v>28558</v>
       </c>
       <c r="G10" s="0">
         <v>702</v>
@@ -9056,7 +9704,7 @@
       <c r="J10" s="0">
         <v>561</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="22" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9077,7 +9725,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29979</v>
+        <v>29989</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -9088,7 +9736,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="22" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9109,7 +9757,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17874</v>
+        <v>17878</v>
       </c>
       <c r="G12" s="0">
         <v>471</v>
@@ -9120,7 +9768,7 @@
       <c r="J12" s="0">
         <v>506</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="22" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9141,7 +9789,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22847</v>
+        <v>22865</v>
       </c>
       <c r="G13" s="0">
         <v>508</v>
@@ -9150,9 +9798,9 @@
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>584</v>
-      </c>
-      <c r="K13" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="K13" s="22" t="s">
         <v>52</v>
       </c>
     </row>
@@ -9173,7 +9821,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17137</v>
+        <v>17146</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -9182,9 +9830,9 @@
         <v>0</v>
       </c>
       <c r="J14" s="0">
-        <v>112</v>
-      </c>
-      <c r="K14" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" s="22" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9205,10 +9853,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31749</v>
+        <v>31755</v>
       </c>
       <c r="G15" s="0">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -9216,7 +9864,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="K15" s="22" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9237,7 +9885,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25927</v>
+        <v>25963</v>
       </c>
       <c r="G16" s="0">
         <v>803</v>
@@ -9248,7 +9896,7 @@
       <c r="J16" s="0">
         <v>661</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="22" t="s">
         <v>62</v>
       </c>
     </row>
@@ -9269,18 +9917,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>15516</v>
+        <v>15547</v>
       </c>
       <c r="G17" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>433</v>
-      </c>
-      <c r="K17" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="K17" s="22" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9301,7 +9949,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14333</v>
+        <v>14359</v>
       </c>
       <c r="G18" s="0">
         <v>392</v>
@@ -9310,9 +9958,9 @@
         <v>0</v>
       </c>
       <c r="J18" s="0">
-        <v>224</v>
-      </c>
-      <c r="K18" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="K18" s="22" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9333,7 +9981,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>15417</v>
+        <v>15432</v>
       </c>
       <c r="G19" s="0">
         <v>322</v>
@@ -9344,7 +9992,7 @@
       <c r="J19" s="0">
         <v>565</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="K19" s="22" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9996,6 +10644,651 @@
   </sheetData>
   <autoFilter ref="A1:K19"/>
   <hyperlinks>
+    <hyperlink ref="K2" r:id="rId324"/>
+    <hyperlink ref="K3" r:id="rId325"/>
+    <hyperlink ref="K4" r:id="rId326"/>
+    <hyperlink ref="K5" r:id="rId327"/>
+    <hyperlink ref="K6" r:id="rId328"/>
+    <hyperlink ref="K7" r:id="rId329"/>
+    <hyperlink ref="K8" r:id="rId330"/>
+    <hyperlink ref="K9" r:id="rId331"/>
+    <hyperlink ref="K10" r:id="rId332"/>
+    <hyperlink ref="K11" r:id="rId333"/>
+    <hyperlink ref="K12" r:id="rId334"/>
+    <hyperlink ref="K13" r:id="rId335"/>
+    <hyperlink ref="K14" r:id="rId336"/>
+    <hyperlink ref="K15" r:id="rId337"/>
+    <hyperlink ref="K16" r:id="rId338"/>
+    <hyperlink ref="K17" r:id="rId339"/>
+    <hyperlink ref="K18" r:id="rId340"/>
+    <hyperlink ref="K19" r:id="rId341"/>
+  </hyperlinks>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>70961</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1790</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1214</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0">
+        <v>126997</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4283</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2833</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>45075</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1550</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0">
+        <v>35746</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1172</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>834</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0">
+        <v>32222</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1377</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>472</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0">
+        <v>48233</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1246</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="0">
+        <v>33626</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1194</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>641</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="0">
+        <v>19797</v>
+      </c>
+      <c r="G9" s="0">
+        <v>406</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>747</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0">
+        <v>28517</v>
+      </c>
+      <c r="G10" s="0">
+        <v>701</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>562</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0">
+        <v>29888</v>
+      </c>
+      <c r="G11" s="0">
+        <v>621</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1955</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0">
+        <v>17786</v>
+      </c>
+      <c r="G12" s="0">
+        <v>470</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>509</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0">
+        <v>22381</v>
+      </c>
+      <c r="G13" s="0">
+        <v>500</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>581</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0">
+        <v>16976</v>
+      </c>
+      <c r="G14" s="0">
+        <v>240</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>113</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0">
+        <v>31517</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1004</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>497</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0">
+        <v>25168</v>
+      </c>
+      <c r="G16" s="0">
+        <v>781</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>653</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="0">
+        <v>14774</v>
+      </c>
+      <c r="G17" s="0">
+        <v>370</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>420</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="0">
+        <v>13959</v>
+      </c>
+      <c r="G18" s="0">
+        <v>384</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>223</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0">
+        <v>14768</v>
+      </c>
+      <c r="G19" s="0">
+        <v>312</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>559</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19"/>
+  <hyperlinks>
     <hyperlink ref="K2" r:id="rId307"/>
     <hyperlink ref="K3" r:id="rId308"/>
     <hyperlink ref="K4" r:id="rId309"/>
@@ -10019,7 +11312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -10079,7 +11372,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70961</v>
+        <v>70965</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -10090,7 +11383,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10111,7 +11404,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>126997</v>
+        <v>127005</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -10122,7 +11415,7 @@
       <c r="J3" s="0">
         <v>2833</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10143,7 +11436,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -10154,7 +11447,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10175,10 +11468,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35746</v>
+        <v>35751</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -10186,7 +11479,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10207,10 +11500,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32222</v>
+        <v>32227</v>
       </c>
       <c r="G6" s="0">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -10218,7 +11511,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10239,7 +11532,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48233</v>
+        <v>48240</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -10250,7 +11543,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -10271,7 +11564,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33626</v>
+        <v>33629</v>
       </c>
       <c r="G8" s="0">
         <v>1194</v>
@@ -10282,7 +11575,7 @@
       <c r="J8" s="0">
         <v>641</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -10303,10 +11596,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19797</v>
+        <v>19798</v>
       </c>
       <c r="G9" s="0">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -10314,7 +11607,7 @@
       <c r="J9" s="0">
         <v>747</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10335,7 +11628,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28517</v>
+        <v>28521</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -10346,7 +11639,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -10367,7 +11660,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29888</v>
+        <v>29895</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -10378,7 +11671,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -10399,7 +11692,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17786</v>
+        <v>17794</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -10410,7 +11703,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10431,7 +11724,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22381</v>
+        <v>22397</v>
       </c>
       <c r="G13" s="0">
         <v>500</v>
@@ -10442,7 +11735,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -10463,7 +11756,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16976</v>
+        <v>16984</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -10474,7 +11767,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -10495,7 +11788,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31517</v>
+        <v>31533</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -10506,7 +11799,7 @@
       <c r="J15" s="0">
         <v>497</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10527,7 +11820,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25168</v>
+        <v>25214</v>
       </c>
       <c r="G16" s="0">
         <v>781</v>
@@ -10536,9 +11829,9 @@
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>653</v>
-      </c>
-      <c r="K16" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -10559,10 +11852,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14774</v>
+        <v>14825</v>
       </c>
       <c r="G17" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -10570,7 +11863,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -10591,7 +11884,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13959</v>
+        <v>13991</v>
       </c>
       <c r="G18" s="0">
         <v>384</v>
@@ -10602,7 +11895,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10623,10 +11916,10 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14768</v>
+        <v>14813</v>
       </c>
       <c r="G19" s="0">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -10634,7 +11927,7 @@
       <c r="J19" s="0">
         <v>559</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -10664,7 +11957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -10724,7 +12017,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70965</v>
+        <v>70964</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -10735,7 +12028,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10756,18 +12049,18 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127005</v>
+        <v>127014</v>
       </c>
       <c r="G3" s="0">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>2833</v>
-      </c>
-      <c r="K3" s="5" t="s">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10788,7 +12081,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45076</v>
+        <v>45079</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -10799,7 +12092,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10820,7 +12113,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35751</v>
+        <v>35753</v>
       </c>
       <c r="G5" s="0">
         <v>1173</v>
@@ -10831,7 +12124,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10852,7 +12145,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32227</v>
+        <v>32230</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -10863,7 +12156,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10884,7 +12177,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48240</v>
+        <v>48248</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -10895,7 +12188,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -10916,18 +12209,18 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33629</v>
+        <v>33636</v>
       </c>
       <c r="G8" s="0">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>641</v>
-      </c>
-      <c r="K8" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -10948,7 +12241,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19798</v>
+        <v>19799</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -10957,9 +12250,9 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>747</v>
-      </c>
-      <c r="K9" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10980,7 +12273,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28521</v>
+        <v>28526</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -10991,7 +12284,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -11012,7 +12305,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29895</v>
+        <v>29899</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -11023,7 +12316,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -11044,7 +12337,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17794</v>
+        <v>17802</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -11055,7 +12348,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -11076,10 +12369,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22397</v>
+        <v>22422</v>
       </c>
       <c r="G13" s="0">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -11087,7 +12380,7 @@
       <c r="J13" s="0">
         <v>581</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -11108,7 +12401,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16984</v>
+        <v>16989</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -11119,7 +12412,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -11140,7 +12433,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31533</v>
+        <v>31541</v>
       </c>
       <c r="G15" s="0">
         <v>1004</v>
@@ -11149,9 +12442,9 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>497</v>
-      </c>
-      <c r="K15" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -11172,18 +12465,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25214</v>
+        <v>25265</v>
       </c>
       <c r="G16" s="0">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -11204,10 +12497,10 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14825</v>
+        <v>14874</v>
       </c>
       <c r="G17" s="0">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -11215,7 +12508,7 @@
       <c r="J17" s="0">
         <v>420</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -11236,10 +12529,10 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>13991</v>
+        <v>14006</v>
       </c>
       <c r="G18" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -11247,7 +12540,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -11268,7 +12561,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14813</v>
+        <v>14863</v>
       </c>
       <c r="G19" s="0">
         <v>313</v>
@@ -11277,9 +12570,9 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>559</v>
-      </c>
-      <c r="K19" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -11309,7 +12602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -11369,7 +12662,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70964</v>
+        <v>70969</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -11380,7 +12673,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11401,10 +12694,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127014</v>
+        <v>127035</v>
       </c>
       <c r="G3" s="0">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -11412,7 +12705,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -11433,7 +12726,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -11444,7 +12737,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11468,7 +12761,7 @@
         <v>35753</v>
       </c>
       <c r="G5" s="0">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -11476,7 +12769,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -11497,7 +12790,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32230</v>
+        <v>32243</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -11508,7 +12801,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -11529,7 +12822,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48248</v>
+        <v>48258</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -11540,7 +12833,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -11561,7 +12854,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33636</v>
+        <v>33642</v>
       </c>
       <c r="G8" s="0">
         <v>1195</v>
@@ -11572,7 +12865,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -11593,7 +12886,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19799</v>
+        <v>19800</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -11604,7 +12897,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -11625,7 +12918,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28526</v>
+        <v>28530</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -11636,7 +12929,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -11657,7 +12950,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29899</v>
+        <v>29904</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -11668,7 +12961,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -11689,7 +12982,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17802</v>
+        <v>17808</v>
       </c>
       <c r="G12" s="0">
         <v>470</v>
@@ -11700,7 +12993,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -11721,7 +13014,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22422</v>
+        <v>22454</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -11730,9 +13023,9 @@
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>581</v>
-      </c>
-      <c r="K13" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -11753,7 +13046,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16989</v>
+        <v>16999</v>
       </c>
       <c r="G14" s="0">
         <v>240</v>
@@ -11764,7 +13057,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -11785,10 +13078,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31541</v>
+        <v>31562</v>
       </c>
       <c r="G15" s="0">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -11796,7 +13089,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -11817,18 +13110,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25265</v>
+        <v>25314</v>
       </c>
       <c r="G16" s="0">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>651</v>
-      </c>
-      <c r="K16" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -11849,18 +13142,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14874</v>
+        <v>14929</v>
       </c>
       <c r="G17" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>420</v>
-      </c>
-      <c r="K17" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -11881,7 +13174,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14006</v>
+        <v>14025</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -11892,7 +13185,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -11913,18 +13206,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14863</v>
+        <v>14915</v>
       </c>
       <c r="G19" s="0">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>560</v>
-      </c>
-      <c r="K19" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -11954,7 +13247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -12014,7 +13307,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70969</v>
+        <v>70975</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -12025,7 +13318,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -12046,7 +13339,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127035</v>
+        <v>127049</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -12057,7 +13350,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -12078,7 +13371,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45080</v>
+        <v>45084</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -12089,7 +13382,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12110,10 +13403,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35753</v>
+        <v>35754</v>
       </c>
       <c r="G5" s="0">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -12121,7 +13414,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -12142,7 +13435,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32243</v>
+        <v>32247</v>
       </c>
       <c r="G6" s="0">
         <v>1376</v>
@@ -12153,7 +13446,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -12174,7 +13467,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48258</v>
+        <v>48264</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -12185,7 +13478,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -12206,10 +13499,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33642</v>
+        <v>33649</v>
       </c>
       <c r="G8" s="0">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -12217,7 +13510,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -12249,7 +13542,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -12270,7 +13563,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="0">
-        <v>28530</v>
+        <v>28531</v>
       </c>
       <c r="G10" s="0">
         <v>701</v>
@@ -12281,7 +13574,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -12302,7 +13595,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29904</v>
+        <v>29918</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -12313,7 +13606,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -12334,10 +13627,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17808</v>
+        <v>17813</v>
       </c>
       <c r="G12" s="0">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -12345,7 +13638,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -12366,7 +13659,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22454</v>
+        <v>22486</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -12377,7 +13670,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -12398,10 +13691,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>16999</v>
+        <v>17009</v>
       </c>
       <c r="G14" s="0">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -12409,7 +13702,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -12430,7 +13723,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31562</v>
+        <v>31576</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -12441,7 +13734,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -12462,18 +13755,18 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25314</v>
+        <v>25353</v>
       </c>
       <c r="G16" s="0">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>654</v>
-      </c>
-      <c r="K16" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -12494,18 +13787,18 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14929</v>
+        <v>14959</v>
       </c>
       <c r="G17" s="0">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>421</v>
-      </c>
-      <c r="K17" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -12526,7 +13819,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14025</v>
+        <v>14053</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -12537,7 +13830,7 @@
       <c r="J18" s="0">
         <v>223</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -12558,7 +13851,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14915</v>
+        <v>14952</v>
       </c>
       <c r="G19" s="0">
         <v>314</v>
@@ -12569,7 +13862,7 @@
       <c r="J19" s="0">
         <v>561</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -12599,7 +13892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -12659,7 +13952,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="0">
-        <v>70975</v>
+        <v>70979</v>
       </c>
       <c r="G2" s="0">
         <v>1790</v>
@@ -12670,7 +13963,7 @@
       <c r="J2" s="0">
         <v>1214</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -12691,7 +13984,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0">
-        <v>127049</v>
+        <v>127059</v>
       </c>
       <c r="G3" s="0">
         <v>4283</v>
@@ -12702,7 +13995,7 @@
       <c r="J3" s="0">
         <v>2834</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -12723,7 +14016,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="0">
-        <v>45084</v>
+        <v>45081</v>
       </c>
       <c r="G4" s="0">
         <v>1550</v>
@@ -12734,7 +14027,7 @@
       <c r="J4" s="0">
         <v>1022</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -12755,7 +14048,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0">
-        <v>35754</v>
+        <v>35755</v>
       </c>
       <c r="G5" s="0">
         <v>1171</v>
@@ -12766,7 +14059,7 @@
       <c r="J5" s="0">
         <v>834</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -12787,10 +14080,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="0">
-        <v>32247</v>
+        <v>32249</v>
       </c>
       <c r="G6" s="0">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -12798,7 +14091,7 @@
       <c r="J6" s="0">
         <v>472</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -12819,7 +14112,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="0">
-        <v>48264</v>
+        <v>48266</v>
       </c>
       <c r="G7" s="0">
         <v>1246</v>
@@ -12830,7 +14123,7 @@
       <c r="J7" s="0">
         <v>1172</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -12851,7 +14144,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="0">
-        <v>33649</v>
+        <v>33660</v>
       </c>
       <c r="G8" s="0">
         <v>1196</v>
@@ -12862,7 +14155,7 @@
       <c r="J8" s="0">
         <v>642</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -12883,7 +14176,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="0">
-        <v>19800</v>
+        <v>19802</v>
       </c>
       <c r="G9" s="0">
         <v>405</v>
@@ -12894,7 +14187,7 @@
       <c r="J9" s="0">
         <v>746</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -12926,7 +14219,7 @@
       <c r="J10" s="0">
         <v>562</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -12947,7 +14240,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="0">
-        <v>29918</v>
+        <v>29925</v>
       </c>
       <c r="G11" s="0">
         <v>621</v>
@@ -12958,7 +14251,7 @@
       <c r="J11" s="0">
         <v>1955</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -12979,7 +14272,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="0">
-        <v>17813</v>
+        <v>17820</v>
       </c>
       <c r="G12" s="0">
         <v>469</v>
@@ -12990,7 +14283,7 @@
       <c r="J12" s="0">
         <v>509</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -13011,7 +14304,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="0">
-        <v>22486</v>
+        <v>22522</v>
       </c>
       <c r="G13" s="0">
         <v>501</v>
@@ -13022,7 +14315,7 @@
       <c r="J13" s="0">
         <v>584</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -13043,7 +14336,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="0">
-        <v>17009</v>
+        <v>17025</v>
       </c>
       <c r="G14" s="0">
         <v>239</v>
@@ -13054,7 +14347,7 @@
       <c r="J14" s="0">
         <v>113</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -13075,7 +14368,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="0">
-        <v>31576</v>
+        <v>31592</v>
       </c>
       <c r="G15" s="0">
         <v>1003</v>
@@ -13086,7 +14379,7 @@
       <c r="J15" s="0">
         <v>495</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -13107,7 +14400,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="0">
-        <v>25353</v>
+        <v>25405</v>
       </c>
       <c r="G16" s="0">
         <v>789</v>
@@ -13118,7 +14411,7 @@
       <c r="J16" s="0">
         <v>655</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -13139,7 +14432,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="0">
-        <v>14959</v>
+        <v>15013</v>
       </c>
       <c r="G17" s="0">
         <v>372</v>
@@ -13148,9 +14441,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>422</v>
-      </c>
-      <c r="K17" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -13171,7 +14464,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="0">
-        <v>14053</v>
+        <v>14073</v>
       </c>
       <c r="G18" s="0">
         <v>385</v>
@@ -13180,9 +14473,9 @@
         <v>0</v>
       </c>
       <c r="J18" s="0">
-        <v>223</v>
-      </c>
-      <c r="K18" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -13203,18 +14496,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="0">
-        <v>14952</v>
+        <v>14997</v>
       </c>
       <c r="G19" s="0">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>561</v>
-      </c>
-      <c r="K19" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -13242,649 +14535,4 @@
   </hyperlinks>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2018</v>
-      </c>
-      <c r="C2" s="0">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0">
-        <v>70979</v>
-      </c>
-      <c r="G2" s="0">
-        <v>1790</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>1214</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2018</v>
-      </c>
-      <c r="C3" s="0">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="0">
-        <v>127059</v>
-      </c>
-      <c r="G3" s="0">
-        <v>4283</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>2834</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="0">
-        <v>4</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="0">
-        <v>45081</v>
-      </c>
-      <c r="G4" s="0">
-        <v>1550</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0">
-        <v>1022</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="0">
-        <v>8</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="0">
-        <v>35755</v>
-      </c>
-      <c r="G5" s="0">
-        <v>1171</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
-        <v>834</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="0">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="0">
-        <v>32249</v>
-      </c>
-      <c r="G6" s="0">
-        <v>1377</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0">
-        <v>472</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="0">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="0">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="0">
-        <v>48266</v>
-      </c>
-      <c r="G7" s="0">
-        <v>1246</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0">
-        <v>1172</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C8" s="0">
-        <v>5</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="0">
-        <v>33660</v>
-      </c>
-      <c r="G8" s="0">
-        <v>1196</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0">
-        <v>642</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C9" s="0">
-        <v>5</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="0">
-        <v>19802</v>
-      </c>
-      <c r="G9" s="0">
-        <v>405</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0">
-        <v>746</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C10" s="0">
-        <v>5</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="0">
-        <v>28531</v>
-      </c>
-      <c r="G10" s="0">
-        <v>701</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0">
-        <v>562</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="0">
-        <v>10</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="0">
-        <v>29925</v>
-      </c>
-      <c r="G11" s="0">
-        <v>621</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0">
-        <v>1955</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2022</v>
-      </c>
-      <c r="C12" s="0">
-        <v>10</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="0">
-        <v>17820</v>
-      </c>
-      <c r="G12" s="0">
-        <v>469</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>509</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2022</v>
-      </c>
-      <c r="C13" s="0">
-        <v>11</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="0">
-        <v>22522</v>
-      </c>
-      <c r="G13" s="0">
-        <v>501</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0">
-        <v>584</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C14" s="0">
-        <v>3</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="0">
-        <v>17025</v>
-      </c>
-      <c r="G14" s="0">
-        <v>239</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0">
-        <v>113</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C15" s="0">
-        <v>3</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="0">
-        <v>31592</v>
-      </c>
-      <c r="G15" s="0">
-        <v>1003</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0">
-        <v>495</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C16" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="0">
-        <v>25405</v>
-      </c>
-      <c r="G16" s="0">
-        <v>789</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0">
-        <v>655</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C17" s="0">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="0">
-        <v>15013</v>
-      </c>
-      <c r="G17" s="0">
-        <v>372</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0">
-        <v>423</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C18" s="0">
-        <v>9</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="0">
-        <v>14073</v>
-      </c>
-      <c r="G18" s="0">
-        <v>385</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0">
-        <v>224</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="0">
-        <v>2023</v>
-      </c>
-      <c r="C19" s="0">
-        <v>10</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="0">
-        <v>14997</v>
-      </c>
-      <c r="G19" s="0">
-        <v>315</v>
-      </c>
-      <c r="I19" s="0">
-        <